--- a/output/merged_profiles_mautic.xlsx
+++ b/output/merged_profiles_mautic.xlsx
@@ -18110,7 +18110,11 @@
           <t>Wollsdorf Leather</t>
         </is>
       </c>
-      <c r="R190" t="inlineStr"/>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>Wollsdorf Leather</t>
+        </is>
+      </c>
       <c r="S190" t="inlineStr">
         <is>
           <t>140</t>
@@ -18197,7 +18201,11 @@
           <t>Rohrer Group</t>
         </is>
       </c>
-      <c r="R191" t="inlineStr"/>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>Rohrer Group</t>
+        </is>
+      </c>
       <c r="S191" t="inlineStr">
         <is>
           <t>270</t>
@@ -18276,7 +18284,11 @@
           <t>SGS Industrial Services GmbH</t>
         </is>
       </c>
-      <c r="R192" t="inlineStr"/>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>SGS Industrial Services GmbH</t>
+        </is>
+      </c>
       <c r="S192" t="inlineStr">
         <is>
           <t>120</t>
@@ -18355,7 +18367,11 @@
           <t>SIGMATEK Automation</t>
         </is>
       </c>
-      <c r="R193" t="inlineStr"/>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>SIGMATEK Automation</t>
+        </is>
+      </c>
       <c r="S193" t="inlineStr">
         <is>
           <t>160</t>
@@ -18446,7 +18462,11 @@
           <t>S.I.E</t>
         </is>
       </c>
-      <c r="R194" t="inlineStr"/>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>S.I.E</t>
+        </is>
+      </c>
       <c r="S194" t="inlineStr">
         <is>
           <t>72</t>
@@ -18529,7 +18549,11 @@
           <t>KOBAN SÜDVERS</t>
         </is>
       </c>
-      <c r="R195" t="inlineStr"/>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>KOBAN SÜDVERS</t>
+        </is>
+      </c>
       <c r="S195" t="inlineStr">
         <is>
           <t>49</t>
@@ -18612,7 +18636,11 @@
           <t>KOBAN SÜDVERS</t>
         </is>
       </c>
-      <c r="R196" t="inlineStr"/>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>KOBAN SÜDVERS</t>
+        </is>
+      </c>
       <c r="S196" t="inlineStr">
         <is>
           <t>49</t>
@@ -18691,7 +18719,11 @@
           <t>LTW Intralogistics GmbH</t>
         </is>
       </c>
-      <c r="R197" t="inlineStr"/>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>LTW Intralogistics GmbH</t>
+        </is>
+      </c>
       <c r="S197" t="inlineStr">
         <is>
           <t>200</t>
@@ -18774,7 +18806,11 @@
           <t>Porsche Wien</t>
         </is>
       </c>
-      <c r="R198" t="inlineStr"/>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>Porsche Wien</t>
+        </is>
+      </c>
       <c r="S198" t="inlineStr">
         <is>
           <t>65</t>
@@ -18857,7 +18893,11 @@
           <t>Schlumberger Wein- und Sektkellerei GmbH</t>
         </is>
       </c>
-      <c r="R199" t="inlineStr"/>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>Schlumberger Wein- und Sektkellerei GmbH</t>
+        </is>
+      </c>
       <c r="S199" t="inlineStr">
         <is>
           <t>56</t>
@@ -18948,7 +18988,11 @@
           <t>ERGO Austria</t>
         </is>
       </c>
-      <c r="R200" t="inlineStr"/>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>ERGO Austria</t>
+        </is>
+      </c>
       <c r="S200" t="inlineStr">
         <is>
           <t>230</t>
@@ -19031,7 +19075,11 @@
           <t>Berger Logistik</t>
         </is>
       </c>
-      <c r="R201" t="inlineStr"/>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>Berger Logistik</t>
+        </is>
+      </c>
       <c r="S201" t="inlineStr">
         <is>
           <t>110</t>
@@ -19110,7 +19158,11 @@
           <t>Planquadr.at</t>
         </is>
       </c>
-      <c r="R202" t="inlineStr"/>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Planquadr.at</t>
+        </is>
+      </c>
       <c r="S202" t="inlineStr">
         <is>
           <t>16</t>
@@ -19193,7 +19245,11 @@
           <t>Doppelmayr Official</t>
         </is>
       </c>
-      <c r="R203" t="inlineStr"/>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>Doppelmayr Official</t>
+        </is>
+      </c>
       <c r="S203" t="inlineStr">
         <is>
           <t>420</t>
@@ -19280,7 +19336,11 @@
           <t>VFI GmbH</t>
         </is>
       </c>
-      <c r="R204" t="inlineStr"/>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>VFI GmbH</t>
+        </is>
+      </c>
       <c r="S204" t="inlineStr">
         <is>
           <t>75</t>
@@ -19359,7 +19419,11 @@
           <t>Gföllner Fahrzeugbau und Containertechnik GmbH</t>
         </is>
       </c>
-      <c r="R205" t="inlineStr"/>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>Gföllner Fahrzeugbau und Containertechnik GmbH</t>
+        </is>
+      </c>
       <c r="S205" t="inlineStr">
         <is>
           <t>56</t>
@@ -19450,7 +19514,11 @@
           <t>KOBAN SÜDVERS</t>
         </is>
       </c>
-      <c r="R206" t="inlineStr"/>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>KOBAN SÜDVERS</t>
+        </is>
+      </c>
       <c r="S206" t="inlineStr">
         <is>
           <t>49</t>
@@ -19525,7 +19593,11 @@
           <t>AustroCel Hallein GmbH</t>
         </is>
       </c>
-      <c r="R207" t="inlineStr"/>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>AustroCel Hallein GmbH</t>
+        </is>
+      </c>
       <c r="S207" t="inlineStr">
         <is>
           <t>83</t>
@@ -19608,7 +19680,11 @@
           <t>Greiner Assistec</t>
         </is>
       </c>
-      <c r="R208" t="inlineStr"/>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>Greiner Assistec</t>
+        </is>
+      </c>
       <c r="S208" t="inlineStr">
         <is>
           <t>220</t>
@@ -19687,7 +19763,11 @@
           <t>Global Hydro Energy</t>
         </is>
       </c>
-      <c r="R209" t="inlineStr"/>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>Global Hydro Energy</t>
+        </is>
+      </c>
       <c r="S209" t="inlineStr">
         <is>
           <t>220</t>
@@ -19770,7 +19850,11 @@
           <t>AVUS</t>
         </is>
       </c>
-      <c r="R210" t="inlineStr"/>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>AVUS</t>
+        </is>
+      </c>
       <c r="S210" t="inlineStr">
         <is>
           <t>92</t>
@@ -19853,7 +19937,11 @@
           <t>Alpine Metal Tech Group</t>
         </is>
       </c>
-      <c r="R211" t="inlineStr"/>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>Alpine Metal Tech Group</t>
+        </is>
+      </c>
       <c r="S211" t="inlineStr">
         <is>
           <t>170</t>
@@ -19944,7 +20032,11 @@
           <t>Lexogen</t>
         </is>
       </c>
-      <c r="R212" t="inlineStr"/>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>Lexogen</t>
+        </is>
+      </c>
       <c r="S212" t="inlineStr">
         <is>
           <t>79</t>
@@ -20027,7 +20119,11 @@
           <t>UIV Urban Innovation Vienna</t>
         </is>
       </c>
-      <c r="R213" t="inlineStr"/>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>UIV Urban Innovation Vienna</t>
+        </is>
+      </c>
       <c r="S213" t="inlineStr">
         <is>
           <t>65</t>
@@ -20110,7 +20206,11 @@
           <t>Instahelp</t>
         </is>
       </c>
-      <c r="R214" t="inlineStr"/>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>Instahelp</t>
+        </is>
+      </c>
       <c r="S214" t="inlineStr">
         <is>
           <t>100</t>
@@ -20201,7 +20301,11 @@
           <t>Tyromotion</t>
         </is>
       </c>
-      <c r="R215" t="inlineStr"/>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>Tyromotion</t>
+        </is>
+      </c>
       <c r="S215" t="inlineStr">
         <is>
           <t>72</t>
@@ -20288,7 +20392,11 @@
           <t>AMEX Healthcare</t>
         </is>
       </c>
-      <c r="R216" t="inlineStr"/>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>AMEX Healthcare</t>
+        </is>
+      </c>
       <c r="S216" t="inlineStr">
         <is>
           <t>290</t>
@@ -20367,7 +20475,11 @@
           <t>Krankenhaus der Elisabethinen</t>
         </is>
       </c>
-      <c r="R217" t="inlineStr"/>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>Krankenhaus der Elisabethinen</t>
+        </is>
+      </c>
       <c r="S217" t="inlineStr">
         <is>
           <t>120</t>
@@ -20454,7 +20566,11 @@
           <t>Croma-Pharma</t>
         </is>
       </c>
-      <c r="R218" t="inlineStr"/>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>Croma-Pharma</t>
+        </is>
+      </c>
       <c r="S218" t="inlineStr">
         <is>
           <t>470</t>
@@ -20545,7 +20661,11 @@
           <t>StartUs Insights</t>
         </is>
       </c>
-      <c r="R219" t="inlineStr"/>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>StartUs Insights</t>
+        </is>
+      </c>
       <c r="S219" t="inlineStr">
         <is>
           <t>52</t>
@@ -20628,7 +20748,11 @@
           <t>SynthesaGruppe</t>
         </is>
       </c>
-      <c r="R220" t="inlineStr"/>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>SynthesaGruppe</t>
+        </is>
+      </c>
       <c r="S220" t="inlineStr">
         <is>
           <t>160</t>
@@ -20719,7 +20843,11 @@
           <t>CCE</t>
         </is>
       </c>
-      <c r="R221" t="inlineStr"/>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>CCE</t>
+        </is>
+      </c>
       <c r="S221" t="inlineStr">
         <is>
           <t>310</t>
@@ -20794,7 +20922,11 @@
           <t>Croma-Pharma</t>
         </is>
       </c>
-      <c r="R222" t="inlineStr"/>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Croma-Pharma</t>
+        </is>
+      </c>
       <c r="S222" t="inlineStr">
         <is>
           <t>470</t>
@@ -20881,7 +21013,11 @@
           <t>AGILOX</t>
         </is>
       </c>
-      <c r="R223" t="inlineStr"/>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>AGILOX</t>
+        </is>
+      </c>
       <c r="S223" t="inlineStr">
         <is>
           <t>170</t>
@@ -20968,7 +21104,11 @@
           <t>myflexbox</t>
         </is>
       </c>
-      <c r="R224" t="inlineStr"/>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>myflexbox</t>
+        </is>
+      </c>
       <c r="S224" t="inlineStr">
         <is>
           <t>63</t>
@@ -21051,7 +21191,11 @@
           <t>TAG GmbH</t>
         </is>
       </c>
-      <c r="R225" t="inlineStr"/>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>TAG GmbH</t>
+        </is>
+      </c>
       <c r="S225" t="inlineStr">
         <is>
           <t>110</t>
@@ -21130,7 +21274,11 @@
           <t>Energie AG OÖ</t>
         </is>
       </c>
-      <c r="R226" t="inlineStr"/>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Energie AG OÖ</t>
+        </is>
+      </c>
       <c r="S226" t="inlineStr">
         <is>
           <t>410</t>
@@ -21209,7 +21357,11 @@
           <t>viadonau</t>
         </is>
       </c>
-      <c r="R227" t="inlineStr"/>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>viadonau</t>
+        </is>
+      </c>
       <c r="S227" t="inlineStr">
         <is>
           <t>98</t>
@@ -21296,7 +21448,11 @@
           <t>Trotec Laser</t>
         </is>
       </c>
-      <c r="R228" t="inlineStr"/>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>Trotec Laser</t>
+        </is>
+      </c>
       <c r="S228" t="inlineStr">
         <is>
           <t>390</t>
@@ -21387,7 +21543,11 @@
           <t>A.M.I. Agency for Medical Innovations GmbH</t>
         </is>
       </c>
-      <c r="R229" t="inlineStr"/>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>A.M.I. Agency for Medical Innovations GmbH</t>
+        </is>
+      </c>
       <c r="S229" t="inlineStr">
         <is>
           <t>63</t>
@@ -21478,7 +21638,11 @@
           <t>KOBAN SÜDVERS</t>
         </is>
       </c>
-      <c r="R230" t="inlineStr"/>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>KOBAN SÜDVERS</t>
+        </is>
+      </c>
       <c r="S230" t="inlineStr">
         <is>
           <t>49</t>
@@ -21569,7 +21733,11 @@
           <t>KOBAN SÜDVERS</t>
         </is>
       </c>
-      <c r="R231" t="inlineStr"/>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>KOBAN SÜDVERS</t>
+        </is>
+      </c>
       <c r="S231" t="inlineStr">
         <is>
           <t>49</t>
@@ -21660,7 +21828,11 @@
           <t>AustroCel Hallein GmbH</t>
         </is>
       </c>
-      <c r="R232" t="inlineStr"/>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>AustroCel Hallein GmbH</t>
+        </is>
+      </c>
       <c r="S232" t="inlineStr">
         <is>
           <t>81</t>
@@ -21751,7 +21923,11 @@
           <t>KOBAN SÜDVERS</t>
         </is>
       </c>
-      <c r="R233" t="inlineStr"/>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>KOBAN SÜDVERS</t>
+        </is>
+      </c>
       <c r="S233" t="inlineStr">
         <is>
           <t>50</t>
@@ -21838,7 +22014,11 @@
           <t>RAG Austria AG</t>
         </is>
       </c>
-      <c r="R234" t="inlineStr"/>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>RAG Austria AG</t>
+        </is>
+      </c>
       <c r="S234" t="inlineStr">
         <is>
           <t>170</t>
@@ -21925,7 +22105,11 @@
           <t>European Academy of Neurology</t>
         </is>
       </c>
-      <c r="R235" t="inlineStr"/>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>European Academy of Neurology</t>
+        </is>
+      </c>
       <c r="S235" t="inlineStr">
         <is>
           <t>270</t>
@@ -22012,7 +22196,11 @@
           <t>Binder+Co AG</t>
         </is>
       </c>
-      <c r="R236" t="inlineStr"/>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>Binder+Co AG</t>
+        </is>
+      </c>
       <c r="S236" t="inlineStr">
         <is>
           <t>110</t>
@@ -22099,7 +22287,11 @@
           <t>pharma&amp;</t>
         </is>
       </c>
-      <c r="R237" t="inlineStr"/>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>pharma&amp;</t>
+        </is>
+      </c>
       <c r="S237" t="inlineStr">
         <is>
           <t>150</t>
@@ -22190,7 +22382,11 @@
           <t>enspired</t>
         </is>
       </c>
-      <c r="R238" t="inlineStr"/>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>enspired</t>
+        </is>
+      </c>
       <c r="S238" t="inlineStr">
         <is>
           <t>85</t>
@@ -22277,7 +22473,11 @@
           <t>Federal Ministry of Labour and Economy</t>
         </is>
       </c>
-      <c r="R239" t="inlineStr"/>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>Federal Ministry of Labour and Economy</t>
+        </is>
+      </c>
       <c r="S239" t="inlineStr">
         <is>
           <t>480</t>
@@ -22360,7 +22560,11 @@
           <t>Die eww Gruppe</t>
         </is>
       </c>
-      <c r="R240" t="inlineStr"/>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>Die eww Gruppe</t>
+        </is>
+      </c>
       <c r="S240" t="inlineStr">
         <is>
           <t>250</t>
@@ -22443,7 +22647,11 @@
           <t>EBNER GROUP</t>
         </is>
       </c>
-      <c r="R241" t="inlineStr"/>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>EBNER GROUP</t>
+        </is>
+      </c>
       <c r="S241" t="inlineStr">
         <is>
           <t>48</t>
@@ -22530,7 +22738,11 @@
           <t>ISOVOLTA Group</t>
         </is>
       </c>
-      <c r="R242" t="inlineStr"/>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>ISOVOLTA Group</t>
+        </is>
+      </c>
       <c r="S242" t="inlineStr">
         <is>
           <t>440</t>
@@ -22617,7 +22829,11 @@
           <t>Alpine Metal Tech Group</t>
         </is>
       </c>
-      <c r="R243" t="inlineStr"/>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>Alpine Metal Tech Group</t>
+        </is>
+      </c>
       <c r="S243" t="inlineStr">
         <is>
           <t>160</t>
@@ -22704,7 +22920,11 @@
           <t>AUSTRIA JUICE Group</t>
         </is>
       </c>
-      <c r="R244" t="inlineStr"/>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>AUSTRIA JUICE Group</t>
+        </is>
+      </c>
       <c r="S244" t="inlineStr">
         <is>
           <t>160</t>
@@ -22791,7 +23011,11 @@
           <t>POLOPLAST GmbH &amp; Co KG</t>
         </is>
       </c>
-      <c r="R245" t="inlineStr"/>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>POLOPLAST GmbH &amp; Co KG</t>
+        </is>
+      </c>
       <c r="S245" t="inlineStr">
         <is>
           <t>140</t>
@@ -22870,7 +23094,11 @@
           <t>Winkelbauer</t>
         </is>
       </c>
-      <c r="R246" t="inlineStr"/>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>Winkelbauer</t>
+        </is>
+      </c>
       <c r="S246" t="inlineStr">
         <is>
           <t>52</t>
@@ -22957,7 +23185,11 @@
           <t>Lagermax Group</t>
         </is>
       </c>
-      <c r="R247" t="inlineStr"/>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>Lagermax Group</t>
+        </is>
+      </c>
       <c r="S247" t="inlineStr">
         <is>
           <t>340</t>
@@ -23032,7 +23264,11 @@
           <t>Amt der Salzburger Landesregierung</t>
         </is>
       </c>
-      <c r="R248" t="inlineStr"/>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>Amt der Salzburger Landesregierung</t>
+        </is>
+      </c>
       <c r="S248" t="inlineStr">
         <is>
           <t>340</t>
@@ -23119,7 +23355,11 @@
           <t>Wiener Privatklinik</t>
         </is>
       </c>
-      <c r="R249" t="inlineStr"/>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>Wiener Privatklinik</t>
+        </is>
+      </c>
       <c r="S249" t="inlineStr">
         <is>
           <t>85</t>
@@ -23198,7 +23438,11 @@
           <t>Carinthian State Insurance Company</t>
         </is>
       </c>
-      <c r="R250" t="inlineStr"/>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>Carinthian State Insurance Company</t>
+        </is>
+      </c>
       <c r="S250" t="inlineStr">
         <is>
           <t>56</t>
@@ -23285,7 +23529,11 @@
           <t>VEGA International Car-Transport and Logistic-Trading GmbH</t>
         </is>
       </c>
-      <c r="R251" t="inlineStr"/>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>VEGA International Car-Transport and Logistic-Trading GmbH</t>
+        </is>
+      </c>
       <c r="S251" t="inlineStr">
         <is>
           <t>51</t>
@@ -23360,7 +23608,11 @@
           <t>Die eww Gruppe</t>
         </is>
       </c>
-      <c r="R252" t="inlineStr"/>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>Die eww Gruppe</t>
+        </is>
+      </c>
       <c r="S252" t="inlineStr">
         <is>
           <t>250</t>
@@ -23447,7 +23699,11 @@
           <t>VFI GmbH</t>
         </is>
       </c>
-      <c r="R253" t="inlineStr"/>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>VFI GmbH</t>
+        </is>
+      </c>
       <c r="S253" t="inlineStr">
         <is>
           <t>75</t>
@@ -23534,7 +23790,11 @@
           <t>Fraunhofer Austria</t>
         </is>
       </c>
-      <c r="R254" t="inlineStr"/>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>Fraunhofer Austria</t>
+        </is>
+      </c>
       <c r="S254" t="inlineStr">
         <is>
           <t>130</t>
@@ -23617,7 +23877,11 @@
           <t>byrd</t>
         </is>
       </c>
-      <c r="R255" t="inlineStr"/>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>byrd</t>
+        </is>
+      </c>
       <c r="S255" t="inlineStr">
         <is>
           <t>170</t>
@@ -23700,7 +23964,11 @@
           <t>Storebox</t>
         </is>
       </c>
-      <c r="R256" t="inlineStr"/>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>Storebox</t>
+        </is>
+      </c>
       <c r="S256" t="inlineStr">
         <is>
           <t>100</t>
@@ -23775,7 +24043,11 @@
           <t>Stadtwerke Klagenfurt AG</t>
         </is>
       </c>
-      <c r="R257" t="inlineStr"/>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>Stadtwerke Klagenfurt AG</t>
+        </is>
+      </c>
       <c r="S257" t="inlineStr">
         <is>
           <t>150</t>
@@ -23858,7 +24130,11 @@
           <t>Novogenia GmbH</t>
         </is>
       </c>
-      <c r="R258" t="inlineStr"/>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>Novogenia GmbH</t>
+        </is>
+      </c>
       <c r="S258" t="inlineStr">
         <is>
           <t>74</t>
@@ -23941,7 +24217,11 @@
           <t>Weingärtner Maschinenbau GmbH</t>
         </is>
       </c>
-      <c r="R259" t="inlineStr"/>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>Weingärtner Maschinenbau GmbH</t>
+        </is>
+      </c>
       <c r="S259" t="inlineStr">
         <is>
           <t>62</t>
@@ -24016,7 +24296,11 @@
           <t>Häuser zum Leben</t>
         </is>
       </c>
-      <c r="R260" t="inlineStr"/>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>Häuser zum Leben</t>
+        </is>
+      </c>
       <c r="S260" t="inlineStr">
         <is>
           <t>420</t>
@@ -24099,7 +24383,11 @@
           <t>Tauernklinikum</t>
         </is>
       </c>
-      <c r="R261" t="inlineStr"/>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>Tauernklinikum</t>
+        </is>
+      </c>
       <c r="S261" t="inlineStr">
         <is>
           <t>110</t>
@@ -24174,7 +24462,11 @@
           <t>g.tec medical engineering GmbH - NEVER STOP RECORDING</t>
         </is>
       </c>
-      <c r="R262" t="inlineStr"/>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>g.tec medical engineering GmbH - NEVER STOP RECORDING</t>
+        </is>
+      </c>
       <c r="S262" t="inlineStr">
         <is>
           <t>65</t>
@@ -24257,7 +24549,11 @@
           <t>Porsche Inter Auto - Österreichs größte Autohandelsgruppe</t>
         </is>
       </c>
-      <c r="R263" t="inlineStr"/>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>Porsche Inter Auto - Österreichs größte Autohandelsgruppe</t>
+        </is>
+      </c>
       <c r="S263" t="inlineStr">
         <is>
           <t>400</t>
@@ -24340,7 +24636,11 @@
           <t>Hagleitner Hygiene International GmbH</t>
         </is>
       </c>
-      <c r="R264" t="inlineStr"/>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>Hagleitner Hygiene International GmbH</t>
+        </is>
+      </c>
       <c r="S264" t="inlineStr">
         <is>
           <t>490</t>
@@ -24415,7 +24715,11 @@
           <t>CS Caritas Socialis</t>
         </is>
       </c>
-      <c r="R265" t="inlineStr"/>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>CS Caritas Socialis</t>
+        </is>
+      </c>
       <c r="S265" t="inlineStr">
         <is>
           <t>120</t>
@@ -24498,7 +24802,11 @@
           <t>Psychosoziale Dienste in Wien</t>
         </is>
       </c>
-      <c r="R266" t="inlineStr"/>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>Psychosoziale Dienste in Wien</t>
+        </is>
+      </c>
       <c r="S266" t="inlineStr">
         <is>
           <t>71</t>
@@ -24581,7 +24889,11 @@
           <t>Energie Graz</t>
         </is>
       </c>
-      <c r="R267" t="inlineStr"/>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>Energie Graz</t>
+        </is>
+      </c>
       <c r="S267" t="inlineStr">
         <is>
           <t>120</t>
@@ -24660,7 +24972,11 @@
           <t>VOGL + CO</t>
         </is>
       </c>
-      <c r="R268" t="inlineStr"/>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>VOGL + CO</t>
+        </is>
+      </c>
       <c r="S268" t="inlineStr">
         <is>
           <t>60</t>
@@ -24743,7 +25059,11 @@
           <t>Röhren- und Pumpenwerk Bauer GmbH</t>
         </is>
       </c>
-      <c r="R269" t="inlineStr"/>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>Röhren- und Pumpenwerk Bauer GmbH</t>
+        </is>
+      </c>
       <c r="S269" t="inlineStr">
         <is>
           <t>54</t>
@@ -24822,7 +25142,11 @@
           <t>Hochreiter Fleischwaren GmbH</t>
         </is>
       </c>
-      <c r="R270" t="inlineStr"/>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>Hochreiter Fleischwaren GmbH</t>
+        </is>
+      </c>
       <c r="S270" t="inlineStr">
         <is>
           <t>51</t>
@@ -24901,7 +25225,11 @@
           <t>Häuser zum Leben</t>
         </is>
       </c>
-      <c r="R271" t="inlineStr"/>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>Häuser zum Leben</t>
+        </is>
+      </c>
       <c r="S271" t="inlineStr">
         <is>
           <t>420</t>
@@ -24976,7 +25304,11 @@
           <t>JOANNEUM RESEARCH</t>
         </is>
       </c>
-      <c r="R272" t="inlineStr"/>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>JOANNEUM RESEARCH</t>
+        </is>
+      </c>
       <c r="S272" t="inlineStr">
         <is>
           <t>390</t>
@@ -25059,7 +25391,11 @@
           <t>ENcome Energy Performance</t>
         </is>
       </c>
-      <c r="R273" t="inlineStr"/>
+      <c r="R273" t="inlineStr">
+        <is>
+          <t>ENcome Energy Performance</t>
+        </is>
+      </c>
       <c r="S273" t="inlineStr">
         <is>
           <t>85</t>
@@ -25142,7 +25478,11 @@
           <t>Ankerbrot</t>
         </is>
       </c>
-      <c r="R274" t="inlineStr"/>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>Ankerbrot</t>
+        </is>
+      </c>
       <c r="S274" t="inlineStr">
         <is>
           <t>130</t>
@@ -25217,7 +25557,11 @@
           <t>AMST-Systemtechnik GmbH</t>
         </is>
       </c>
-      <c r="R275" t="inlineStr"/>
+      <c r="R275" t="inlineStr">
+        <is>
+          <t>AMST-Systemtechnik GmbH</t>
+        </is>
+      </c>
       <c r="S275" t="inlineStr">
         <is>
           <t>85</t>
@@ -25300,7 +25644,11 @@
           <t>Sonnleitner GmbH</t>
         </is>
       </c>
-      <c r="R276" t="inlineStr"/>
+      <c r="R276" t="inlineStr">
+        <is>
+          <t>Sonnleitner GmbH</t>
+        </is>
+      </c>
       <c r="S276" t="inlineStr">
         <is>
           <t>110</t>
@@ -25375,7 +25723,11 @@
           <t>Oberoesterreichische Gebietskrankenkasse</t>
         </is>
       </c>
-      <c r="R277" t="inlineStr"/>
+      <c r="R277" t="inlineStr">
+        <is>
+          <t>Oberoesterreichische Gebietskrankenkasse</t>
+        </is>
+      </c>
       <c r="S277" t="inlineStr">
         <is>
           <t>63</t>
@@ -25446,7 +25798,11 @@
           <t>faigle Kunststoffe GmbH</t>
         </is>
       </c>
-      <c r="R278" t="inlineStr"/>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>faigle Kunststoffe GmbH</t>
+        </is>
+      </c>
       <c r="S278" t="inlineStr">
         <is>
           <t>64</t>
@@ -25521,7 +25877,11 @@
           <t>EFM Versicherungsmakler</t>
         </is>
       </c>
-      <c r="R279" t="inlineStr"/>
+      <c r="R279" t="inlineStr">
+        <is>
+          <t>EFM Versicherungsmakler</t>
+        </is>
+      </c>
       <c r="S279" t="inlineStr">
         <is>
           <t>67</t>
@@ -25600,7 +25960,11 @@
           <t>Pörner Ingenieurgesellschaft mbH</t>
         </is>
       </c>
-      <c r="R280" t="inlineStr"/>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>Pörner Ingenieurgesellschaft mbH</t>
+        </is>
+      </c>
       <c r="S280" t="inlineStr">
         <is>
           <t>140</t>
@@ -25683,7 +26047,11 @@
           <t>Lucky Car Austria</t>
         </is>
       </c>
-      <c r="R281" t="inlineStr"/>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t>Lucky Car Austria</t>
+        </is>
+      </c>
       <c r="S281" t="inlineStr">
         <is>
           <t>58</t>
@@ -25766,7 +26134,11 @@
           <t>myflexbox</t>
         </is>
       </c>
-      <c r="R282" t="inlineStr"/>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>myflexbox</t>
+        </is>
+      </c>
       <c r="S282" t="inlineStr">
         <is>
           <t>62</t>
@@ -25841,7 +26213,11 @@
           <t>hollu Systemhygiene GmbH</t>
         </is>
       </c>
-      <c r="R283" t="inlineStr"/>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>hollu Systemhygiene GmbH</t>
+        </is>
+      </c>
       <c r="S283" t="inlineStr">
         <is>
           <t>210</t>
@@ -25920,7 +26296,11 @@
           <t>AGILOX</t>
         </is>
       </c>
-      <c r="R284" t="inlineStr"/>
+      <c r="R284" t="inlineStr">
+        <is>
+          <t>AGILOX</t>
+        </is>
+      </c>
       <c r="S284" t="inlineStr">
         <is>
           <t>180</t>
@@ -25995,7 +26375,11 @@
           <t>TROX Austria &amp; CEE</t>
         </is>
       </c>
-      <c r="R285" t="inlineStr"/>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>TROX Austria &amp; CEE</t>
+        </is>
+      </c>
       <c r="S285" t="inlineStr">
         <is>
           <t>51</t>
@@ -26070,7 +26454,11 @@
           <t>GIG Karasek GmbH - A Member of Dr. Aichhorn Group</t>
         </is>
       </c>
-      <c r="R286" t="inlineStr"/>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t>GIG Karasek GmbH - A Member of Dr. Aichhorn Group</t>
+        </is>
+      </c>
       <c r="S286" t="inlineStr">
         <is>
           <t>68</t>
@@ -26153,7 +26541,11 @@
           <t>PremiQaMed Group</t>
         </is>
       </c>
-      <c r="R287" t="inlineStr"/>
+      <c r="R287" t="inlineStr">
+        <is>
+          <t>PremiQaMed Group</t>
+        </is>
+      </c>
       <c r="S287" t="inlineStr">
         <is>
           <t>380</t>
@@ -26236,7 +26628,11 @@
           <t>Lanserhof Group</t>
         </is>
       </c>
-      <c r="R288" t="inlineStr"/>
+      <c r="R288" t="inlineStr">
+        <is>
+          <t>Lanserhof Group</t>
+        </is>
+      </c>
       <c r="S288" t="inlineStr">
         <is>
           <t>160</t>
@@ -26319,7 +26715,11 @@
           <t>HAGE Sondermaschinenbau GmbH</t>
         </is>
       </c>
-      <c r="R289" t="inlineStr"/>
+      <c r="R289" t="inlineStr">
+        <is>
+          <t>HAGE Sondermaschinenbau GmbH</t>
+        </is>
+      </c>
       <c r="S289" t="inlineStr">
         <is>
           <t>51</t>
@@ -26395,7 +26795,11 @@
           <t>CS Caritas Socialis</t>
         </is>
       </c>
-      <c r="R290" t="inlineStr"/>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>CS Caritas Socialis</t>
+        </is>
+      </c>
       <c r="S290" t="inlineStr">
         <is>
           <t>120</t>
@@ -26478,7 +26882,11 @@
           <t>Austrian Federal Chancellery</t>
         </is>
       </c>
-      <c r="R291" t="inlineStr"/>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>Austrian Federal Chancellery</t>
+        </is>
+      </c>
       <c r="S291" t="inlineStr">
         <is>
           <t>86</t>
@@ -26553,7 +26961,11 @@
           <t>Hödlmayr International AG</t>
         </is>
       </c>
-      <c r="R292" t="inlineStr"/>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>Hödlmayr International AG</t>
+        </is>
+      </c>
       <c r="S292" t="inlineStr">
         <is>
           <t>280</t>
@@ -26628,7 +27040,11 @@
           <t>Kremsmueller</t>
         </is>
       </c>
-      <c r="R293" t="inlineStr"/>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>Kremsmueller</t>
+        </is>
+      </c>
       <c r="S293" t="inlineStr">
         <is>
           <t>310</t>
@@ -26711,7 +27127,11 @@
           <t>Barmherzige Schwestern Krankenhaus Wien</t>
         </is>
       </c>
-      <c r="R294" t="inlineStr"/>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>Barmherzige Schwestern Krankenhaus Wien</t>
+        </is>
+      </c>
       <c r="S294" t="inlineStr">
         <is>
           <t>170</t>
@@ -26786,7 +27206,11 @@
           <t>Neuroth</t>
         </is>
       </c>
-      <c r="R295" t="inlineStr"/>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>Neuroth</t>
+        </is>
+      </c>
       <c r="S295" t="inlineStr">
         <is>
           <t>420</t>
@@ -26869,7 +27293,11 @@
           <t>A. ö. Krankenhaus Spittal/Drau</t>
         </is>
       </c>
-      <c r="R296" t="inlineStr"/>
+      <c r="R296" t="inlineStr">
+        <is>
+          <t>A. ö. Krankenhaus Spittal/Drau</t>
+        </is>
+      </c>
       <c r="S296" t="inlineStr">
         <is>
           <t>57</t>
@@ -26952,7 +27380,11 @@
           <t>Lucky Car Austria</t>
         </is>
       </c>
-      <c r="R297" t="inlineStr"/>
+      <c r="R297" t="inlineStr">
+        <is>
+          <t>Lucky Car Austria</t>
+        </is>
+      </c>
       <c r="S297" t="inlineStr">
         <is>
           <t>58</t>
@@ -27027,7 +27459,11 @@
           <t>Federal Office of Metrology and Surveying (BEV)</t>
         </is>
       </c>
-      <c r="R298" t="inlineStr"/>
+      <c r="R298" t="inlineStr">
+        <is>
+          <t>Federal Office of Metrology and Surveying (BEV)</t>
+        </is>
+      </c>
       <c r="S298" t="inlineStr">
         <is>
           <t>160</t>
@@ -27102,7 +27538,11 @@
           <t>Orthopädisches Spital Speising</t>
         </is>
       </c>
-      <c r="R299" t="inlineStr"/>
+      <c r="R299" t="inlineStr">
+        <is>
+          <t>Orthopädisches Spital Speising</t>
+        </is>
+      </c>
       <c r="S299" t="inlineStr">
         <is>
           <t>170</t>
@@ -27177,7 +27617,11 @@
           <t>TREIBACHER Industrie AG</t>
         </is>
       </c>
-      <c r="R300" t="inlineStr"/>
+      <c r="R300" t="inlineStr">
+        <is>
+          <t>TREIBACHER Industrie AG</t>
+        </is>
+      </c>
       <c r="S300" t="inlineStr">
         <is>
           <t>240</t>
@@ -27260,7 +27704,11 @@
           <t>WESTbahn</t>
         </is>
       </c>
-      <c r="R301" t="inlineStr"/>
+      <c r="R301" t="inlineStr">
+        <is>
+          <t>WESTbahn</t>
+        </is>
+      </c>
       <c r="S301" t="inlineStr">
         <is>
           <t>110</t>
@@ -27343,7 +27791,11 @@
           <t>HAIDLMAIR GmbH</t>
         </is>
       </c>
-      <c r="R302" t="inlineStr"/>
+      <c r="R302" t="inlineStr">
+        <is>
+          <t>HAIDLMAIR GmbH</t>
+        </is>
+      </c>
       <c r="S302" t="inlineStr">
         <is>
           <t>77</t>
@@ -27426,7 +27878,11 @@
           <t>Österreichische Beamtenversicherung - ÖBV</t>
         </is>
       </c>
-      <c r="R303" t="inlineStr"/>
+      <c r="R303" t="inlineStr">
+        <is>
+          <t>Österreichische Beamtenversicherung - ÖBV</t>
+        </is>
+      </c>
       <c r="S303" t="inlineStr">
         <is>
           <t>190</t>
@@ -27497,7 +27953,11 @@
           <t>EVG Entwicklungs- und Verwertungsgesellschaft GmbH</t>
         </is>
       </c>
-      <c r="R304" t="inlineStr"/>
+      <c r="R304" t="inlineStr">
+        <is>
+          <t>EVG Entwicklungs- und Verwertungsgesellschaft GmbH</t>
+        </is>
+      </c>
       <c r="S304" t="inlineStr">
         <is>
           <t>85</t>
@@ -27580,7 +28040,11 @@
           <t>Stadt Innsbruck</t>
         </is>
       </c>
-      <c r="R305" t="inlineStr"/>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>Stadt Innsbruck</t>
+        </is>
+      </c>
       <c r="S305" t="inlineStr">
         <is>
           <t>160</t>
@@ -27663,7 +28127,11 @@
           <t>ENERGIEALLIANZ Austria GmbH</t>
         </is>
       </c>
-      <c r="R306" t="inlineStr"/>
+      <c r="R306" t="inlineStr">
+        <is>
+          <t>ENERGIEALLIANZ Austria GmbH</t>
+        </is>
+      </c>
       <c r="S306" t="inlineStr">
         <is>
           <t>86</t>
@@ -27746,7 +28214,11 @@
           <t>Ankerbrot</t>
         </is>
       </c>
-      <c r="R307" t="inlineStr"/>
+      <c r="R307" t="inlineStr">
+        <is>
+          <t>Ankerbrot</t>
+        </is>
+      </c>
       <c r="S307" t="inlineStr">
         <is>
           <t>130</t>
@@ -27829,7 +28301,11 @@
           <t>ENERGIEALLIANZ Austria GmbH</t>
         </is>
       </c>
-      <c r="R308" t="inlineStr"/>
+      <c r="R308" t="inlineStr">
+        <is>
+          <t>ENERGIEALLIANZ Austria GmbH</t>
+        </is>
+      </c>
       <c r="S308" t="inlineStr">
         <is>
           <t>86</t>
@@ -27904,7 +28380,11 @@
           <t>GIG Karasek GmbH - A Member of Dr. Aichhorn Group</t>
         </is>
       </c>
-      <c r="R309" t="inlineStr"/>
+      <c r="R309" t="inlineStr">
+        <is>
+          <t>GIG Karasek GmbH - A Member of Dr. Aichhorn Group</t>
+        </is>
+      </c>
       <c r="S309" t="inlineStr">
         <is>
           <t>68</t>
@@ -27979,7 +28459,11 @@
           <t>WESTbahn</t>
         </is>
       </c>
-      <c r="R310" t="inlineStr"/>
+      <c r="R310" t="inlineStr">
+        <is>
+          <t>WESTbahn</t>
+        </is>
+      </c>
       <c r="S310" t="inlineStr">
         <is>
           <t>110</t>
@@ -28054,7 +28538,11 @@
           <t>JOANNEUM RESEARCH</t>
         </is>
       </c>
-      <c r="R311" t="inlineStr"/>
+      <c r="R311" t="inlineStr">
+        <is>
+          <t>JOANNEUM RESEARCH</t>
+        </is>
+      </c>
       <c r="S311" t="inlineStr">
         <is>
           <t>390</t>
@@ -28137,7 +28625,11 @@
           <t>Polymer Competence Center Leoben GmbH (PCCL)</t>
         </is>
       </c>
-      <c r="R312" t="inlineStr"/>
+      <c r="R312" t="inlineStr">
+        <is>
+          <t>Polymer Competence Center Leoben GmbH (PCCL)</t>
+        </is>
+      </c>
       <c r="S312" t="inlineStr">
         <is>
           <t>70</t>
@@ -28212,7 +28704,11 @@
           <t>RO-RA Aviation Systems GmbH</t>
         </is>
       </c>
-      <c r="R313" t="inlineStr"/>
+      <c r="R313" t="inlineStr">
+        <is>
+          <t>RO-RA Aviation Systems GmbH</t>
+        </is>
+      </c>
       <c r="S313" t="inlineStr">
         <is>
           <t>79</t>
@@ -28287,7 +28783,11 @@
           <t>Burgenland Energie AG</t>
         </is>
       </c>
-      <c r="R314" t="inlineStr"/>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>Burgenland Energie AG</t>
+        </is>
+      </c>
       <c r="S314" t="inlineStr">
         <is>
           <t>240</t>
@@ -28370,7 +28870,11 @@
           <t>Messer Austria</t>
         </is>
       </c>
-      <c r="R315" t="inlineStr"/>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>Messer Austria</t>
+        </is>
+      </c>
       <c r="S315" t="inlineStr">
         <is>
           <t>51</t>
@@ -28453,7 +28957,11 @@
           <t>Logistik Service GmbH (LogServ)</t>
         </is>
       </c>
-      <c r="R316" t="inlineStr"/>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>Logistik Service GmbH (LogServ)</t>
+        </is>
+      </c>
       <c r="S316" t="inlineStr">
         <is>
           <t>120</t>
@@ -28532,7 +29040,11 @@
           <t>Apomedica Pharmazeutische Produkte GmbH</t>
         </is>
       </c>
-      <c r="R317" t="inlineStr"/>
+      <c r="R317" t="inlineStr">
+        <is>
+          <t>Apomedica Pharmazeutische Produkte GmbH</t>
+        </is>
+      </c>
       <c r="S317" t="inlineStr">
         <is>
           <t>58</t>
@@ -28607,7 +29119,11 @@
           <t>VOGL + CO</t>
         </is>
       </c>
-      <c r="R318" t="inlineStr"/>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>VOGL + CO</t>
+        </is>
+      </c>
       <c r="S318" t="inlineStr">
         <is>
           <t>60</t>
@@ -28682,7 +29198,11 @@
           <t>Wiener Privatklinik</t>
         </is>
       </c>
-      <c r="R319" t="inlineStr"/>
+      <c r="R319" t="inlineStr">
+        <is>
+          <t>Wiener Privatklinik</t>
+        </is>
+      </c>
       <c r="S319" t="inlineStr">
         <is>
           <t>88</t>
@@ -28757,7 +29277,11 @@
           <t>Winkelbauer</t>
         </is>
       </c>
-      <c r="R320" t="inlineStr"/>
+      <c r="R320" t="inlineStr">
+        <is>
+          <t>Winkelbauer</t>
+        </is>
+      </c>
       <c r="S320" t="inlineStr">
         <is>
           <t>53</t>
@@ -28840,7 +29364,11 @@
           <t>St. Josef Krankenhaus Wien</t>
         </is>
       </c>
-      <c r="R321" t="inlineStr"/>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>St. Josef Krankenhaus Wien</t>
+        </is>
+      </c>
       <c r="S321" t="inlineStr">
         <is>
           <t>86</t>
@@ -28923,7 +29451,11 @@
           <t>Wirtschaftsagentur Wien</t>
         </is>
       </c>
-      <c r="R322" t="inlineStr"/>
+      <c r="R322" t="inlineStr">
+        <is>
+          <t>Wirtschaftsagentur Wien</t>
+        </is>
+      </c>
       <c r="S322" t="inlineStr">
         <is>
           <t>180</t>
@@ -29002,7 +29534,11 @@
           <t>GMS GOURMET GmbH</t>
         </is>
       </c>
-      <c r="R323" t="inlineStr"/>
+      <c r="R323" t="inlineStr">
+        <is>
+          <t>GMS GOURMET GmbH</t>
+        </is>
+      </c>
       <c r="S323" t="inlineStr">
         <is>
           <t>310</t>
@@ -29086,7 +29622,11 @@
           <t>FHV - Vorarlberg University of Applied Sciences</t>
         </is>
       </c>
-      <c r="R324" t="inlineStr"/>
+      <c r="R324" t="inlineStr">
+        <is>
+          <t>FHV - Vorarlberg University of Applied Sciences</t>
+        </is>
+      </c>
       <c r="S324" t="inlineStr">
         <is>
           <t>420</t>
@@ -29161,7 +29701,11 @@
           <t>EVG Entwicklungs- und Verwertungsgesellschaft GmbH</t>
         </is>
       </c>
-      <c r="R325" t="inlineStr"/>
+      <c r="R325" t="inlineStr">
+        <is>
+          <t>EVG Entwicklungs- und Verwertungsgesellschaft GmbH</t>
+        </is>
+      </c>
       <c r="S325" t="inlineStr">
         <is>
           <t>85</t>
@@ -29244,7 +29788,11 @@
           <t>HAGE Sondermaschinenbau GmbH</t>
         </is>
       </c>
-      <c r="R326" t="inlineStr"/>
+      <c r="R326" t="inlineStr">
+        <is>
+          <t>HAGE Sondermaschinenbau GmbH</t>
+        </is>
+      </c>
       <c r="S326" t="inlineStr">
         <is>
           <t>51</t>
@@ -29327,7 +29875,11 @@
           <t>Wirtschaftskammer Vorarlberg</t>
         </is>
       </c>
-      <c r="R327" t="inlineStr"/>
+      <c r="R327" t="inlineStr">
+        <is>
+          <t>Wirtschaftskammer Vorarlberg</t>
+        </is>
+      </c>
       <c r="S327" t="inlineStr">
         <is>
           <t>110</t>
@@ -29402,7 +29954,11 @@
           <t>Porsche Inter Auto - Österreichs größte Autohandelsgruppe</t>
         </is>
       </c>
-      <c r="R328" t="inlineStr"/>
+      <c r="R328" t="inlineStr">
+        <is>
+          <t>Porsche Inter Auto - Österreichs größte Autohandelsgruppe</t>
+        </is>
+      </c>
       <c r="S328" t="inlineStr">
         <is>
           <t>400</t>
@@ -29485,7 +30041,11 @@
           <t>Krankenhaus der Barmherzigen Schwestern Ried</t>
         </is>
       </c>
-      <c r="R329" t="inlineStr"/>
+      <c r="R329" t="inlineStr">
+        <is>
+          <t>Krankenhaus der Barmherzigen Schwestern Ried</t>
+        </is>
+      </c>
       <c r="S329" t="inlineStr">
         <is>
           <t>120</t>
@@ -29568,7 +30128,11 @@
           <t>Prangl GmbH</t>
         </is>
       </c>
-      <c r="R330" t="inlineStr"/>
+      <c r="R330" t="inlineStr">
+        <is>
+          <t>Prangl GmbH</t>
+        </is>
+      </c>
       <c r="S330" t="inlineStr">
         <is>
           <t>80</t>
@@ -29651,7 +30215,11 @@
           <t>Häuser zum Leben</t>
         </is>
       </c>
-      <c r="R331" t="inlineStr"/>
+      <c r="R331" t="inlineStr">
+        <is>
+          <t>Häuser zum Leben</t>
+        </is>
+      </c>
       <c r="S331" t="inlineStr">
         <is>
           <t>420</t>
@@ -29734,7 +30302,11 @@
           <t>Lanserhof Group</t>
         </is>
       </c>
-      <c r="R332" t="inlineStr"/>
+      <c r="R332" t="inlineStr">
+        <is>
+          <t>Lanserhof Group</t>
+        </is>
+      </c>
       <c r="S332" t="inlineStr">
         <is>
           <t>160</t>
@@ -29817,7 +30389,11 @@
           <t>Gesundheits- und Thermenresort Warmbad-Villach</t>
         </is>
       </c>
-      <c r="R333" t="inlineStr"/>
+      <c r="R333" t="inlineStr">
+        <is>
+          <t>Gesundheits- und Thermenresort Warmbad-Villach</t>
+        </is>
+      </c>
       <c r="S333" t="inlineStr">
         <is>
           <t>66</t>
@@ -29900,7 +30476,11 @@
           <t>Porsche Inter Auto - Österreichs größte Autohandelsgruppe</t>
         </is>
       </c>
-      <c r="R334" t="inlineStr"/>
+      <c r="R334" t="inlineStr">
+        <is>
+          <t>Porsche Inter Auto - Österreichs größte Autohandelsgruppe</t>
+        </is>
+      </c>
       <c r="S334" t="inlineStr">
         <is>
           <t>400</t>
@@ -29983,7 +30563,11 @@
           <t>EMPL Fahrzeugwerk</t>
         </is>
       </c>
-      <c r="R335" t="inlineStr"/>
+      <c r="R335" t="inlineStr">
+        <is>
+          <t>EMPL Fahrzeugwerk</t>
+        </is>
+      </c>
       <c r="S335" t="inlineStr">
         <is>
           <t>79</t>
@@ -30066,7 +30650,11 @@
           <t>Porsche Inter Auto - Österreichs größte Autohandelsgruppe</t>
         </is>
       </c>
-      <c r="R336" t="inlineStr"/>
+      <c r="R336" t="inlineStr">
+        <is>
+          <t>Porsche Inter Auto - Österreichs größte Autohandelsgruppe</t>
+        </is>
+      </c>
       <c r="S336" t="inlineStr">
         <is>
           <t>400</t>
@@ -30141,7 +30729,11 @@
           <t>Pollmann International GmbH</t>
         </is>
       </c>
-      <c r="R337" t="inlineStr"/>
+      <c r="R337" t="inlineStr">
+        <is>
+          <t>Pollmann International GmbH</t>
+        </is>
+      </c>
       <c r="S337" t="inlineStr">
         <is>
           <t>180</t>
@@ -30224,7 +30816,11 @@
           <t>MAN Truck &amp; Bus Vertrieb Österreich GesmbH</t>
         </is>
       </c>
-      <c r="R338" t="inlineStr"/>
+      <c r="R338" t="inlineStr">
+        <is>
+          <t>MAN Truck &amp; Bus Vertrieb Österreich GesmbH</t>
+        </is>
+      </c>
       <c r="S338" t="inlineStr">
         <is>
           <t>130</t>
@@ -30299,7 +30895,11 @@
           <t>NEVEON</t>
         </is>
       </c>
-      <c r="R339" t="inlineStr"/>
+      <c r="R339" t="inlineStr">
+        <is>
+          <t>NEVEON</t>
+        </is>
+      </c>
       <c r="S339" t="inlineStr">
         <is>
           <t>470</t>
@@ -30382,7 +30982,11 @@
           <t>Porsche Inter Auto - Österreichs größte Autohandelsgruppe</t>
         </is>
       </c>
-      <c r="R340" t="inlineStr"/>
+      <c r="R340" t="inlineStr">
+        <is>
+          <t>Porsche Inter Auto - Österreichs größte Autohandelsgruppe</t>
+        </is>
+      </c>
       <c r="S340" t="inlineStr">
         <is>
           <t>400</t>
@@ -30457,7 +31061,11 @@
           <t>Energie- und Umweltagentur des Landes NÖ</t>
         </is>
       </c>
-      <c r="R341" t="inlineStr"/>
+      <c r="R341" t="inlineStr">
+        <is>
+          <t>Energie- und Umweltagentur des Landes NÖ</t>
+        </is>
+      </c>
       <c r="S341" t="inlineStr">
         <is>
           <t>56</t>
@@ -30540,7 +31148,11 @@
           <t>FELDER GROUP</t>
         </is>
       </c>
-      <c r="R342" t="inlineStr"/>
+      <c r="R342" t="inlineStr">
+        <is>
+          <t>FELDER GROUP</t>
+        </is>
+      </c>
       <c r="S342" t="inlineStr">
         <is>
           <t>380</t>
@@ -30623,7 +31235,11 @@
           <t>Energie AG OÖ</t>
         </is>
       </c>
-      <c r="R343" t="inlineStr"/>
+      <c r="R343" t="inlineStr">
+        <is>
+          <t>Energie AG OÖ</t>
+        </is>
+      </c>
       <c r="S343" t="inlineStr">
         <is>
           <t>450</t>
@@ -30706,7 +31322,11 @@
           <t>GIS Aqua Austria GmbH</t>
         </is>
       </c>
-      <c r="R344" t="inlineStr"/>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>GIS Aqua Austria GmbH</t>
+        </is>
+      </c>
       <c r="S344" t="inlineStr">
         <is>
           <t>57</t>
@@ -30781,7 +31401,11 @@
           <t>Innsbrucker Kommunalbetriebe Aktiengesellschaft</t>
         </is>
       </c>
-      <c r="R345" t="inlineStr"/>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>Innsbrucker Kommunalbetriebe Aktiengesellschaft</t>
+        </is>
+      </c>
       <c r="S345" t="inlineStr">
         <is>
           <t>230</t>
@@ -30856,7 +31480,11 @@
           <t>Porsche Inter Auto - Österreichs größte Autohandelsgruppe</t>
         </is>
       </c>
-      <c r="R346" t="inlineStr"/>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>Porsche Inter Auto - Österreichs größte Autohandelsgruppe</t>
+        </is>
+      </c>
       <c r="S346" t="inlineStr">
         <is>
           <t>400</t>
@@ -30927,7 +31555,11 @@
           <t>DREHM Pharma GmbH</t>
         </is>
       </c>
-      <c r="R347" t="inlineStr"/>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>DREHM Pharma GmbH</t>
+        </is>
+      </c>
       <c r="S347" t="inlineStr">
         <is>
           <t>56</t>
@@ -31010,7 +31642,11 @@
           <t>FMW Industries</t>
         </is>
       </c>
-      <c r="R348" t="inlineStr"/>
+      <c r="R348" t="inlineStr">
+        <is>
+          <t>FMW Industries</t>
+        </is>
+      </c>
       <c r="S348" t="inlineStr">
         <is>
           <t>60</t>
@@ -31085,7 +31721,11 @@
           <t>WVP Group</t>
         </is>
       </c>
-      <c r="R349" t="inlineStr"/>
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>WVP Group</t>
+        </is>
+      </c>
       <c r="S349" t="inlineStr">
         <is>
           <t>290</t>
@@ -31160,7 +31800,11 @@
           <t>oekostrom AG</t>
         </is>
       </c>
-      <c r="R350" t="inlineStr"/>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>oekostrom AG</t>
+        </is>
+      </c>
       <c r="S350" t="inlineStr">
         <is>
           <t>68</t>
@@ -31235,7 +31879,11 @@
           <t>LiSEC Austria GmbH</t>
         </is>
       </c>
-      <c r="R351" t="inlineStr"/>
+      <c r="R351" t="inlineStr">
+        <is>
+          <t>LiSEC Austria GmbH</t>
+        </is>
+      </c>
       <c r="S351" t="inlineStr">
         <is>
           <t>320</t>
@@ -31318,7 +31966,11 @@
           <t>Marcher Fleischwerke Österreich</t>
         </is>
       </c>
-      <c r="R352" t="inlineStr"/>
+      <c r="R352" t="inlineStr">
+        <is>
+          <t>Marcher Fleischwerke Österreich</t>
+        </is>
+      </c>
       <c r="S352" t="inlineStr">
         <is>
           <t>86</t>
@@ -31393,7 +32045,11 @@
           <t>FITINN</t>
         </is>
       </c>
-      <c r="R353" t="inlineStr"/>
+      <c r="R353" t="inlineStr">
+        <is>
+          <t>FITINN</t>
+        </is>
+      </c>
       <c r="S353" t="inlineStr">
         <is>
           <t>200</t>
@@ -31476,7 +32132,11 @@
           <t>Liebscher &amp; Bracht Wien</t>
         </is>
       </c>
-      <c r="R354" t="inlineStr"/>
+      <c r="R354" t="inlineStr">
+        <is>
+          <t>Liebscher &amp; Bracht Wien</t>
+        </is>
+      </c>
       <c r="S354" t="inlineStr">
         <is>
           <t>210</t>
@@ -31555,7 +32215,11 @@
           <t>Fromagerie Bel Maroc SA</t>
         </is>
       </c>
-      <c r="R355" t="inlineStr"/>
+      <c r="R355" t="inlineStr">
+        <is>
+          <t>Fromagerie Bel Maroc SA</t>
+        </is>
+      </c>
       <c r="S355" t="inlineStr">
         <is>
           <t>210</t>
@@ -31626,7 +32290,11 @@
           <t>Starlim Spritzguss GmbH</t>
         </is>
       </c>
-      <c r="R356" t="inlineStr"/>
+      <c r="R356" t="inlineStr">
+        <is>
+          <t>Starlim Spritzguss GmbH</t>
+        </is>
+      </c>
       <c r="S356" t="inlineStr">
         <is>
           <t>240</t>
@@ -31701,7 +32369,11 @@
           <t>OFI Österreichisches Forschungsinstitut für Chemie und Technik</t>
         </is>
       </c>
-      <c r="R357" t="inlineStr"/>
+      <c r="R357" t="inlineStr">
+        <is>
+          <t>OFI Österreichisches Forschungsinstitut für Chemie und Technik</t>
+        </is>
+      </c>
       <c r="S357" t="inlineStr">
         <is>
           <t>68</t>
@@ -31784,7 +32456,11 @@
           <t>Teach For Austria</t>
         </is>
       </c>
-      <c r="R358" t="inlineStr"/>
+      <c r="R358" t="inlineStr">
+        <is>
+          <t>Teach For Austria</t>
+        </is>
+      </c>
       <c r="S358" t="inlineStr">
         <is>
           <t>160</t>
@@ -31867,7 +32543,11 @@
           <t>Federal Ministry of Labour and Economy</t>
         </is>
       </c>
-      <c r="R359" t="inlineStr"/>
+      <c r="R359" t="inlineStr">
+        <is>
+          <t>Federal Ministry of Labour and Economy</t>
+        </is>
+      </c>
       <c r="S359" t="inlineStr">
         <is>
           <t>480</t>
@@ -31950,7 +32630,11 @@
           <t>Häuser zum Leben</t>
         </is>
       </c>
-      <c r="R360" t="inlineStr"/>
+      <c r="R360" t="inlineStr">
+        <is>
+          <t>Häuser zum Leben</t>
+        </is>
+      </c>
       <c r="S360" t="inlineStr">
         <is>
           <t>420</t>
@@ -32033,7 +32717,11 @@
           <t>Dietzel Univolt</t>
         </is>
       </c>
-      <c r="R361" t="inlineStr"/>
+      <c r="R361" t="inlineStr">
+        <is>
+          <t>Dietzel Univolt</t>
+        </is>
+      </c>
       <c r="S361" t="inlineStr">
         <is>
           <t>73</t>
@@ -32116,7 +32804,11 @@
           <t>Neuroth</t>
         </is>
       </c>
-      <c r="R362" t="inlineStr"/>
+      <c r="R362" t="inlineStr">
+        <is>
+          <t>Neuroth</t>
+        </is>
+      </c>
       <c r="S362" t="inlineStr">
         <is>
           <t>420</t>
@@ -32199,7 +32891,11 @@
           <t>OMNi-BiOTiC® by Institut AllergoSan</t>
         </is>
       </c>
-      <c r="R363" t="inlineStr"/>
+      <c r="R363" t="inlineStr">
+        <is>
+          <t>OMNi-BiOTiC® by Institut AllergoSan</t>
+        </is>
+      </c>
       <c r="S363" t="inlineStr">
         <is>
           <t>230</t>
@@ -32274,7 +32970,11 @@
           <t>Stadt Villach</t>
         </is>
       </c>
-      <c r="R364" t="inlineStr"/>
+      <c r="R364" t="inlineStr">
+        <is>
+          <t>Stadt Villach</t>
+        </is>
+      </c>
       <c r="S364" t="inlineStr">
         <is>
           <t>140</t>
@@ -32357,7 +33057,11 @@
           <t>NEVEON</t>
         </is>
       </c>
-      <c r="R365" t="inlineStr"/>
+      <c r="R365" t="inlineStr">
+        <is>
+          <t>NEVEON</t>
+        </is>
+      </c>
       <c r="S365" t="inlineStr">
         <is>
           <t>470</t>
@@ -32440,7 +33144,11 @@
           <t>Greiner Assistec</t>
         </is>
       </c>
-      <c r="R366" t="inlineStr"/>
+      <c r="R366" t="inlineStr">
+        <is>
+          <t>Greiner Assistec</t>
+        </is>
+      </c>
       <c r="S366" t="inlineStr">
         <is>
           <t>220</t>
@@ -32515,7 +33223,11 @@
           <t>Boxmark Leather</t>
         </is>
       </c>
-      <c r="R367" t="inlineStr"/>
+      <c r="R367" t="inlineStr">
+        <is>
+          <t>Boxmark Leather</t>
+        </is>
+      </c>
       <c r="S367" t="inlineStr">
         <is>
           <t>390</t>
@@ -32598,7 +33310,11 @@
           <t>faigle Kunststoffe GmbH</t>
         </is>
       </c>
-      <c r="R368" t="inlineStr"/>
+      <c r="R368" t="inlineStr">
+        <is>
+          <t>faigle Kunststoffe GmbH</t>
+        </is>
+      </c>
       <c r="S368" t="inlineStr">
         <is>
           <t>64</t>
@@ -32673,7 +33389,11 @@
           <t>Bundesverwaltungsgericht Österreich</t>
         </is>
       </c>
-      <c r="R369" t="inlineStr"/>
+      <c r="R369" t="inlineStr">
+        <is>
+          <t>Bundesverwaltungsgericht Österreich</t>
+        </is>
+      </c>
       <c r="S369" t="inlineStr">
         <is>
           <t>96</t>
@@ -32756,7 +33476,11 @@
           <t>Alba Industries GmbH</t>
         </is>
       </c>
-      <c r="R370" t="inlineStr"/>
+      <c r="R370" t="inlineStr">
+        <is>
+          <t>Alba Industries GmbH</t>
+        </is>
+      </c>
       <c r="S370" t="inlineStr">
         <is>
           <t>51</t>
@@ -32839,7 +33563,11 @@
           <t>Evangelisches Krankenhaus in Wien</t>
         </is>
       </c>
-      <c r="R371" t="inlineStr"/>
+      <c r="R371" t="inlineStr">
+        <is>
+          <t>Evangelisches Krankenhaus in Wien</t>
+        </is>
+      </c>
       <c r="S371" t="inlineStr">
         <is>
           <t>87</t>
@@ -32922,7 +33650,11 @@
           <t>CCE</t>
         </is>
       </c>
-      <c r="R372" t="inlineStr"/>
+      <c r="R372" t="inlineStr">
+        <is>
+          <t>CCE</t>
+        </is>
+      </c>
       <c r="S372" t="inlineStr">
         <is>
           <t>310</t>
@@ -33005,7 +33737,11 @@
           <t>Murexin GmbH</t>
         </is>
       </c>
-      <c r="R373" t="inlineStr"/>
+      <c r="R373" t="inlineStr">
+        <is>
+          <t>Murexin GmbH</t>
+        </is>
+      </c>
       <c r="S373" t="inlineStr">
         <is>
           <t>97</t>
@@ -33088,7 +33824,11 @@
           <t>Marcher Fleischwerke Österreich</t>
         </is>
       </c>
-      <c r="R374" t="inlineStr"/>
+      <c r="R374" t="inlineStr">
+        <is>
+          <t>Marcher Fleischwerke Österreich</t>
+        </is>
+      </c>
       <c r="S374" t="inlineStr">
         <is>
           <t>86</t>
@@ -33171,7 +33911,11 @@
           <t>ELIN Motoren GmbH - A Voith Company</t>
         </is>
       </c>
-      <c r="R375" t="inlineStr"/>
+      <c r="R375" t="inlineStr">
+        <is>
+          <t>ELIN Motoren GmbH - A Voith Company</t>
+        </is>
+      </c>
       <c r="S375" t="inlineStr">
         <is>
           <t>210</t>
@@ -33246,7 +33990,11 @@
           <t>Klinikum Wels-Grieskirchen GmbH</t>
         </is>
       </c>
-      <c r="R376" t="inlineStr"/>
+      <c r="R376" t="inlineStr">
+        <is>
+          <t>Klinikum Wels-Grieskirchen GmbH</t>
+        </is>
+      </c>
       <c r="S376" t="inlineStr">
         <is>
           <t>440</t>
@@ -33317,7 +34065,11 @@
           <t>Erne Fittings GmbH</t>
         </is>
       </c>
-      <c r="R377" t="inlineStr"/>
+      <c r="R377" t="inlineStr">
+        <is>
+          <t>Erne Fittings GmbH</t>
+        </is>
+      </c>
       <c r="S377" t="inlineStr">
         <is>
           <t>110</t>
@@ -33400,7 +34152,11 @@
           <t>Pipelife Austria</t>
         </is>
       </c>
-      <c r="R378" t="inlineStr"/>
+      <c r="R378" t="inlineStr">
+        <is>
+          <t>Pipelife Austria</t>
+        </is>
+      </c>
       <c r="S378" t="inlineStr">
         <is>
           <t>75</t>
@@ -33475,7 +34231,11 @@
           <t>Aspöck Systems</t>
         </is>
       </c>
-      <c r="R379" t="inlineStr"/>
+      <c r="R379" t="inlineStr">
+        <is>
+          <t>Aspöck Systems</t>
+        </is>
+      </c>
       <c r="S379" t="inlineStr">
         <is>
           <t>490</t>
@@ -33554,7 +34314,11 @@
           <t>MOON POWER GmbH</t>
         </is>
       </c>
-      <c r="R380" t="inlineStr"/>
+      <c r="R380" t="inlineStr">
+        <is>
+          <t>MOON POWER GmbH</t>
+        </is>
+      </c>
       <c r="S380" t="inlineStr">
         <is>
           <t>64</t>
@@ -33637,7 +34401,11 @@
           <t>Wolfgang Denzel Auto AG</t>
         </is>
       </c>
-      <c r="R381" t="inlineStr"/>
+      <c r="R381" t="inlineStr">
+        <is>
+          <t>Wolfgang Denzel Auto AG</t>
+        </is>
+      </c>
       <c r="S381" t="inlineStr">
         <is>
           <t>340</t>
@@ -33712,7 +34480,11 @@
           <t>11er Nahrungsmittel GmbH</t>
         </is>
       </c>
-      <c r="R382" t="inlineStr"/>
+      <c r="R382" t="inlineStr">
+        <is>
+          <t>11er Nahrungsmittel GmbH</t>
+        </is>
+      </c>
       <c r="S382" t="inlineStr">
         <is>
           <t>77</t>
@@ -33795,7 +34567,11 @@
           <t>BIOGENA GROUP</t>
         </is>
       </c>
-      <c r="R383" t="inlineStr"/>
+      <c r="R383" t="inlineStr">
+        <is>
+          <t>BIOGENA GROUP</t>
+        </is>
+      </c>
       <c r="S383" t="inlineStr">
         <is>
           <t>220</t>
@@ -33878,7 +34654,11 @@
           <t>Hawle Austria Group</t>
         </is>
       </c>
-      <c r="R384" t="inlineStr"/>
+      <c r="R384" t="inlineStr">
+        <is>
+          <t>Hawle Austria Group</t>
+        </is>
+      </c>
       <c r="S384" t="inlineStr">
         <is>
           <t>500</t>
@@ -33961,7 +34741,11 @@
           <t>HAINZL Industriesysteme GmbH</t>
         </is>
       </c>
-      <c r="R385" t="inlineStr"/>
+      <c r="R385" t="inlineStr">
+        <is>
+          <t>HAINZL Industriesysteme GmbH</t>
+        </is>
+      </c>
       <c r="S385" t="inlineStr">
         <is>
           <t>290</t>
@@ -34036,7 +34820,11 @@
           <t>Alpine Metal Tech Group</t>
         </is>
       </c>
-      <c r="R386" t="inlineStr"/>
+      <c r="R386" t="inlineStr">
+        <is>
+          <t>Alpine Metal Tech Group</t>
+        </is>
+      </c>
       <c r="S386" t="inlineStr">
         <is>
           <t>170</t>
@@ -34111,7 +34899,11 @@
           <t>WINTERSTEIGER Group</t>
         </is>
       </c>
-      <c r="R387" t="inlineStr"/>
+      <c r="R387" t="inlineStr">
+        <is>
+          <t>WINTERSTEIGER Group</t>
+        </is>
+      </c>
       <c r="S387" t="inlineStr">
         <is>
           <t>340</t>
@@ -34187,7 +34979,11 @@
           <t>Kostwein Maschinenbau GmbH</t>
         </is>
       </c>
-      <c r="R388" t="inlineStr"/>
+      <c r="R388" t="inlineStr">
+        <is>
+          <t>Kostwein Maschinenbau GmbH</t>
+        </is>
+      </c>
       <c r="S388" t="inlineStr">
         <is>
           <t>170</t>
@@ -34270,7 +35066,11 @@
           <t>AMST-Systemtechnik GmbH</t>
         </is>
       </c>
-      <c r="R389" t="inlineStr"/>
+      <c r="R389" t="inlineStr">
+        <is>
+          <t>AMST-Systemtechnik GmbH</t>
+        </is>
+      </c>
       <c r="S389" t="inlineStr">
         <is>
           <t>85</t>
@@ -34345,7 +35145,11 @@
           <t>ITS. Implants</t>
         </is>
       </c>
-      <c r="R390" t="inlineStr"/>
+      <c r="R390" t="inlineStr">
+        <is>
+          <t>ITS. Implants</t>
+        </is>
+      </c>
       <c r="S390" t="inlineStr">
         <is>
           <t>160</t>
@@ -34420,7 +35224,11 @@
           <t>Porsche Inter Auto - Österreichs größte Autohandelsgruppe</t>
         </is>
       </c>
-      <c r="R391" t="inlineStr"/>
+      <c r="R391" t="inlineStr">
+        <is>
+          <t>Porsche Inter Auto - Österreichs größte Autohandelsgruppe</t>
+        </is>
+      </c>
       <c r="S391" t="inlineStr">
         <is>
           <t>400</t>
@@ -34503,7 +35311,11 @@
           <t>Martin Auer</t>
         </is>
       </c>
-      <c r="R392" t="inlineStr"/>
+      <c r="R392" t="inlineStr">
+        <is>
+          <t>Martin Auer</t>
+        </is>
+      </c>
       <c r="S392" t="inlineStr">
         <is>
           <t>71</t>
@@ -34578,7 +35390,11 @@
           <t>ITS. Implants</t>
         </is>
       </c>
-      <c r="R393" t="inlineStr"/>
+      <c r="R393" t="inlineStr">
+        <is>
+          <t>ITS. Implants</t>
+        </is>
+      </c>
       <c r="S393" t="inlineStr">
         <is>
           <t>160</t>
@@ -34661,7 +35477,11 @@
           <t>Porsche Inter Auto - Österreichs größte Autohandelsgruppe</t>
         </is>
       </c>
-      <c r="R394" t="inlineStr"/>
+      <c r="R394" t="inlineStr">
+        <is>
+          <t>Porsche Inter Auto - Österreichs größte Autohandelsgruppe</t>
+        </is>
+      </c>
       <c r="S394" t="inlineStr">
         <is>
           <t>400</t>
@@ -34744,7 +35564,11 @@
           <t>Porsche Inter Auto - Österreichs größte Autohandelsgruppe</t>
         </is>
       </c>
-      <c r="R395" t="inlineStr"/>
+      <c r="R395" t="inlineStr">
+        <is>
+          <t>Porsche Inter Auto - Österreichs größte Autohandelsgruppe</t>
+        </is>
+      </c>
       <c r="S395" t="inlineStr">
         <is>
           <t>400</t>
@@ -34815,7 +35639,11 @@
           <t>AUSTRIA JUICE Group</t>
         </is>
       </c>
-      <c r="R396" t="inlineStr"/>
+      <c r="R396" t="inlineStr">
+        <is>
+          <t>AUSTRIA JUICE Group</t>
+        </is>
+      </c>
       <c r="S396" t="inlineStr">
         <is>
           <t>160</t>
@@ -34898,7 +35726,11 @@
           <t>Linde Gas GmbH Österreich</t>
         </is>
       </c>
-      <c r="R397" t="inlineStr"/>
+      <c r="R397" t="inlineStr">
+        <is>
+          <t>Linde Gas GmbH Österreich</t>
+        </is>
+      </c>
       <c r="S397" t="inlineStr">
         <is>
           <t>73</t>
@@ -34973,7 +35805,11 @@
           <t>Ribbon Bio</t>
         </is>
       </c>
-      <c r="R398" t="inlineStr"/>
+      <c r="R398" t="inlineStr">
+        <is>
+          <t>Ribbon Bio</t>
+        </is>
+      </c>
       <c r="S398" t="inlineStr">
         <is>
           <t>53</t>
@@ -35048,7 +35884,11 @@
           <t>Energie AG OÖ</t>
         </is>
       </c>
-      <c r="R399" t="inlineStr"/>
+      <c r="R399" t="inlineStr">
+        <is>
+          <t>Energie AG OÖ</t>
+        </is>
+      </c>
       <c r="S399" t="inlineStr">
         <is>
           <t>450</t>
@@ -35131,7 +35971,11 @@
           <t>pro medico HandelsGmbH</t>
         </is>
       </c>
-      <c r="R400" t="inlineStr"/>
+      <c r="R400" t="inlineStr">
+        <is>
+          <t>pro medico HandelsGmbH</t>
+        </is>
+      </c>
       <c r="S400" t="inlineStr">
         <is>
           <t>83</t>
@@ -35214,7 +36058,11 @@
           <t>IBS Paper Performance Group</t>
         </is>
       </c>
-      <c r="R401" t="inlineStr"/>
+      <c r="R401" t="inlineStr">
+        <is>
+          <t>IBS Paper Performance Group</t>
+        </is>
+      </c>
       <c r="S401" t="inlineStr">
         <is>
           <t>290</t>
@@ -35289,7 +36137,11 @@
           <t>WINTERSTEIGER Group</t>
         </is>
       </c>
-      <c r="R402" t="inlineStr"/>
+      <c r="R402" t="inlineStr">
+        <is>
+          <t>WINTERSTEIGER Group</t>
+        </is>
+      </c>
       <c r="S402" t="inlineStr">
         <is>
           <t>340</t>
@@ -35364,7 +36216,11 @@
           <t>Kardinal Schwarzenberg Klinikum GmbH</t>
         </is>
       </c>
-      <c r="R403" t="inlineStr"/>
+      <c r="R403" t="inlineStr">
+        <is>
+          <t>Kardinal Schwarzenberg Klinikum GmbH</t>
+        </is>
+      </c>
       <c r="S403" t="inlineStr">
         <is>
           <t>140</t>
@@ -35447,7 +36303,11 @@
           <t>Rupp AG</t>
         </is>
       </c>
-      <c r="R404" t="inlineStr"/>
+      <c r="R404" t="inlineStr">
+        <is>
+          <t>Rupp AG</t>
+        </is>
+      </c>
       <c r="S404" t="inlineStr">
         <is>
           <t>110</t>
@@ -35530,7 +36390,11 @@
           <t>TROX Austria &amp; CEE</t>
         </is>
       </c>
-      <c r="R405" t="inlineStr"/>
+      <c r="R405" t="inlineStr">
+        <is>
+          <t>TROX Austria &amp; CEE</t>
+        </is>
+      </c>
       <c r="S405" t="inlineStr">
         <is>
           <t>51</t>
@@ -35605,7 +36469,11 @@
           <t>AGILOX</t>
         </is>
       </c>
-      <c r="R406" t="inlineStr"/>
+      <c r="R406" t="inlineStr">
+        <is>
+          <t>AGILOX</t>
+        </is>
+      </c>
       <c r="S406" t="inlineStr">
         <is>
           <t>180</t>
@@ -35688,7 +36556,11 @@
           <t>MedAustron</t>
         </is>
       </c>
-      <c r="R407" t="inlineStr"/>
+      <c r="R407" t="inlineStr">
+        <is>
+          <t>MedAustron</t>
+        </is>
+      </c>
       <c r="S407" t="inlineStr">
         <is>
           <t>200</t>
@@ -35759,7 +36631,11 @@
           <t>PremiQaMed Group</t>
         </is>
       </c>
-      <c r="R408" t="inlineStr"/>
+      <c r="R408" t="inlineStr">
+        <is>
+          <t>PremiQaMed Group</t>
+        </is>
+      </c>
       <c r="S408" t="inlineStr">
         <is>
           <t>380</t>
@@ -35842,7 +36718,11 @@
           <t>SMB Gruppe</t>
         </is>
       </c>
-      <c r="R409" t="inlineStr"/>
+      <c r="R409" t="inlineStr">
+        <is>
+          <t>SMB Gruppe</t>
+        </is>
+      </c>
       <c r="S409" t="inlineStr">
         <is>
           <t>79</t>
@@ -35917,7 +36797,11 @@
           <t>oekostrom AG</t>
         </is>
       </c>
-      <c r="R410" t="inlineStr"/>
+      <c r="R410" t="inlineStr">
+        <is>
+          <t>oekostrom AG</t>
+        </is>
+      </c>
       <c r="S410" t="inlineStr">
         <is>
           <t>68</t>
@@ -36000,7 +36884,11 @@
           <t>Mazda Austria GmbH</t>
         </is>
       </c>
-      <c r="R411" t="inlineStr"/>
+      <c r="R411" t="inlineStr">
+        <is>
+          <t>Mazda Austria GmbH</t>
+        </is>
+      </c>
       <c r="S411" t="inlineStr">
         <is>
           <t>60</t>
@@ -36075,7 +36963,11 @@
           <t>Logistik Service GmbH (LogServ)</t>
         </is>
       </c>
-      <c r="R412" t="inlineStr"/>
+      <c r="R412" t="inlineStr">
+        <is>
+          <t>Logistik Service GmbH (LogServ)</t>
+        </is>
+      </c>
       <c r="S412" t="inlineStr">
         <is>
           <t>120</t>
@@ -36150,7 +37042,11 @@
           <t>SMB Gruppe</t>
         </is>
       </c>
-      <c r="R413" t="inlineStr"/>
+      <c r="R413" t="inlineStr">
+        <is>
+          <t>SMB Gruppe</t>
+        </is>
+      </c>
       <c r="S413" t="inlineStr">
         <is>
           <t>79</t>
@@ -36233,7 +37129,11 @@
           <t>hollu Systemhygiene GmbH</t>
         </is>
       </c>
-      <c r="R414" t="inlineStr"/>
+      <c r="R414" t="inlineStr">
+        <is>
+          <t>hollu Systemhygiene GmbH</t>
+        </is>
+      </c>
       <c r="S414" t="inlineStr">
         <is>
           <t>210</t>
@@ -36308,7 +37208,11 @@
           <t>Kwizda Agro</t>
         </is>
       </c>
-      <c r="R415" t="inlineStr"/>
+      <c r="R415" t="inlineStr">
+        <is>
+          <t>Kwizda Agro</t>
+        </is>
+      </c>
       <c r="S415" t="inlineStr">
         <is>
           <t>210</t>
@@ -36391,7 +37295,11 @@
           <t>EMCO Corporation</t>
         </is>
       </c>
-      <c r="R416" t="inlineStr"/>
+      <c r="R416" t="inlineStr">
+        <is>
+          <t>EMCO Corporation</t>
+        </is>
+      </c>
       <c r="S416" t="inlineStr">
         <is>
           <t>360</t>
@@ -36466,7 +37374,11 @@
           <t>Virtual Vehicle Research GmbH</t>
         </is>
       </c>
-      <c r="R417" t="inlineStr"/>
+      <c r="R417" t="inlineStr">
+        <is>
+          <t>Virtual Vehicle Research GmbH</t>
+        </is>
+      </c>
       <c r="S417" t="inlineStr">
         <is>
           <t>250</t>
@@ -36541,7 +37453,11 @@
           <t>Wirtschaftskammer Salzburg</t>
         </is>
       </c>
-      <c r="R418" t="inlineStr"/>
+      <c r="R418" t="inlineStr">
+        <is>
+          <t>Wirtschaftskammer Salzburg</t>
+        </is>
+      </c>
       <c r="S418" t="inlineStr">
         <is>
           <t>130</t>
@@ -36612,7 +37528,11 @@
           <t>JOANNEUM RESEARCH</t>
         </is>
       </c>
-      <c r="R419" t="inlineStr"/>
+      <c r="R419" t="inlineStr">
+        <is>
+          <t>JOANNEUM RESEARCH</t>
+        </is>
+      </c>
       <c r="S419" t="inlineStr">
         <is>
           <t>390</t>
@@ -36691,7 +37611,11 @@
           <t>Bundeskanzleramt Österreich</t>
         </is>
       </c>
-      <c r="R420" t="inlineStr"/>
+      <c r="R420" t="inlineStr">
+        <is>
+          <t>Bundeskanzleramt Österreich</t>
+        </is>
+      </c>
       <c r="S420" t="inlineStr">
         <is>
           <t>260</t>
@@ -36774,7 +37698,11 @@
           <t>Kässbohrer Transport Technik GmbH - Driven by professionals</t>
         </is>
       </c>
-      <c r="R421" t="inlineStr"/>
+      <c r="R421" t="inlineStr">
+        <is>
+          <t>Kässbohrer Transport Technik GmbH - Driven by professionals</t>
+        </is>
+      </c>
       <c r="S421" t="inlineStr">
         <is>
           <t>52</t>
@@ -36849,7 +37777,11 @@
           <t>RUBIG Group</t>
         </is>
       </c>
-      <c r="R422" t="inlineStr"/>
+      <c r="R422" t="inlineStr">
+        <is>
+          <t>RUBIG Group</t>
+        </is>
+      </c>
       <c r="S422" t="inlineStr">
         <is>
           <t>91</t>
@@ -36932,7 +37864,11 @@
           <t>LiSEC Austria GmbH</t>
         </is>
       </c>
-      <c r="R423" t="inlineStr"/>
+      <c r="R423" t="inlineStr">
+        <is>
+          <t>LiSEC Austria GmbH</t>
+        </is>
+      </c>
       <c r="S423" t="inlineStr">
         <is>
           <t>320</t>
@@ -37007,7 +37943,11 @@
           <t>Porsche Inter Auto - Österreichs größte Autohandelsgruppe</t>
         </is>
       </c>
-      <c r="R424" t="inlineStr"/>
+      <c r="R424" t="inlineStr">
+        <is>
+          <t>Porsche Inter Auto - Österreichs größte Autohandelsgruppe</t>
+        </is>
+      </c>
       <c r="S424" t="inlineStr">
         <is>
           <t>400</t>
@@ -37090,7 +38030,11 @@
           <t>Gabriel-Chemie Group</t>
         </is>
       </c>
-      <c r="R425" t="inlineStr"/>
+      <c r="R425" t="inlineStr">
+        <is>
+          <t>Gabriel-Chemie Group</t>
+        </is>
+      </c>
       <c r="S425" t="inlineStr">
         <is>
           <t>180</t>
@@ -37165,7 +38109,11 @@
           <t>Stadt Villach</t>
         </is>
       </c>
-      <c r="R426" t="inlineStr"/>
+      <c r="R426" t="inlineStr">
+        <is>
+          <t>Stadt Villach</t>
+        </is>
+      </c>
       <c r="S426" t="inlineStr">
         <is>
           <t>140</t>
@@ -37248,7 +38196,11 @@
           <t>KWB GmbH</t>
         </is>
       </c>
-      <c r="R427" t="inlineStr"/>
+      <c r="R427" t="inlineStr">
+        <is>
+          <t>KWB GmbH</t>
+        </is>
+      </c>
       <c r="S427" t="inlineStr">
         <is>
           <t>140</t>
@@ -37331,7 +38283,11 @@
           <t>St. Anna Children's Cancer Research Institute (CCRI)</t>
         </is>
       </c>
-      <c r="R428" t="inlineStr"/>
+      <c r="R428" t="inlineStr">
+        <is>
+          <t>St. Anna Children's Cancer Research Institute (CCRI)</t>
+        </is>
+      </c>
       <c r="S428" t="inlineStr">
         <is>
           <t>170</t>
@@ -37406,7 +38362,11 @@
           <t>Oberösterreichische Versicherung AG</t>
         </is>
       </c>
-      <c r="R429" t="inlineStr"/>
+      <c r="R429" t="inlineStr">
+        <is>
+          <t>Oberösterreichische Versicherung AG</t>
+        </is>
+      </c>
       <c r="S429" t="inlineStr">
         <is>
           <t>200</t>
@@ -37489,7 +38449,11 @@
           <t>PremiQaMed Group</t>
         </is>
       </c>
-      <c r="R430" t="inlineStr"/>
+      <c r="R430" t="inlineStr">
+        <is>
+          <t>PremiQaMed Group</t>
+        </is>
+      </c>
       <c r="S430" t="inlineStr">
         <is>
           <t>380</t>
@@ -37572,7 +38536,11 @@
           <t>PHOENIX CONTACT GmbH</t>
         </is>
       </c>
-      <c r="R431" t="inlineStr"/>
+      <c r="R431" t="inlineStr">
+        <is>
+          <t>PHOENIX CONTACT GmbH</t>
+        </is>
+      </c>
       <c r="S431" t="inlineStr">
         <is>
           <t>82</t>
@@ -37643,7 +38611,11 @@
           <t>Starlim Spritzguss GmbH</t>
         </is>
       </c>
-      <c r="R432" t="inlineStr"/>
+      <c r="R432" t="inlineStr">
+        <is>
+          <t>Starlim Spritzguss GmbH</t>
+        </is>
+      </c>
       <c r="S432" t="inlineStr">
         <is>
           <t>240</t>
@@ -37726,7 +38698,11 @@
           <t>Silicon Austria Labs (SAL)</t>
         </is>
       </c>
-      <c r="R433" t="inlineStr"/>
+      <c r="R433" t="inlineStr">
+        <is>
+          <t>Silicon Austria Labs (SAL)</t>
+        </is>
+      </c>
       <c r="S433" t="inlineStr">
         <is>
           <t>330</t>
@@ -37809,7 +38785,11 @@
           <t>Bundeskanzleramt Österreich</t>
         </is>
       </c>
-      <c r="R434" t="inlineStr"/>
+      <c r="R434" t="inlineStr">
+        <is>
+          <t>Bundeskanzleramt Österreich</t>
+        </is>
+      </c>
       <c r="S434" t="inlineStr">
         <is>
           <t>260</t>
@@ -37884,7 +38864,11 @@
           <t>enspired</t>
         </is>
       </c>
-      <c r="R435" t="inlineStr"/>
+      <c r="R435" t="inlineStr">
+        <is>
+          <t>enspired</t>
+        </is>
+      </c>
       <c r="S435" t="inlineStr">
         <is>
           <t>99</t>
@@ -37967,7 +38951,11 @@
           <t>Bundesministerium für Land- und Forstwirtschaft, Regionen und Wasserwirtschaft</t>
         </is>
       </c>
-      <c r="R436" t="inlineStr"/>
+      <c r="R436" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Land- und Forstwirtschaft, Regionen und Wasserwirtschaft</t>
+        </is>
+      </c>
       <c r="S436" t="inlineStr">
         <is>
           <t>340</t>
@@ -38046,7 +39034,11 @@
           <t>Austrian Federal Chancellery</t>
         </is>
       </c>
-      <c r="R437" t="inlineStr"/>
+      <c r="R437" t="inlineStr">
+        <is>
+          <t>Austrian Federal Chancellery</t>
+        </is>
+      </c>
       <c r="S437" t="inlineStr">
         <is>
           <t>86</t>
@@ -38129,7 +39121,11 @@
           <t>GL Pharma</t>
         </is>
       </c>
-      <c r="R438" t="inlineStr"/>
+      <c r="R438" t="inlineStr">
+        <is>
+          <t>GL Pharma</t>
+        </is>
+      </c>
       <c r="S438" t="inlineStr">
         <is>
           <t>340</t>
@@ -38212,7 +39208,11 @@
           <t>Kremsmueller</t>
         </is>
       </c>
-      <c r="R439" t="inlineStr"/>
+      <c r="R439" t="inlineStr">
+        <is>
+          <t>Kremsmueller</t>
+        </is>
+      </c>
       <c r="S439" t="inlineStr">
         <is>
           <t>310</t>
@@ -38295,7 +39295,11 @@
           <t>Wirtschaftskammer Vorarlberg</t>
         </is>
       </c>
-      <c r="R440" t="inlineStr"/>
+      <c r="R440" t="inlineStr">
+        <is>
+          <t>Wirtschaftskammer Vorarlberg</t>
+        </is>
+      </c>
       <c r="S440" t="inlineStr">
         <is>
           <t>110</t>
@@ -38378,7 +39382,11 @@
           <t>Friedrich Deutsch Metallwerk Ges.m.b.H.</t>
         </is>
       </c>
-      <c r="R441" t="inlineStr"/>
+      <c r="R441" t="inlineStr">
+        <is>
+          <t>Friedrich Deutsch Metallwerk Ges.m.b.H.</t>
+        </is>
+      </c>
       <c r="S441" t="inlineStr">
         <is>
           <t>71</t>
@@ -38453,7 +39461,11 @@
           <t>Virtual Vehicle Research GmbH</t>
         </is>
       </c>
-      <c r="R442" t="inlineStr"/>
+      <c r="R442" t="inlineStr">
+        <is>
+          <t>Virtual Vehicle Research GmbH</t>
+        </is>
+      </c>
       <c r="S442" t="inlineStr">
         <is>
           <t>250</t>
@@ -38528,7 +39540,11 @@
           <t>Mercedes-Benz G GmbH</t>
         </is>
       </c>
-      <c r="R443" t="inlineStr"/>
+      <c r="R443" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz G GmbH</t>
+        </is>
+      </c>
       <c r="S443" t="inlineStr">
         <is>
           <t>360</t>
@@ -38611,7 +39627,11 @@
           <t>Energie AG OÖ</t>
         </is>
       </c>
-      <c r="R444" t="inlineStr"/>
+      <c r="R444" t="inlineStr">
+        <is>
+          <t>Energie AG OÖ</t>
+        </is>
+      </c>
       <c r="S444" t="inlineStr">
         <is>
           <t>450</t>
@@ -38694,7 +39714,11 @@
           <t>Virtual Vehicle Research GmbH</t>
         </is>
       </c>
-      <c r="R445" t="inlineStr"/>
+      <c r="R445" t="inlineStr">
+        <is>
+          <t>Virtual Vehicle Research GmbH</t>
+        </is>
+      </c>
       <c r="S445" t="inlineStr">
         <is>
           <t>250</t>
@@ -38777,7 +39801,11 @@
           <t>TAG GmbH</t>
         </is>
       </c>
-      <c r="R446" t="inlineStr"/>
+      <c r="R446" t="inlineStr">
+        <is>
+          <t>TAG GmbH</t>
+        </is>
+      </c>
       <c r="S446" t="inlineStr">
         <is>
           <t>110</t>
@@ -38852,7 +39880,11 @@
           <t>Die eww Gruppe</t>
         </is>
       </c>
-      <c r="R447" t="inlineStr"/>
+      <c r="R447" t="inlineStr">
+        <is>
+          <t>Die eww Gruppe</t>
+        </is>
+      </c>
       <c r="S447" t="inlineStr">
         <is>
           <t>280</t>
@@ -38935,7 +39967,11 @@
           <t>Energie AG OÖ</t>
         </is>
       </c>
-      <c r="R448" t="inlineStr"/>
+      <c r="R448" t="inlineStr">
+        <is>
+          <t>Energie AG OÖ</t>
+        </is>
+      </c>
       <c r="S448" t="inlineStr">
         <is>
           <t>450</t>
@@ -39018,7 +40054,11 @@
           <t>Sozialversicherung der Selbständigen</t>
         </is>
       </c>
-      <c r="R449" t="inlineStr"/>
+      <c r="R449" t="inlineStr">
+        <is>
+          <t>Sozialversicherung der Selbständigen</t>
+        </is>
+      </c>
       <c r="S449" t="inlineStr">
         <is>
           <t>240</t>
@@ -39101,7 +40141,11 @@
           <t>Energie AG OÖ</t>
         </is>
       </c>
-      <c r="R450" t="inlineStr"/>
+      <c r="R450" t="inlineStr">
+        <is>
+          <t>Energie AG OÖ</t>
+        </is>
+      </c>
       <c r="S450" t="inlineStr">
         <is>
           <t>450</t>
@@ -39184,7 +40228,11 @@
           <t>Linde Gas GmbH Österreich</t>
         </is>
       </c>
-      <c r="R451" t="inlineStr"/>
+      <c r="R451" t="inlineStr">
+        <is>
+          <t>Linde Gas GmbH Österreich</t>
+        </is>
+      </c>
       <c r="S451" t="inlineStr">
         <is>
           <t>73</t>
@@ -39267,7 +40315,11 @@
           <t>Richter Pharma AG</t>
         </is>
       </c>
-      <c r="R452" t="inlineStr"/>
+      <c r="R452" t="inlineStr">
+        <is>
+          <t>Richter Pharma AG</t>
+        </is>
+      </c>
       <c r="S452" t="inlineStr">
         <is>
           <t>110</t>
@@ -39350,7 +40402,11 @@
           <t>Hödlmayr International AG</t>
         </is>
       </c>
-      <c r="R453" t="inlineStr"/>
+      <c r="R453" t="inlineStr">
+        <is>
+          <t>Hödlmayr International AG</t>
+        </is>
+      </c>
       <c r="S453" t="inlineStr">
         <is>
           <t>280</t>
@@ -39433,7 +40489,11 @@
           <t>STATISTICS AUSTRIA</t>
         </is>
       </c>
-      <c r="R454" t="inlineStr"/>
+      <c r="R454" t="inlineStr">
+        <is>
+          <t>STATISTICS AUSTRIA</t>
+        </is>
+      </c>
       <c r="S454" t="inlineStr">
         <is>
           <t>330</t>
@@ -39516,7 +40576,11 @@
           <t>HENN Connector Group</t>
         </is>
       </c>
-      <c r="R455" t="inlineStr"/>
+      <c r="R455" t="inlineStr">
+        <is>
+          <t>HENN Connector Group</t>
+        </is>
+      </c>
       <c r="S455" t="inlineStr">
         <is>
           <t>71</t>
@@ -39591,7 +40655,11 @@
           <t>OMNi-BiOTiC® by Institut AllergoSan</t>
         </is>
       </c>
-      <c r="R456" t="inlineStr"/>
+      <c r="R456" t="inlineStr">
+        <is>
+          <t>OMNi-BiOTiC® by Institut AllergoSan</t>
+        </is>
+      </c>
       <c r="S456" t="inlineStr">
         <is>
           <t>230</t>
@@ -39676,7 +40744,11 @@
           <t>Kelly Snacks</t>
         </is>
       </c>
-      <c r="R457" t="inlineStr"/>
+      <c r="R457" t="inlineStr">
+        <is>
+          <t>Kelly Snacks</t>
+        </is>
+      </c>
       <c r="S457" t="inlineStr">
         <is>
           <t>87</t>
@@ -39759,7 +40831,11 @@
           <t>XUND</t>
         </is>
       </c>
-      <c r="R458" t="inlineStr"/>
+      <c r="R458" t="inlineStr">
+        <is>
+          <t>XUND</t>
+        </is>
+      </c>
       <c r="S458" t="inlineStr">
         <is>
           <t>56</t>
@@ -39834,7 +40910,11 @@
           <t>Linsinger Maschinenbau Gmbh</t>
         </is>
       </c>
-      <c r="R459" t="inlineStr"/>
+      <c r="R459" t="inlineStr">
+        <is>
+          <t>Linsinger Maschinenbau Gmbh</t>
+        </is>
+      </c>
       <c r="S459" t="inlineStr">
         <is>
           <t>150</t>
@@ -39917,7 +40997,11 @@
           <t>Wolfgang Denzel Auto AG</t>
         </is>
       </c>
-      <c r="R460" t="inlineStr"/>
+      <c r="R460" t="inlineStr">
+        <is>
+          <t>Wolfgang Denzel Auto AG</t>
+        </is>
+      </c>
       <c r="S460" t="inlineStr">
         <is>
           <t>340</t>
@@ -39992,7 +41076,11 @@
           <t>SKE Engineering GmbH</t>
         </is>
       </c>
-      <c r="R461" t="inlineStr"/>
+      <c r="R461" t="inlineStr">
+        <is>
+          <t>SKE Engineering GmbH</t>
+        </is>
+      </c>
       <c r="S461" t="inlineStr">
         <is>
           <t>98</t>
@@ -40067,7 +41155,11 @@
           <t>Oberösterreichische Versicherung AG</t>
         </is>
       </c>
-      <c r="R462" t="inlineStr"/>
+      <c r="R462" t="inlineStr">
+        <is>
+          <t>Oberösterreichische Versicherung AG</t>
+        </is>
+      </c>
       <c r="S462" t="inlineStr">
         <is>
           <t>200</t>
@@ -40138,7 +41230,11 @@
           <t>PremiQaMed Group</t>
         </is>
       </c>
-      <c r="R463" t="inlineStr"/>
+      <c r="R463" t="inlineStr">
+        <is>
+          <t>PremiQaMed Group</t>
+        </is>
+      </c>
       <c r="S463" t="inlineStr">
         <is>
           <t>380</t>
@@ -40221,7 +41317,11 @@
           <t>Austrian Federal Chancellery</t>
         </is>
       </c>
-      <c r="R464" t="inlineStr"/>
+      <c r="R464" t="inlineStr">
+        <is>
+          <t>Austrian Federal Chancellery</t>
+        </is>
+      </c>
       <c r="S464" t="inlineStr">
         <is>
           <t>86</t>
@@ -40304,7 +41404,11 @@
           <t>Oberösterreichische Versicherung AG</t>
         </is>
       </c>
-      <c r="R465" t="inlineStr"/>
+      <c r="R465" t="inlineStr">
+        <is>
+          <t>Oberösterreichische Versicherung AG</t>
+        </is>
+      </c>
       <c r="S465" t="inlineStr">
         <is>
           <t>200</t>
@@ -40379,7 +41483,11 @@
           <t>oekostrom AG</t>
         </is>
       </c>
-      <c r="R466" t="inlineStr"/>
+      <c r="R466" t="inlineStr">
+        <is>
+          <t>oekostrom AG</t>
+        </is>
+      </c>
       <c r="S466" t="inlineStr">
         <is>
           <t>68</t>
@@ -40462,7 +41570,11 @@
           <t>ESIM Chemicals</t>
         </is>
       </c>
-      <c r="R467" t="inlineStr"/>
+      <c r="R467" t="inlineStr">
+        <is>
+          <t>ESIM Chemicals</t>
+        </is>
+      </c>
       <c r="S467" t="inlineStr">
         <is>
           <t>110</t>
@@ -40545,7 +41657,11 @@
           <t>Gas Connect Austria</t>
         </is>
       </c>
-      <c r="R468" t="inlineStr"/>
+      <c r="R468" t="inlineStr">
+        <is>
+          <t>Gas Connect Austria</t>
+        </is>
+      </c>
       <c r="S468" t="inlineStr">
         <is>
           <t>120</t>
@@ -40628,7 +41744,11 @@
           <t>Binder+Co AG</t>
         </is>
       </c>
-      <c r="R469" t="inlineStr"/>
+      <c r="R469" t="inlineStr">
+        <is>
+          <t>Binder+Co AG</t>
+        </is>
+      </c>
       <c r="S469" t="inlineStr">
         <is>
           <t>120</t>
@@ -40711,7 +41831,11 @@
           <t>LTW Intralogistics GmbH</t>
         </is>
       </c>
-      <c r="R470" t="inlineStr"/>
+      <c r="R470" t="inlineStr">
+        <is>
+          <t>LTW Intralogistics GmbH</t>
+        </is>
+      </c>
       <c r="S470" t="inlineStr">
         <is>
           <t>200</t>
@@ -40794,7 +41918,11 @@
           <t>Doppelmayr Official</t>
         </is>
       </c>
-      <c r="R471" t="inlineStr"/>
+      <c r="R471" t="inlineStr">
+        <is>
+          <t>Doppelmayr Official</t>
+        </is>
+      </c>
       <c r="S471" t="inlineStr">
         <is>
           <t>420</t>
@@ -40877,7 +42005,11 @@
           <t>Dachverband der Sozialversicherungen</t>
         </is>
       </c>
-      <c r="R472" t="inlineStr"/>
+      <c r="R472" t="inlineStr">
+        <is>
+          <t>Dachverband der Sozialversicherungen</t>
+        </is>
+      </c>
       <c r="S472" t="inlineStr">
         <is>
           <t>110</t>
@@ -40960,7 +42092,11 @@
           <t>Sozialversicherung der Selbständigen</t>
         </is>
       </c>
-      <c r="R473" t="inlineStr"/>
+      <c r="R473" t="inlineStr">
+        <is>
+          <t>Sozialversicherung der Selbständigen</t>
+        </is>
+      </c>
       <c r="S473" t="inlineStr">
         <is>
           <t>240</t>
@@ -41035,7 +42171,11 @@
           <t>XUND</t>
         </is>
       </c>
-      <c r="R474" t="inlineStr"/>
+      <c r="R474" t="inlineStr">
+        <is>
+          <t>XUND</t>
+        </is>
+      </c>
       <c r="S474" t="inlineStr">
         <is>
           <t>56</t>
@@ -41118,7 +42258,11 @@
           <t>Wolfgang Denzel Auto AG</t>
         </is>
       </c>
-      <c r="R475" t="inlineStr"/>
+      <c r="R475" t="inlineStr">
+        <is>
+          <t>Wolfgang Denzel Auto AG</t>
+        </is>
+      </c>
       <c r="S475" t="inlineStr">
         <is>
           <t>340</t>
@@ -41193,7 +42337,11 @@
           <t>GL Pharma</t>
         </is>
       </c>
-      <c r="R476" t="inlineStr"/>
+      <c r="R476" t="inlineStr">
+        <is>
+          <t>GL Pharma</t>
+        </is>
+      </c>
       <c r="S476" t="inlineStr">
         <is>
           <t>340</t>
@@ -41276,7 +42424,11 @@
           <t>Oberösterreichische Versicherung AG</t>
         </is>
       </c>
-      <c r="R477" t="inlineStr"/>
+      <c r="R477" t="inlineStr">
+        <is>
+          <t>Oberösterreichische Versicherung AG</t>
+        </is>
+      </c>
       <c r="S477" t="inlineStr">
         <is>
           <t>200</t>
@@ -41359,7 +42511,11 @@
           <t>Bundesministerium für Bildung, Wissenschaft und Forschung</t>
         </is>
       </c>
-      <c r="R478" t="inlineStr"/>
+      <c r="R478" t="inlineStr">
+        <is>
+          <t>Bundesministerium für Bildung, Wissenschaft und Forschung</t>
+        </is>
+      </c>
       <c r="S478" t="inlineStr">
         <is>
           <t>180</t>
@@ -41442,7 +42598,11 @@
           <t>ZIMMER AUSTRIA</t>
         </is>
       </c>
-      <c r="R479" t="inlineStr"/>
+      <c r="R479" t="inlineStr">
+        <is>
+          <t>ZIMMER AUSTRIA</t>
+        </is>
+      </c>
       <c r="S479" t="inlineStr">
         <is>
           <t>79</t>
@@ -41525,7 +42685,11 @@
           <t>SONNENTOR Kräuterhandelsgesellschaft mbH</t>
         </is>
       </c>
-      <c r="R480" t="inlineStr"/>
+      <c r="R480" t="inlineStr">
+        <is>
+          <t>SONNENTOR Kräuterhandelsgesellschaft mbH</t>
+        </is>
+      </c>
       <c r="S480" t="inlineStr">
         <is>
           <t>90</t>
@@ -41600,7 +42764,11 @@
           <t>Virtual Vehicle Research GmbH</t>
         </is>
       </c>
-      <c r="R481" t="inlineStr"/>
+      <c r="R481" t="inlineStr">
+        <is>
+          <t>Virtual Vehicle Research GmbH</t>
+        </is>
+      </c>
       <c r="S481" t="inlineStr">
         <is>
           <t>250</t>
@@ -41683,7 +42851,11 @@
           <t>faigle Kunststoffe GmbH</t>
         </is>
       </c>
-      <c r="R482" t="inlineStr"/>
+      <c r="R482" t="inlineStr">
+        <is>
+          <t>faigle Kunststoffe GmbH</t>
+        </is>
+      </c>
       <c r="S482" t="inlineStr">
         <is>
           <t>64</t>
@@ -41758,7 +42930,11 @@
           <t>Boxmark Leather</t>
         </is>
       </c>
-      <c r="R483" t="inlineStr"/>
+      <c r="R483" t="inlineStr">
+        <is>
+          <t>Boxmark Leather</t>
+        </is>
+      </c>
       <c r="S483" t="inlineStr">
         <is>
           <t>390</t>
@@ -41833,7 +43009,11 @@
           <t>Schiebel</t>
         </is>
       </c>
-      <c r="R484" t="inlineStr"/>
+      <c r="R484" t="inlineStr">
+        <is>
+          <t>Schiebel</t>
+        </is>
+      </c>
       <c r="S484" t="inlineStr">
         <is>
           <t>210</t>
@@ -41908,7 +43088,11 @@
           <t>HENN Connector Group</t>
         </is>
       </c>
-      <c r="R485" t="inlineStr"/>
+      <c r="R485" t="inlineStr">
+        <is>
+          <t>HENN Connector Group</t>
+        </is>
+      </c>
       <c r="S485" t="inlineStr">
         <is>
           <t>71</t>
@@ -41991,7 +43175,11 @@
           <t>A.M.I. Agency for Medical Innovations GmbH</t>
         </is>
       </c>
-      <c r="R486" t="inlineStr"/>
+      <c r="R486" t="inlineStr">
+        <is>
+          <t>A.M.I. Agency for Medical Innovations GmbH</t>
+        </is>
+      </c>
       <c r="S486" t="inlineStr">
         <is>
           <t>59</t>
@@ -42066,7 +43254,11 @@
           <t>MADx – Macro Array Diagnostics GmbH</t>
         </is>
       </c>
-      <c r="R487" t="inlineStr"/>
+      <c r="R487" t="inlineStr">
+        <is>
+          <t>MADx – Macro Array Diagnostics GmbH</t>
+        </is>
+      </c>
       <c r="S487" t="inlineStr">
         <is>
           <t>78</t>
@@ -42149,7 +43341,11 @@
           <t>Mavie Next</t>
         </is>
       </c>
-      <c r="R488" t="inlineStr"/>
+      <c r="R488" t="inlineStr">
+        <is>
+          <t>Mavie Next</t>
+        </is>
+      </c>
       <c r="S488" t="inlineStr">
         <is>
           <t>55</t>
@@ -42224,7 +43420,11 @@
           <t>Hawle Austria Group</t>
         </is>
       </c>
-      <c r="R489" t="inlineStr"/>
+      <c r="R489" t="inlineStr">
+        <is>
+          <t>Hawle Austria Group</t>
+        </is>
+      </c>
       <c r="S489" t="inlineStr">
         <is>
           <t>500</t>
@@ -42303,7 +43503,11 @@
           <t>framag Industrieanlagenbau GmbH</t>
         </is>
       </c>
-      <c r="R490" t="inlineStr"/>
+      <c r="R490" t="inlineStr">
+        <is>
+          <t>framag Industrieanlagenbau GmbH</t>
+        </is>
+      </c>
       <c r="S490" t="inlineStr">
         <is>
           <t>65</t>
@@ -42386,7 +43590,11 @@
           <t>LTW Intralogistics GmbH</t>
         </is>
       </c>
-      <c r="R491" t="inlineStr"/>
+      <c r="R491" t="inlineStr">
+        <is>
+          <t>LTW Intralogistics GmbH</t>
+        </is>
+      </c>
       <c r="S491" t="inlineStr">
         <is>
           <t>200</t>
@@ -42461,7 +43669,11 @@
           <t>DREHM Pharma GmbH</t>
         </is>
       </c>
-      <c r="R492" t="inlineStr"/>
+      <c r="R492" t="inlineStr">
+        <is>
+          <t>DREHM Pharma GmbH</t>
+        </is>
+      </c>
       <c r="S492" t="inlineStr">
         <is>
           <t>56</t>
@@ -42544,7 +43756,11 @@
           <t>SKE Engineering GmbH</t>
         </is>
       </c>
-      <c r="R493" t="inlineStr"/>
+      <c r="R493" t="inlineStr">
+        <is>
+          <t>SKE Engineering GmbH</t>
+        </is>
+      </c>
       <c r="S493" t="inlineStr">
         <is>
           <t>98</t>
@@ -42619,7 +43835,11 @@
           <t>Sanochemia Pharmazeutika</t>
         </is>
       </c>
-      <c r="R494" t="inlineStr"/>
+      <c r="R494" t="inlineStr">
+        <is>
+          <t>Sanochemia Pharmazeutika</t>
+        </is>
+      </c>
       <c r="S494" t="inlineStr">
         <is>
           <t>81</t>
@@ -42694,7 +43914,11 @@
           <t>NEVEON</t>
         </is>
       </c>
-      <c r="R495" t="inlineStr"/>
+      <c r="R495" t="inlineStr">
+        <is>
+          <t>NEVEON</t>
+        </is>
+      </c>
       <c r="S495" t="inlineStr">
         <is>
           <t>470</t>
@@ -42769,7 +43993,11 @@
           <t>Bulung Logistics</t>
         </is>
       </c>
-      <c r="R496" t="inlineStr"/>
+      <c r="R496" t="inlineStr">
+        <is>
+          <t>Bulung Logistics</t>
+        </is>
+      </c>
       <c r="S496" t="inlineStr">
         <is>
           <t>63</t>
@@ -42852,7 +44080,11 @@
           <t>Ankerbrot</t>
         </is>
       </c>
-      <c r="R497" t="inlineStr"/>
+      <c r="R497" t="inlineStr">
+        <is>
+          <t>Ankerbrot</t>
+        </is>
+      </c>
       <c r="S497" t="inlineStr">
         <is>
           <t>130</t>
@@ -42935,7 +44167,11 @@
           <t>Fraunhofer Austria</t>
         </is>
       </c>
-      <c r="R498" t="inlineStr"/>
+      <c r="R498" t="inlineStr">
+        <is>
+          <t>Fraunhofer Austria</t>
+        </is>
+      </c>
       <c r="S498" t="inlineStr">
         <is>
           <t>130</t>
@@ -43018,7 +44254,11 @@
           <t>AXIS Flight Training Systems</t>
         </is>
       </c>
-      <c r="R499" t="inlineStr"/>
+      <c r="R499" t="inlineStr">
+        <is>
+          <t>AXIS Flight Training Systems</t>
+        </is>
+      </c>
       <c r="S499" t="inlineStr">
         <is>
           <t>60</t>
@@ -43093,7 +44333,11 @@
           <t>Seibersdorf Labor GmbH</t>
         </is>
       </c>
-      <c r="R500" t="inlineStr"/>
+      <c r="R500" t="inlineStr">
+        <is>
+          <t>Seibersdorf Labor GmbH</t>
+        </is>
+      </c>
       <c r="S500" t="inlineStr">
         <is>
           <t>87</t>
@@ -43176,7 +44420,11 @@
           <t>AGRANA Starch</t>
         </is>
       </c>
-      <c r="R501" t="inlineStr"/>
+      <c r="R501" t="inlineStr">
+        <is>
+          <t>AGRANA Starch</t>
+        </is>
+      </c>
       <c r="S501" t="inlineStr">
         <is>
           <t>140</t>
@@ -43255,7 +44503,11 @@
           <t>EMCO Corporation</t>
         </is>
       </c>
-      <c r="R502" t="inlineStr"/>
+      <c r="R502" t="inlineStr">
+        <is>
+          <t>EMCO Corporation</t>
+        </is>
+      </c>
       <c r="S502" t="inlineStr">
         <is>
           <t>360</t>
@@ -43338,7 +44590,11 @@
           <t>Neuroth</t>
         </is>
       </c>
-      <c r="R503" t="inlineStr"/>
+      <c r="R503" t="inlineStr">
+        <is>
+          <t>Neuroth</t>
+        </is>
+      </c>
       <c r="S503" t="inlineStr">
         <is>
           <t>420</t>
@@ -43421,7 +44677,11 @@
           <t>MADx – Macro Array Diagnostics GmbH</t>
         </is>
       </c>
-      <c r="R504" t="inlineStr"/>
+      <c r="R504" t="inlineStr">
+        <is>
+          <t>MADx – Macro Array Diagnostics GmbH</t>
+        </is>
+      </c>
       <c r="S504" t="inlineStr">
         <is>
           <t>78</t>
@@ -43504,7 +44764,11 @@
           <t>ZIMM Group</t>
         </is>
       </c>
-      <c r="R505" t="inlineStr"/>
+      <c r="R505" t="inlineStr">
+        <is>
+          <t>ZIMM Group</t>
+        </is>
+      </c>
       <c r="S505" t="inlineStr">
         <is>
           <t>67</t>
@@ -43587,7 +44851,11 @@
           <t>Global Hydro Energy</t>
         </is>
       </c>
-      <c r="R506" t="inlineStr"/>
+      <c r="R506" t="inlineStr">
+        <is>
+          <t>Global Hydro Energy</t>
+        </is>
+      </c>
       <c r="S506" t="inlineStr">
         <is>
           <t>230</t>
@@ -43670,7 +44938,11 @@
           <t>Vorarlberger Landeskrankenhäuser</t>
         </is>
       </c>
-      <c r="R507" t="inlineStr"/>
+      <c r="R507" t="inlineStr">
+        <is>
+          <t>Vorarlberger Landeskrankenhäuser</t>
+        </is>
+      </c>
       <c r="S507" t="inlineStr">
         <is>
           <t>380</t>
@@ -43745,7 +45017,11 @@
           <t>Mosdorfer GmbH</t>
         </is>
       </c>
-      <c r="R508" t="inlineStr"/>
+      <c r="R508" t="inlineStr">
+        <is>
+          <t>Mosdorfer GmbH</t>
+        </is>
+      </c>
       <c r="S508" t="inlineStr">
         <is>
           <t>220</t>
@@ -43828,7 +45104,11 @@
           <t>NEVEON</t>
         </is>
       </c>
-      <c r="R509" t="inlineStr"/>
+      <c r="R509" t="inlineStr">
+        <is>
+          <t>NEVEON</t>
+        </is>
+      </c>
       <c r="S509" t="inlineStr">
         <is>
           <t>470</t>
@@ -43911,7 +45191,11 @@
           <t>ENERGIEALLIANZ Austria GmbH</t>
         </is>
       </c>
-      <c r="R510" t="inlineStr"/>
+      <c r="R510" t="inlineStr">
+        <is>
+          <t>ENERGIEALLIANZ Austria GmbH</t>
+        </is>
+      </c>
       <c r="S510" t="inlineStr">
         <is>
           <t>86</t>
@@ -43994,7 +45278,11 @@
           <t>ENcome Energy Performance</t>
         </is>
       </c>
-      <c r="R511" t="inlineStr"/>
+      <c r="R511" t="inlineStr">
+        <is>
+          <t>ENcome Energy Performance</t>
+        </is>
+      </c>
       <c r="S511" t="inlineStr">
         <is>
           <t>85</t>
@@ -44069,7 +45357,11 @@
           <t>Exelliq</t>
         </is>
       </c>
-      <c r="R512" t="inlineStr"/>
+      <c r="R512" t="inlineStr">
+        <is>
+          <t>Exelliq</t>
+        </is>
+      </c>
       <c r="S512" t="inlineStr">
         <is>
           <t>71</t>
@@ -44152,7 +45444,11 @@
           <t>Trotec Laser</t>
         </is>
       </c>
-      <c r="R513" t="inlineStr"/>
+      <c r="R513" t="inlineStr">
+        <is>
+          <t>Trotec Laser</t>
+        </is>
+      </c>
       <c r="S513" t="inlineStr">
         <is>
           <t>420</t>
@@ -44227,7 +45523,11 @@
           <t>AMEX Healthcare</t>
         </is>
       </c>
-      <c r="R514" t="inlineStr"/>
+      <c r="R514" t="inlineStr">
+        <is>
+          <t>AMEX Healthcare</t>
+        </is>
+      </c>
       <c r="S514" t="inlineStr">
         <is>
           <t>300</t>

--- a/output/merged_profiles_mautic.xlsx
+++ b/output/merged_profiles_mautic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y514"/>
+  <dimension ref="A1:Z514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,6 +559,11 @@
           <t>companywebsite</t>
         </is>
       </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -662,6 +667,7 @@
           <t>http://www.hagleitner.com</t>
         </is>
       </c>
+      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -761,6 +767,7 @@
           <t>http://www.kwp.at</t>
         </is>
       </c>
+      <c r="Z3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -848,6 +855,7 @@
           <t>https://www.barmherzige-brueder.at/portal/karriere/berufsinformation</t>
         </is>
       </c>
+      <c r="Z4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -931,6 +939,7 @@
         </is>
       </c>
       <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1006,6 +1015,7 @@
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1101,6 +1111,7 @@
           <t>http://www.viadonau.org</t>
         </is>
       </c>
+      <c r="Z7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1180,6 +1191,7 @@
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1283,6 +1295,7 @@
           <t>http://www.rittal.at</t>
         </is>
       </c>
+      <c r="Z9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1354,6 +1367,7 @@
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1453,6 +1467,7 @@
           <t>https://www.tauernklinikum.at/ueber-uns/datenschutz</t>
         </is>
       </c>
+      <c r="Z11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1548,6 +1563,7 @@
           <t>http://www.weingartner.com</t>
         </is>
       </c>
+      <c r="Z12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1635,6 +1651,7 @@
           <t>https://www.test-fuchs.com</t>
         </is>
       </c>
+      <c r="Z13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1730,6 +1747,7 @@
           <t>https://novogenia.com</t>
         </is>
       </c>
+      <c r="Z14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1809,6 +1827,7 @@
         </is>
       </c>
       <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1908,6 +1927,7 @@
           <t>http://www.bauer-at.com</t>
         </is>
       </c>
+      <c r="Z16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1991,6 +2011,7 @@
           <t>https://www.cs.at</t>
         </is>
       </c>
+      <c r="Z17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2070,6 +2091,7 @@
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2169,6 +2191,7 @@
           <t>http://www.cerhahempel.com</t>
         </is>
       </c>
+      <c r="Z19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2268,6 +2291,7 @@
           <t>http://www.milch.com</t>
         </is>
       </c>
+      <c r="Z20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2355,6 +2379,7 @@
           <t>http://www.berglandmilch.at</t>
         </is>
       </c>
+      <c r="Z21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2450,6 +2475,7 @@
           <t>https://www.joanneum.at/en/</t>
         </is>
       </c>
+      <c r="Z22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2541,6 +2567,7 @@
           <t>https://vinzenzgruppe.at/datenschutz</t>
         </is>
       </c>
+      <c r="Z23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2640,6 +2667,7 @@
           <t>https://www.hennlich.at</t>
         </is>
       </c>
+      <c r="Z24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2739,6 +2767,7 @@
           <t>http://www.amst.at</t>
         </is>
       </c>
+      <c r="Z25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2838,6 +2867,7 @@
           <t>http://www.ankerbrot.at/</t>
         </is>
       </c>
+      <c r="Z26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2933,6 +2963,7 @@
           <t>http://www.stanna.at</t>
         </is>
       </c>
+      <c r="Z27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3024,6 +3055,7 @@
           <t>http://www.bfi.wien</t>
         </is>
       </c>
+      <c r="Z28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3119,6 +3151,7 @@
           <t>http://www.kh-lienz.at</t>
         </is>
       </c>
+      <c r="Z29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3194,6 +3227,7 @@
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3289,6 +3323,7 @@
           <t>https://www.bitschulungscenter.at/</t>
         </is>
       </c>
+      <c r="Z31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3384,6 +3419,7 @@
           <t>http://www.en-come.com</t>
         </is>
       </c>
+      <c r="Z32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3487,6 +3523,7 @@
           <t>http://www.weforum.org</t>
         </is>
       </c>
+      <c r="Z33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3586,6 +3623,7 @@
           <t>http://treibacher.com/en/</t>
         </is>
       </c>
+      <c r="Z34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3681,6 +3719,7 @@
           <t>http://www.gtec.at</t>
         </is>
       </c>
+      <c r="Z35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3776,6 +3815,7 @@
           <t>http://www.stw.at</t>
         </is>
       </c>
+      <c r="Z36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3879,6 +3919,7 @@
           <t>https://www.myflexbox.com</t>
         </is>
       </c>
+      <c r="Z37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3982,6 +4023,7 @@
           <t>https://www.myflexbox.com</t>
         </is>
       </c>
+      <c r="Z38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4061,6 +4103,7 @@
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4152,6 +4195,7 @@
           <t>https://www.khspittal.com</t>
         </is>
       </c>
+      <c r="Z40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4235,6 +4279,7 @@
         </is>
       </c>
       <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4334,6 +4379,7 @@
           <t>https://www.lagermax.com</t>
         </is>
       </c>
+      <c r="Z42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4433,6 +4479,7 @@
           <t>https://www.e-steiermark.com</t>
         </is>
       </c>
+      <c r="Z43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4532,6 +4579,7 @@
           <t>https://www.tiger-coatings.com/</t>
         </is>
       </c>
+      <c r="Z44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4615,6 +4663,7 @@
         </is>
       </c>
       <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4710,6 +4759,7 @@
           <t>https://evg.com/</t>
         </is>
       </c>
+      <c r="Z46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4805,6 +4855,7 @@
           <t>http://www.kremsmueller.com</t>
         </is>
       </c>
+      <c r="Z47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4892,6 +4943,7 @@
         </is>
       </c>
       <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4967,6 +5019,7 @@
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5038,6 +5091,7 @@
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5129,6 +5183,7 @@
         </is>
       </c>
       <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5228,6 +5283,7 @@
           <t>http://www.astotec.com</t>
         </is>
       </c>
+      <c r="Z52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5303,6 +5359,7 @@
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5390,6 +5447,7 @@
         </is>
       </c>
       <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5485,6 +5543,7 @@
           <t>http://www.hage.at</t>
         </is>
       </c>
+      <c r="Z55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5584,6 +5643,7 @@
           <t>https://www.hollu.com/</t>
         </is>
       </c>
+      <c r="Z56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5679,6 +5739,7 @@
           <t>https://wirtschaftsagentur.at/</t>
         </is>
       </c>
+      <c r="Z57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5782,6 +5843,7 @@
           <t>https://www.messer.at/</t>
         </is>
       </c>
+      <c r="Z58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5885,6 +5947,7 @@
           <t>http://www.ortner-group.com/</t>
         </is>
       </c>
+      <c r="Z59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5976,6 +6039,7 @@
           <t>www.porscheinterauto.at</t>
         </is>
       </c>
+      <c r="Z60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6071,6 +6135,7 @@
           <t>gl-pharma.com</t>
         </is>
       </c>
+      <c r="Z61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6170,6 +6235,7 @@
           <t>http://www.kwp.at</t>
         </is>
       </c>
+      <c r="Z62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6265,6 +6331,7 @@
           <t>http://www.kathrein.at</t>
         </is>
       </c>
+      <c r="Z63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6364,6 +6431,7 @@
           <t>http://www.holter.at</t>
         </is>
       </c>
+      <c r="Z64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6459,6 +6527,7 @@
           <t>https://www.thoeni.com/</t>
         </is>
       </c>
+      <c r="Z65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6558,6 +6627,7 @@
           <t>https://www.epluse.com</t>
         </is>
       </c>
+      <c r="Z66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6645,6 +6715,7 @@
           <t>https://www.bg-graspointner.com/en-at</t>
         </is>
       </c>
+      <c r="Z67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6740,6 +6811,7 @@
           <t>www.porscheinterauto.at</t>
         </is>
       </c>
+      <c r="Z68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6823,6 +6895,7 @@
         </is>
       </c>
       <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6918,6 +6991,7 @@
           <t>http://www.kwp.at</t>
         </is>
       </c>
+      <c r="Z70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7017,6 +7091,7 @@
           <t>http://www.hypotirol.com</t>
         </is>
       </c>
+      <c r="Z71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7108,6 +7183,7 @@
           <t>https://vinzenzgruppe.at/datenschutz</t>
         </is>
       </c>
+      <c r="Z72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7207,6 +7283,7 @@
           <t>http://www.hagleitner.com</t>
         </is>
       </c>
+      <c r="Z73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7298,6 +7375,7 @@
           <t>http://www.gebetsroither.at</t>
         </is>
       </c>
+      <c r="Z74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7397,6 +7475,7 @@
           <t>http://martinus.at</t>
         </is>
       </c>
+      <c r="Z75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7476,6 +7555,7 @@
         </is>
       </c>
       <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7563,6 +7643,7 @@
           <t>http://www.attensam.at</t>
         </is>
       </c>
+      <c r="Z77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7654,6 +7735,7 @@
           <t>http://salzburg-wohnbau.at</t>
         </is>
       </c>
+      <c r="Z78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7749,6 +7831,7 @@
           <t>https://www.schachermayer.at</t>
         </is>
       </c>
+      <c r="Z79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7844,6 +7927,7 @@
           <t>http://www.alicona.com</t>
         </is>
       </c>
+      <c r="Z80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -7935,6 +8019,7 @@
           <t>https://www.steinbach-group.com</t>
         </is>
       </c>
+      <c r="Z81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -8030,6 +8115,7 @@
           <t>https://www.tauernklinikum.at/ueber-uns/datenschutz</t>
         </is>
       </c>
+      <c r="Z82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -8121,6 +8207,7 @@
           <t>https://www.brandl-rhz.com</t>
         </is>
       </c>
+      <c r="Z83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -8212,6 +8299,7 @@
           <t>http://www.weingartner.com</t>
         </is>
       </c>
+      <c r="Z84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -8307,6 +8395,7 @@
           <t>https://www.rtr.at/</t>
         </is>
       </c>
+      <c r="Z85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -8402,6 +8491,7 @@
           <t>https://www.a-mk.com</t>
         </is>
       </c>
+      <c r="Z86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -8489,6 +8579,7 @@
           <t>http://www.kroeswang.at</t>
         </is>
       </c>
+      <c r="Z87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -8564,6 +8655,7 @@
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -8655,6 +8747,7 @@
           <t>https://www.ankoe.at</t>
         </is>
       </c>
+      <c r="Z89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -8750,6 +8843,7 @@
           <t>http://www.bauer-at.com</t>
         </is>
       </c>
+      <c r="Z90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -8841,6 +8935,7 @@
           <t>http://www.zoovienna.at</t>
         </is>
       </c>
+      <c r="Z91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -8936,6 +9031,7 @@
           <t>https://seele.com/legal-notice</t>
         </is>
       </c>
+      <c r="Z92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -9023,6 +9119,7 @@
           <t>http://www.berglandmilch.at</t>
         </is>
       </c>
+      <c r="Z93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -9122,6 +9219,7 @@
           <t>http://www.winzerkrems.at</t>
         </is>
       </c>
+      <c r="Z94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -9213,6 +9311,7 @@
           <t>http://www.palme.com</t>
         </is>
       </c>
+      <c r="Z95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -9308,6 +9407,7 @@
           <t>http://www.weka-group.com</t>
         </is>
       </c>
+      <c r="Z96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -9383,6 +9483,7 @@
       <c r="W97" t="inlineStr"/>
       <c r="X97" t="inlineStr"/>
       <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -9470,6 +9571,7 @@
           <t>https://www.bbrz.at/de/bbrz</t>
         </is>
       </c>
+      <c r="Z98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -9565,6 +9667,7 @@
           <t>https://novogenia.com</t>
         </is>
       </c>
+      <c r="Z99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -9636,6 +9739,7 @@
       <c r="W100" t="inlineStr"/>
       <c r="X100" t="inlineStr"/>
       <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -9715,6 +9819,7 @@
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
       <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -9814,6 +9919,7 @@
           <t>https://manstein.at/</t>
         </is>
       </c>
+      <c r="Z102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -9897,6 +10003,7 @@
         </is>
       </c>
       <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -9976,6 +10083,7 @@
       <c r="W104" t="inlineStr"/>
       <c r="X104" t="inlineStr"/>
       <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -10047,6 +10155,7 @@
       <c r="W105" t="inlineStr"/>
       <c r="X105" t="inlineStr"/>
       <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -10142,6 +10251,7 @@
           <t>www.haup.ac.at</t>
         </is>
       </c>
+      <c r="Z106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -10217,6 +10327,7 @@
         </is>
       </c>
       <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -10316,6 +10427,7 @@
           <t>http://www.elk.at</t>
         </is>
       </c>
+      <c r="Z108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -10407,6 +10519,7 @@
           <t>http://www.strasser-steine.at</t>
         </is>
       </c>
+      <c r="Z109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -10494,6 +10607,7 @@
           <t>https://www.englmayer.net</t>
         </is>
       </c>
+      <c r="Z110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -10585,6 +10699,7 @@
           <t>http://www.pem.com</t>
         </is>
       </c>
+      <c r="Z111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -10660,6 +10775,7 @@
       <c r="W112" t="inlineStr"/>
       <c r="X112" t="inlineStr"/>
       <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -10735,6 +10851,7 @@
         </is>
       </c>
       <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -10826,6 +10943,7 @@
           <t>http://www.ecoplus.at</t>
         </is>
       </c>
+      <c r="Z114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -10921,6 +11039,7 @@
           <t>http://www.cerhahempel.com</t>
         </is>
       </c>
+      <c r="Z115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -11000,6 +11119,7 @@
         </is>
       </c>
       <c r="Y116" t="inlineStr"/>
+      <c r="Z116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -11103,6 +11223,7 @@
           <t>http://www.prangl.at</t>
         </is>
       </c>
+      <c r="Z117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -11186,6 +11307,7 @@
         </is>
       </c>
       <c r="Y118" t="inlineStr"/>
+      <c r="Z118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -11277,6 +11399,7 @@
           <t>https://www.accessiway.com/</t>
         </is>
       </c>
+      <c r="Z119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -11376,6 +11499,7 @@
           <t>https://www.suchthilfe.wien/</t>
         </is>
       </c>
+      <c r="Z120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -11471,6 +11595,7 @@
           <t>http://www.viadonau.org</t>
         </is>
       </c>
+      <c r="Z121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -11566,6 +11691,7 @@
           <t>http://www.bemo.net</t>
         </is>
       </c>
+      <c r="Z122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -11649,6 +11775,7 @@
         </is>
       </c>
       <c r="Y123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -11744,6 +11871,7 @@
           <t>http://www.x-technik.com</t>
         </is>
       </c>
+      <c r="Z124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -11839,6 +11967,7 @@
           <t>http://www.ankerbrot.at/</t>
         </is>
       </c>
+      <c r="Z125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -11934,6 +12063,7 @@
           <t>http://www.amst.at</t>
         </is>
       </c>
+      <c r="Z126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -12033,6 +12163,7 @@
           <t>https://www.hennlich.at</t>
         </is>
       </c>
+      <c r="Z127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -12128,6 +12259,7 @@
           <t>http://www.bussetti.at</t>
         </is>
       </c>
+      <c r="Z128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -12227,6 +12359,7 @@
           <t>www.goendle.at</t>
         </is>
       </c>
+      <c r="Z129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -12322,6 +12455,7 @@
           <t>https://www.ufp.at</t>
         </is>
       </c>
+      <c r="Z130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -12421,6 +12555,7 @@
           <t>http://www.bundeskanzleramt.gv.at</t>
         </is>
       </c>
+      <c r="Z131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -12516,6 +12651,7 @@
           <t>https://tchibo.at</t>
         </is>
       </c>
+      <c r="Z132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -12603,6 +12739,7 @@
         </is>
       </c>
       <c r="Y133" t="inlineStr"/>
+      <c r="Z133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -12702,6 +12839,7 @@
           <t>http://klampfer.at</t>
         </is>
       </c>
+      <c r="Z134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -12797,6 +12935,7 @@
           <t>https://intact-systems.com</t>
         </is>
       </c>
+      <c r="Z135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -12896,6 +13035,7 @@
           <t>https://www.mercedes-benz-trucks.com/de_AT/home.html</t>
         </is>
       </c>
+      <c r="Z136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -12995,6 +13135,7 @@
           <t>https://at.ingrammicro.com/</t>
         </is>
       </c>
+      <c r="Z137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -13090,6 +13231,7 @@
           <t>http://www.simcharacters.com</t>
         </is>
       </c>
+      <c r="Z138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -13181,6 +13323,7 @@
         </is>
       </c>
       <c r="Y139" t="inlineStr"/>
+      <c r="Z139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -13276,6 +13419,7 @@
           <t>https://www.ell-group.com</t>
         </is>
       </c>
+      <c r="Z140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -13363,6 +13507,7 @@
         </is>
       </c>
       <c r="Y141" t="inlineStr"/>
+      <c r="Z141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -13466,6 +13611,7 @@
           <t>https://www.urban-future.org</t>
         </is>
       </c>
+      <c r="Z142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -13569,6 +13715,7 @@
           <t>http://www.fh-kaernten.at</t>
         </is>
       </c>
+      <c r="Z143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -13668,6 +13815,7 @@
           <t>http://veli.io/</t>
         </is>
       </c>
+      <c r="Z144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -13767,6 +13915,7 @@
           <t>http://www.premiumpack.at</t>
         </is>
       </c>
+      <c r="Z145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -13866,6 +14015,7 @@
           <t>http://www.biz-up.at</t>
         </is>
       </c>
+      <c r="Z146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -13965,6 +14115,7 @@
           <t>http://www.ticonsulting.io/</t>
         </is>
       </c>
+      <c r="Z147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -14060,6 +14211,7 @@
           <t>www.myhermes.at</t>
         </is>
       </c>
+      <c r="Z148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -14163,6 +14315,7 @@
           <t>http://www.juliusraabstiftung.at</t>
         </is>
       </c>
+      <c r="Z149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -14262,6 +14415,7 @@
         </is>
       </c>
       <c r="Y150" t="inlineStr"/>
+      <c r="Z150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -14365,6 +14519,7 @@
           <t>http://in-vision.at</t>
         </is>
       </c>
+      <c r="Z151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -14464,6 +14619,7 @@
           <t>https://bazuba-franchise.com/</t>
         </is>
       </c>
+      <c r="Z152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -14555,6 +14711,7 @@
           <t>b2b.vienna.info</t>
         </is>
       </c>
+      <c r="Z153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -14654,6 +14811,7 @@
           <t>http://www.bridgeforbillions.org</t>
         </is>
       </c>
+      <c r="Z154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -14753,6 +14911,7 @@
           <t>https://www.mzed.com/</t>
         </is>
       </c>
+      <c r="Z155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -14856,6 +15015,7 @@
           <t>http://www.ubm-development.com</t>
         </is>
       </c>
+      <c r="Z156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -14959,6 +15119,7 @@
           <t>http://www.activ.at/</t>
         </is>
       </c>
+      <c r="Z157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -15058,6 +15219,7 @@
           <t>https://www.feldkirch.at/</t>
         </is>
       </c>
+      <c r="Z158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -15161,6 +15323,7 @@
           <t>http://www.unido.org</t>
         </is>
       </c>
+      <c r="Z159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -15260,6 +15423,7 @@
           <t>https://rlaglobal.com</t>
         </is>
       </c>
+      <c r="Z160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -15359,6 +15523,7 @@
           <t>https://www.the-art-of-life.at</t>
         </is>
       </c>
+      <c r="Z161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -15454,6 +15619,7 @@
           <t>http://tjs.at</t>
         </is>
       </c>
+      <c r="Z162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -15553,6 +15719,7 @@
           <t>https://www.acslogistics.at/</t>
         </is>
       </c>
+      <c r="Z163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -15656,6 +15823,7 @@
           <t>http://www.fmtec.eu</t>
         </is>
       </c>
+      <c r="Z164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -15755,6 +15923,7 @@
           <t>https://www.metalpine.at</t>
         </is>
       </c>
+      <c r="Z165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -15854,6 +16023,7 @@
           <t>https://www.ara.at/</t>
         </is>
       </c>
+      <c r="Z166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -15953,6 +16123,7 @@
           <t>http://www.tyromotion.com</t>
         </is>
       </c>
+      <c r="Z167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -16032,6 +16203,7 @@
       <c r="W168" t="inlineStr"/>
       <c r="X168" t="inlineStr"/>
       <c r="Y168" t="inlineStr"/>
+      <c r="Z168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -16127,6 +16299,7 @@
           <t>https://zellamsee-kaprun.com</t>
         </is>
       </c>
+      <c r="Z169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -16214,6 +16387,7 @@
         </is>
       </c>
       <c r="Y170" t="inlineStr"/>
+      <c r="Z170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -16317,6 +16491,7 @@
           <t>www.pcs.at</t>
         </is>
       </c>
+      <c r="Z171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -16420,6 +16595,7 @@
           <t>www.greenwood-power.com</t>
         </is>
       </c>
+      <c r="Z172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -16499,6 +16675,7 @@
         </is>
       </c>
       <c r="Y173" t="inlineStr"/>
+      <c r="Z173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -16594,6 +16771,7 @@
           <t>https://www.pantarhei.com/de/</t>
         </is>
       </c>
+      <c r="Z174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -16697,6 +16875,7 @@
           <t>www.neoom.com</t>
         </is>
       </c>
+      <c r="Z175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -16776,6 +16955,7 @@
       <c r="W176" t="inlineStr"/>
       <c r="X176" t="inlineStr"/>
       <c r="Y176" t="inlineStr"/>
+      <c r="Z176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -16871,6 +17051,7 @@
           <t>https://www.mci-austria.com/</t>
         </is>
       </c>
+      <c r="Z177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -16970,6 +17151,7 @@
           <t>https://www.ebn.eu</t>
         </is>
       </c>
+      <c r="Z178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -17069,6 +17251,7 @@
           <t>https://www.allesprachen.at</t>
         </is>
       </c>
+      <c r="Z179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -17164,6 +17347,7 @@
           <t>http://harvard.edu</t>
         </is>
       </c>
+      <c r="Z180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -17267,6 +17451,7 @@
           <t>http://www.transgourmet.at</t>
         </is>
       </c>
+      <c r="Z181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -17358,6 +17543,7 @@
           <t>http://www.prochaska.eu</t>
         </is>
       </c>
+      <c r="Z182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -17457,6 +17643,7 @@
           <t>www.dexis.at</t>
         </is>
       </c>
+      <c r="Z183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -17556,6 +17743,7 @@
           <t>http://www.tectos.at</t>
         </is>
       </c>
+      <c r="Z184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -17659,6 +17847,7 @@
           <t>http://www.henn-group.com</t>
         </is>
       </c>
+      <c r="Z185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -17746,6 +17935,7 @@
         </is>
       </c>
       <c r="Y186" t="inlineStr"/>
+      <c r="Z186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -17845,6 +18035,7 @@
           <t>http://www.kilobaser.com</t>
         </is>
       </c>
+      <c r="Z187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -17944,6 +18135,7 @@
           <t>http://www.geroldinger.com</t>
         </is>
       </c>
+      <c r="Z188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -18043,6 +18235,7 @@
           <t>http://www.axis-simulation.com</t>
         </is>
       </c>
+      <c r="Z189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -18138,6 +18331,7 @@
           <t>http://www.wollsdorf.com</t>
         </is>
       </c>
+      <c r="Z190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -18229,6 +18423,11 @@
           <t>http://www.rohrer-grp.com</t>
         </is>
       </c>
+      <c r="Z191" t="inlineStr">
+        <is>
+          <t>industrielle reinigung|industrielle isolierung|tankreinigung|mechanik und automation|tankbau|rohrleitungsbau|emsr|tankmaintenance|ingenieurbau|stillstandsmanagement|anlagen und apparatebau|montage|supersauger|kanalreinigung|schadstoff und asbestsanierung|stahlbau|elektrotechnik|automation|geruestbau|industrieservice</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -18310,6 +18509,11 @@
       <c r="Y192" t="inlineStr">
         <is>
           <t>http://www.sgs-industrial.com</t>
+        </is>
+      </c>
+      <c r="Z192" t="inlineStr">
+        <is>
+          <t>industrial installation|plant relocation &amp; maintenance|site management &amp; supervision|industrial engineering|industrial plant construction|pipework construction|industrial services|stone|earth|cement industry|wood industry|wood based panels industry|metal industry|energy industry|environmental technology|logistics|mechanical engineering &amp; automotive|industriemontage|industrieinstallation|anlagenverlagerung und revision|bauleitung und supervision|anlagenbau|industrieanlagenbau|rohrleitungsbau|montage|industriedienstleistung</t>
         </is>
       </c>
     </row>
@@ -18395,6 +18599,11 @@
           <t>http://www.sigmatek-automation.com</t>
         </is>
       </c>
+      <c r="Z193" t="inlineStr">
+        <is>
+          <t>industrial automation|complete automation solutions|control &amp; i|o systems|hmis|industrial pcs|drive technology|safety|automation software|industrial ethernet varanbus|automation for smart factories|automation for metal processing|automation for plastics technology|automation for robotics|handling|automation for logistics &amp; agv|automation for food &amp; packaging|automation 40|smart factory automation|machine controls</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -18490,6 +18699,11 @@
           <t>http://www.sie.at</t>
         </is>
       </c>
+      <c r="Z194" t="inlineStr">
+        <is>
+          <t>system intergration|digitalisierung|embedded systeme|human machine interfaces|cyber physical systems|medizintechnik</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -18577,6 +18791,11 @@
           <t>http://www.kobansuedvers.at</t>
         </is>
       </c>
+      <c r="Z195" t="inlineStr">
+        <is>
+          <t>risikomanagement|altersvorsorge|cybersecurity|vorsorge|gesundheitsvorsorge|betriebsunterbrechung|versicherung|beratung|kreditversicherung|d|o|gesundheitsmanagement|betriebliche vorsorge|oversicherungen|industrie|gewerbe</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -18664,6 +18883,11 @@
           <t>http://www.kobansuedvers.at</t>
         </is>
       </c>
+      <c r="Z196" t="inlineStr">
+        <is>
+          <t>risikomanagement|altersvorsorge|cybersecurity|vorsorge|gesundheitsvorsorge|betriebsunterbrechung|versicherung|beratung|kreditversicherung|d|o|gesundheitsmanagement|betriebliche vorsorge|oversicherungen|industrie|gewerbe</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -18747,6 +18971,11 @@
           <t>http://www.ltw.at</t>
         </is>
       </c>
+      <c r="Z197" t="inlineStr">
+        <is>
+          <t>as|rs|intralogistics|stacker cranes|software|warehouse management|fullservice provider|conveyor system|retrofit|service|highbay warehouses|automation</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -18834,6 +19063,11 @@
           <t>http://www.porschewien.at</t>
         </is>
       </c>
+      <c r="Z198" t="inlineStr">
+        <is>
+          <t>neuwagenverkauf|gebrauchtwagenverkauf|service|versicherung|leasing|fuhrparkmanagement|karosserie|lackspezialist|hol|bing service|finanzierung|volkswagen|seat|skoda|audi|porsche|vw nutzfahrzeuge|das weltauto|cupra</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -18921,6 +19155,7 @@
           <t>http://www.schlumberger.at</t>
         </is>
       </c>
+      <c r="Z199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -19014,6 +19249,11 @@
       <c r="Y200" t="inlineStr">
         <is>
           <t>http://www.ergo-versicherung.at</t>
+        </is>
+      </c>
+      <c r="Z200" t="inlineStr">
+        <is>
+          <t>lebensversicherung|unfallversicherung|haushaltsversicherung|kfzversicherung|autoversicherung|industrieversicherung|risikovorsorge|berufsunfaehigkeitsversicherung|onlineversicherungen|bergungskostenversicherung|eigenheimversicherung|fahrradversicherung|pensionsvorsorge|flexible vorsorge|bestattungsvorsorge|krankenversicherung|zahnersatzversicherung|rechtsschutzversicherung</t>
         </is>
       </c>
     </row>
@@ -19099,6 +19339,7 @@
           <t>http://www.berger-logistik.com</t>
         </is>
       </c>
+      <c r="Z201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -19184,6 +19425,11 @@
       <c r="Y202" t="inlineStr">
         <is>
           <t>http://www.planquadr.at</t>
+        </is>
+      </c>
+      <c r="Z202" t="inlineStr">
+        <is>
+          <t>immobilien investments|projektentwicklung|investieren|wohnbau|immobilienentwicklung|seniorenresidenzen|hotels|servicierte wohnungen|luxuswohnungen|investments|immobilien salzburg|diverse beteiligungen|anleihen|buerogebaeude|lebensraumentwickler|verkauf</t>
         </is>
       </c>
     </row>
@@ -19273,6 +19519,11 @@
           <t>http://www.doppelmayr.com</t>
         </is>
       </c>
+      <c r="Z203" t="inlineStr">
+        <is>
+          <t>seilbahnbau|materialtransport|skilifte|automated people mover|ropeways|cable cars|pendelbahnen</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -19364,6 +19615,11 @@
           <t>http://www.vfi.co.at</t>
         </is>
       </c>
+      <c r="Z204" t="inlineStr">
+        <is>
+          <t>copacking|produkte fuer einzelhandel|produkte fuer lebensmittelindustrie|produkte aus kontrolliert biologischem anbau|produkte zur herstellung von saeuglingsnahrung|markenprodukte|biofuttermittel</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -19447,6 +19703,11 @@
           <t>http://www.gfoellner.at</t>
         </is>
       </c>
+      <c r="Z205" t="inlineStr">
+        <is>
+          <t>ladetechnik|klimatechnik|fahrzeugservice|kranaufbau|technische container|kran|containeranlagen|fahrzeugbau|containertechnik|container</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -19540,6 +19801,11 @@
       <c r="Y206" t="inlineStr">
         <is>
           <t>http://www.kobansuedvers.at</t>
+        </is>
+      </c>
+      <c r="Z206" t="inlineStr">
+        <is>
+          <t>risikomanagement|altersvorsorge|cybersecurity|vorsorge|gesundheitsvorsorge|betriebsunterbrechung|versicherung|beratung|kreditversicherung|d|o|gesundheitsmanagement|betriebliche vorsorge|oversicherungen|industrie|gewerbe</t>
         </is>
       </c>
     </row>
@@ -19621,6 +19887,11 @@
           <t>http://www.austrocel.com</t>
         </is>
       </c>
+      <c r="Z207" t="inlineStr">
+        <is>
+          <t>chemie|zellstoff|bioenergie|kreislaufwirtschaft|c2c</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -19708,6 +19979,7 @@
           <t>http://www.greiner-assistec.com</t>
         </is>
       </c>
+      <c r="Z208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -19791,6 +20063,11 @@
           <t>http://www.global-hydro.eu</t>
         </is>
       </c>
+      <c r="Z209" t="inlineStr">
+        <is>
+          <t>hydro power machinery|small hydro|water to wire equipment|kaplan turbine|francis turbine|pelton turbine|turn key|power plant automation|scada system|digital turbine goveneror system|cfd|cfx simulation</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -19876,6 +20153,11 @@
       <c r="Y210" t="inlineStr">
         <is>
           <t>http://www.avus-group.com</t>
+        </is>
+      </c>
+      <c r="Z210" t="inlineStr">
+        <is>
+          <t>claims settlement</t>
         </is>
       </c>
     </row>
@@ -19965,6 +20247,11 @@
           <t>http://www.alpinemetaltech.com</t>
         </is>
       </c>
+      <c r="Z211" t="inlineStr">
+        <is>
+          <t>sondermaschinenbau|automotive|steel|life cycle business|technologiefuehrer|aerospace|advanced technology|automatisierung|strangguss|brammen adjustage|markiertechnologie</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -20060,6 +20347,11 @@
           <t>http://www.lexogen.com</t>
         </is>
       </c>
+      <c r="Z212" t="inlineStr">
+        <is>
+          <t>rnaseq library preparation kits|rna analysis|rnaseq data analysis software|rnaseq service|rna sample preparation</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -20147,6 +20439,11 @@
           <t>http://www.urbaninnovation.at</t>
         </is>
       </c>
+      <c r="Z213" t="inlineStr">
+        <is>
+          <t>stadtentwicklung und mobilitaet|energie|digitalisierung|quartiere|immobilien</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -20234,6 +20531,11 @@
           <t>http://www.instahelp.me</t>
         </is>
       </c>
+      <c r="Z214" t="inlineStr">
+        <is>
+          <t>healthcare|software|apps|psychology|information technology|bgm|bgf|employer branding|betriebliche gesundheitsfoerderung|betriebliches gesundheitsmanagement|coaching|fuehrungskraefteentwicklung|benefits|psychologische beratung|mental health</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -20327,6 +20629,11 @@
       <c r="Y215" t="inlineStr">
         <is>
           <t>http://www.tyromotion.com</t>
+        </is>
+      </c>
+      <c r="Z215" t="inlineStr">
+        <is>
+          <t>therapy robotics|arm rehabilitation|computer aided therapy|hand rehabilitation|finger rehabilitation|leg rehabilitation|robotic rehabilitation|medical devices|rehabilitation therapy|neuro rehabilitation|movement therapy</t>
         </is>
       </c>
     </row>
@@ -20420,6 +20727,11 @@
           <t>http://www.amex-healthcare.com</t>
         </is>
       </c>
+      <c r="Z216" t="inlineStr">
+        <is>
+          <t>medical equipment|laboratory equipment|consumables|pharmaceuticals</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -20499,6 +20811,7 @@
       <c r="W217" t="inlineStr"/>
       <c r="X217" t="inlineStr"/>
       <c r="Y217" t="inlineStr"/>
+      <c r="Z217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -20594,6 +20907,11 @@
           <t>http://www.cromapharma.com</t>
         </is>
       </c>
+      <c r="Z218" t="inlineStr">
+        <is>
+          <t>prp|hyaluronic acid fillers|pdo thread lifting|skincare|skinboosters|hyaluronic acid injectables|botulinum toxin|pdo threads</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -20687,6 +21005,11 @@
       <c r="Y219" t="inlineStr">
         <is>
           <t>http://www.startus-insights.com</t>
+        </is>
+      </c>
+      <c r="Z219" t="inlineStr">
+        <is>
+          <t>innovation intelligence|innovation scouting|startup scouting|business intelligence|supplier sourcing|big data|artificial intelligence|technology scouting|discovery platform|saas|software as a service|corporate innovation|open innovation|research|market research</t>
         </is>
       </c>
     </row>
@@ -20776,6 +21099,7 @@
           <t>http://www.synthesa.at</t>
         </is>
       </c>
+      <c r="Z220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -20869,6 +21193,11 @@
       <c r="Y221" t="inlineStr">
         <is>
           <t>http://www.cce-holding.com</t>
+        </is>
+      </c>
+      <c r="Z221" t="inlineStr">
+        <is>
+          <t>photovoltaik|pv planung und entwickung|pv|pv errichtung und wartung|pv beratung|pv betriebsfuehrung|pv finanzierung|pv fuer gewerbe|pv pachtmodelle|pv landwirtschaft|erneuerbare energie|sonnenstrom|pv realisierung|entwicklung und strukturierung von kapitalanlagen|pv auf freiflaechen|photovoltaics|pv planning &amp; development|pv installation &amp; maintenance|pv consulting|pv operational management|pv financing|pv for commerce|pv lease models|pv agriculture|renewable energy|solar power|pv realisation|development &amp; structuring of capital assets|pv on open spaces</t>
         </is>
       </c>
     </row>
@@ -20950,6 +21279,11 @@
           <t>http://www.cromapharma.com</t>
         </is>
       </c>
+      <c r="Z222" t="inlineStr">
+        <is>
+          <t>skincare|botulinum toxin|hyaluronic acid fillers|skinboosters|pdo threads</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -21041,6 +21375,11 @@
           <t>http://www.agilox.net</t>
         </is>
       </c>
+      <c r="Z223" t="inlineStr">
+        <is>
+          <t>autonomous mobile robots|automated material handling|autonomous forklifts|xswarm technology|fleet management|material handling robots|amr technology|automated forklifts</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -21128,6 +21467,11 @@
           <t>http://www.myflexbox.com</t>
         </is>
       </c>
+      <c r="Z224" t="inlineStr">
+        <is>
+          <t>24|7|all parcels in one place|flexible|transparent &amp; fast handovers|keeps objects safe</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -21219,6 +21563,7 @@
           <t>http://www.taggmbh.at</t>
         </is>
       </c>
+      <c r="Z225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -21302,6 +21647,7 @@
           <t>http://www.energieag.at</t>
         </is>
       </c>
+      <c r="Z226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -21385,6 +21731,11 @@
           <t>http://www.viadonau.org</t>
         </is>
       </c>
+      <c r="Z227" t="inlineStr">
+        <is>
+          <t>environment|education in inland navigation|safety of navigation|lock management|economy &amp; logistics|river information services|inland navigation|pr pro danube navigation</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -21476,6 +21827,11 @@
           <t>http://www.troteclaser.com</t>
         </is>
       </c>
+      <c r="Z228" t="inlineStr">
+        <is>
+          <t>laserengraving|lasermarking|lasercutting|lasermaterial|co2laser|fiberlaser|largeformatlaser|galvolaser|lasersoftware|ruby|lasercutter|laserengraver|laser</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -21571,6 +21927,11 @@
           <t>http://www.ami.at</t>
         </is>
       </c>
+      <c r="Z229" t="inlineStr">
+        <is>
+          <t>coloproctology|urology|urogynaecology</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -21666,6 +22027,11 @@
           <t>http://www.kobansuedvers.at</t>
         </is>
       </c>
+      <c r="Z230" t="inlineStr">
+        <is>
+          <t>risikomanagement|altersvorsorge|cybersecurity|vorsorge|gesundheitsvorsorge|betriebsunterbrechung|versicherung|beratung|kreditversicherung|d|o|gesundheitsmanagement|betriebliche vorsorge|oversicherungen|industrie|gewerbe</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -21761,6 +22127,11 @@
           <t>http://www.kobansuedvers.at</t>
         </is>
       </c>
+      <c r="Z231" t="inlineStr">
+        <is>
+          <t>risikomanagement|altersvorsorge|cybersecurity|vorsorge|gesundheitsvorsorge|betriebsunterbrechung|versicherung|beratung|kreditversicherung|d|o|gesundheitsmanagement|betriebliche vorsorge|oversicherungen|industrie|gewerbe</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -21856,6 +22227,11 @@
           <t>http://www.austrocel.com</t>
         </is>
       </c>
+      <c r="Z232" t="inlineStr">
+        <is>
+          <t>chemie|zellstoff|bioenergie|kreislaufwirtschaft|c2c</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -21951,6 +22327,11 @@
           <t>http://www.kobansuedvers.at</t>
         </is>
       </c>
+      <c r="Z233" t="inlineStr">
+        <is>
+          <t>risikomanagement|altersvorsorge|cybersecurity|vorsorge|gesundheitsvorsorge|betriebsunterbrechung|versicherung|beratung|kreditversicherung|d|o|gesundheitsmanagement|betriebliche vorsorge|oversicherungen|industrie|gewerbe</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -22042,6 +22423,7 @@
           <t>http://www.rag-austria.at</t>
         </is>
       </c>
+      <c r="Z234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -22133,6 +22515,11 @@
           <t>http://www.ean.org</t>
         </is>
       </c>
+      <c r="Z235" t="inlineStr">
+        <is>
+          <t>neurology|education|europe|guidelines</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -22224,6 +22611,11 @@
           <t>http://www.binder-co.com</t>
         </is>
       </c>
+      <c r="Z236" t="inlineStr">
+        <is>
+          <t>reliable crushing|efficient screening|wet processing|thermal processing|sensor based sorting|packaging palletizing</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -22315,6 +22707,7 @@
           <t>http://www.pharmaand.com</t>
         </is>
       </c>
+      <c r="Z237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -22410,6 +22803,11 @@
           <t>http://www.enspired-trading.com</t>
         </is>
       </c>
+      <c r="Z238" t="inlineStr">
+        <is>
+          <t>artificial intelligence|trading as a service|power trading|intraday markets|automated trading|renewable energy|market access|flexibility trading|energytech|battery marketing|flexible assets|battery route to market|batterymanagement|vpp|flexible demand|artificialintelligence</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -22501,6 +22899,7 @@
           <t>http://www.bmaw.gv.at</t>
         </is>
       </c>
+      <c r="Z239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -22588,6 +22987,11 @@
           <t>http://www.eww.at</t>
         </is>
       </c>
+      <c r="Z240" t="inlineStr">
+        <is>
+          <t>wasser|fernwaerme|strom|itandtel|solar|waerme|anlagentechnik|gas|photovoltaik|informationstechnologie</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -22675,6 +23079,11 @@
           <t>http://www.ebnergroup.cc</t>
         </is>
       </c>
+      <c r="Z241" t="inlineStr">
+        <is>
+          <t>heat treatment|aluminum|steel|copper base metals|casting|melting|cooling</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -22766,6 +23175,11 @@
           <t>http://www.isovolta.com</t>
         </is>
       </c>
+      <c r="Z242" t="inlineStr">
+        <is>
+          <t>energy|aviation|transportation|composite materials|specialities|emobility</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -22857,6 +23271,11 @@
           <t>http://www.alpinemetaltech.com</t>
         </is>
       </c>
+      <c r="Z243" t="inlineStr">
+        <is>
+          <t>sondermaschinenbau|automotive|steel|life cycle business|technologiefuehrer|aerospace|advanced technology|automatisierung|strangguss|brammen adjustage|markiertechnologie</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -22948,6 +23367,11 @@
           <t>http://www.austriajuice.com</t>
         </is>
       </c>
+      <c r="Z244" t="inlineStr">
+        <is>
+          <t>beverage|flavour concepts|beverage compounds|ftnf flavours|composition flavours|fruit juice concentrates|fruit wines|cider</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -23039,6 +23463,7 @@
           <t>http://www.poloplast.com</t>
         </is>
       </c>
+      <c r="Z245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -23122,6 +23547,11 @@
           <t>http://www.winkelbauer.com</t>
         </is>
       </c>
+      <c r="Z246" t="inlineStr">
+        <is>
+          <t>schnellwechsler|wear parts|plasmaschneiden|sonderloesung|baggerausruestung|ideenschmiede|komponentenfertigung|hardox|loeffel|maschinenbau|baumaschinenausruestung|schaufel|verschleissbleche|combi parts|bagger</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -23209,6 +23639,11 @@
           <t>http://www.lagermax.com</t>
         </is>
       </c>
+      <c r="Z247" t="inlineStr">
+        <is>
+          <t>transport und logistik|aed|paketdienst|spedition</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -23292,6 +23727,7 @@
           <t>http://www.salzburg.gv.at</t>
         </is>
       </c>
+      <c r="Z248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -23383,6 +23819,11 @@
           <t>http://www.wiener-privatklinik.com</t>
         </is>
       </c>
+      <c r="Z249" t="inlineStr">
+        <is>
+          <t>oncology|trauma|orthopedics|eye surgery|immunooncology</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -23466,6 +23907,11 @@
           <t>http://www.klv.at</t>
         </is>
       </c>
+      <c r="Z250" t="inlineStr">
+        <is>
+          <t>versicherungen &amp; innovation</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -23553,6 +23999,7 @@
           <t>http://www.vegatrans.com</t>
         </is>
       </c>
+      <c r="Z251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -23636,6 +24083,11 @@
           <t>http://www.eww.at</t>
         </is>
       </c>
+      <c r="Z252" t="inlineStr">
+        <is>
+          <t>strom|gas|wasser|solar|anlagentechnik|itandtel|waerme|photovoltaik|informationstechnologie|fernwaerme</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -23727,6 +24179,11 @@
           <t>http://www.vfi.co.at</t>
         </is>
       </c>
+      <c r="Z253" t="inlineStr">
+        <is>
+          <t>copacking|produkte fuer einzelhandel|produkte fuer lebensmittelindustrie|produkte aus kontrolliert biologischem anbau|produkte zur herstellung von saeuglingsnahrung|markenprodukte|biofuttermittel</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -23816,6 +24273,11 @@
       <c r="Y254" t="inlineStr">
         <is>
           <t>http://www.fraunhofer.at</t>
+        </is>
+      </c>
+      <c r="Z254" t="inlineStr">
+        <is>
+          <t>digitale transformation|produktions und logistikmanagement|visual computing|fabrikplanung|lagerplanung|industrie40|menschroboterkollaboration|produktionsoptimierung|instandhaltung|anlagenmanagement|kuenstliche intelligenz</t>
         </is>
       </c>
     </row>
@@ -23905,6 +24367,11 @@
           <t>http://www.getbyrd.com</t>
         </is>
       </c>
+      <c r="Z255" t="inlineStr">
+        <is>
+          <t>e-commerce|mobile application|logistics|online shopping|consumer internet|internet|information technology|shipping|packaging|ecommerce|firstmile logistics|brick &amp; mortar logistics|courier service|on demand service|branded packaging|flexible pricing|shopsystem integrations|open api|customer care|batch fulfillment|warehousing|fulfillment|crossborder fulfillment</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -23992,6 +24459,11 @@
           <t>http://www.yourstorebox.com</t>
         </is>
       </c>
+      <c r="Z256" t="inlineStr">
+        <is>
+          <t>lager mieten|lager vermieten|lagerhalle|lagerplatz|transport|umzug|selfstorage|smart logistics|smart city|e-commerce|consumer internet|internet|information technology|transportation, logistics, supply chain &amp; storage|self-storage|urban logistics|digital booking|24/7 access|smart sensor technology|video surveillance|insurance|franchise system|business solutions|last mile logistics|click &amp; collect|micro-hubs|parcel pick-up stations|business clients|franchise partner|real estate|storage infrastructure|rental properties|commercial space|logistics efficiency|dynamic warehousing|decentralized storage|self-employment|site selection|maintenance services|temperature control|humidity control|customer experience|urban areas|logistics network|service accessibility|property integration|flexible working spaces|sustainability|environmentally friendly solutions|local storage|access codes|customer support|online platform|secure storage|multi-functional warehouses|locations across europe|urbanization solutions|storage cabins|business efficiency|inventory management|last mile delivery solutions|commercial property leasing|consumers|information technology &amp; services|logistics &amp; supply chain|environmental services|renewables &amp; environment</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -24071,6 +24543,11 @@
           <t>http://www.stw.at</t>
         </is>
       </c>
+      <c r="Z257" t="inlineStr">
+        <is>
+          <t>electricity|gas|water|district heating|telecommunications|mobility services|photovoltaics|small power plants|smart meters|energy communities|customer portal|energy consulting|energy savings tips|emobility charging stations|vehicle guidance|community projects|sustainability programs|outdoor advertising|funerals|leisure facilities|swimming pools|apps|energy tariffs|customer service|internet services|urban development|environmental protection|energy management|service center|complaints management|construction services|network connection|billing information|renewable energy|co2-neutral|green energy|discounts|loyalty programs|trouble reporting|digital transformation|business partnerships|recreational activities|employee training|quality assurance|eu projects|local governance|community engagement|natural resources|oil &amp; energy|clean energy &amp; technology|environmental services|renewables &amp; environment|e-commerce|consumer internet|consumers|internet|information technology &amp; services</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -24158,6 +24635,11 @@
           <t>http://www.novogenia.com</t>
         </is>
       </c>
+      <c r="Z258" t="inlineStr">
+        <is>
+          <t>genetik|lohnherstellung|nem|diagnostische analysen|massenscreening|medizinische genanalysen|lifestyle analysen|gesundheitsvorsorge|sportanalysen|biotech|genetics|dna|genetic testing|contract manufacturing|biotechnology research|lifestyle analysis|nutrigenetics|weight management|personalized nutrition|detoxification|health diagnostics|biological age assessment|food intolerance testing|metabolism analysis|custom supplements|athletic performance|preventive health care|personalized health solutions|allergy testing|stress management|burnout prevention|nutritional genetics|health insights|dietary recommendations|dna analysis|wellness optimization|fitness nutrition|micronutrient needs|macronutrient distribution|gene variation testing|dietary supplements|cosmetic genetics|epigenetics|personalized meal plans|sports nutrition|caloric needs assessment|clinical genetics|health practitioner support|nutritionist collaboration|physiotherapy|pharmacogenetics|cutting-edge biotechnology|innovation in health|laboratory testing|medical diagnostics|quality management|iso certified|scientific research|white label products|genetic predispositions|individualized care|health &amp; wellness|mechanical or industrial engineering|health, wellness &amp; fitness</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -24245,6 +24727,11 @@
           <t>http://www.weingartner.com</t>
         </is>
       </c>
+      <c r="Z259" t="inlineStr">
+        <is>
+          <t>machine tools for metal cutting|steam|gas turbine|turbo generator complete machining|turnmill|millturn machining centers|machinery manufacturing|machine tools|high-precision machining|aerospace industry|oil &amp; gas pumps|plastic processing|cad/cam software|machining center|cost-efficiency|whirling technology|multi-product machining|turbine shafts|injection molding|extrusion screws|feed screws|progressive cavity pumps|manufacturing technology|general machining|energy industry|crankshaft production|steam turbines|gas turbines|large compressors|industrial machinery|turning &amp; milling|customization|special machine tools|quality manufacturing|engineering services|production efficiency|advanced materials|support services|remote support|technical assistance|job order production|component manufacturing|prototyping|tooling solutions|innovative engineering|precision tools|global operations|customer service|technical expertise|machining processes|cost-effective solutions|integrated systems|service &amp; maintenance|market leaders|industry standards|information technology &amp; services|material science</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -24324,6 +24811,11 @@
           <t>http://www.kwp.at</t>
         </is>
       </c>
+      <c r="Z260" t="inlineStr">
+        <is>
+          <t>pflege|betreuung|remobilisation|palliative care|demenz|hospitals &amp; health care|assisted living|retirement home|senior care|dementia care|nursing services|independent living|community integration|rehabilitation|short-term care|social clubs|elderly support|senior-friendly housing|meal services|free time activities|volunteering opportunities|legal advocacy|financial plans for seniors|ombudsstelle services|individual care plans|outdoor activities|wellness programs|support for refugees|multi-disciplinary support|social events|training seminars|memory care activities|fitness programs|cooking classes|art &amp; crafts|psychosocial support|social activities|emergency care|health monitoring|exercise facilities|senior community|senior apartments|senior services|residential facilities|interactive workshops|care assistance|elderly engagement|home furnishings|grocery services|social integration|leisure programs|cultural activities|safety &amp; security services|hospital &amp; health care</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -24411,6 +24903,11 @@
           <t>http://www.tauernklinikum.at</t>
         </is>
       </c>
+      <c r="Z261" t="inlineStr">
+        <is>
+          <t>hospitals &amp; health care|healthcare|medical services|hospital|patient care|emergency services|acute care|medical specialists|expertise|rehabilitation|nursing training|medical departments|patient information|surgery|general medicine|orthopedics|urology|gynecology|intensive care|ambulatory care|radiology|referral information|health services|patient preparation|clinical education|healthcare workforce|nursing education|patient support|preoperative care|therapeutic care|hospital admission|specialized treatment|acute treatments|preventive care|health monitoring|patient consultations|medical protocols|community health|public health education|pharmaceutical care|geriatrics|healthcare facilities|medical evaluation|diagnostic services|emergency response|patient satisfaction|healthcare quality|nursing assistance|hospital amenities|patient rights|healthcare accessibility|hospital &amp; health care|health care|health, wellness &amp; fitness</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -24490,6 +24987,11 @@
           <t>http://www.gtec.at</t>
         </is>
       </c>
+      <c r="Z262" t="inlineStr">
+        <is>
+          <t>biosignal amplifiers|eeg|ecog|wireless eeg|neuroscience|stroke rehabilitation|disorders of consciousness|humanmachine interface|bci|biomedical engineering|neurosurgery|highgamma mapping|brain mapping|electrocorticography|hackathon|cognitive training|recoverix|mindbeagle|cortiq|neurology|braincomputer interface|neurotechnology|bci award|bci award foundation|coma assessment|cortical mapping|medical equipment manufacturing|brain-computer interface|bci technology|biosignal amplifier|eeg headset|non-invasive measurement|high-density eeg|medical engineering|real-time data analysis|neurofeedback|cognitive neuroscience|electrode systems|wearable eeg|neurorehabilitation|signal processing|eeg &amp; fnirs|data acquisition|neuroscience research|ecog recordings|multi-channel eeg|data synchronization|high-resolution eeg|neural signal interpretation|real-time processing|eeg electrodes|stimulus presentation|behavioral research|cognitive analysis|sensors integration|digital trigger inputs|impedance measurement|neural dynamics|eeg cap design|electrode connectors|clinical applications|mobile eeg|artifact removal|spatial resolution|event-related potentials|closed-loop systems|intelligent signal acquisition|physiological data recording|open-source bci|non-invasive brain mapping|tms &amp; eeg integration|multi-sensor recordings|research software environment|brain-computer interfaces|eeg processing|recoverix therapy|wearable eeg headsets|data acquisition systems|neuromodulation|neuromarketing|medical diagnosis|invasive &amp; non-invasive systems|healthcare technology|rehabilitation centers|motor rehabilitation|stroke recovery|functional near-infrared spectroscopy|real-time signal processing|data analysis services|global presence|innovative technology|healthcare professionals|research institutions|neuroplasticity|communication devices|brain assessment|high-gamma frequency analysis|portable biosignal recording|consultation services|artifact control|feature extraction|virtual reality therapy|closed-loop experiments|motor imagery therapy|neurophysiological measurement systems|health infrastructure|medical technologies|software development|international collaboration|advanced medical devices|biotechnology|medical devices|hospital &amp; health care|information technology &amp; services</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -24577,6 +25079,11 @@
           <t>http://www.porscheinterauto.at</t>
         </is>
       </c>
+      <c r="Z263" t="inlineStr">
+        <is>
+          <t>service|fahrzeugfinanzierung|fahrzeugverkauf|reparaturen|lackierungen|raederwechsel|mobilitaet|emobilitaet|motor vehicle manufacturing|new cars|used cars|financing advice|test drive|electric mobility|instant available vehicles|online reservation|vehicle accessories|used car quick search|vehicle detail search|service &amp; repair|tire service|vehicle servicing|porsche|volkswagen|audi|seat|skoda|cupra|vehicle maintenance|carlog|warranty|clean &amp; charge services|pia market|pia camper|pia fastlane|porsche inter auto|customer reviews|online car configurator|discount offers|grouped maintenance|appointment booking|job opportunities|newsletter subscription|customer satisfaction|leasing offers|flexible auto subscription|mobile mechanics|vehicle valuation|trade-in|performance packages|special editions|brand workshops|accessory customization|emergency services|roadside assistance|latest models|showroom events|business fleet management|sustainability initiatives|automotive</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -24664,6 +25171,11 @@
           <t>http://www.hagleitner.com</t>
         </is>
       </c>
+      <c r="Z264" t="inlineStr">
+        <is>
+          <t>hotellerie und gastronomie|industrie|handel|gewerbe und oeffentliche einrichtungen|gesundheit und fuersorge|facility service management|sanitaerhandel|planer und architekten|chemical manufacturing|hygiene|disinfection|sanitation|cleaning products|hygiene solutions|sustainability|environmental hygiene|digital applications|spending systems|hospital hygiene|washroom hygiene|kitchen hygiene|textile hygiene|object hygiene|automated dispensing|cosmetics|personal hygiene|surface disinfectants|environmental certifications|quality standards|customer satisfaction|hygiene management|hagleitner|digital hygiene world|sensor technology|user-friendly|hygiene technologies|service excellence|certificates &amp; awards|innovative design|hygiene products|customer service|efficient cleaning|liquid soap dispensers|hygienic surfaces|hospitality hygiene|individualized solutions|hygiene consulting|legal compliance|eco-friendly|automated paper dispensers|user interface|multi-purpose cleaners|application software|building cleaning|business partnerships|health care hygiene|international distribution|smart solutions|bioresistant materials|chemicals|environmental services|renewables &amp; environment|beauty|apparel &amp; fashion</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -24743,6 +25255,11 @@
           <t>http://www.cs.at</t>
         </is>
       </c>
+      <c r="Z265" t="inlineStr">
+        <is>
+          <t>palliative care|demenz|multiple sklerose|hospiz|betreuung zu hause|haus fuer mutter und kind|trauerbegleitung|hauskrankenpflege|beratungsstelle|roter anker|demenz kindgerecht erklaert|hospitals &amp; health care|home care assistance|nursing services|alzheimer's care|dementia support|hospice care|day care centers|long term care|short term care|social services|senior care|community support|family support|multip sclerosis care|children's services|educational support|advisory services|emergency care|therapeutic programs|hospital discharge support|patient advocacy|volunteer programs|fundraising initiatives|online donations|grief counseling|spiritual care|professional nursing|medical consultations|financial assistance|government grants|self-help groups|wellness programs|care management|trainings for caregivers|integrated care|therapeutic activities|pain management|end of life care|patient rights|emotional support|respite care|community outreach|social integration|specialized facilities|individualized care plans|holistic support|residential living arrangements|interdisciplinary teamwork|comfort care|hospital &amp; health care</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -24830,6 +25347,11 @@
           <t>http://www.psd-wien.at</t>
         </is>
       </c>
+      <c r="Z266" t="inlineStr">
+        <is>
+          <t>psychiatrie|ambulante psychiatrie|kinder und jugendpsychiatrie|gerontopsychiatrie|hospitals &amp; health care|psychosocial services|mental health|psychiatry|psychotherapy|crisis intervention|ambulatory care|rehabilitation|social psychiatry|emergency services|children's psychiatry|youth mental health|geriatric psychiatry|disability support|autism spectrum services|psychological counseling|mental health hotline|regional services|public health|community support|personalized treatment|therapeutic interventions|psychosocial rehabilitation|family therapy|mental health education|disease management|support groups|professional healthcare|mental illness|psychotropic medication|cognitive behavioral therapy|social integration|mental health advocacy|crisis hotline|patient-centered care|psychosocial assessment|mental health reform|residential support|therapeutic group sessions|multidisciplinary teams|qualitative care|mental illness awareness|psychiatric emergencies|collaborative treatment|behavioral health|psychological assessment|community outreach|mental well-being|supportive housing|hospital &amp; health care|health, wellness &amp; fitness</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -24917,6 +25439,7 @@
           <t>http://www.energie-graz.at</t>
         </is>
       </c>
+      <c r="Z267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -25000,6 +25523,11 @@
           <t>http://www.vogl-auto.at</t>
         </is>
       </c>
+      <c r="Z268" t="inlineStr">
+        <is>
+          <t>nissan|alpine|hyundai|fiat|dacia|alfa romeo|werkstatt|renault|autohandel|autoabo|maxus|jeep|motor vehicle manufacturing|car purchase|leasing|renting|new cars|electric vehicles|used cars|auto subscription|auto service|workshop|maintenance|car valuation|full service package|manufacturer brands|all-in warranty|flexible mobility solutions|road assistance|repair services|collision repair|tire change|environmentally friendly vehicles|plug-in hybrid|battery electric vehicles|leasing offers|vehicle insurance|residual value leasing|cost transparency|vehicle maintenance|service appointments|car trade-in|valuation tool|vehicle inspection|professional advice|customized service packages|dealer of the year|mobile workshops|vehicle registration|test drive|customer support|loyalty programs|promotional offers|sustainable mobility|automotive|clean energy &amp; technology|environmental services|renewables &amp; environment|e-commerce|consumer internet|consumers|internet|information technology &amp; services</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -25083,6 +25611,11 @@
       <c r="W269" t="inlineStr"/>
       <c r="X269" t="inlineStr"/>
       <c r="Y269" t="inlineStr"/>
+      <c r="Z269" t="inlineStr">
+        <is>
+          <t>abwassertechnik|beregnung|rohre und armaturen|machinery manufacturing</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -25170,6 +25703,11 @@
           <t>http://www.hochreiter-gruppe.at</t>
         </is>
       </c>
+      <c r="Z270" t="inlineStr">
+        <is>
+          <t>food &amp; beverage manufacturing|meat production|convenience foods|snack industry|food processing|high-quality meat|international exports|gastroenterology tourism|rehabilitation services|modern snack products|food safety|food quality control|sustainable practices|health tourism|hospitality|culinary offerings|meat certification|premium hotel services|food logistics|meat packaging|snack development|private label production|food technology|customer satisfaction|product variety|frozen meals|fast food partnerships|italian cuisine|restaurant supply|health resorts|nutritional products|meat distribution|fresh food delivery|food innovation|kitchen management|quality assurance|staff training|customer engagement|supply chain management|eco-friendly packaging|employee benefits|community support|modern production facilities|culinary education|safety certifications|dairy products|restaurant services|agricultural partnerships|environmental responsibility|food production|food &amp; beverages|consumer goods|consumers|leisure, travel &amp; tourism|logistics &amp; supply chain</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -25253,6 +25791,11 @@
           <t>http://www.kwp.at</t>
         </is>
       </c>
+      <c r="Z271" t="inlineStr">
+        <is>
+          <t>pflege|betreuung|remobilisation|palliative care|demenz|hospitals &amp; health care|assisted living|retirement home|senior care|dementia care|nursing services|independent living|community integration|rehabilitation|short-term care|social clubs|elderly support|senior-friendly housing|meal services|free time activities|volunteering opportunities|legal advocacy|financial plans for seniors|ombudsstelle services|individual care plans|outdoor activities|wellness programs|support for refugees|multi-disciplinary support|social events|training seminars|memory care activities|fitness programs|cooking classes|art &amp; crafts|psychosocial support|social activities|emergency care|health monitoring|exercise facilities|senior community|senior apartments|senior services|residential facilities|interactive workshops|care assistance|elderly engagement|home furnishings|grocery services|social integration|leisure programs|cultural activities|safety &amp; security services|hospital &amp; health care</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -25332,6 +25875,11 @@
           <t>http://www.joanneum.at</t>
         </is>
       </c>
+      <c r="Z272" t="inlineStr">
+        <is>
+          <t>research services|applied research|innovation|digital technologies|sensors|photonics|flexible production|robotics|medical technology|regenerative medicine|healthcare|biomedical research|environmental sustainability|climate research|automated driving|digital transformation|industry 4.0|smart manufacturing|data analytics|nanotechnology|education|career development|corporate social responsibility|international cooperation|research partnerships|quality assurance|policy analysis|social innovation|space technology|biodiversity|energy systems|3d technology|digital twin|smart hospital|artificial intelligence|machine learning|process optimization|simulation|engineering|material science|advanced materials|sustainable technology|transportation|economic research|social impact|health technology|public policy|r&amp;d infrastructure|community engagement|diversity &amp; inclusion|robotic systems|hardware|mechanical or industrial engineering|information technology &amp; services|health care|health, wellness &amp; fitness|hospital &amp; health care</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -25419,6 +25967,11 @@
           <t>http://www.en-come.com</t>
         </is>
       </c>
+      <c r="Z273" t="inlineStr">
+        <is>
+          <t>services for renewable energy|operations &amp; maintenance|pv power plants|technical asset management|engineering services|consulting services|o&amp;m provider|battery energy storage systems|monitoring system|performance optimization|energy performance|maximizing availability|maximizing production|long-term asset value|health &amp; safety|quality assurance|asset management|monitoring solutions|global engineering services|commercial services|infrastructural services|fault identification|proactive management|investment return|monitoring functions|customizable monitoring|public relations energy|sustainability consulting|energy consulting|project management|integrated solutions|renewable energy management|maintenance strategies|compliance services|technical support|data analysis|energy efficiency|solar energy solutions|market expansion|growth strategy|independent service provider|client partnerships|capacity management|benchmarking services|international operations|power plant management|lifecycle services|spv management|digital services|performance monitoring|renewables &amp; environment|information technology &amp; services|management consulting|productivity|data analytics|environmental services</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -25506,6 +26059,11 @@
           <t>http://www.ankerbrot.at</t>
         </is>
       </c>
+      <c r="Z274" t="inlineStr">
+        <is>
+          <t>food &amp; beverage manufacturing|bäckerei|handsemmel|brote|gebäck|mehlspeisen|tiefkühl-backwaren|gastronomie|franchise|österreichische lebensmittel|konditorei|semmel|bio-backwaren|dinkelprodukte|vegan|traditionelle backkunst|straßenverkauf|sauerteig|backwarenlieferung|frühstücksangebote|snack-konzepte|bäckerhandwerk|weckerl|tortensortiment|café-brasserie|regionalität|hochwertige zutaten|online-bestellung|kundenbindung|verpackte produkte|saisonale produkte|kaffeegenuss|nachhaltigkeit|lebensmittelsicherheit|kundensupport|markenpartnerschaften|backstationen|kundenfreundliche preise|erlebnisgastronomie|markenstrategie|verkaufsstellen|kunden aufmerksam machen|qualitätssicherung|wochenaktuelle angebote|soziale verantwortung|lebensmittelverschwendung vorbeugen|gesunde ernährung|produkt-innovation|kundenfeedback|food production</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -25585,6 +26143,11 @@
           <t>http://www.amst.at</t>
         </is>
       </c>
+      <c r="Z275" t="inlineStr">
+        <is>
+          <t>aviation &amp; aerospace component manufacturing</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -25672,6 +26235,11 @@
           <t>http://www.sonnleitner-auto.com</t>
         </is>
       </c>
+      <c r="Z276" t="inlineStr">
+        <is>
+          <t>renault|nissan|dacia|gebrauchtwagen aller marken|reparaturen|alpine|werkstatt|spenglerei|elektromobilitaet|motor vehicle manufacturing|汽车销售|新车|电动汽车|混合动力车|suv|商用车|原装配件|บริการซ่อมแซมรถยนต์|灯具|特惠活动|客户服务|车辆搜索|官网|优惠方案|汽车金融|租赁融资|高性能|车主移动应用|汽车维护|技术支持|合作伙伴|工厂直销|配件咨询|车主活动|车辆展示|比赛|新闻资讯|校园招聘|职业发展|市场活动|公关活动|售后服务|汽车维修|对比报价|用户体验|激励计划|现代科技|电池管理系统|智能出行|交通解决方案|可持续发展|数字化服务|线上预约|客户反馈|汽车配件|automotive</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -25747,6 +26315,11 @@
       <c r="W277" t="inlineStr"/>
       <c r="X277" t="inlineStr"/>
       <c r="Y277" t="inlineStr"/>
+      <c r="Z277" t="inlineStr">
+        <is>
+          <t>hospitals &amp; health care|hospital &amp; health care</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -25826,6 +26399,11 @@
           <t>http://www.faigle.com</t>
         </is>
       </c>
+      <c r="Z278" t="inlineStr">
+        <is>
+          <t>components for intralogistics systems|rollers &amp; components for escalators &amp; moving walks|hangingstraps for public transport|plastics manufacturing|intralogistics|roller systems|high performance plastics|material flow solutions|automated storage systems|roller bearings|shuttle systems|plastic components|load capacity|durability|wear resistance|energy efficiency|modular design|sustainable solutions|tool-free installation|shuttle flaps|guidance rollers|curved track operation|transportation safety|vibration dampening|noise reduction|custom solutions|manufacturing technology|cost-efficient processes|maintenance-free operation|quality management|thermoplastic elastomers|load carriers|vertical storage systems|reliable operation|heavy-duty applications|ergonomic design|low rolling resistance|static discharge|modular roller assemblies|shuttle mechanisms|durable construction|maintenance-friendly designs|long service life|anti-static properties|rfid integration|real-time monitoring|customized roller solutions|industrial transportation|flexible manufacturing|heat &amp; chemical resistance|supply chain optimization|agile packaging systems|chemicals|environmental services|renewables &amp; environment</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -25903,6 +26481,11 @@
       <c r="Y279" t="inlineStr">
         <is>
           <t>http://www.efm.at</t>
+        </is>
+      </c>
+      <c r="Z279" t="inlineStr">
+        <is>
+          <t>franchise|versicherungsloesungen|versicherungsmakler|versicherung|vertrieb|finanzen|vermoegen|insurance broker|personal insurance|auto insurance|life insurance|health insurance|disability insurance|liability insurance|household insurance|travel insurance|homeowners insurance|commercial insurance|agricultural insurance|cyber insurance|drone insurance|pension insurance|accident insurance|property damage|legal protection|specialty insurance|insurance comparison|risk management|financial protection|insurance consultation|independent insurance advice|customer support|claims processing|insurance premiums|insurance coverage|insurance solutions|tailored insurance policies|unemployment insurance|investments|property insurance|business interruption insurance|breach of contract insurance|data protection insurance|pet health insurance|comprehensive coverage|deductibles|insurance underwriting|market analysis|claims assistance|insurance reviews|coverage evaluation|personalized service|insurance negotiation|policy management|insurance expertise|insurance market trends</t>
         </is>
       </c>
     </row>
@@ -25988,6 +26571,11 @@
           <t>http://www.poerner.at</t>
         </is>
       </c>
+      <c r="Z280" t="inlineStr">
+        <is>
+          <t>biturox bitumen anlagen|poerner bitumen bag bitumen packing system|verfahrenstechnik|formalin|derivate|studien|consulting|bautechnik|revamp|chemie|petrochemie|energie und umwelttechnik|ptx|bio silicates|elektrolyse|wasserstoff|biomasse|wassermanagement|engineering|process engineering|bitumen technology|biturox oxidation|petrochemical|chemical industry|residue processing|environmental solutions|technology consulting|project management|refinery optimization|biotechnology|industrial production|civil engineering|sustainable energy|oil refining|wastewater treatment|bio-silicates|low energy polymer|synthetic diesel|gas technology|energy efficiency|emission reduction|renewable resources|research &amp; development|plant construction|logistics consulting|legal compliance|consulting services|infrastructure development|technical training|team collaboration|plant modernization|industrial solutions|alternative fuels|high-tech processes|water recycling|biomass energy|pharmaceutical engineering|chemical conversion|safety management|project monitoring|turnaround management|feasibility studies|supply chain management|customized engineering|process optimization|environmental engineering|innovative solutions|residue-free processes|chemicals|b2b|management consulting|productivity|environmental services|renewables &amp; environment|logistics &amp; supply chain</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -26075,6 +26663,11 @@
           <t>http://www.lucky-car.at</t>
         </is>
       </c>
+      <c r="Z281" t="inlineStr">
+        <is>
+          <t>reparatur von unfallschaeden|reparatur von parkschaeden|reparatur von hagelschaeden|reparatur von lackkratzern|dellenreparatur|austausch von windschutzscheiben|steinschlagreparatur bei windschutzscheiben|direkte versicherungsabwicklung|komplettlackierungen|klimaanlagen desinfektion|kfzmechanikservice|57a uberpruefung pickerl|service nach herstellervorgaben|ressourcenschonende reparaturen|olwechsel|motor vehicle manufacturing|collision repair|paint damage|windscreen|dents|car service|body shop|vehicle repair|franchise|automobile servicing|glass repair|hail damage|car maintenance|smash repairs|dent removal|insurance billing|mechanical repairs|tire service|emergency roadside assistance|direct insurance settlement|vehicle safety|air conditioning service|battery replacement|brake service|exhaust system repair|suspension repair|chassis alignment|repair financing|vehicle inspection|replacement vehicle|car restoration|wheel alignment|quick service|automotive technology|roadside assistance|damage reporting|mobile repair service|customer service|car detailing|preventive maintenance|painter services|car accessories|fast repairs|tire balancing|vehicle diagnostics|service without appointment|professional repair specialists|automotive</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -26162,6 +26755,11 @@
           <t>http://www.myflexbox.com</t>
         </is>
       </c>
+      <c r="Z282" t="inlineStr">
+        <is>
+          <t>24|7|last mile|letzte meile|smart city|logistics|infrastruktur|paketstation|parcel station|apm|smart locker|click &amp; collect|saas|first mile|erste meile|paketbox|paketservices|outofhome|onestopshop|packstation|schliessfaecher|transportation, logistics, supply chain &amp; storage|last mile logistics|sustainable delivery|package station|urban infrastructure|smart cities|contactless service|eco-friendly solutions|24/7 access|flexible delivery options|automated package handling|out-of-home delivery|traffic reduction|customer satisfaction|location analytics|delivery consolidation|logistics partner|business collaboration|app integration|urban mobility|resource-efficient|public transport enhancements|environmental impact|customer convenience|package retrieval|e-commerce logistics|partner network|public-private initiatives|real estate collaboration|energy efficiency|community enhancement|co2 reduction|automated updates|operational efficiency|multimodal transport|seamless user experience|logistical challenges|multi-service hub|inclusive platform|shared economy|last-mile efficiency|self-service kiosks|community engagement|reduced emissions|traffic fluidity|network expansion|saas logistics solution|collaborative delivery systems|computer software|information technology &amp; services|logistics &amp; supply chain|environmental services|renewables &amp; environment</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -26241,6 +26839,11 @@
           <t>http://www.hollu.com</t>
         </is>
       </c>
+      <c r="Z283" t="inlineStr">
+        <is>
+          <t>chemical manufacturing|cleaning solutions|hygiene management|product catalog|service &amp; consulting|facility management|hospital hygiene|food industry cleaning|training programs|digital process management|noa app|sustainability solutions|private label products|disinfection services|environmental management|hygiene consulting|cleaning systems|quality assurance|on-site training|online courses|customized cleaning plans|category-specific solutions|technical service hotline|customer service|chemical safety|maintenance services|waste management|water conservation|energy efficiency|certified quality standards|lauber organic products|emergency response cleaning|quality training|laundry hygiene|facility cleaning|hotel &amp; gastronomy|healthcare sanitation|public sector hygiene|industrial cleaning|eco-friendly cleaning products|recycling initiatives|facility service|home office|flexible working hours|health &amp; wellness programs|employee training|ecological certification|community engagement|local production|innovative cleaning technology|customizable services|chemicals|environmental services|renewables &amp; environment</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -26324,6 +26927,11 @@
           <t>http://www.agilox.net</t>
         </is>
       </c>
+      <c r="Z284" t="inlineStr">
+        <is>
+          <t>autonomous mobile robots|automated material handling|autonomous forklifts|xswarm technology|fleet management|material handling robots|amr technology|automated forklifts|automation machinery manufacturing|amr|automated guided vehicles|agv|x-swarm technology|material handling|logistics automation|intralogistics|transportation solutions|flexible routing|obstacle avoidance|machine safety|omnidirectional drive|self-driving fork-lift|software integration|battery-powered robots|real-time navigation|data analytics|cloud-based analytics|efficiency optimization|ai-driven logistics|load carrier|heavy load handling|small load transport|autonomous navigation|automated transport systems|multi-level operation|easy commissioning|workflow management|dynamic load handling|workforce safety|integration with existing processes|manufacturing efficiency|plug &amp; perform|scalable solutions|standardized interfaces|custom load carriers|intelligent transport systems|performance metrics|warehouse automation|navigation sensors|communication protocols|remote monitoring|customizable dashboards|transport demand management|future-ready logistics|robotic automation solutions|material flow optimization|intelligent guided vehicles|automation solutions|flexibility|scalability|easy integration|real-time data analysis|efficiency|swarm intelligence|heavy-duty applications|compact design|user-friendly interface|rapid deployment|cost-effective solutions|industrial automation|customer-centric approach|global presence|innovative technology|seamless integration|production logistics|supply chain optimization|mechanical or industrial engineering</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -26403,6 +27011,11 @@
           <t>http://www.trox.at</t>
         </is>
       </c>
+      <c r="Z285" t="inlineStr">
+        <is>
+          <t>luftdurchlaesse|dezentrale lueftung|luftwassersysteme|brand und rauchschutzsysteme|regelgeraete und regelsysteme|raumlufttechnische geraete|filtergeraete und filterelemente|lueftungsventilatoren|jalousieklappen und wetterschutzgitter|hvac &amp; refrigeration equipment manufacturing|ventilation systems|air quality management|air handling units|fire protection systems|ducting components|climate control|sustainability|bim planning|air distribution systems|hvac components|filter systems|indoor air quality|air conditioning|energy efficiency|environmental product declarations|customer portal|product configurator|custom ventilation solutions|industrial air handling|automation technology|air treatment solutions|noise control|efficient air flow|air diffusers|heat transfer systems|brand protection systems|ductless solutions|maintenance services|online shopping platform|technical consulting|customer support|project management|regulatory compliance|smart building integration|humidity control|smart air management|real-time monitoring|air filtration technology|variable volume control|constant air volume system|air flow measurement|installation services|product lifecycle support|eco-friendly products|room induction systems|innovative air solutions|client-centered services|machinery|environmental services|renewables &amp; environment|hvac|productivity</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -26482,6 +27095,11 @@
           <t>http://www.gigkarasek.com</t>
         </is>
       </c>
+      <c r="Z286" t="inlineStr">
+        <is>
+          <t>thin film evaporator|short path evaporator|thin film dryer|miniplants|plate falling film evaporator|tube falling film evaporator|evaporation plants|engineering|service|rectification|pilot plants|mechanical vapor recompression|thermal vapor recompression|distillation|evaporation|drying|co2 utilization|ccu|co2 valorization|iiot solutions|industrial heat pump|machinery manufacturing|industrial heat pumps|thin-film technology|short-path technology|conventional evaporation|digitalization|industrial iot|environmental technologies|custom solutions|plant engineering|turnkey plants|revamping|retrofitting|decarbonization|waste heat utilization|process planning|apparatus construction|high-viscosity applications|temperature-sensitive applications|lamella technology|falling film evaporator|multiple effect evaporation|technical center|r&amp;d trials|engineering services|chemical industry solutions|food industry applications|wastewater recycling|plumbing &amp; fiber industry|petrochemical solutions|oleochemistry processes|starch processing|quality assurance|health &amp; safety|code of conduct|customer service|global partnerships|collaborative projects|state-of-the-art technology|long-standing expertise|project management|information technology &amp; services|productivity</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -26569,6 +27187,11 @@
           <t>http://www.premiqamed.at</t>
         </is>
       </c>
+      <c r="Z287" t="inlineStr">
+        <is>
+          <t>hospitals &amp; health care|private clinics|ambulatory medicine|rehabilitation|corporate health|mobile health services|facility management|medical services|patient satisfaction|quality management|healthcare facilities|medical excellence|certifications|sustainability|healthcare strategy|project management|employee diversity|career opportunities|health tourism|community health|medical compliance|patient care|health screenings|occupational medicine|medical staffing|human resources|healthcare administration|medical innovations|emergency care|patient-centered approach|wellness programs|rehabilitation services|quality assurance|medical professionals|clinical services|investment management|data protection|risk management|health sector|public-private partnerships|healthcare management|medical technology|patient engagement|cost management|health outcomes|clinical excellence|health infrastructure|healthcare workforce|government health initiatives|healthcare audits|telemedicine services|hospital &amp; health care|environmental services|renewables &amp; environment|productivity|financial services</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -26656,6 +27279,11 @@
           <t>http://www.lanserhof.com</t>
         </is>
       </c>
+      <c r="Z288" t="inlineStr">
+        <is>
+          <t>longevity|wellness|regeneration|health retreat|naturopathy|preventive medicine|personalized treatment|health diagnostics|fasting programs|mental health|hormone balance|stress resilience|traditional medicine|advanced diagnostics|integration of therapies|nutritional optimization|mindfulness|holistic health|therapeutic interventions|medical spa|detoxification|spiritual wellness|individual health plans|sports medicine|evidence-based treatments|physiotherapy|cognitive therapy|meditation|functional food|skin care|supplementation|healthy aging techniques|psychoneuroimmunology|cellular health|metabolic therapy|complementary medicine|detox diets|well-being resources|self-care|transformational health programs|revitalization therapies|experiential wellness|laboratory analysis|health &amp; vitality|medical supervision|treatment packages|relaxation techniques|exercise therapy|high-quality nutrition|personal wellness journey|hospital &amp; health care</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -26743,6 +27371,11 @@
           <t>http://www.hage.at</t>
         </is>
       </c>
+      <c r="Z289" t="inlineStr">
+        <is>
+          <t>ruehrreibschweissen|saegeanlagen|stanzanlagen|individuelle sondermaschinen|automatisierungsloesungen|portalbearbeitungszentren|crashboxlinien|verkettete fertigungslinien|friction stir welding|fertigungsstationen|sondermaschinenbau|sondermaschinen|industrial machinery manufacturing</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -26823,6 +27456,11 @@
           <t>http://www.cs.at</t>
         </is>
       </c>
+      <c r="Z290" t="inlineStr">
+        <is>
+          <t>palliative care|demenz|multiple sklerose|hospiz|betreuung zu hause|haus fuer mutter und kind|trauerbegleitung|hauskrankenpflege|beratungsstelle|roter anker|demenz kindgerecht erklaert|hospitals &amp; health care|home care assistance|nursing services|alzheimer's care|dementia support|hospice care|day care centers|long term care|short term care|social services|senior care|community support|family support|multip sclerosis care|children's services|educational support|advisory services|emergency care|therapeutic programs|hospital discharge support|patient advocacy|volunteer programs|fundraising initiatives|online donations|grief counseling|spiritual care|professional nursing|medical consultations|financial assistance|government grants|self-help groups|wellness programs|care management|trainings for caregivers|integrated care|therapeutic activities|pain management|end of life care|patient rights|emotional support|respite care|community outreach|social integration|specialized facilities|individualized care plans|holistic support|residential living arrangements|interdisciplinary teamwork|comfort care|hospital &amp; health care</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -26910,6 +27548,11 @@
           <t>http://www.federal-chancellery.gv.at</t>
         </is>
       </c>
+      <c r="Z291" t="inlineStr">
+        <is>
+          <t>federal chancellery|citizens service|digital administration|cybersecurity|austrian government|sustainable development goals|women &amp; equality|integration strategies|bioethics commission|youth services|family support|crisis management|legal information system|media law|party funding|national security|discrimination protection|gender equality|cultural affairs|information technology policy|civic participation|educational programs|public libraries initiatives|administrative guidance|cross-border cooperation|social welfare programs|civic education|public health access|child protection services|crisis counseling|youth empowerment|diplomatic relations|international cooperation|research &amp; development|crisis prevention|austrian integration fund|community engagement|civil society support|access to information|legislative frameworks|public records management|statistical reporting|anti-discrimination laws|social integration policies|public awareness campaigns|e-government|administrative transparency|citizenship services|online resource centers|accessibility initiatives</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -26989,6 +27632,11 @@
           <t>http://www.hoedlmayr.com</t>
         </is>
       </c>
+      <c r="Z292" t="inlineStr">
+        <is>
+          <t>supply chain|automotive logistics|transport|vehicles|cars|trucks|transportation, logistics, supply chain &amp; storage|transport logistics|vehicle logistics|multi-modal solutions|supply chain management|freight transport|vehicle tracking|end-to-end logistics|releasing agent|transport services|logistics services|smart repair|fleet management|vehicle remarketing|sustainable logistics|logistics network|full-service provider|international logistics|quality assurance|customized solutions|warehouse services|vehicle handling|pre-delivery services|last mile delivery|dock services|rail logistics|road transport|logistics innovation|supply chain optimization|transport efficiency|environmental sustainability|business development|employee engagement|transport coordination|service centers|automotiv transport solutions|carrier services|automobile supply chain|logistics technology|compliance management|logistics consulting|value-added services|industrial logistics|vehicle modification|project logistics|contract logistics|customer service excellence|vehicle maintenance|transport collaboration|automotive|logistics &amp; supply chain|b2b</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -27068,6 +27716,11 @@
           <t>http://www.kremsmueller.com</t>
         </is>
       </c>
+      <c r="Z293" t="inlineStr">
+        <is>
+          <t>industrial engineering|industrial plant construction|instrumentation &amp; control|pressure vessel &amp; tank construction|pipework construction|industrial services|anlagenbau|industrieanlagenbau|rohrleitungsbau|behaelterbau|apparatebau|emsr|telekommunikationstechnik|montage|industriemontage|klaerschlammverbrennung|instandhaltung|arbeitskraefteueberlassung|schweisser|lagersysteme|industrial machinery manufacturing|pipeline construction|plant engineering|telecommunications|epc services|project management|maintenance services|industrial assembly|pressure vessels|heat accumulators|energy technology|electrical measurement technology|automation technology|supply networks|industrial heat recovery|fiber optic networks|natural gas pipelines|water pipelines|wastewater treatment|industrial boilers|environmental technology|safety engineering|welding services|machinery assembly|renewable energy systems|custom tank construction|valuing expertise|project consulting|fluid transport|construction project management|infrastructure development|heat transfer systems|regulations compliance|pipe insulation|grid expansion|heavy equipment services|industrial equipment installation|engineering calculations|worksite safety|technical documentation|risk assessment|social responsibility initiatives|customer support|operational excellence|engineering procurement conglomerate|highway projects|energy efficiency solutions|hydraulic systems installation|productivity</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -27155,6 +27808,11 @@
           <t>http://www.bhswien.at</t>
         </is>
       </c>
+      <c r="Z294" t="inlineStr">
+        <is>
+          <t>chirurgie|innere medizin gastroenterologie und hepatologie|interventionelle endoskopie|kardiologie|psychosomatik|urologie|anaesthesie|physikalische medizin|hospitals &amp; health care|hospital &amp; health care</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -27234,6 +27892,11 @@
           <t>http://www.neuroth.com</t>
         </is>
       </c>
+      <c r="Z295" t="inlineStr">
+        <is>
+          <t>medical equipment manufacturing|hearing aids|hearing protection|custom ear molds|bluetooth hearing aids|audiology services|tinnitus therapy|hearing tests|hearing loss solutions|hearing aid accessories|digital hearing aids|in-ear hearing aids|behind-the-ear hearing aids|rechargeable hearing aids|personalized fitting|3d-printed ear molds|audio streaming|smart hearing aids|customer support|hearing aid adjustments|ear health consultation|wearable technology|hearing enhancement|sound amplification|individualized hearing solutions|telephone solutions for hearing aids|noise cancellation|hearing aid maintenance|hearing care professionals|medical hearing services|self-service hearing solutions|hearing aid insurance|affordable hearing aids|krankenkasse reimbursement|hearing aid trials|professional audiologists|community hearing services|hearing aid repairs|specialized auditory support|comprehensive hearing care|sound quality improvement|premium hearing devices|hearing aid financing options|personalized audiology|family-owned hearing business|modern hearing technology|customer education on hearing|hearing health awareness|accessible hearing solutions|quality hearing care|medical devices|hospital &amp; health care|wearable technologies|wearables|consumer goods|consumers|internet of things|consumer electronics|hardware|computer hardware</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -27321,6 +27984,11 @@
           <t>http://www.khspittal.com</t>
         </is>
       </c>
+      <c r="Z296" t="inlineStr">
+        <is>
+          <t>innere medizin|anaesthesie und intensivmedizin|allgemeinchirurgie|radiologisches institut|gynaekologie|geburtshilfe|physiotherapie|orthopaedie und traumatologie|hospitals &amp; health care|healthcare|patient care|diagnosis|treatment|outpatient services|emergency care|surgery|medical expertise|patient-centered|rehabilitation|health services|medical technology|intensive care|nursing care|hospital administration|medical staff|health education|community health|therapeutic services|clinical procedures|medical facilities|patient admissions|quality assurance|medical certificates|occupational health|geriatrics|nutritional therapy|clinical research|health improvement|family medicine|anesthesiology|orthopedics|gynecology|radiology|general surgery|spiritual care|ambulance services|patient navigation|health assessments|dialysis|occupational therapy|physiotherapy|holistic health|emotional support|peer support groups|caregiver training|community outreach|hospital accreditation|public health|hospital &amp; health care|health care|health, wellness &amp; fitness|medical practice</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -27408,6 +28076,11 @@
           <t>http://www.lucky-car.at</t>
         </is>
       </c>
+      <c r="Z297" t="inlineStr">
+        <is>
+          <t>reparatur von unfallschaeden|reparatur von parkschaeden|reparatur von hagelschaeden|reparatur von lackkratzern|dellenreparatur|austausch von windschutzscheiben|steinschlagreparatur bei windschutzscheiben|direkte versicherungsabwicklung|komplettlackierungen|klimaanlagen desinfektion|kfzmechanikservice|57a uberpruefung pickerl|service nach herstellervorgaben|ressourcenschonende reparaturen|olwechsel|motor vehicle manufacturing|collision repair|paint damage|windscreen|dents|car service|body shop|vehicle repair|franchise|automobile servicing|glass repair|hail damage|car maintenance|smash repairs|dent removal|insurance billing|mechanical repairs|tire service|emergency roadside assistance|direct insurance settlement|vehicle safety|air conditioning service|battery replacement|brake service|exhaust system repair|suspension repair|chassis alignment|repair financing|vehicle inspection|replacement vehicle|car restoration|wheel alignment|quick service|automotive technology|roadside assistance|damage reporting|mobile repair service|customer service|car detailing|preventive maintenance|painter services|car accessories|fast repairs|tire balancing|vehicle diagnostics|service without appointment|professional repair specialists|automotive</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -27487,6 +28160,11 @@
           <t>http://www.bev.gv.at</t>
         </is>
       </c>
+      <c r="Z298" t="inlineStr">
+        <is>
+          <t>eichwesen|vermessung|geoinformation|metrologie|marktueberwachung|land surveying|calibration|measurement standards|digital elevation model|topographical maps|land register|address registry|data services|market surveillance|consumer protection|precision measurement|geodata infrastructure|services|quality management|geographic information systems|spatial data|measurement regulation|positioning services|photogrammetry|historical maps|land use assessment|areas of use|em measurement|accreditation|international standards|measurement uncertainty|geographic coordinates|digital landscape model|mapping services|normalized measurements|inspections|notified bodies|measurement tools|data downloads|semantics|geographic data services|measurement verification|professional training|data usage agreements|academic lectures|publications|standard fees|customer service|request forms|data exchange|measurement reliability|quality assurance|environmental standards|legal foundations</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -27566,6 +28244,11 @@
           <t>http://www.oss.at</t>
         </is>
       </c>
+      <c r="Z299" t="inlineStr">
+        <is>
+          <t>hospitals &amp; health care|orthopedic clinic|joint replacement|spine surgery|physical therapy|rehabilitation services|sports medicine|ambulatory care|patient safety|acute care|patient referral|medical consultation|health network|chronic pain management|surgical intervention|non-surgical treatment|patient education|healthcare services|medical specialists|advanced imaging|orthopedic surgery|musculoskeletal disorders|physiotherapy|outpatient services|urgent care hotline|online appointment scheduling|patient support|health screenings|nursing care|volunteer programs|clinical trials|health improvement|community health|health certifications|medical research collaboration|patient-centered care|integrative health services|health information management|medical records retrieval|medical second opinions|health guidance hotline|scheduled medical appointments|orthopedic consultations|rehabilitation techniques|health assessments|clinical pathways|patient follow-up services|family support services|pain management strategies|benefits administration|hospital &amp; health care|health care|health, wellness &amp; fitness</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -27645,6 +28328,11 @@
           <t>http://www.treibacher.com</t>
         </is>
       </c>
+      <c r="Z300" t="inlineStr">
+        <is>
+          <t>chemie|metallurgie|seltene erden|vanadium|seltenerdoxide|nichtoxide|anorganische chemie|ferroalloys|nonoxides|nonferrous metal alloys|salts &amp; solutions|metals|carbides|coating brake discs|titanium carbide|titanium carbonitride ti c|n|recycling|rare earths|molybdenum|ferrovanadium|ferromolybdenum|ferronickelmolybdenum|titaniummanganesebased hydrogen storage alloys|ammonium metavanadate|rare earth oxides|yttriastabilized zirconia|chemical manufacturing|metallurgy|automotive solutions|energy storage|pigments|high-performance ceramics|catalysts|water treatment|tungsten-based products|rare earth elements|vanadium production|environmental catalysts|plastics additives|pharmaceutical applications|sustainable development|corporate social responsibility|waste recycling|metal alloys|performance materials|industrial coatings|laser surface treatment|specialty chemicals|carbide materials|environmentally friendly solutions|nanoparticles|thermal spraying|mining tools|premium coatings|colorants|ceramic materials|battery technology|wastewater treatment|heavy metal recycling|innovative engineering|advanced materials|bio-ceramics|non-metallic materials|measurement technology|radiometric analysis|fire protection materials|coating technologies|functional additives|sintering technology|metal recycling|process optimization|engineering services|market solutions|custom materials|surface treatments|chemicals|oil &amp; energy|sustainability|environmental services|renewables &amp; environment|material science|information technology &amp; services</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -27732,6 +28420,11 @@
           <t>http://www.westbahn.at</t>
         </is>
       </c>
+      <c r="Z301" t="inlineStr">
+        <is>
+          <t>railway &amp; public transport|transportation, logistics, supply chain &amp; storage|ticket shop|buy tickets|group ticket|children's tickets|youth group ticket|klimaplus ticket|parking ticket|gift voucher|fares|discount fares|reservations|seat upgrades|wheelchair space|bike space|business deals|online booking|flexible cancellations|family benefits|free seat reservation|train timetable|route updates|passenger account|customer care|travel discounts|age-specific discounts|group reservations|children under 6 travel free|travel companions discount|journey flexibility|travel comfort|spacious seating|power outlets|free wi-fi|gender-separated toilets|food &amp; beverage services|multilingual service|available routes|intercity travel|train company|customer loyalty|savings on group travel|daily services|special offers|cross-border travel|affordable fare options|additional fees|cancellation policy|ticket validity periods|travel updates|rescheduling options|logistics &amp; supply chain|food &amp; beverages|consumer goods|consumers</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -27819,6 +28512,11 @@
           <t>http://www.haidlmair.com</t>
         </is>
       </c>
+      <c r="Z302" t="inlineStr">
+        <is>
+          <t>spritzgiesswerkzeugbau|cncbearbeitung|3ddruck kunststoff|metall|computertomographie|messtechnik|grosswerkzeugbau|machinery manufacturing|injection moulds|packaging|logistics boxes|beverage crates|foldable boxes|pallets|automotive parts|recycling containers|mould making|digitalisation solutions|bending moulds|thermoforming moulds|one-off production|mass production|software development|checklists digitalisation|issue management software|hot-runner systems|servicing moulds|repair services|european operations|international locations|sas partnership|cms umbraco|website analytics|target-oriented cookies|user experience|cookie management|functional cookies|necessary cookies|google analytics|sendgrid|social media integration|data protection|employee services|medium-sized moulds|quality control|custom components|mould tooling|production efficiency|sustainable manufacturing|technology integration|service centers|north america|cross-continental operations|specific component fabrication|automation solutions|shipping|logistics &amp; supply chain|information technology &amp; services|ux</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -27902,6 +28600,11 @@
       <c r="W303" t="inlineStr"/>
       <c r="X303" t="inlineStr"/>
       <c r="Y303" t="inlineStr"/>
+      <c r="Z303" t="inlineStr">
+        <is>
+          <t>lebensversicherung|unfallversicherung|pensionsvorsorge|zukunftssicherung|betriebliche kollektivversicherung|zukunftssvorsorge|risikoversicherung|hybridversicherung|offentlicher sektor|krankenversicherung|eigenheimversicherung|haushaltsversicherung|kfzversicherung|rechtschutzversicherung</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -27981,6 +28684,11 @@
           <t>http://www.evg.com</t>
         </is>
       </c>
+      <c r="Z304" t="inlineStr">
+        <is>
+          <t>schweissanlagen fuer die produktion von bewehrungsgitter|schweissanlagen fuer die produktion von zaun und industriegitter|maschinen fuer die betonstahlverarbeitung ab ring|gittertraegerschweissanlagen|betonstahlverarbeitung ab ring mehr erfahren anlagen und maschinen fuer die bewehrung von betonfertig|maschinen fuer die herstellung von rostgittern|anlagen fuer die bewehrung von betonfertigteilen|bewehrung|stahlbewehrung|wiederstandschweissen|robotik|schweissen|mechanische fertigung|programmierung von sondermaschinen|machinery manufacturing|welding machines|rebar processing|reinforcement mesh production|industrial fencing|construction machinery|automation technology|high-performance systems|wire processing|betonstahl processing|reinforcement for precast concrete|digitized production|customized manufacturing|3d construction panels|efficient welding solutions|user-friendly machinery|flexible production systems|advanced automation|high-speed welding|reinforcement systems|sturdy structures|wire structures|industrial applications|automated feeding systems|precision welding|durability|energy efficiency|tailored engineering solutions|customer support|project management|technical support|maintenance services|wire feeders|mesh systems|multi-functional machinery|standard reinforcement|grid welders|prefabricated components|construction technology|production efficiency|on-site support|engineering services|digitized solutions|cost-effective systems|structural integrity|quality assurance|engineering innovations|manufacturing solutions|modular designs|assembly line|high throughput|environmental services|renewables &amp; environment|productivity|information technology &amp; services</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -28068,6 +28776,11 @@
           <t>http://www.innsbruck.gv.at</t>
         </is>
       </c>
+      <c r="Z305" t="inlineStr">
+        <is>
+          <t>digital city hall|citizen services|contract registration|building permits|childcare services|public transport|rent subsidies|urban planning|employment opportunities|community nursing|social assistance|event hall rental|public parking|residential registration|cultural funding|education services|rehabilitation support|integration projects|safety regulations|community engagement|sports programs|environmental protection|family support services|public health|employment regulations|tax information|city council|public regulations|construction sites|traffic regulations|citizenship services|waste management|emergency services|arts funding|business registration|local government|finance statistics|community outreach|public consultations|disability services|public events|social housing|urban development|local businesses|traffic management|community events|public communications|seniors support|youth programs|health, wellness &amp; fitness</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -28155,6 +28868,11 @@
           <t>http://www.energieallianz.com</t>
         </is>
       </c>
+      <c r="Z306" t="inlineStr">
+        <is>
+          <t>energievertrieb|energiehandel|energienahe dienstleistungen|energieeffizienz|renewable energy|electricity distribution|energy supplier|gas trading|energy efficiency|customer service|energy consulting|fixed price models|portfolio management|spot pricing|intraday management|energy audits|market information|sustainable energy|green energy|environmental services|co2-neutral|energy market analysis|business solutions|custom energy plans|electricity supply|tariff models|energy solutions|natural resources|cost-effective solutions|energy procurement|energy transition|energy management|electric power|renewable energy sources|carbon-neutral|energy efficiency consulting|green electricity|supply reliability|renewable certificates|energy optimization|energy consumption|environmentally friendly|sustainable practices|business energy services|energy risk management|competitive pricing|customized solutions|energy transformation|client engagement|market competitiveness|utility services|energy trading|eco-friendly energy|utility management|clean energy &amp; technology|renewables &amp; environment|oil &amp; energy</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -28242,6 +28960,11 @@
           <t>http://www.ankerbrot.at</t>
         </is>
       </c>
+      <c r="Z307" t="inlineStr">
+        <is>
+          <t>food &amp; beverage manufacturing|bäckerei|handsemmel|brote|gebäck|mehlspeisen|tiefkühl-backwaren|gastronomie|franchise|österreichische lebensmittel|konditorei|semmel|bio-backwaren|dinkelprodukte|vegan|traditionelle backkunst|straßenverkauf|sauerteig|backwarenlieferung|frühstücksangebote|snack-konzepte|bäckerhandwerk|weckerl|tortensortiment|café-brasserie|regionalität|hochwertige zutaten|online-bestellung|kundenbindung|verpackte produkte|saisonale produkte|kaffeegenuss|nachhaltigkeit|lebensmittelsicherheit|kundensupport|markenpartnerschaften|backstationen|kundenfreundliche preise|erlebnisgastronomie|markenstrategie|verkaufsstellen|kunden aufmerksam machen|qualitätssicherung|wochenaktuelle angebote|soziale verantwortung|lebensmittelverschwendung vorbeugen|gesunde ernährung|produkt-innovation|kundenfeedback|food production</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -28329,6 +29052,11 @@
           <t>http://www.energieallianz.com</t>
         </is>
       </c>
+      <c r="Z308" t="inlineStr">
+        <is>
+          <t>energievertrieb|energiehandel|energienahe dienstleistungen|energieeffizienz|renewable energy|electricity distribution|energy supplier|gas trading|energy efficiency|customer service|energy consulting|fixed price models|portfolio management|spot pricing|intraday management|energy audits|market information|sustainable energy|green energy|environmental services|co2-neutral|energy market analysis|business solutions|custom energy plans|electricity supply|tariff models|energy solutions|natural resources|cost-effective solutions|energy procurement|energy transition|energy management|electric power|renewable energy sources|carbon-neutral|energy efficiency consulting|green electricity|supply reliability|renewable certificates|energy optimization|energy consumption|environmentally friendly|sustainable practices|business energy services|energy risk management|competitive pricing|customized solutions|energy transformation|client engagement|market competitiveness|utility services|energy trading|eco-friendly energy|utility management|clean energy &amp; technology|renewables &amp; environment|oil &amp; energy</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -28408,6 +29136,11 @@
           <t>http://www.gigkarasek.com</t>
         </is>
       </c>
+      <c r="Z309" t="inlineStr">
+        <is>
+          <t>thin film evaporator|short path evaporator|thin film dryer|miniplants|plate falling film evaporator|tube falling film evaporator|evaporation plants|engineering|service|rectification|pilot plants|mechanical vapor recompression|thermal vapor recompression|distillation|evaporation|drying|co2 utilization|ccu|co2 valorization|iiot solutions|industrial heat pump|machinery manufacturing|industrial heat pumps|thin-film technology|short-path technology|conventional evaporation|digitalization|industrial iot|environmental technologies|custom solutions|plant engineering|turnkey plants|revamping|retrofitting|decarbonization|waste heat utilization|process planning|apparatus construction|high-viscosity applications|temperature-sensitive applications|lamella technology|falling film evaporator|multiple effect evaporation|technical center|r&amp;d trials|engineering services|chemical industry solutions|food industry applications|wastewater recycling|plumbing &amp; fiber industry|petrochemical solutions|oleochemistry processes|starch processing|quality assurance|health &amp; safety|code of conduct|customer service|global partnerships|collaborative projects|state-of-the-art technology|long-standing expertise|project management|information technology &amp; services|productivity</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -28487,6 +29220,11 @@
           <t>http://www.westbahn.at</t>
         </is>
       </c>
+      <c r="Z310" t="inlineStr">
+        <is>
+          <t>railway &amp; public transport|transportation, logistics, supply chain &amp; storage|ticket shop|buy tickets|group ticket|children's tickets|youth group ticket|klimaplus ticket|parking ticket|gift voucher|fares|discount fares|reservations|seat upgrades|wheelchair space|bike space|business deals|online booking|flexible cancellations|family benefits|free seat reservation|train timetable|route updates|passenger account|customer care|travel discounts|age-specific discounts|group reservations|children under 6 travel free|travel companions discount|journey flexibility|travel comfort|spacious seating|power outlets|free wi-fi|gender-separated toilets|food &amp; beverage services|multilingual service|available routes|intercity travel|train company|customer loyalty|savings on group travel|daily services|special offers|cross-border travel|affordable fare options|additional fees|cancellation policy|ticket validity periods|travel updates|rescheduling options|logistics &amp; supply chain|food &amp; beverages|consumer goods|consumers</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -28566,6 +29304,11 @@
           <t>http://www.joanneum.at</t>
         </is>
       </c>
+      <c r="Z311" t="inlineStr">
+        <is>
+          <t>research services|applied research|innovation|digital technologies|sensors|photonics|flexible production|robotics|medical technology|regenerative medicine|healthcare|biomedical research|environmental sustainability|climate research|automated driving|digital transformation|industry 4.0|smart manufacturing|data analytics|nanotechnology|education|career development|corporate social responsibility|international cooperation|research partnerships|quality assurance|policy analysis|social innovation|space technology|biodiversity|energy systems|3d technology|digital twin|smart hospital|artificial intelligence|machine learning|process optimization|simulation|engineering|material science|advanced materials|sustainable technology|transportation|economic research|social impact|health technology|public policy|r&amp;d infrastructure|community engagement|diversity &amp; inclusion|robotic systems|hardware|mechanical or industrial engineering|information technology &amp; services|health care|health, wellness &amp; fitness|hospital &amp; health care</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -28653,6 +29396,11 @@
           <t>http://www.pccl.at</t>
         </is>
       </c>
+      <c r="Z312" t="inlineStr">
+        <is>
+          <t>research services|polymers|composites|structural applications|engineering thermoplastics|plastic pipes|sustainable polymer solutions|aging behavior of polymers|circularity of polymers|functional polymers|stimuli-responsive polymers|elastomers|simulation &amp; modeling|material modeling|elastomer technologies|process optimization|polymer tribology|material science|surface testing|robot vision|artificial intelligence|photovoltaic modules|degradation modeling|automotive applications|aerospace applications|packaging solutions|solar energy technologies|collaborative research|polymer technology|academic partnerships|innovation|funding programs|research projects|material performance|process technology|research &amp; development|chemistry of polymers|environmental sustainability|cutting-edge technology|networking|scientific advisory board|gender &amp; diversity|career opportunities|compliance &amp; risk management|partnering industries|intellectual property|data privacy|global research|cross-disciplinary research|smart materials|innovative solutions|information technology &amp; services</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -28732,6 +29480,11 @@
           <t>http://www.ro-ra.com</t>
         </is>
       </c>
+      <c r="Z313" t="inlineStr">
+        <is>
+          <t>aerospace|aviation|civil aerospace|helicopter|aviation &amp; aerospace component manufacturing|aviation systems|high precision components|structural rods|engine components|rods manufacturing|lightweight design|automated production|quality management|precision engineering|control rods|aftermarket solutions|cabin systems|shock absorbing brackets|composite applications|swaged rods|digital manufacturing|customized solutions|3d cad modeling|complex turned parts|aluminium components|machining technology|engine solenoids|testing facilities|material verification|lean manufacturing|supply chain management|innovative solutions|certified components|component assembly|flight control kinematics|torque tubes|vibration damping|mechanisms design|prototype production|product development|advanced materials|faa certified|easa compliant|precision machining|integrated sensors|real-time feedback|hydraulic dampers|tailored engineering|high-strength materials|digital product configurators|environmental testing|manufacturing efficiency|customer-oriented innovations|vertical integration|logistics &amp; supply chain|material science</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -28811,6 +29564,11 @@
           <t>http://www.burgenlandenergie.at</t>
         </is>
       </c>
+      <c r="Z314" t="inlineStr">
+        <is>
+          <t>windkraft|biomasse|okomobilitaet|photovoltaik|greentech|erneuerbare energie|okostrom|nachhaltigkeit|batteriespeicher|sonnenstrom|energieunabhängigkeit|stromversorgung|glasfaser|breitbandausbau|smartmeter|wärmepumpe|online kundenportal|tarifwechsel|energiespartipps|e-mobilität|ladestationen|interaktive lade-screens|gasversorgung|energiepreise|energiegemeinschaft|fördermittel|kundenservice|energieeffizienz|digital services|vertragsmanagement|unabhängiger strom|installation|wartung|monitoring|kostenlose planung|kundenanfragen|energieberatung|saubere energie|energieversorgungssicherheit|regionalität|e-auto laden|flexible tilgungsmöglichkeiten|nachhaltige infrastruktur|stromrechnungen|bestandsanalysen|konzessionierte installateure|maßgeschneiderte energielösungen|innovative technologie|energiepakete|eigenverbrauch|fixpreistarife|tarife vergleichen|bundesförderung</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -28898,6 +29656,11 @@
           <t>http://www.messer.at</t>
         </is>
       </c>
+      <c r="Z315" t="inlineStr">
+        <is>
+          <t>chemical manufacturing|industrial gases|medical gases|specialty gases|argon|acetylene|co2|carbon dioxide|helium|oxygen|nitrogen|welding gases|shielding gases|gas mixtures|gas supply solutions|bulk gases|cryogenic gases|gas cylinders|on-site gas production|gaseous state gases|liquid gases|gas storage|gas handling|gas delivery|gas regulations|safety standards|gas applications|laboratory gases|food grade gases|packaging gases|gas refilling|gas rental services|gaseous applications|chemical industry gases|food &amp; beverage gases|environmental gases|fire suppression gases|transports of gases|gas purity|gas properties|gas selection|custom gas mixtures|gas consulting services|gases for metalworking|gas supply systems|pressure regulators|gas monitoring systems|high-purity gases|gas analysis tools|remote monitoring of gases|industrial applications of gases|chemicals</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -28985,6 +29748,11 @@
           <t>http://www.logserv.at</t>
         </is>
       </c>
+      <c r="Z316" t="inlineStr">
+        <is>
+          <t>kontraktlogistik|projektlogistik|supply chain management|bahnservice instandhaltung lokomotiven und waggons|eisenbahnbautechnik|eisenbahnsicherungstechnik|fuhrparkmanagement|zolldienstleistungen|verkehrsakademie|bahnakademie|gefahrgut|gefahrgutbeauftragter|werksinterne transporte strasse|bahn|werkshafen voestalpine|werkstaette nutzfahrzeuge|sonderfahrzeuge|versandsteuerung steel division|eisenbahntraktion cargoserv|transportation, logistics, supply chain &amp; storage|logistics|supply chain|contract logistics|project logistics|transportation management|rail logistics|freight services|vehicle fleet management|customs services|environmental sustainability|innovation in logistics|green logistics|train analysis|rolling stock|workshop services|damage management|emergency assistance|training programs|hazardous goods logistics|in-house logistics|port logistics|heavy cargo transport|shipping services|waggon management|equipment maintenance|railway technology|on-demand transport|eco-friendly solutions|logistics automation|logistics consulting|cost reduction strategies|transport solutions|distribution services|import &amp; export|service management|load optimization|vehicle return services|compliance management|accident prevention|delivery scheduling|inventory management|transport infrastructure|cross-border logistics|logistics partnerships|material handling|operational efficiency|fleet optimization|industry partnerships|technical support|continuous improvement|logistics &amp; supply chain|international trade &amp; development</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -29068,6 +29836,11 @@
           <t>http://www.apomedica.com</t>
         </is>
       </c>
+      <c r="Z317" t="inlineStr">
+        <is>
+          <t>dr boehm|luuf|apozema|magnesium sport|lasepton|pharmaceutical manufacturing|herbal medicine|pharmaceutical products|non-prescription|food supplements|homeopathy|skin care|injury treatment|pain relief|swelling reduction|natural healing|scientific research|family-owned business|quality standards|traditional remedies|active ingredients|customer well-being|europe pharmacy|product formulation|health promotion|effective treatment|add-on benefits|medical safety|anxiety relief|nutraceuticals|natural ingredients|health care solutions|traditional knowledge|phytotherapy|customer support|injury recovery|pharmacovigilance|therapeutic pastes|muscle strain relief|essential oils|homeopathic formulations|pharmaceutical standards|active substances|herbal-based|pain management|family health|insect bite treatment|effective dosages|research-driven products|medical-grade|skin irritations|holistic health|supplemental nutrition|sports injury treatment|graz austria|apotheke finder|pharmaceuticals|medical</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -29147,6 +29920,11 @@
           <t>http://www.vogl-auto.at</t>
         </is>
       </c>
+      <c r="Z318" t="inlineStr">
+        <is>
+          <t>nissan|alpine|hyundai|fiat|dacia|alfa romeo|werkstatt|renault|autohandel|autoabo|maxus|jeep|motor vehicle manufacturing|car purchase|leasing|renting|new cars|electric vehicles|used cars|auto subscription|auto service|workshop|maintenance|car valuation|full service package|manufacturer brands|all-in warranty|flexible mobility solutions|road assistance|repair services|collision repair|tire change|environmentally friendly vehicles|plug-in hybrid|battery electric vehicles|leasing offers|vehicle insurance|residual value leasing|cost transparency|vehicle maintenance|service appointments|car trade-in|valuation tool|vehicle inspection|professional advice|customized service packages|dealer of the year|mobile workshops|vehicle registration|test drive|customer support|loyalty programs|promotional offers|sustainable mobility|automotive|clean energy &amp; technology|environmental services|renewables &amp; environment|e-commerce|consumer internet|consumers|internet|information technology &amp; services</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -29226,6 +30004,11 @@
           <t>http://www.wiener-privatklinik.com</t>
         </is>
       </c>
+      <c r="Z319" t="inlineStr">
+        <is>
+          <t>oncology|trauma|orthopedics|eye surgery|immunooncology|hospitals &amp; health care|wiener privatklinik|healthcare services|private hospital|internal medicine|surgery|rehabilitation|radiology|patient care|interdisciplinary collaboration|patient safety|risk management|quality management|check-up|senior care|cancer treatment|medical expertise|patient rights|health service center|medical education|wpk academy|emergency services|blood tests|aeromedical services|radiotherapy|wound management|pain therapy|patient satisfaction|clinical effectiveness|medical innovation|medical research|private patient care|hospital accreditation|iso certification|quality assurance|patient feedback|staff training|integrated care|vulnerability management|health insurance|international patients|telemedicine|medical networking|patient assistant|nursing care|outpatient treatment|chronic wound care|surgical procedures|medical assessments|hospital &amp; health care|health care|health, wellness &amp; fitness|health care information technology</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -29305,6 +30088,11 @@
           <t>http://www.winkelbauer.com</t>
         </is>
       </c>
+      <c r="Z320" t="inlineStr">
+        <is>
+          <t>maschinenbau|schnellwechsler|baumaschinenausruestung|bagger|loeffel|schaufel|wear parts|ideenschmiede|komponentenfertigung|hardox|baggerausruestung|sonderloesung|plasmaschneiden|verschleissbleche|combi parts|machinery manufacturing|excavator attachments|quick couplers|tilt rotator|hydraulic attachments|heavy-duty buckets|rock buckets|demolition equipment|recycling equipment|customized wear parts|wear-resistant steel|component manufacturing|hydraulic hammer|special attachments|bucket systems|safety locking systems|material handling|construction machinery|adaptable equipment|easy tool switching|high-strength steel|service &amp; repairs|spare &amp; wear parts|tooth systems|bi-metal wear protection|weld on shrouds|maintenance-free design|block cylinder technology|high-quality standards|industrial automation|training programs|sustainable solutions|quality assurance|hardox wear parts|efficient tool management|european purchasing strategy|long-lasting performance|material thickness processing|sheet metal fabrication|robotic welding|pioneering innovation|environmental compliance|system compatibility|future-proof systems|flexible manufacturing|patented technology|machine park expansion|on-site support|mechanical or industrial engineering</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -29392,6 +30180,11 @@
           <t>http://www.sjk-wien.at</t>
         </is>
       </c>
+      <c r="Z321" t="inlineStr">
+        <is>
+          <t>elternkindzentrum|geburtshilfe|kinderabteilung mit neonatologie|onkologie|tumorchirurgie|brustgesundheitszentrum|darmgesundheitszentrum|zentrum fuer speisenroehren und magenchirurgie|hospitals &amp; health care|hospital|patient care|childbirth|oncology|tumor surgery|neonatology|maternal health|gynaecology|internal medicine|surgical care|rehabilitation|pediatric care|health management|family-centered care|medical departments|outpatient services|birth center|patient support|medical research|health insurance|physiotherapy|mental health|urgent care|clinical psychology|preventive care|patient feedback|medical technology|health education|completion of care|safety protocols|quality management|medical certifications|experimental treatments|patient-centered approach|emergency services|community health|nursing staff|health awareness|medical internships|care coordination|wellness programs|job opportunities|spiritual care|patient rights|patient resources|fitness programs|well-being assessments|health assessments|hospital &amp; health care</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -29479,6 +30272,11 @@
           <t>http://www.wirtschaftsagentur.at</t>
         </is>
       </c>
+      <c r="Z322" t="inlineStr">
+        <is>
+          <t>creative industries|workshops|business location vienna|ict|smart city|research|development|expats in vienna|startups|life sciences|consulting|office|business space|foerderungen|beratungen|immobilien|nachhaltige technologien|intelligente produktion|digitale technologien|technologiezentrum seestadt|gruendungsstipendium|founders lab|viennaup|forschungsfest wien|talents|graetzelliebe|gewerbeflaechen mieten|leben|arbeiten in wien|nachhaltig handeln|neues entwickeln|consultation|funding|events|sustainability|business growth|internationalization|technology|innovation|startup support|real estate|urban development|procurement|entrepreneurial advice|financial assistance|market entry|digitalization|business relocation|community support|grant programs|urban economy|private partnerships|co-creation workshops|local economy|expat services|newsletters|networking|b2b collaboration|research &amp; development|circular economy|food industry|artisan production|business incubators|venture capital|market development|education &amp; training|real estate solutions|local supply chains|climate initiatives|healthcare innovation|media initiatives|community engagement|strategic partnerships|social entrepreneurship|regulatory advice|business support|funding opportunities|consulting services|small &amp; medium enterprises|international market entry|user experience enhancement|community building|technology support|economic diversity|quality of life|entrepreneurship|expat support|local services|healthcare|smart city initiatives|impact assessment|diversity &amp; inclusion|business infrastructure|financial support|climate neutrality|collaborative partnerships|economic growth|resource efficiency|management consulting|environmental services|renewables &amp; environment|social enterprise|health care|health, wellness &amp; fitness|hospital &amp; health care</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -29562,6 +30360,11 @@
           <t>http://www.gourmet.at</t>
         </is>
       </c>
+      <c r="Z323" t="inlineStr">
+        <is>
+          <t>gemeinschaftsverpflegung|gastronomie|eventgastronomie|private labelproduktion|lieferservice|food &amp; beverage manufacturing|community catering|private label|gourmet products|healthy meals|balanced nutrition|event catering|children's meals|senior nutrition|workplace dining|bio ingredients|natural foods|custom meal solutions|food sustainability|convenience meals|meal delivery service|dietetics|catering solutions|culinary events|seasonal ingredients|local sourcing|organic food|food safety|child-friendly options|gourmet dining|nutritional expertise|meal customization|foodservice|support for schools|meal preparation|nutritional education|dietetic consulting|restaurant services|food waste reduction|climate transparency|environmental sustainability|corporate catering|menu variety|suitable for dietary restrictions|culinary workshops|ethnic cuisine|artisan meals|food quality assurance|customer service|meal planning|senior care solutions|community engagement|operational excellence|food production|food &amp; beverages|consumer goods|consumers</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -29650,6 +30453,11 @@
           <t>http://www.fhv.at</t>
         </is>
       </c>
+      <c r="Z324" t="inlineStr">
+        <is>
+          <t>technik|wirtschaft|gestaltung|soziales|gesundheit|education administration programs|bachelor programs|master programs|international business management|accounting|finance|marketing|sales|innovation|organizational transformation|human resource management|applied sciences|engineering|information technology|mechatronics|digital innovation|energy systems|social work|health care|nursing|health care training|art &amp; design|creative leadership|interdisciplinary learning|research centers|digital transformation|business informatics|human-centred technologies|microtechnology|smart engineering technologies|diverse student support|international office|continuing education|dual studies|part-time study|student opportunities|scholarships|student community|campus facilities|innovation lab|career services|student events|quality management|alumni network|student consultations|research projects|teaching excellence|practical experience|intercultural exchange|sustainability in education|vibrant campus life|government administration|financial services|health, wellness &amp; fitness|education management</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -29729,6 +30537,11 @@
           <t>http://www.evg.com</t>
         </is>
       </c>
+      <c r="Z325" t="inlineStr">
+        <is>
+          <t>schweissanlagen fuer die produktion von bewehrungsgitter|schweissanlagen fuer die produktion von zaun und industriegitter|maschinen fuer die betonstahlverarbeitung ab ring|gittertraegerschweissanlagen|betonstahlverarbeitung ab ring mehr erfahren anlagen und maschinen fuer die bewehrung von betonfertig|maschinen fuer die herstellung von rostgittern|anlagen fuer die bewehrung von betonfertigteilen|bewehrung|stahlbewehrung|wiederstandschweissen|robotik|schweissen|mechanische fertigung|programmierung von sondermaschinen|machinery manufacturing|welding machines|rebar processing|reinforcement mesh production|industrial fencing|construction machinery|automation technology|high-performance systems|wire processing|betonstahl processing|reinforcement for precast concrete|digitized production|customized manufacturing|3d construction panels|efficient welding solutions|user-friendly machinery|flexible production systems|advanced automation|high-speed welding|reinforcement systems|sturdy structures|wire structures|industrial applications|automated feeding systems|precision welding|durability|energy efficiency|tailored engineering solutions|customer support|project management|technical support|maintenance services|wire feeders|mesh systems|multi-functional machinery|standard reinforcement|grid welders|prefabricated components|construction technology|production efficiency|on-site support|engineering services|digitized solutions|cost-effective systems|structural integrity|quality assurance|engineering innovations|manufacturing solutions|modular designs|assembly line|high throughput|environmental services|renewables &amp; environment|productivity|information technology &amp; services</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -29816,6 +30629,11 @@
           <t>http://www.hage.at</t>
         </is>
       </c>
+      <c r="Z326" t="inlineStr">
+        <is>
+          <t>ruehrreibschweissen|saegeanlagen|stanzanlagen|individuelle sondermaschinen|automatisierungsloesungen|portalbearbeitungszentren|crashboxlinien|verkettete fertigungslinien|friction stir welding|fertigungsstationen|sondermaschinenbau|sondermaschinen|industrial machinery manufacturing</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -29903,6 +30721,11 @@
           <t>http://www.wkv.at</t>
         </is>
       </c>
+      <c r="Z327" t="inlineStr">
+        <is>
+          <t>gesetzliche interessensvertretung|business portal|entrepreneurship|economic policies|workforce management|legal guidelines|company registration|small business regulations|employee training|kollektivvertrge|business structure|economic support|employment legislation|hr management|import export services|financial support programs|data protection|tax information|welfare benefits|energy efficiency|business transformation|digitalization|company acquisition|market statistics|business networking|employee recruitment|laws &amp; regulations|contract law|wage calculation|employee rights|business closure|international trade|business development|financial management|environmental policies|market analysis|job market insights|labour law|investment opportunities|b2b networking|sustainability initiatives|educational programs|business events|industry associations|foreign business relations|self-employment support|resources for entrepreneurs|policy advocacy|professional training|environmental services|renewables &amp; environment|b2b|civic &amp; social organization</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -29982,6 +30805,11 @@
           <t>http://www.porscheinterauto.at</t>
         </is>
       </c>
+      <c r="Z328" t="inlineStr">
+        <is>
+          <t>service|fahrzeugfinanzierung|fahrzeugverkauf|reparaturen|lackierungen|raederwechsel|mobilitaet|emobilitaet|motor vehicle manufacturing|new cars|used cars|financing advice|test drive|electric mobility|instant available vehicles|online reservation|vehicle accessories|used car quick search|vehicle detail search|service &amp; repair|tire service|vehicle servicing|porsche|volkswagen|audi|seat|skoda|cupra|vehicle maintenance|carlog|warranty|clean &amp; charge services|pia market|pia camper|pia fastlane|porsche inter auto|customer reviews|online car configurator|discount offers|grouped maintenance|appointment booking|job opportunities|newsletter subscription|customer satisfaction|leasing offers|flexible auto subscription|mobile mechanics|vehicle valuation|trade-in|performance packages|special editions|brand workshops|accessory customization|emergency services|roadside assistance|latest models|showroom events|business fleet management|sustainability initiatives|automotive</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -30069,6 +30897,11 @@
           <t>http://www.bhsried.at</t>
         </is>
       </c>
+      <c r="Z329" t="inlineStr">
+        <is>
+          <t>medizin|gesundheitsversorgung|pflege|verwaltung|patientenversorgung|ausbildung|therapie|hospitals &amp; health care|healthcare|patient care|hospital services|neurology|orthopedics|oncology|rehabilitation|infant care|surgery|stroke unit|intensive care|anesthesiology|palliative care|emergency services|maternity services|internal medicine|laboratory diagnostics|radiology|outpatient services|ambulance services|quality management|patient safety|mental health|community health|health education|doctor appointments|chronic disease management|physical therapy|occupational therapy|nursing services|medical research|medical training|staff development|work-life balance|family services|rehabilitation centers|healthcare facilities|advanced technology|healthcare empowerment|clinical trials|interdisciplinary cooperation|evaluation metrics|patient-centered care|feedback mechanisms|appointment scheduling|medical specialties|telemedicine|community outreach|health policy|medical ethics|hospital &amp; health care|health care|health, wellness &amp; fitness|medical practice|physiotherapy|health care information technology</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -30156,6 +30989,11 @@
           <t>http://www.prangl.at</t>
         </is>
       </c>
+      <c r="Z330" t="inlineStr">
+        <is>
+          <t>transportation, logistics, supply chain &amp; storage|mobile cranes|telescope cranes|special cranes|vehicle cranes|lattice cranes|crawler cranes|mobile construction cranes|tele-crawler cranes|work platforms|truck-mounted platforms|trailer-mounted platforms|articulating platforms|scissor lifts|special work platforms|mini cranes|heavy transport|heavy haulage|low-loader trailers|heavy load combinations|transportation bridges|excavator bridges|trams transporters|platform trailers|self-driving transports|blade transport devices|rotor blade trailers|pipe adapters|heavy load relocations|lifting portals|shifting systems|special steel structures|mobile platforms|forklifts|stackers|telesopic forklifts|loading cranes|engineering services|eco rental equipment|hybrid rental equipment|electric rental equipment|eco-friendly machines|safety &amp; health management|project planning|renting construction equipment|construction site equipment|international transport services|multi-location operations|expertise in logistics|user-friendly operations|sustainability initiatives|logistics &amp; supply chain|information technology &amp; services</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -30243,6 +31081,11 @@
           <t>http://www.kwp.at</t>
         </is>
       </c>
+      <c r="Z331" t="inlineStr">
+        <is>
+          <t>pflege|betreuung|remobilisation|palliative care|demenz|hospitals &amp; health care|assisted living|retirement home|senior care|dementia care|nursing services|independent living|community integration|rehabilitation|short-term care|social clubs|elderly support|senior-friendly housing|meal services|free time activities|volunteering opportunities|legal advocacy|financial plans for seniors|ombudsstelle services|individual care plans|outdoor activities|wellness programs|support for refugees|multi-disciplinary support|social events|training seminars|memory care activities|fitness programs|cooking classes|art &amp; crafts|psychosocial support|social activities|emergency care|health monitoring|exercise facilities|senior community|senior apartments|senior services|residential facilities|interactive workshops|care assistance|elderly engagement|home furnishings|grocery services|social integration|leisure programs|cultural activities|safety &amp; security services|hospital &amp; health care</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -30330,6 +31173,11 @@
           <t>http://www.lanserhof.com</t>
         </is>
       </c>
+      <c r="Z332" t="inlineStr">
+        <is>
+          <t>longevity|wellness|regeneration|health retreat|naturopathy|preventive medicine|personalized treatment|health diagnostics|fasting programs|mental health|hormone balance|stress resilience|traditional medicine|advanced diagnostics|integration of therapies|nutritional optimization|mindfulness|holistic health|therapeutic interventions|medical spa|detoxification|spiritual wellness|individual health plans|sports medicine|evidence-based treatments|physiotherapy|cognitive therapy|meditation|functional food|skin care|supplementation|healthy aging techniques|psychoneuroimmunology|cellular health|metabolic therapy|complementary medicine|detox diets|well-being resources|self-care|transformational health programs|revitalization therapies|experiential wellness|laboratory analysis|health &amp; vitality|medical supervision|treatment packages|relaxation techniques|exercise therapy|high-quality nutrition|personal wellness journey|hospital &amp; health care</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -30417,6 +31265,11 @@
           <t>http://www.warmbad.com</t>
         </is>
       </c>
+      <c r="Z333" t="inlineStr">
+        <is>
+          <t>hotellerie|tourismus|gastronomie|therapie|ortophaedie|rehabilitation|kurzentrum|thermalwasser|therme|gesundheit|therapiezentrum|thermenresort|wellness &amp; fitness services|thermal spa|health resort|wellness|medical treatments|orthopedic services|spa facilities|natural thermal water|hotel accommodations|family wellness|fitness programs|therapeutic treatments|sauna experiences|spa packages|kitchen &amp; catering|personal wellness|active lifestyle|rehabilitation center|pain management|stress relief|nutrition plans|relaxation therapies|medical supervision|natural therapies|fitness facilities|wellness retreats|customer service|accommodation options|hotel services|spa therapies|guest services|elderly care|medical care|wellness programs|therapeutic massages|skin care treatments|therapeutic pools|emotional wellness|physical therapy|health monitoring|environmental sustainability|team building|event hosting|corporate retreats|community wellness|online bookings|gift certificates|customer engagement|sports rehabilitation|preventive care|health, wellness &amp; fitness|physiotherapy</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -30504,6 +31357,11 @@
           <t>http://www.porscheinterauto.at</t>
         </is>
       </c>
+      <c r="Z334" t="inlineStr">
+        <is>
+          <t>service|fahrzeugfinanzierung|fahrzeugverkauf|reparaturen|lackierungen|raederwechsel|mobilitaet|emobilitaet|motor vehicle manufacturing|new cars|used cars|financing advice|test drive|electric mobility|instant available vehicles|online reservation|vehicle accessories|used car quick search|vehicle detail search|service &amp; repair|tire service|vehicle servicing|porsche|volkswagen|audi|seat|skoda|cupra|vehicle maintenance|carlog|warranty|clean &amp; charge services|pia market|pia camper|pia fastlane|porsche inter auto|customer reviews|online car configurator|discount offers|grouped maintenance|appointment booking|job opportunities|newsletter subscription|customer satisfaction|leasing offers|flexible auto subscription|mobile mechanics|vehicle valuation|trade-in|performance packages|special editions|brand workshops|accessory customization|emergency services|roadside assistance|latest models|showroom events|business fleet management|sustainability initiatives|automotive</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -30591,6 +31449,11 @@
           <t>http://www.empl.at</t>
         </is>
       </c>
+      <c r="Z335" t="inlineStr">
+        <is>
+          <t>feuerwehrtechnik|nutzfahrzeugtechnik|defence|behoerden|sonderaufbauten|anhaenger|sattelauflieger|transportsysteme|mobile systemloesungen|motor vehicle manufacturing|fire fighting vehicles|commercial vehicles|defence solutions|custom truck bodies|heavy duty recovery vehicles|vehicle restoration|transport solutions|tailored vehicle solutions|trailer manufacturing|emergency services vehicles|fire department support|specialized vehicles|mobile service|spare parts supply|training programs|system integration|demonstration of vehicles|vehicle modification|quality management|environmental management|innovation in vehicle design|firefighting equipment|waste management vehicles|road rescue solutions|modular vehicle kits|field support vehicles|heavy machinery solutions|long-lasting vehicle solutions|customer-oriented design|fire protection vehicles|specialized trailers|service offerings|vehicle types|emergency response vehicles|robust vehicle performance|custom manufacturing|mobile workshop|smart vehicle assembly|public safety vehicles|systematic approach to vehicle design|responsive service network|intermediate storage solutions|renewable energy adaptation|military standard vehicles|special event vehicles|high-performance firefighting technology|transportation logistics|precision engineering|effective rental solutions|efficient vehicle conversion|automotive</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -30678,6 +31541,11 @@
           <t>http://www.porscheinterauto.at</t>
         </is>
       </c>
+      <c r="Z336" t="inlineStr">
+        <is>
+          <t>service|fahrzeugfinanzierung|fahrzeugverkauf|reparaturen|lackierungen|raederwechsel|mobilitaet|emobilitaet|motor vehicle manufacturing|new cars|used cars|financing advice|test drive|electric mobility|instant available vehicles|online reservation|vehicle accessories|used car quick search|vehicle detail search|service &amp; repair|tire service|vehicle servicing|porsche|volkswagen|audi|seat|skoda|cupra|vehicle maintenance|carlog|warranty|clean &amp; charge services|pia market|pia camper|pia fastlane|porsche inter auto|customer reviews|online car configurator|discount offers|grouped maintenance|appointment booking|job opportunities|newsletter subscription|customer satisfaction|leasing offers|flexible auto subscription|mobile mechanics|vehicle valuation|trade-in|performance packages|special editions|brand workshops|accessory customization|emergency services|roadside assistance|latest models|showroom events|business fleet management|sustainability initiatives|automotive</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -30757,6 +31625,11 @@
           <t>http://www.pollmann.at</t>
         </is>
       </c>
+      <c r="Z337" t="inlineStr">
+        <is>
+          <t>toolshop|molding|assembly|metal|plastics|sunroof|door systems|powertrain|engine|emobility|motor vehicle manufacturing|automotive components|mechatronic solutions|metal-plastic composites|innovative processes|production efficiency|r&amp;d department|global supply chain|quality assurance|prototype development|mass production|compliance|e-mobility solutions|powertrain systems|sunroof mechanics|door locking systems|engine components|after sales service|lean production|collaboration|design engineering|process optimization|sustainable practices|key account management|international partnerships|staff training programs|career development|team building|project management|market research|customer solutions|electronic components|thermal management|advanced manufacturing|2d/3d modeling|robotic assembly|tooling advancements|compliance certification|automated systems|smart manufacturing|product lifecycle management|environmental sustainability|supply chain management|material science|automotive industry trends|global market leadership|product innovation|multi-disciplinary teamwork|chemicals|automotive|productivity|logistics &amp; supply chain</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -30844,6 +31717,11 @@
           <t>http://www.mantruckandbus.at</t>
         </is>
       </c>
+      <c r="Z338" t="inlineStr">
+        <is>
+          <t>motor vehicle manufacturing|automotive</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -30923,6 +31801,11 @@
           <t>http://www.neveon.com</t>
         </is>
       </c>
+      <c r="Z339" t="inlineStr">
+        <is>
+          <t>chemical manufacturing|flexible foam|composite foams|polyurethane|acoustic insulation|heat insulation|mattress recycling|custom foam solutions|lightweight materials|sustainable products|fire retardant foam|memory foam|high resilience foam|environmental responsibility|breathable foam|dimensional stability|pressure relief|allergy-friendly foams|anti-static foams|recycled materials|mass balance raw materials|certified quality|automotive seating|medical applications|comfort solutions|specialty applications|energy-efficient|packaging solutions|sports flooring|acoustic solutions|upholstered furniture|consumer products|sound absorbers|carrier materials|biological raw materials|humidity regulation|product innovation|iso certifications|high-quality foams|recycling technology|biodegradable materials|design solutions|technical foams|construction materials|filtration solutions|sustainable manufacturing|quality assurance|team collaboration|global presence|chemicals|consumer goods|consumers</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -31010,6 +31893,11 @@
           <t>http://www.porscheinterauto.at</t>
         </is>
       </c>
+      <c r="Z340" t="inlineStr">
+        <is>
+          <t>service|fahrzeugfinanzierung|fahrzeugverkauf|reparaturen|lackierungen|raederwechsel|mobilitaet|emobilitaet|motor vehicle manufacturing|new cars|used cars|financing advice|test drive|electric mobility|instant available vehicles|online reservation|vehicle accessories|used car quick search|vehicle detail search|service &amp; repair|tire service|vehicle servicing|porsche|volkswagen|audi|seat|skoda|cupra|vehicle maintenance|carlog|warranty|clean &amp; charge services|pia market|pia camper|pia fastlane|porsche inter auto|customer reviews|online car configurator|discount offers|grouped maintenance|appointment booking|job opportunities|newsletter subscription|customer satisfaction|leasing offers|flexible auto subscription|mobile mechanics|vehicle valuation|trade-in|performance packages|special editions|brand workshops|accessory customization|emergency services|roadside assistance|latest models|showroom events|business fleet management|sustainability initiatives|automotive</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -31089,6 +31977,11 @@
           <t>http://www.enu.at</t>
         </is>
       </c>
+      <c r="Z341" t="inlineStr">
+        <is>
+          <t>klima|kreislaufwirtschaft|natur|mobilitaet|energie|umwelt|kulinarik|energy|environment|sustainability|climate protection|renewable energy|consulting|energy efficiency|solar energy|wind energy|biomass|ecological education|biodiversity|water conservation|waste management|mobility|electric mobility|public awareness|regional development|sustainable lifestyle|climate adaptation|environmental initiatives|community projects|resource management|environmental protection|training programs|eco-label|sustainable practices|consultancy services|innovative projects|capacity building|partnerships|workshops|educational resources|outreach programs|green energy|environmental assessments|community engagement|sustainable agriculture|local partnerships|eco-friendly policies|guidelines for municipalities|environmental monitoring|environmental certifications|nature conservation|climate action|policy support|energy transition|public services|lifecycle assessment|environmental services|renewables &amp; environment|clean energy &amp; technology|management consulting</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -31176,6 +32069,11 @@
           <t>http://www.felder-group.com</t>
         </is>
       </c>
+      <c r="Z342" t="inlineStr">
+        <is>
+          <t>maschinenbau|holzbearbeitungsmaschinen|holzbearbeitung|machinery manufacturing|woodworking machines|solid wood processing|panel material processing|cnc machining|band saws|planers|jointer-planers|edgebanders|wide belt sanders|vacuum presses|automation solutions|material handling equipment|automation software|safety devices|high precision tools|industrial woodworking machinery|woodworking tools|machining centers|multi-function machines|saw shapers|customer support|workshop equipment|dust extraction systems|power feeders|woodworking service solutions|cutting technology|jointers|shapers|milling solutions|quality assurance|customer testimonials|woodworking industry standards|advanced woodworking solutions|sustainable woodworking practices|precision tools|customer engagement|high-quality woodworking|efficient machining|sawing equipment|material optimization|reliable machinery|user-friendly designs|workshop efficiency|machinery maintenance|technical innovation|customized woodworking|scalability in production|cutting-edge technology|wood processing solutions|finishing tools|mechanical or industrial engineering|machinery</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -31263,6 +32161,11 @@
           <t>http://www.energieag.at</t>
         </is>
       </c>
+      <c r="Z343" t="inlineStr">
+        <is>
+          <t>electricity provider|energy supplier|renewable energy|reliable service|high quality electricity|power company|energy solutions|sustainable energy|customer service|affordable energy|energy plans|electric power|green energy|local energy provider|energy management|electricity rates|energy efficiency|smart energy|residential electricity|commercial energy services|energy distribution|electricity supply|clean energy|utility provider|energy contracts|load management|energy analysis|grid stability|distributed energy resources|electricity infrastructure|environmentally friendly|power generation|energy consumption|demand response programs|energy pricing|customer engagement|electricity options|smart grid technology|energy innovation|community energy solutions|energy transition|fossil fuel alternatives|energy monitoring|electricity tariffs|renewable resources|power reliability|service area|clean energy &amp; technology|environmental services|renewables &amp; environment|oil &amp; energy</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -31350,6 +32253,11 @@
           <t>http://www.gisaqua.com</t>
         </is>
       </c>
+      <c r="Z344" t="inlineStr">
+        <is>
+          <t>machinery manufacturing|water treatment|wastewater treatment|drinking water|desalination|engineering solutions|project management|construction supervision|plant commissioning|operation &amp; maintenance|custom solutions|container-based water treatment|water purification|turnkey projects|technical planning|equipment supply|project execution|environmental technology|industrial water solutions|source water analysis|wastewater management|utility management|water resources|process optimization|client-specific operations|sustainable water practices|comprehensive service|project documentation|risk assessment|quality management|cost management|time management|site management|compliance standards|training &amp; support|construction phases|monitoring &amp; inspections|service offerings|effective communication|process innovation|regulatory compliance|engineering consultancy|system integration|environmental impacts|client satisfaction|treatment technologies|maintenance services|system documentation|technical expertise|human resources management|productivity</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -31429,6 +32337,11 @@
           <t>http://www.ikb.at</t>
         </is>
       </c>
+      <c r="Z345" t="inlineStr">
+        <is>
+          <t>energieversorgung|energiedienstleistungen|kommunalwirtschaft|abfallwirtschaft|abwasserentsorgung|wasserversorgung|internet|it|baeder|electricity|energy supply|waste management|water services|internet services|telecommunications|renewable energy|photovoltaics|smart meters|customer service|tariff plans|energy consulting|waste collection|public swimming pools|waste recycling|abfallkalender|smart lighting|energy efficiency|energy pricing|energy tariffs|sustainability|energy distribution|grid connection|power management|heating solutions|led street lighting|cloud services|internet of things|maintenance services|technical management|fibre optics|home internet|e-mobility|electric car charging|wastewater treatment|industrial waste|local services|customer engagement|emergency hotline|education programs|community involvement|recycling stations|sport facilities|local infrastructure|online services|network access|public accessibility|capacity management|green electricity|information technology &amp; services|clean energy &amp; technology|environmental services|renewables &amp; environment|cloud computing|enterprise software|enterprises|computer software|b2b</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -31508,6 +32421,11 @@
           <t>http://www.porscheinterauto.at</t>
         </is>
       </c>
+      <c r="Z346" t="inlineStr">
+        <is>
+          <t>service|fahrzeugfinanzierung|fahrzeugverkauf|reparaturen|lackierungen|raederwechsel|mobilitaet|emobilitaet|motor vehicle manufacturing|new cars|used cars|financing advice|test drive|electric mobility|instant available vehicles|online reservation|vehicle accessories|used car quick search|vehicle detail search|service &amp; repair|tire service|vehicle servicing|porsche|volkswagen|audi|seat|skoda|cupra|vehicle maintenance|carlog|warranty|clean &amp; charge services|pia market|pia camper|pia fastlane|porsche inter auto|customer reviews|online car configurator|discount offers|grouped maintenance|appointment booking|job opportunities|newsletter subscription|customer satisfaction|leasing offers|flexible auto subscription|mobile mechanics|vehicle valuation|trade-in|performance packages|special editions|brand workshops|accessory customization|emergency services|roadside assistance|latest models|showroom events|business fleet management|sustainability initiatives|automotive</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -31583,6 +32501,11 @@
           <t>http://www.drehm.at</t>
         </is>
       </c>
+      <c r="Z347" t="inlineStr">
+        <is>
+          <t>regulatory affairs drugs &amp; food supplements|pharmacovigilance|medical writing|quality management|product development|production batch release|marketing service|training|market access|pharmaceutical manufacturing|pharmaceutical consulting|regulatory affairs|pharma marketing|production services|meeting spaces|tailored solutions|risk management|audit support|gmp compliance|gdp compliance|licensing assistance|drug safety monitoring|clinical trial support|market analysis|stakeholder engagement|documentation services|quality assurance|technical writing|training workshops|project management|market access strategy|pricing strategy|supply chain management|change management|self-inspection|quality system optimization|disaster recovery planning|ehs compliance|good distribution practice|serious adverse event reporting|cmr documentation|safety reporting|clinical evaluation|environmental health|brand strategy|scientific communication|content development|patient safety|regulatory strategy|marketing implementation|individual case safety reports|product lifecycle management|contract management|clinical study reports|investigator brochures|ongoing regulatory compliance|pharmaceuticals|medical|writing &amp; editing|productivity|logistics &amp; supply chain</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -31670,6 +32593,11 @@
           <t>http://www.fmw.co.at</t>
         </is>
       </c>
+      <c r="Z348" t="inlineStr">
+        <is>
+          <t>papier|zellstoff|brennstoffe|mineraltechnik|after sales service|foerdertechnik|recycling|machinery manufacturing|material handling|pulp &amp; paper|bioenergy|recycling solutions|wood chip handling|pulp bale handling|biomass handling|waste paper handling|plastic bale handling|non wood fiber preparation|sludge handling|plant optimization|modernization services|after sales services|spare parts|single machines|energy efficiency|customized solutions|automated systems|safety in operations|recycling processing|bale dewiring|cutting solutions|efficient processing|sustainable energy|material flow optimization|process efficiency|high capacity systems|environmental protection|innovation leadership|biomass preparation|sustainable profitability|long-term partnership|consulting services|project execution|turnkey solutions|engineered solutions|industrial solutions|handling systems|reliable technology|advanced automation|chip handling systems|first-in-first-out storage|operational efficiency|reliable performance|quality control in handling|tailor-made solutions|environmental services|renewables &amp; environment|management consulting</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -31749,6 +32677,11 @@
           <t>http://www.wvp.al</t>
         </is>
       </c>
+      <c r="Z349" t="inlineStr">
+        <is>
+          <t>insurance brokerage|life insurance|accident insurance|risk assessment|client consultation|financing advice|insurance policies|coverage options|premium comparison|investment security|client needs analysis|dynamic insurance market|financial security|independent advice|objective recommendations|insurance solutions|partnership with insurers|competitive products|client-centric services|insurance claims guidance|customized insurance plans|premium flexibility|risk management|financial planning|consulting services|client trust|insurance coverage|market analysis|product comparison|long-term security|premium rates|best insurance practices|financial advisor|insurance rates|investment options|customer service|insurance benefits|product optimization|insurance industry trends|client satisfaction|comprehensive coverage|financial solutions|insurance marketplace|future planning|personalized service|insurance expertise|regulatory compliance|risk evaluation|management consulting</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -31828,6 +32761,11 @@
           <t>http://www.oekostrom.at</t>
         </is>
       </c>
+      <c r="Z350" t="inlineStr">
+        <is>
+          <t>renewable energy power generation|renewable energy|100% green energy|smart saving|energy efficiency|electricity tariffs|eco-friendly|customer support|energy management|clean energy provider|solar power|wind energy|biomass|hydropower|energy savings modes|sustainable living|energy contract|power purchase agreement|market information|direct marketing|energy trade|flexibility trading|portfolio management|e-mobility|smart home integration|electric vehicle charging|installation service|subscription discounts|customer loyalty programs|pv systems|renewable installation|community renewable initiatives|carbon reduction|energy transition|electricity bills saving|energy supplier|eco-investments|community engagement|local energy|grid management|smart meters|energy consumption tracking|tariff calculator|unit price|cost-effective energy|free energy months|environmental protection|energy supply chain|grid independence|sustainable resources|renewables &amp; environment|clean energy &amp; technology|environmental services|oil &amp; energy|marketing &amp; advertising</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -31907,6 +32845,11 @@
           <t>http://www.lisec.com</t>
         </is>
       </c>
+      <c r="Z351" t="inlineStr">
+        <is>
+          <t>flat glass processing|insulating glass processing|glass cutting|insulating glass production|sorting|logistics systems|glass processing|washing|quality management|tempering|software on machines|order management|production planning|optimisation|industry 40|machinery manufacturing|flat glass machinery|glass cutting line|insulating glass line|laminated glass line|individual machines|glass production|sorting systems|glass edge processing|manufacturing execution|business solutions|digitalization|software integration|glass transport systems|tempering systems|laser systems|quality assurance|after sales service|customer support|spare parts delivery|training programs|customer portal|production optimization|machine inspection|maintenance solutions|patented technologies|industry 4.0|virtual training|global partnerships|customized solutions|turnkey solutions|emergency support|comprehensive service|holiday support|glass processing innovations|sustainability initiatives|local language support|complaints handling|claim management|express delivery|research &amp; development|preowned machines|component repairs|safety standards|performance efficiency|automation technology|device integration|assembly solutions|glass cutting systems|laminated glass production|software solutions|production management|automation solutions|innovative technology|global presence|customer satisfaction|customized service packages|long service life|industrial machinery|sustainability|corporate responsibility|construction industry|automotive industry|interior design|digital solutions|energy-saving technology|comprehensive support|market leader|competitive analysis|customer-centric approach|partnerships|emerging markets|automation demand|environmental services|renewables &amp; environment</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -31994,6 +32937,11 @@
           <t>http://www.marcher.at</t>
         </is>
       </c>
+      <c r="Z352" t="inlineStr">
+        <is>
+          <t>fleischkompetenz|wurst|schinkenproduktion|convenienceprodukte|markenartikler|salamiproduktion|produktentwicklung nahrungsmittel|lebensmittelherstellung|fleischersatzprodukte|food &amp; beverage manufacturing|meat processing|slaughtering|cutting|pork|beef|sausage|ham|convenience food|salami|quality assurance|animal welfare|logistics|supply chain|fresh meat|sliced packaging|food safety|sustainability|transparency|environmental responsibility|regional products|food innovation|meat alternatives|bio beef|premium quality|customized production|halal meat|packaging solutions|catering supply|meat export|tracing system|customer partnerships|animal husbandry|butchery|cold chain|high capacity|food retail|wholesale|quality programs|local sourcing|globally recognized|food industry|meat standards|safety protocols|modern technology|operational efficiency|food distribution|team dynamics|corporate culture|investment support|food production|environmental services|renewables &amp; environment</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -32073,6 +33021,11 @@
           <t>http://www.fitinn.at</t>
         </is>
       </c>
+      <c r="Z353" t="inlineStr">
+        <is>
+          <t>fitnessstudios|krafttraining|ausdauertraining|fitness|fitness membership|gym workout|personal trainer|performance zone|strength training|cardio machines|weight loss|fitness classes|women's only gym|high-quality fitness equipment|affordable pricing|flexible training hours|modern gym facilities|digital training support|fitness app|personalized training plans|group fitness|exercise tips|online fitness resources|monthly subscription|fitness community|healthy lifestyle|functional training|weight training|fitness center|nearby gym|fitness challenges|core training|high-intensity workouts|muscle gain|weight lifting|body composition|wellness programs|fitness location|trending fitness|24-hour gym|fitness for everyone|health improvement|exercise programs|training support|group classes|exclusive gym offers|fitness solutions|active lifestyle|nutrition tips|gym amenities|fitness promotions|certified trainers|cardio workouts|body fitness|personal health|health care|hospital &amp; health care</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -32160,6 +33113,11 @@
           <t>http://www.liebscher-bracht-wien.at</t>
         </is>
       </c>
+      <c r="Z354" t="inlineStr">
+        <is>
+          <t>schmerztherapie|medizinische heilmassage|fayo|wellness &amp; fitness services|pain therapy|liebscher &amp; bracht method|muscle tension reduction|fascia therapy|individual training|group training|medical massages|healing massages|osteopressure|stretching exercises|chronic pain relief|patient feedback|faszienyoga|online training|youtube exercise channel|pain-free living|flexibility improvement|movement training|therapist training|health coaching|nutritional advice|wellness programs|mobility enhancement|pain management techniques|preventive therapy|personalized treatments|rehabilitation|quality-certified practice|patient-centered care|movement therapy|exercise support|therapist consultations|patient-centered approach|holistic therapy|spinal health|functional movement|muscle recovery|pain points analysis|flexibility training|stress relief|chronic pain solutions|pain point therapy|exercise therapy|body alignment|physical rehabilitation|self-care techniques|fascia training|health, wellness &amp; fitness</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -32239,6 +33197,11 @@
       <c r="W355" t="inlineStr"/>
       <c r="X355" t="inlineStr"/>
       <c r="Y355" t="inlineStr"/>
+      <c r="Z355" t="inlineStr">
+        <is>
+          <t>food &amp; beverage manufacturing|food production</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -32318,6 +33281,11 @@
           <t>http://www.starlim-sterner.com</t>
         </is>
       </c>
+      <c r="Z356" t="inlineStr">
+        <is>
+          <t>silikon|werkzeugbau|spritzguss|plastics manufacturing|silicone products|injection molding|technical parts|medical applications|automotive components|multi-component molding|rapid prototyping|material testing|cleanroom production|quality management|zero defect philosophy|certifications|design development|product development|industry solutions|life sciences|mobility sector|micro molding|reinforced silicone|durable elastomers|custom solutions|b2b supplier|global manufacturing|liquid silicone rubber|tool construction|prototype tooling|mass production|sustainable initiatives|flexible manufacturing|expert engineering|customer support|iso certifications|gmp compliance|elastomer processing|advanced technologies|supply chain management|high precision components|consumer goods applications|food grade silicone|uv resistant materials|temperature resistant silicon|self-cleaning materials|dynamic dampers|aerospace components|medical device manufacturing|non-toxic materials|chemicals|logistics &amp; supply chain</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -32397,6 +33365,11 @@
           <t>http://www.ofi.at</t>
         </is>
       </c>
+      <c r="Z357" t="inlineStr">
+        <is>
+          <t>bauprodukte|baustoffe|bauwesen|pharma|medizinprodukte|hygiene|sporttechnologie|kunststoffbauteile|beschichtungen|kleben|verpackung|gefahrgut|wasseraufbereitung|armaturen|rohre|akkreditierte pruefungen|zertifizierung|trinkwasserkontaktmaterial uba|ktw|anbieter von eignungspruefungen|recycling|angewandte forschung|entwicklung|research services|independent testing|research institute|materials applications|building renewal|quality assurance|accredited body|inspection services|certification services|material technology|pharmaceutical testing|medical devices|hygiene standards|industrial plastic testing|adhesive bonding|coatings evaluation|packaging assessment|recycling standards|dangerous goods handling|water treatment solutions|valve technology|piping technology|building materials testing|construction engineering|sports technology|knowledge transfer|consulting services|research &amp; development|innovation processes|quality control|environmental testing|migration tests|microbiological testing|fire testing|mechanical testing|biocompatibility testing|extractables &amp; leachables|packaging compliance|food safety testing|audits &amp; inspections|remote audits|testing procedures|test design|quality certification|safety standards|compliance certification|certification label|accredited laboratory|product certification|sustainable solutions|construction product compliance|hospital &amp; health care|management consulting</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -32484,6 +33457,11 @@
           <t>http://www.teachforaustria.at</t>
         </is>
       </c>
+      <c r="Z358" t="inlineStr">
+        <is>
+          <t>bildung|transformational change|leadership development|leadership|bildungsgerechtigkeit|chancenfairness|education administration programs|educational equity|social leadership program|teaching fellowship|community impact|alumni network|teacher training|corporate volunteering|diversity in education|child development|quality education|equity gaps|socioeconomic challenges|education innovation|high-potential recruitment|mentorship programs|teaching methodologies|collaborative learning|social change|career transition|life skills|public engagement|educational partnerships|student empowerment|nonprofit collaboration|teacher coaching|curriculum development|educational advocacy|volunteer programs|education reform|fellowship experience|impact measurement|sustainability in education|classroom management|inclusive education|global education movement|professional development|school networks|scholarship opportunities|personalized learning|societal impact|recruitment processes|fellowship application|innovation in teaching|youth leadership|community building|teaching practices|equitable opportunities|government administration</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -32571,6 +33549,11 @@
           <t>http://www.bmaw.gv.at</t>
         </is>
       </c>
+      <c r="Z359" t="inlineStr">
+        <is>
+          <t>workforce development|employment support|vocational training|job creation|economic development|handyman bonus|wage subsidies|working conditions|labor market policy|holiday &amp; leave|workplace equality|skill training|tourism development|business incentives|public service|international cooperation|investment control|legislation support|youth strategy|education funding|entrepreneurship|safety at work|social enterprise|income support|digitalization in work|cross-border services|accreditation services|employment regulations|economic recovery|business services|contract compliance|statistical monitoring|job placement|skills assessment|labor law|worker protections|public procurement|financial assistance programs|community development|business management|labor market statistics|international trade compliance|research funding|innovation support|environmental sustainability|healthcare education|elderly care training|coaching services|construction regulations|social inclusion initiatives|labour market policy|economic growth|employment promotion|skills training|entrepreneurship support|digital skills development|youth employment|vulnerable groups support|international policy|innovation|sustainable economy|business-friendly environment|full employment|transparency in labour market|public employment services|economic affairs|small &amp; medium-sized enterprises|skilled immigration|workforce integration|job placement assistance|economic transformation|trade &amp; entrepreneurship|cooperation in working life|social responsibility|competitive business environment|b2b</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -32658,6 +33641,11 @@
           <t>http://www.kwp.at</t>
         </is>
       </c>
+      <c r="Z360" t="inlineStr">
+        <is>
+          <t>pflege|betreuung|remobilisation|palliative care|demenz|hospitals &amp; health care|assisted living|retirement home|senior care|dementia care|nursing services|independent living|community integration|rehabilitation|short-term care|social clubs|elderly support|senior-friendly housing|meal services|free time activities|volunteering opportunities|legal advocacy|financial plans for seniors|ombudsstelle services|individual care plans|outdoor activities|wellness programs|support for refugees|multi-disciplinary support|social events|training seminars|memory care activities|fitness programs|cooking classes|art &amp; crafts|psychosocial support|social activities|emergency care|health monitoring|exercise facilities|senior community|senior apartments|senior services|residential facilities|interactive workshops|care assistance|elderly engagement|home furnishings|grocery services|social integration|leisure programs|cultural activities|safety &amp; security services|hospital &amp; health care</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -32745,6 +33733,11 @@
           <t>http://www.dietzel-univolt.com</t>
         </is>
       </c>
+      <c r="Z361" t="inlineStr">
+        <is>
+          <t>elektroinstallation|plastics manufacturing|electrical installation|cable management|conduits|ducts|halogen-free materials|uv stability|lightning protection|cable pulling systems|installation boxes|accessories|civil engineering products|road construction materials|flexible conduits|rigid conduits|metal conduits|synthetic materials|pvc conduits|environmental sustainability|iso 9001|iso 14001|sustainable growth|eco-friendly products|cable protection|safety standards|lsf0h compliant|customer satisfaction|international distribution|family-owned|state-of-the-art materials|recycling|packaging reduction|waste prevention|construction site equipment|cable routing systems|trunking systems|electrical conduits for professionals|corrosion protection|mechanical stress resistance|chemical stress resistance|installation flexibility|global markets|customized solutions|distributor network|online catalogs|product references|technical innovation|community engagement|employee training|chemicals</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -32832,6 +33825,11 @@
           <t>http://www.neuroth.com</t>
         </is>
       </c>
+      <c r="Z362" t="inlineStr">
+        <is>
+          <t>medical equipment manufacturing|hearing aids|hearing protection|custom ear molds|bluetooth hearing aids|audiology services|tinnitus therapy|hearing tests|hearing loss solutions|hearing aid accessories|digital hearing aids|in-ear hearing aids|behind-the-ear hearing aids|rechargeable hearing aids|personalized fitting|3d-printed ear molds|audio streaming|smart hearing aids|customer support|hearing aid adjustments|ear health consultation|wearable technology|hearing enhancement|sound amplification|individualized hearing solutions|telephone solutions for hearing aids|noise cancellation|hearing aid maintenance|hearing care professionals|medical hearing services|self-service hearing solutions|hearing aid insurance|affordable hearing aids|krankenkasse reimbursement|hearing aid trials|professional audiologists|community hearing services|hearing aid repairs|specialized auditory support|comprehensive hearing care|sound quality improvement|premium hearing devices|hearing aid financing options|personalized audiology|family-owned hearing business|modern hearing technology|customer education on hearing|hearing health awareness|accessible hearing solutions|quality hearing care|medical devices|hospital &amp; health care|wearable technologies|wearables|consumer goods|consumers|internet of things|consumer electronics|hardware|computer hardware</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -32919,6 +33917,11 @@
           <t>http://www.allergosan.com</t>
         </is>
       </c>
+      <c r="Z363" t="inlineStr">
+        <is>
+          <t>probiotics|microbiota research|orthomolecular medicine|gut health|stress|burn out|diarrhae|allergy|power|metabolic|hepatology|pharmaceutical manufacturing|probiotic|microbiome research|intestinal health|dietary supplements|liver health|immune system support|chronic bowel disease|irritable bowel syndrome|mental health|female microbiome|oral microbiome|stress management|pregnancy support|diarrhea treatment|gut-brain axis|natural supplements|plant extracts|clinical research|healthcare solutions|allergy prevention|healthy digestion|symbiotic products|research &amp; development|powdered probiotics|high-quality ingredients|natural medicine|pharmaceutical standards|bioavailability|sustainable health|nutraceuticals|nutrition science|care for babies|dietary fibers|preventive healthcare|intestinal flora|online shop|nutritional supplements|family-run business|holistic approach|micronutrients|wellness products|health education|functional foods|clinical studies|preventive medicine|homeostasis|pharmaceuticals|medical|health, wellness &amp; fitness|hospital &amp; health care</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -32998,6 +34001,11 @@
           <t>http://www.villach.at</t>
         </is>
       </c>
+      <c r="Z364" t="inlineStr">
+        <is>
+          <t>villach|municipal services|city development|waste management|water services|environmental protection|technology &amp; innovation|online appointment booking|public transport|local government|community services|education &amp; youth|public safety|cultural events|social services|support for disabled|affordable housing|energy management|urban planning|integration programs|health services|online services|digital government|community initiatives|sports &amp; recreation|city mapping|local businesses|social equality|sustainability|welfare programs|emergency services|heritage sites|historical preservation|environmental sustainability|public works|land use planning|transportation planning|community engagement|local culture|civic participation|renewable energy|outdoor activities|local partnerships|civic events|city promotions|public utilities|community resources|regulatory compliance|resource management|community outreach|hospital &amp; health care|oil &amp; energy|environmental services|renewables &amp; environment|clean energy &amp; technology</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -33085,6 +34093,11 @@
           <t>http://www.neveon.com</t>
         </is>
       </c>
+      <c r="Z365" t="inlineStr">
+        <is>
+          <t>chemical manufacturing|flexible foam|composite foams|polyurethane|acoustic insulation|heat insulation|mattress recycling|custom foam solutions|lightweight materials|sustainable products|fire retardant foam|memory foam|high resilience foam|environmental responsibility|breathable foam|dimensional stability|pressure relief|allergy-friendly foams|anti-static foams|recycled materials|mass balance raw materials|certified quality|automotive seating|medical applications|comfort solutions|specialty applications|energy-efficient|packaging solutions|sports flooring|acoustic solutions|upholstered furniture|consumer products|sound absorbers|carrier materials|biological raw materials|humidity regulation|product innovation|iso certifications|high-quality foams|recycling technology|biodegradable materials|design solutions|technical foams|construction materials|filtration solutions|sustainable manufacturing|quality assurance|team collaboration|global presence|chemicals|consumer goods|consumers</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -33172,6 +34185,11 @@
           <t>http://www.greiner-assistec.com</t>
         </is>
       </c>
+      <c r="Z366" t="inlineStr">
+        <is>
+          <t>plastics manufacturing|plastic parts|customized solutions|injection molding|thermoforming|extrusion blow molding|smart automation|assembly|machining|remanufacturing|welding|decoration|high-performance plastics|sustainability|circular economy|supply chain management|quality management|project management|engineering services|flexible manufacturing|added value manufacturing|multicomponent injection molding|overmolding|precision injection molding|gas-assisted injection|in-mold labeling|thermoforming technology|automotive components|medical device manufacturing|hvac systems|nonfood packaging|appliance components|building technologies|life sciences plastics|recycled materials|resource-efficient processes|automation solutions|production efficiency|engineering expertise|end-to-end solutions|business unit integration|eco-friendly manufacturing|iso certified|technical components|technological expertise|global supplier|custom tooling|risk management in production|customer-centric design|flexible production|high-tech solutions|chemicals|environmental services|renewables &amp; environment|logistics &amp; supply chain|productivity|information technology &amp; services</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -33251,6 +34269,11 @@
           <t>http://www.boxmark.com</t>
         </is>
       </c>
+      <c r="Z367" t="inlineStr">
+        <is>
+          <t>split|air|rail|sea|living|contract|automotive|byproducts|motor vehicle manufacturing|leather production|automotive leather|aviation interiors|high-quality upholstery|sustainable leather|contract services|railway upholstery|marine leather|interior design|leather processing|custom leather solutions|leather collections|development services|sustainable innovations|eco-friendly leather|leather care|research &amp; development|leather for automotive|chrome-free tanning|exquisite leather craftsmanship|perforated leather|embossed leather|thermocool leather|anti-soiling leather|sewing leather|laminated leather|leather samples|luxury leather interiors|environmental responsibility|transparent supply chain|resource-saving production|leather wrapping|cutting leather|r&amp;d leather technology|split leather|furniture upholstery|commercial leather|aircraft leather|luxury yacht interiors|rail services leather|natural leather qualities|high-durability leather|exclusive leather|premium leather products|custom upholstery|socio-ecological innovation|sustainable product standards|industry certifications</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -33338,6 +34361,11 @@
           <t>http://www.faigle.com</t>
         </is>
       </c>
+      <c r="Z368" t="inlineStr">
+        <is>
+          <t>components for intralogistics systems|rollers &amp; components for escalators &amp; moving walks|hangingstraps for public transport|plastics manufacturing|intralogistics|roller systems|high performance plastics|material flow solutions|automated storage systems|roller bearings|shuttle systems|plastic components|load capacity|durability|wear resistance|energy efficiency|modular design|sustainable solutions|tool-free installation|shuttle flaps|guidance rollers|curved track operation|transportation safety|vibration dampening|noise reduction|custom solutions|manufacturing technology|cost-efficient processes|maintenance-free operation|quality management|thermoplastic elastomers|load carriers|vertical storage systems|reliable operation|heavy-duty applications|ergonomic design|low rolling resistance|static discharge|modular roller assemblies|shuttle mechanisms|durable construction|maintenance-friendly designs|long service life|anti-static properties|rfid integration|real-time monitoring|customized roller solutions|industrial transportation|flexible manufacturing|heat &amp; chemical resistance|supply chain optimization|agile packaging systems|chemicals|environmental services|renewables &amp; environment</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -33417,6 +34445,11 @@
           <t>http://www.bvwg.gv.at</t>
         </is>
       </c>
+      <c r="Z369" t="inlineStr">
+        <is>
+          <t>administration of justice|administrative law|appeals|asylum cases|judicial review|complaints|independent judiciary|court decisions|administrative decisions|lawyer representation|public administration|procedural law|dispute resolution|legal remedies|privacy rights|social benefits|environmental regulations|government enforcement|citizens' rights|court procedures|fair trial rights|legal compliance|public interest|transparency|judicial independence|administrative procedures|legal proceedings|statutory appeals|decision-making process|government accountability|public service|civil liberties|legal framework|data protection|equal treatment|public hearings|constitutional rights|public inquiries|judicial oversight|legal recourse|bureaucratic disputes|government authority|evidence submission|court jurisdiction|legal interpretation|case law|judicial discretion|statistical reporting|government policies|legal standards|public trust|government administration|conflict resolution</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -33504,6 +34537,11 @@
           <t>http://www.albatools.com</t>
         </is>
       </c>
+      <c r="Z370" t="inlineStr">
+        <is>
+          <t>formenbau|prototypenbau|sondermaschinenbau|werkzeugbau|naturfaserverbundstoffe|anlagenbau|rapid tooling|polyurethan|pu|pur|schaumwerkzeuge|weichschaum|schaeumwerkzeuge|innovation|scm|presswerkzeuge|leichtbau|fraesteilfertigung|individual|technologies|mechanicalengineering|industrialengineering|specialengineering|industrial machinery manufacturing|pur processing|prototype development|production technology|foam tools|injection moulding|press technology|lightweight construction|flexible cutting|industrial automation|surface technology|acoustic components|mould construction|cleaning technology|foaming technology|production service|preform technology|handling systems|automation engineering|testing &amp; measuring instruments|serial production|machine construction|component production|aggregate technology|2d/3d lamination technology|surface refinement|moulding tools|hotmelt adhesive systems|vacuum laminating systems|polyurethane|rtm technology|smc production|one-shot process|compressing technology|acoustic tools|integrated production systems|circuit construction|tooling for hard plastics|material optimization|process optimization|flexible solutions|moulding presses|automated adhesive application|tool development|custom machinery solutions|batch production|small series production|sustainability in manufacturing|automatic combining systems|assembly technology|specialized mould making|mechanical or industrial engineering</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -33591,6 +34629,11 @@
           <t>http://www.ekhwien.at</t>
         </is>
       </c>
+      <c r="Z371" t="inlineStr">
+        <is>
+          <t>hospitals &amp; health care|hospital|patient care|surgery|orthopedics|anesthesia|intensive care|neurology|internal medicine|cardiology|sports medicine|physiotherapy|medical imaging|knee surgery|joint replacement|minimally invasive surgery|robot-assisted surgery|telemedicine|emergency department|pain management|wound care|cancer treatment|vascular surgery|cardiac care|outpatient services|mental health|psychiatric care|gastroenterology|nutrition therapy|aging care|chronic disease management|health education|rehabilitation|medical technology|patient safety|clinical research|medical staff|healthcare quality|pediatric care|urgent care|public health|medical consultation|advanced diagnostics|physical health|surgical recovery|health monitoring|preventive care|multidisciplinary approach|patient satisfaction|health records management|hospital &amp; health care|medical|health care information technology|health care|health, wellness &amp; fitness</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -33678,6 +34721,11 @@
           <t>http://www.cce-holding.com</t>
         </is>
       </c>
+      <c r="Z372" t="inlineStr">
+        <is>
+          <t>photovoltaik|pv planung und entwickung|pv|pv errichtung und wartung|pv beratung|pv betriebsfuehrung|pv finanzierung|pv fuer gewerbe|pv pachtmodelle|pv landwirtschaft|erneuerbare energie|sonnenstrom|pv realisierung|entwicklung und strukturierung von kapitalanlagen|pv auf freiflaechen|photovoltaics|pv planning &amp; development|pv installation &amp; maintenance|pv consulting|pv operational management|pv financing|pv for commerce|pv lease models|pv agriculture|renewable energy|solar power|pv realisation|development &amp; structuring of capital assets|pv on open spaces|services for renewable energy|energy storage|battery energy storage systems|agrivoltaics|clean energy|green hydrogen|sustainable energy solutions|commercial pv installations|freestanding pv systems|energy management|energy production|flexibility solutions|investment in solar|international project development|energy transition|solar project financing|plant engineering|utility-scale solar|energy supply contracts|corporate energy procurement|pv project management|technical operations management|energy distribution|solar pv technology|environmental sustainability|power purchase agreements|solar farms|solar roof systems|community solar projects|energy efficiency|smart grid solutions|climate change mitigation|customized energy solutions|grid stability|renewable energy investments|alternative energy sources|clean technology|project approval processes|cross-border energy solutions|energy market integration|global energy solutions|strategic partnerships|eco-friendly energy systems|sustainable development initiatives|clean energy &amp; technology|environmental services|renewables &amp; environment|oil &amp; energy</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -33765,6 +34813,11 @@
           <t>http://www.murexin.at</t>
         </is>
       </c>
+      <c r="Z373" t="inlineStr">
+        <is>
+          <t>fliesenverlegetechnik|parkett und klebetechnik|beschichtungstechnik|abdichtungstechnik|moerteltechnik|farb und anstrichtechnik|chemical manufacturing|construction materials|adhesives|flooring technology|tile laying|coating systems|sealants|mortar technology|filling compounds|levelling compounds|screed products|waterproofing|multi-functional adhesives|environmentally-friendly products|quick drying|easy application|health safety|surface preparation|painting systems|specialized adhesives|eco-friendly construction|high-strength adhesives|technical support|training seminars|construction chemicals|high-quality coatings|flexible sealants|moisture barriers|restoration systems|carpet adhesives|water resistant|cement products|surface treatment|decorative coatings|rust prevention|repair mortars|industrial coatings|superior durability|heat insulation|binding agents|industrial flooring|fast curing|low emissions|user-friendly|sustainable solutions|material efficiency|product variety|technical certifications|building standards|premium flooring solutions|renovation systems|chemicals</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -33852,6 +34905,11 @@
           <t>http://www.marcher.at</t>
         </is>
       </c>
+      <c r="Z374" t="inlineStr">
+        <is>
+          <t>fleischkompetenz|wurst|schinkenproduktion|convenienceprodukte|markenartikler|salamiproduktion|produktentwicklung nahrungsmittel|lebensmittelherstellung|fleischersatzprodukte|food &amp; beverage manufacturing|meat processing|slaughtering|cutting|pork|beef|sausage|ham|convenience food|salami|quality assurance|animal welfare|logistics|supply chain|fresh meat|sliced packaging|food safety|sustainability|transparency|environmental responsibility|regional products|food innovation|meat alternatives|bio beef|premium quality|customized production|halal meat|packaging solutions|catering supply|meat export|tracing system|customer partnerships|animal husbandry|butchery|cold chain|high capacity|food retail|wholesale|quality programs|local sourcing|globally recognized|food industry|meat standards|safety protocols|modern technology|operational efficiency|food distribution|team dynamics|corporate culture|investment support|food production|environmental services|renewables &amp; environment</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -33939,6 +34997,11 @@
           <t>http://www.elinmotoren.com</t>
         </is>
       </c>
+      <c r="Z375" t="inlineStr">
+        <is>
+          <t>decentralized energy systems|industrial plant applications|plastics|tunneling|marine|oil|gas|power plants|service|wind energy|after sales service|engines &amp; power transmission equipment manufacturing|electric motors|generators|wind power|renewable energy|hydropower|nuclear power|thermal power|marine propulsion|pto-pti hybrid systems|auxiliary drives|asynchronous motors|synchronous motors|permanent magnet motors|high voltage motors|low voltage motors|generator services|onshore wind generators|offshore wind generators|custom electric drives|engineered solutions|flexible order processing|technical consulting|retrofit &amp; modernization|spare parts|maintenance &amp; repair|diagnostics|test field services|cutter head motors|pumps|hydraulic applications|plastic technology|large scale manufacturing|wind turbine technology|cutting-edge technology|wind turbine operation|energy efficiency|environmental sustainability|customer-oriented solutions|performance optimization|long-term partnership|lifecycle partner|project support|compliance|industry standards|custom generator design|independent power projects|advanced product quality planning|renewable energy systems|energy generation|cost-effective solutions|chemicals|machinery|clean energy &amp; technology|environmental services|renewables &amp; environment</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -34018,6 +35081,11 @@
           <t>http://www.klinikum-wegr.at</t>
         </is>
       </c>
+      <c r="Z376" t="inlineStr">
+        <is>
+          <t>bewegungssystem|roboterchirurgie|tumorzentrum|frauenheilkunde und geburtshilfe|kinder und jugendheilkunde|psychosomatik fuer kinder und jugendliche bzw erwachsene|herzchirurgie|altersmedizin|neurologie|psychiatrie|orthopaedie|kardiologie|traumazentrum|brustgesundheitszentrum|hospitals &amp; health care|acute geriatrics|rehabilitation|internal medicine|palliative care|surgery|anesthesiology|intensive care|radiology|orthopedics|urology|psychiatry|neurology|psychotherapy|women's health|child &amp; adolescent psychiatry|medical laboratory|pathology|oncology|robotic surgery|patient management|nursing management|healthcare quality|medical training|emergency care|physiotherapy|occupational therapy|social work|clinical psychology|health promotion|consultation|outpatient services|inpatient care|hygiene standards|patient safety|certifications|health center|multimorbidity|care coordination|family medicine|self-help groups|patients &amp; visitors|clinical research|health policy|workshops|community health|career development|emergency services|dietary counseling|medical publications|examinations|hospital &amp; health care|consulting|management consulting</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -34093,6 +35161,11 @@
           <t>http://www.ernefittings.com</t>
         </is>
       </c>
+      <c r="Z377" t="inlineStr">
+        <is>
+          <t>buttweld fittings|duplex|superduplex|nuclear applications|customized design|gas|oil|offshore|segmentable elbows|stainless steel|titanium|carbon steel|copper|aluminium &amp; nialloys|approvals &amp; certificates|pipe fittings|butt-weld fittings|elbows|reducers|tees|customized solutions|special-purpose solutions|clad fittings|oil &amp; gas|energy|quality management|test laboratory|approvals|international standards|production program|stock program|heat treatment|special solutions|welding|fabrication|stainless steel fittings|alloy fittings|carbon steel fittings|hydrogen pipeline|supply chain solutions|automated warehouse|premium quality|certifications|distribution|project business|high availability|material grades|dimensional standards|pipe connections|engineering solutions|customer collaboration|flexible manufacturing|product standards|safety regulations|global supply|market leader|reliable supplier|innovative designs|technical expertise|customer satisfaction|oil &amp; energy</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -34180,6 +35253,11 @@
           <t>http://www.pipelife.at</t>
         </is>
       </c>
+      <c r="Z378" t="inlineStr">
+        <is>
+          <t>kunststoffrohre|pvc rohre|pp rohre|pe rohre|abwassersysteme|regenwassermanagement|heiz und kuehlsysteme|bewaesserungssysteme|wohnraumlueftung|infrastrukturloesungen|trinkwasserversorgung|drainagesysteme|kabelschutz und elektrosysteme|gebaeudetechnik loesungen|plastics manufacturing|plastic pipe systems|drinking water solutions|wastewater management|rainwater drainage|cable protection|gas supply systems|pipelife gas-stop|smart solutions|rainwater management|water storage solutions|heating systems|cooling systems|building technology|solar energy solutions|floor heating|certified quality|long lifespan|local presence|infrastructure construction|agriculture irrigation|drainage products|energy cables repair|public utilities|project references|pipelife academy|product catalog|installation training|water supply networks|environmental sustainability|iso certification|partner portal|custom design solutions|engineering support|reduction of co2 emissions|efficient logistics|product innovation|recycling of plastic tubes|stormwater management|flood prevention systems|contractor support|site consultation|construction partnerships|industrial solutions|local partnerships|quality assurance|customer service|installation service|chemicals</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -34255,6 +35333,11 @@
       <c r="W379" t="inlineStr"/>
       <c r="X379" t="inlineStr"/>
       <c r="Y379" t="inlineStr"/>
+      <c r="Z379" t="inlineStr">
+        <is>
+          <t>motor vehicle manufacturing|automotive</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -34342,6 +35425,11 @@
           <t>http://www.moon-power.com</t>
         </is>
       </c>
+      <c r="Z380" t="inlineStr">
+        <is>
+          <t>ladeinfrastruktur|energiespeicher|photovoltaikanlagen|charging infrastructure|electric vehicle charging|wallbox|mobile charging|power2go|energy storage|photovoltaic system|charging station|holistic energy concepts|e-mobility|battery storage|ac charging stations|dc charging stations|fast charging|grid independence|smart app|intelligent charging solutions|renewable energy|environmentally friendly|electric car charging solutions|home charging|public charging solutions|installation-free charging|charging reports|charging statistics|autonomous charging|electricity self-sufficiency|energy management|peak load reduction|solar energy solutions|adaptive charging|connectivity features|charging technology|user-friendly interface|secure charging systems|data-driven energy solutions|consultation services|project management|emission reduction|energy efficiency|power management|sustainable mobility|environmental compliance|future-ready technology|innovative design|customizable solutions|mobile charging stations|electricity optimization|client support services|networked chargers|oil &amp; energy|clean energy &amp; technology|environmental services|renewables &amp; environment|productivity</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -34429,6 +35517,11 @@
           <t>http://www.denzel.at</t>
         </is>
       </c>
+      <c r="Z381" t="inlineStr">
+        <is>
+          <t>autoimport|autohandel|ersatzteile und zubehoer|karosseriereparatur und lackiererei|reifenhandel|versicherung und finanzierung|leasing und kredit|unfallschadenabwicklung|pickerl|leichte nutzfahrzeuge|premiummarken|volumenmarken|denzelcare|gebrauchtwagenan und verkauf|lehrlingsausbildung|digitalisierung und software|motor vehicle manufacturing|vehicle search|new cars|used cars|automobile financing|insurance options|buy online|electric mobility|alternative drives|denzel services|parts &amp; accessories|tire services|bodywork|car maintenance|risk protection|expert tips|consultation services|online configurator|car rental|service packages|repair services|b2b solutions|test drives|sales offers|denzel group|car dealership|automobile trading|vehicle selection|leasing options|hybrid cars|plug-in hybrids|fully electric vehicles|automotive care|customer support|state subsidies|charging solutions|automotive advice|car evaluation|group offers|automotive education|sales events|contact locations|corporate responsibility|customer satisfaction|service agreements|driver assistance features|automotive history|automotive technology|mediathek|driving experience|automotive</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -34508,6 +35601,11 @@
           <t>http://www.11er.at</t>
         </is>
       </c>
+      <c r="Z382" t="inlineStr">
+        <is>
+          <t>food &amp; beverage manufacturing|potato specialities|frozen food|snack food|gourmet potatoes|culinary inspiration|vegan products|french fries|croquettes|rosti|food truck|street food|sustainable farming|regional ingredients|high quality|homemade taste|family business|austrian cuisine|food innovations|gastronomy|wholesale|event catering|agricultural partnerships|local sourcing|bio quality|food experience|energy efficiency|photovoltaic installation|diverse flavors|taste profiles|enhanced flavors|comfort food|modern family enterprise|vegetarian options|seasonal products|supply chain sustainability|kitchen creativity|premium ingredients|culinary excellence|eco-friendly practices|nutritional value|community engagement|brand heritage|dessert potatoes|potato varieties|food safety standards|product quality management|customer satisfaction|tradition meets innovation|food production|environmental services|renewables &amp; environment</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -34595,6 +35693,11 @@
           <t>http://www.biogena.com</t>
         </is>
       </c>
+      <c r="Z383" t="inlineStr">
+        <is>
+          <t>wellness &amp; fitness services|health, wellness &amp; fitness</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -34682,6 +35785,11 @@
           <t>http://www.hawle.com</t>
         </is>
       </c>
+      <c r="Z384" t="inlineStr">
+        <is>
+          <t>hydrants|fittings|valves|house connections for water supply|industrial machinery manufacturing|gate valves|combi valves|butterfly valves|service valves|tapping saddles|pipe connections|pipe repair clamps|control valves|accessories|tools|check valves|air valves|water supply|hydrant service|leak detection|digital water management|iso fittings|pressure testing|environmental suitability|customer solutions|industrial valves|wastewater management|sustainable solutions|research &amp; development|quality assurance|safety features|pioneering technology|monitored systems|water management|product benefits|rehabilitation solutions|flexible fittings|corrosion resistance|iso certification|modular solutions|high-performance valves|piping innovations|tailor-made products|water infrastructure|global network|customer focus|public utilities solutions|water extraction|distribution systems|responsible manufacturing|corporate social responsibility|water quality management|training &amp; development</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -34769,6 +35877,11 @@
           <t>http://www.hainzl.at</t>
         </is>
       </c>
+      <c r="Z385" t="inlineStr">
+        <is>
+          <t>antriebstechnik|embedded systems|systemtechnik|gebaeudetechnik|automatisierungstechnik|condition monitoring|fluidtechnik|prozessautomation|prozesstechnik|pruefstaende|wasserhydraulik|revamping|machinery manufacturing|mechatronics|automation technology|motion controls|fluid technology|hydraulic systems|electrical drives|building technology|quality control|sensors|power management|customized solutions|process automation|software development|serial production|safety engineering|sustainable technology|data integration|energy efficiency|service &amp; maintenance|control systems|electronic manufacturing|testing &amp; validation|building automation|remote monitoring|user interface design|hydraulic components|high-pressure systems|environmental safety|energy management|industrial automation|embedded software|iot integration|hmi design|custom control panels|integrated systems|electromechanical systems|smart building solutions|process optimization|advanced manufacturing|hydraulic cylinders|industrial robotics|motion dynamics|networked systems|electrical circuit design|automated testing|performance engineering|energy recovery systems|custom embedding software|embedded hardware &amp; software|hardware|information technology &amp; services|enterprise software|enterprises|computer software|b2b|environmental services|renewables &amp; environment|oil &amp; energy|mechanical or industrial engineering</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -34848,6 +35961,11 @@
           <t>http://www.alpinemetaltech.com</t>
         </is>
       </c>
+      <c r="Z386" t="inlineStr">
+        <is>
+          <t>sondermaschinenbau|automotive|steel|life cycle business|technologiefuehrer|aerospace|advanced technology|automatisierung|strangguss|brammen adjustage|markiertechnologie|machinery manufacturing|redirect|javascript|enabled|web page|browser compatibility|user experience|accessibility|website optimization|client-side scripting|dynamic content|interactive features|web functionality|micro-interactions|front-end development|loading speed|mobile responsiveness|content management|user interface|navigation efficiency|session management|error handling|data processing|form validation|seo practices|performance enhancement|site security|browser support|loading times|display features|content delivery|visual appeal|usability testing|responsive design|cross-browser compatibility|single-page applications|site migration|analytics integration|code execution|event handling|web standards compliance|debugging tools|ux design|interactive elements|ajax|progressive enhancement|client-server architecture|performance monitoring|web technologies|ux|information technology &amp; services</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -34927,6 +36045,11 @@
           <t>http://www.wintersteiger.com</t>
         </is>
       </c>
+      <c r="Z387" t="inlineStr">
+        <is>
+          <t>skiservice|sport|fitness|bootfitting|thincutting|field research equipment|levelling technology|automation|rental|depot|saw blades for wood &amp; food|drying|hygienic|wood repair|saw mill technology|machinery manufacturing|ski service|rental solutions|bike services|drying solutions|hygienic equipment|plant breeding|woodtech machines|saw blades|automated systems|sports equipment|pos software|boot disinfectants|green drying technology|data management software|sawmill technology|furniture manufacturing|construction machinery|lightweight construction|precision planters|self-propelled units|heat supply systems|energy efficiency|recycling machines|sustainable technology|lifting equipment|heat recovery systems|oxigen technology|biodegradable lubricants|sustainable farming|high-performance machines|plant protection|cumulative data analysis|customer support|equipment maintenance|waste management|pest management systems|electronic components recycling|high-speed band saws|ecological fillers|tourism &amp; rental management|sports wear|boot drying systems|electric mobility solutions|plant research technology|high precision band saws|fluid management|leveling technology|sustainable production|personal health|health care|hospital &amp; health care|point of sale|payments|financial services|b2b|enterprise software|enterprises|computer software|information technology &amp; services|environmental services|renewables &amp; environment</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -35007,6 +36130,11 @@
           <t>http://www.kostwein.at</t>
         </is>
       </c>
+      <c r="Z388" t="inlineStr">
+        <is>
+          <t>fertigung|schweissen|oberflaechenbehandlung|montage|value stream management|digitalisierung|maschinenbau|maschinenwerkzeug|industrial machinery manufacturing|industrial machinery|automation solutions|machining technology|process optimization|equipment manufacturing|robotics engineering|customized solutions|product development|data analytics|supply chain management|quality control|precision engineering|environmental sustainability|smart manufacturing|r&amp;d innovation|after-sales service|maintenance solutions|engineering design|project management|turnkey projects|integrated systems|mechanical components|control systems|production efficiency|technological advancements|industrial iot|workforce training|safety standards|metal processing|energy efficiency|cost reduction|performance monitoring|certified products|sustainable practices|customer support|business consulting|machinery upgrades|global sourcing|market analysis|product lifecycle|risk management|erp integration|lean manufacturing|digital transformation|customer experience|technical specifications|manufacturing processes|design engineering|performance optimization|mechanical or industrial engineering|information technology &amp; services|logistics &amp; supply chain|productivity|environmental services|renewables &amp; environment|b2b|management consulting</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -35094,6 +36222,11 @@
           <t>http://www.amst.at</t>
         </is>
       </c>
+      <c r="Z389" t="inlineStr">
+        <is>
+          <t>aviation &amp; aerospace component manufacturing</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -35173,6 +36306,11 @@
           <t>http://www.its-implant.com</t>
         </is>
       </c>
+      <c r="Z390" t="inlineStr">
+        <is>
+          <t>titanium implants for trauma surgery|implants|trauma surgery|orthopaedics|multidirectional locking technology|orthopaedic surgery|orthopaedic implants|medical equipment manufacturing|surgical devices|fracture treatment|locking plates|intramedullary nailing|surgical screws|pelvic reconstruction|humeral locking plates|fibula locking plates|compression locking plates|cannulated screws|medical technology|biocompatible materials|innovative solutions|surgical instruments|minimally invasive techniques|fracture stabilization|patient recovery|screw types|anatomical designs|advanced technologies|repair outcomes|surgical support|user-friendly implants|trauma indications|surgical education|medical training programs|surgical techniques|improved outcomes|reliable supply chain|titanium implants|fixed screw systems|osteosynthesis|surgical precision|customized solutions|medical compliance|biomechanical testing|efficient fracture repair|product optimization|joint fractures|upper extremity fractures|lower extremity fractures|surgical innovations|quality assurance|medical devices|hospital &amp; health care</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -35252,6 +36390,11 @@
           <t>http://www.porscheinterauto.at</t>
         </is>
       </c>
+      <c r="Z391" t="inlineStr">
+        <is>
+          <t>service|fahrzeugfinanzierung|fahrzeugverkauf|reparaturen|lackierungen|raederwechsel|mobilitaet|emobilitaet|motor vehicle manufacturing|new cars|used cars|financing advice|test drive|electric mobility|instant available vehicles|online reservation|vehicle accessories|used car quick search|vehicle detail search|service &amp; repair|tire service|vehicle servicing|porsche|volkswagen|audi|seat|skoda|cupra|vehicle maintenance|carlog|warranty|clean &amp; charge services|pia market|pia camper|pia fastlane|porsche inter auto|customer reviews|online car configurator|discount offers|grouped maintenance|appointment booking|job opportunities|newsletter subscription|customer satisfaction|leasing offers|flexible auto subscription|mobile mechanics|vehicle valuation|trade-in|performance packages|special editions|brand workshops|accessory customization|emergency services|roadside assistance|latest models|showroom events|business fleet management|sustainability initiatives|automotive</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -35339,6 +36482,11 @@
           <t>http://www.martinauer.at</t>
         </is>
       </c>
+      <c r="Z392" t="inlineStr">
+        <is>
+          <t>glueckliches bio brot|pane gutes brot von gestern fuer einen guten zweck|feines klein|feingebaeck|kompromisslose qualitaet|vollkommener verzicht auf chemischen bloedsinn|passion fuer handwerk|soziale verantwortung|respekt im umgang mit natuerlichen ressourcen|respekt im umgang miteinander|food &amp; beverage manufacturing|bio bread|vegan|lactose-free|sourdough|handcrafted|artisan bakery|snacks|breakfast|lunch|cafeteria|catering|baking classes|workshops|handmade|organic ingredients|gluten-free options|sustainable practices|local sourcing|customer experience|healthy choices|traditional recipes|baking techniques|bakeries|pastries|fine baked goods|artisan crafts|catered events|coffee shop|community engagement|food kiosks|seasonal offerings|affordable prices|craftsmanship|dough products|unique flavors|dough conditioning|pre-baked items|photovoltaic systems|energy-efficient|innovative bakery|bakery design|creative space|experiential dining|food partnerships|daily specials|catering services|bakery chains|scalable production|food production</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -35418,6 +36566,11 @@
           <t>http://www.its-implant.com</t>
         </is>
       </c>
+      <c r="Z393" t="inlineStr">
+        <is>
+          <t>titanium implants for trauma surgery|implants|trauma surgery|orthopaedics|multidirectional locking technology|orthopaedic surgery|orthopaedic implants|medical equipment manufacturing|surgical devices|fracture treatment|locking plates|intramedullary nailing|surgical screws|pelvic reconstruction|humeral locking plates|fibula locking plates|compression locking plates|cannulated screws|medical technology|biocompatible materials|innovative solutions|surgical instruments|minimally invasive techniques|fracture stabilization|patient recovery|screw types|anatomical designs|advanced technologies|repair outcomes|surgical support|user-friendly implants|trauma indications|surgical education|medical training programs|surgical techniques|improved outcomes|reliable supply chain|titanium implants|fixed screw systems|osteosynthesis|surgical precision|customized solutions|medical compliance|biomechanical testing|efficient fracture repair|product optimization|joint fractures|upper extremity fractures|lower extremity fractures|surgical innovations|quality assurance|medical devices|hospital &amp; health care</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -35505,6 +36658,11 @@
           <t>http://www.porscheinterauto.at</t>
         </is>
       </c>
+      <c r="Z394" t="inlineStr">
+        <is>
+          <t>service|fahrzeugfinanzierung|fahrzeugverkauf|reparaturen|lackierungen|raederwechsel|mobilitaet|emobilitaet|motor vehicle manufacturing|new cars|used cars|financing advice|test drive|electric mobility|instant available vehicles|online reservation|vehicle accessories|used car quick search|vehicle detail search|service &amp; repair|tire service|vehicle servicing|porsche|volkswagen|audi|seat|skoda|cupra|vehicle maintenance|carlog|warranty|clean &amp; charge services|pia market|pia camper|pia fastlane|porsche inter auto|customer reviews|online car configurator|discount offers|grouped maintenance|appointment booking|job opportunities|newsletter subscription|customer satisfaction|leasing offers|flexible auto subscription|mobile mechanics|vehicle valuation|trade-in|performance packages|special editions|brand workshops|accessory customization|emergency services|roadside assistance|latest models|showroom events|business fleet management|sustainability initiatives|automotive</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -35592,6 +36750,11 @@
           <t>http://www.porscheinterauto.at</t>
         </is>
       </c>
+      <c r="Z395" t="inlineStr">
+        <is>
+          <t>service|fahrzeugfinanzierung|fahrzeugverkauf|reparaturen|lackierungen|raederwechsel|mobilitaet|emobilitaet|motor vehicle manufacturing|new cars|used cars|financing advice|test drive|electric mobility|instant available vehicles|online reservation|vehicle accessories|used car quick search|vehicle detail search|service &amp; repair|tire service|vehicle servicing|porsche|volkswagen|audi|seat|skoda|cupra|vehicle maintenance|carlog|warranty|clean &amp; charge services|pia market|pia camper|pia fastlane|porsche inter auto|customer reviews|online car configurator|discount offers|grouped maintenance|appointment booking|job opportunities|newsletter subscription|customer satisfaction|leasing offers|flexible auto subscription|mobile mechanics|vehicle valuation|trade-in|performance packages|special editions|brand workshops|accessory customization|emergency services|roadside assistance|latest models|showroom events|business fleet management|sustainability initiatives|automotive</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -35667,6 +36830,11 @@
           <t>http://www.austriajuice.com</t>
         </is>
       </c>
+      <c r="Z396" t="inlineStr">
+        <is>
+          <t>beverage|flavour concepts|beverage compounds|ftnf flavours|composition flavours|fruit juice concentrates|fruit wines|cider|food &amp; beverage manufacturing|natural flavors|not from concentrate juices|fruit sweetness|emulsions|fruit wine|nfc juices|functional drinks|energy drinks|tea &amp; coffee|non-alcoholic beverages|alcoholic beverages|hard seltzers|hard lemonade|hard iced tea|flavor solutions|food service solutions|beverage solutions|recipe development|customer-specific solutions|flavors for confectionery|flavors for baked goods|flavors for dairy products|batch production|aseptic filling|agronomic advice|supply chain sustainability|quality control|haccp compliance|certifications|organic beverages|kosher certifications|halal certifications|health trends|sustainability trends|market intelligence|trend analysis|product development|innovation|customer orientation|market positioning|global distribution|long-term partnerships|raw ingredient sourcing|local farmers|technical support|consumer goods|consumers|food production</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -35754,6 +36922,11 @@
           <t>http://www.linde-gas.at</t>
         </is>
       </c>
+      <c r="Z397" t="inlineStr">
+        <is>
+          <t>chemical manufacturing|chemicals</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -35833,6 +37006,11 @@
           <t>http://www.ribbonbio.com</t>
         </is>
       </c>
+      <c r="Z398" t="inlineStr">
+        <is>
+          <t>biotechnology research|synthetic dna|algorithm-driven technology|dna synthesis|linear dna|plasmid dna|high complexity|molecular accuracy|biotechnology|next-generation solutions|biomedical research|transformative solutions|gc content|homopolymers|downstream applications|bioinformatics|biochemical processes|automation technology|molecular biology|research &amp; development|clinical stages|personalized medicine|sequence quality|data analysis|gene therapies|dna data storage|mrna vaccines|genome editing|protein replacement therapies|viral vaccines|cell therapies|molecular mechanisms|synthetic biology|biosecurity compliance|intelligent algorithms|molecular diagnostics|oligonucleotide synthesis|biotechnology solutions|healthcare advancements|genomic technologies|biopolymer synthesis|precision medicine|custom dna orders|automation in synthesis|biochemical engineering|custom genes|sustainable biotech|data-driven decision making|scientific innovations|laboratory techniques|customized molecular biology|information technology &amp; services|data analytics</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -35912,6 +37090,11 @@
           <t>http://www.energieag.at</t>
         </is>
       </c>
+      <c r="Z399" t="inlineStr">
+        <is>
+          <t>electricity provider|energy supplier|renewable energy|reliable service|high quality electricity|power company|energy solutions|sustainable energy|customer service|affordable energy|energy plans|electric power|green energy|local energy provider|energy management|electricity rates|energy efficiency|smart energy|residential electricity|commercial energy services|energy distribution|electricity supply|clean energy|utility provider|energy contracts|load management|energy analysis|grid stability|distributed energy resources|electricity infrastructure|environmentally friendly|power generation|energy consumption|demand response programs|energy pricing|customer engagement|electricity options|smart grid technology|energy innovation|community energy solutions|energy transition|fossil fuel alternatives|energy monitoring|electricity tariffs|renewable resources|power reliability|service area|clean energy &amp; technology|environmental services|renewables &amp; environment|oil &amp; energy</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -35999,6 +37182,11 @@
           <t>http://www.promedico.at</t>
         </is>
       </c>
+      <c r="Z400" t="inlineStr">
+        <is>
+          <t>business development|wissensvermittlung|ernaehrung|mikronaehrstoffe|beratung|produktentwicklung|pure encapsulations|qualitaetssicherung|betriebliche gesundheitsfoerderung|produktmanagement|logistik|supply chain management|vertrieb|ecommerce|marketing|kommunikation|apotheken aussendienst|kundenservice|grafik|design|wissenschaft|digitalisierung|new work|wellness &amp; fitness services|health products|quality brands|pharmacy support|product development|legal advice|quality assurance|strategy development|market know-how|quality management|sales strategies|logistics management|customer relationship management|digital marketing|brand development|e-commerce solutions|event management|e-learning|training workshops|network of experts|consulting services|medical information|consumer health|nutritional supplements|pharmaceutical products|product introduction|promotional campaigns|crm systems|customer training|pharmacy advice|packaging|import processing|distribution services|public relations|media planning|target market analysis|social media marketing|branding strategy|lifelong learning|expert network|product refinement|client counseling|retail strategy|workshops &amp; seminars|wholesale distribution|market research|customer support|regulatory compliance|institutional partnerships|scientific communication|b2b|logistics &amp; supply chain|e-commerce|consumer internet|consumers|internet|information technology &amp; services|communications|health, wellness &amp; fitness|crm|sales|enterprise software|enterprises|computer software|marketing &amp; advertising|events services|education|education management|management consulting|shipping</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -36086,6 +37274,11 @@
           <t>http://www.ibs-ppg.com</t>
         </is>
       </c>
+      <c r="Z401" t="inlineStr">
+        <is>
+          <t>machinery manufacturing|dewatering technology|steam consumption reduction|chemical consumption reduction|electricity consumption reduction|water consumption reduction|web break reduction|service life extension|paper machine optimization|vacuum systems|3d scanning service|fabric tensioning systems|machine cleaning systems|high-pressure cleaning systems|monitoring technology|safety solutions|reel change systems|machine vision solutions|starch preparation|additives preparation|doctoring systems|shower systems|tissue solutions|process optimization services|performance audits|waste reduction|energy efficiency|system solutions|specialty nozzles|edge control systems|automatic couplings|environmental sustainability|industrial equipment|filtration systems|quality management|production efficiency|product lifecycle management|maintenance services|technical wear parts|custom engineering solutions|industrial automation|data-driven solutions|syringe systems|papermaking enhancements|reengineered systems|global services|installation services|training services|technical expertise|environmental services|renewables &amp; environment|mechanical or industrial engineering</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -36165,6 +37358,11 @@
           <t>http://www.wintersteiger.com</t>
         </is>
       </c>
+      <c r="Z402" t="inlineStr">
+        <is>
+          <t>skiservice|sport|fitness|bootfitting|thincutting|field research equipment|levelling technology|automation|rental|depot|saw blades for wood &amp; food|drying|hygienic|wood repair|saw mill technology|machinery manufacturing|ski service|rental solutions|bike services|drying solutions|hygienic equipment|plant breeding|woodtech machines|saw blades|automated systems|sports equipment|pos software|boot disinfectants|green drying technology|data management software|sawmill technology|furniture manufacturing|construction machinery|lightweight construction|precision planters|self-propelled units|heat supply systems|energy efficiency|recycling machines|sustainable technology|lifting equipment|heat recovery systems|oxigen technology|biodegradable lubricants|sustainable farming|high-performance machines|plant protection|cumulative data analysis|customer support|equipment maintenance|waste management|pest management systems|electronic components recycling|high-speed band saws|ecological fillers|tourism &amp; rental management|sports wear|boot drying systems|electric mobility solutions|plant research technology|high precision band saws|fluid management|leveling technology|sustainable production|personal health|health care|hospital &amp; health care|point of sale|payments|financial services|b2b|enterprise software|enterprises|computer software|information technology &amp; services|environmental services|renewables &amp; environment</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -36244,6 +37442,11 @@
           <t>http://www.ks-klinikum.at</t>
         </is>
       </c>
+      <c r="Z403" t="inlineStr">
+        <is>
+          <t>anaesthesie|zentralop|chirurgie|frauenheilkunde|geburtshilfe|hno|innere medizin|kinder|jugendmedizin|neurologie|nuklearmedizin|orthopaedie|pathologie und mikrobiologie|psychiatrie|radiologie|unfallchirurgie|sporttraumatologie|physiotherapie|apotheke|zentrallabor|stroke unit|schilddruesenzentrum|brustgesundheit|hospitals &amp; health care|ambulatory treatment|psychiatry|psychotherapy|intensive care|obstetrics|surgery|palliative care|acute emergency care|children's hospitals|reflux disease|endocrinology|orthopedics|neonatology|pulmonary medicine|diagnostic imaging|pathology|dialysis|therapeutic interventions|clinical pathways|minimal invasive surgery|anesthesia|emergency medicine|multimodal pain management|diabetes management|oncology|medical consultation|prehospital emergency service|supportive care|child &amp; adolescent psychiatry|nuclear medicine|gastroenterology|interventional cardiology|sleep laboratory|nutrition counseling|medical health services|rehabilitation|home care|integrated healthcare|medical training|patient management|nurse education|quality management|healthcare policy|patient-centered care|diagnostic services|psychological services|social services|community health|research &amp; development|staff training|hospital &amp; health care</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -36331,6 +37534,11 @@
           <t>http://www.ruppcheese.at</t>
         </is>
       </c>
+      <c r="Z404" t="inlineStr">
+        <is>
+          <t>cheese|innovation|sustainability|quality|family business|natural cheese|processed cheese|fresh cheese|b2b partnerships|private label|co-manufacturing|food service|halal|vegan cheese|gourmet cheese|international distribution|austria|cheese specialties|artisan cheese|fresh ingredients|tradition|customer satisfaction|employee development|flexible working hours|modern workplaces|food industry|grocery supply|culinary excellence|eco-friendly production|recycling|qualitative certifications|fda compliance|austrian cheese culture|european cheese production|cheese production techniques|cutting-edge technology|team-building|local sourcing|high standards|product development|cheese varieties|innovative flavors|catering|growing market|organic options|health-conscious|cheese exports|traditional recipes|ingredient sourcing|international standard certifications|environmental services|renewables &amp; environment</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -36418,6 +37626,11 @@
           <t>http://www.trox.at</t>
         </is>
       </c>
+      <c r="Z405" t="inlineStr">
+        <is>
+          <t>luftdurchlaesse|dezentrale lueftung|luftwassersysteme|brand und rauchschutzsysteme|regelgeraete und regelsysteme|raumlufttechnische geraete|filtergeraete und filterelemente|lueftungsventilatoren|jalousieklappen und wetterschutzgitter|hvac &amp; refrigeration equipment manufacturing|ventilation systems|air quality management|air handling units|fire protection systems|ducting components|climate control|sustainability|bim planning|air distribution systems|hvac components|filter systems|indoor air quality|air conditioning|energy efficiency|environmental product declarations|customer portal|product configurator|custom ventilation solutions|industrial air handling|automation technology|air treatment solutions|noise control|efficient air flow|air diffusers|heat transfer systems|brand protection systems|ductless solutions|maintenance services|online shopping platform|technical consulting|customer support|project management|regulatory compliance|smart building integration|humidity control|smart air management|real-time monitoring|air filtration technology|variable volume control|constant air volume system|air flow measurement|installation services|product lifecycle support|eco-friendly products|room induction systems|innovative air solutions|client-centered services|machinery|environmental services|renewables &amp; environment|hvac|productivity</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -36497,6 +37710,11 @@
           <t>http://www.agilox.net</t>
         </is>
       </c>
+      <c r="Z406" t="inlineStr">
+        <is>
+          <t>autonomous mobile robots|automated material handling|autonomous forklifts|xswarm technology|fleet management|material handling robots|amr technology|automated forklifts|automation machinery manufacturing|amr|automated guided vehicles|agv|x-swarm technology|material handling|logistics automation|intralogistics|transportation solutions|flexible routing|obstacle avoidance|machine safety|omnidirectional drive|self-driving fork-lift|software integration|battery-powered robots|real-time navigation|data analytics|cloud-based analytics|efficiency optimization|ai-driven logistics|load carrier|heavy load handling|small load transport|autonomous navigation|automated transport systems|multi-level operation|easy commissioning|workflow management|dynamic load handling|workforce safety|integration with existing processes|manufacturing efficiency|plug &amp; perform|scalable solutions|standardized interfaces|custom load carriers|intelligent transport systems|performance metrics|warehouse automation|navigation sensors|communication protocols|remote monitoring|customizable dashboards|transport demand management|future-ready logistics|robotic automation solutions|material flow optimization|intelligent guided vehicles|automation solutions|flexibility|scalability|easy integration|real-time data analysis|efficiency|swarm intelligence|heavy-duty applications|compact design|user-friendly interface|rapid deployment|cost-effective solutions|industrial automation|customer-centric approach|global presence|innovative technology|seamless integration|production logistics|supply chain optimization|mechanical or industrial engineering</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -36584,6 +37802,11 @@
           <t>http://www.medaustron.at</t>
         </is>
       </c>
+      <c r="Z407" t="inlineStr">
+        <is>
+          <t>ion beam therapy|cancer treatment|cancer therapy|research|radiation therapy|hospitals &amp; health care|hospital &amp; health care</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -36659,6 +37882,11 @@
           <t>http://www.premiqamed.at</t>
         </is>
       </c>
+      <c r="Z408" t="inlineStr">
+        <is>
+          <t>hospitals &amp; health care|private clinics|ambulatory medicine|rehabilitation|corporate health|mobile health services|facility management|medical services|patient satisfaction|quality management|healthcare facilities|medical excellence|certifications|sustainability|healthcare strategy|project management|employee diversity|career opportunities|health tourism|community health|medical compliance|patient care|health screenings|occupational medicine|medical staffing|human resources|healthcare administration|medical innovations|emergency care|patient-centered approach|wellness programs|rehabilitation services|quality assurance|medical professionals|clinical services|investment management|data protection|risk management|health sector|public-private partnerships|healthcare management|medical technology|patient engagement|cost management|health outcomes|clinical excellence|health infrastructure|healthcare workforce|government health initiatives|healthcare audits|telemedicine services|hospital &amp; health care|environmental services|renewables &amp; environment|productivity|financial services</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -36746,6 +37974,11 @@
           <t>http://www.smb.at</t>
         </is>
       </c>
+      <c r="Z409" t="inlineStr">
+        <is>
+          <t>industrial machinery manufacturing|industrial plant construction|engineering services|pipeline construction|steel construction|machine installation|plant relocation|pure systems|energy generation systems|pharmaceutical industry|semiconductor industry|high-purity requirements|gmp compliance|energy infrastructure|cooling systems|heating power plants|alternative energy technologies|modular construction|environmental sustainability|project management|production optimization|quality assurance|maintenance services|process automation|scada systems|prefabrication|client-specific solutions|custom equipment fabrication|safety management|iso certification|risk assessment|technical documentation|environmental management systems|trades services|construction management|automotive industry solutions|production line assembly|supply chain management|modification of production processes|cold storage facilities|industrial automation|high-efficiency energy systems|production facility upgrades|installation of utilities|biotechnology applications|stress analysis|site management|technical consultation|flexible manufacturing systems|contractor partnerships|turnkey projects|information technology &amp; services|productivity|logistics &amp; supply chain|mechanical or industrial engineering</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -36825,6 +38058,11 @@
           <t>http://www.oekostrom.at</t>
         </is>
       </c>
+      <c r="Z410" t="inlineStr">
+        <is>
+          <t>renewable energy power generation|renewable energy|100% green energy|smart saving|energy efficiency|electricity tariffs|eco-friendly|customer support|energy management|clean energy provider|solar power|wind energy|biomass|hydropower|energy savings modes|sustainable living|energy contract|power purchase agreement|market information|direct marketing|energy trade|flexibility trading|portfolio management|e-mobility|smart home integration|electric vehicle charging|installation service|subscription discounts|customer loyalty programs|pv systems|renewable installation|community renewable initiatives|carbon reduction|energy transition|electricity bills saving|energy supplier|eco-investments|community engagement|local energy|grid management|smart meters|energy consumption tracking|tariff calculator|unit price|cost-effective energy|free energy months|environmental protection|energy supply chain|grid independence|sustainable resources|renewables &amp; environment|clean energy &amp; technology|environmental services|oil &amp; energy|marketing &amp; advertising</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -36912,6 +38150,11 @@
           <t>http://www.mazda.at</t>
         </is>
       </c>
+      <c r="Z411" t="inlineStr">
+        <is>
+          <t>motor vehicle manufacturing|automobile|car leasing|vehicle financing|mazda models|car accessories|auto maintenance|dealership services|roadside assistance|fuel efficiency|suvs|sedans|sports cars|electric vehicles|hybrid technology|safety features|navigation systems|infotainment|customer support|test drives|warranty options|auto repairs|vehicle trade-in|owner resources|financing options|online booking|showroom|driving experience|technical specifications|performance metrics|color options|interior design|dealer locator|parts &amp; services|road tests|user reviews|trade-in value|unique styling|eco-friendly|smart technologies|cargo space|towing capacity|performance tuning|customization|smart safety systems|connected car services|sales events|community involvement|vehicle ownership|user manuals|feature comparisons|automotive|clean energy &amp; technology|environmental services|renewables &amp; environment</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -36991,6 +38234,11 @@
           <t>http://www.logserv.at</t>
         </is>
       </c>
+      <c r="Z412" t="inlineStr">
+        <is>
+          <t>kontraktlogistik|projektlogistik|supply chain management|bahnservice instandhaltung lokomotiven und waggons|eisenbahnbautechnik|eisenbahnsicherungstechnik|fuhrparkmanagement|zolldienstleistungen|verkehrsakademie|bahnakademie|gefahrgut|gefahrgutbeauftragter|werksinterne transporte strasse|bahn|werkshafen voestalpine|werkstaette nutzfahrzeuge|sonderfahrzeuge|versandsteuerung steel division|eisenbahntraktion cargoserv|transportation, logistics, supply chain &amp; storage|logistics|supply chain|contract logistics|project logistics|transportation management|rail logistics|freight services|vehicle fleet management|customs services|environmental sustainability|innovation in logistics|green logistics|train analysis|rolling stock|workshop services|damage management|emergency assistance|training programs|hazardous goods logistics|in-house logistics|port logistics|heavy cargo transport|shipping services|waggon management|equipment maintenance|railway technology|on-demand transport|eco-friendly solutions|logistics automation|logistics consulting|cost reduction strategies|transport solutions|distribution services|import &amp; export|service management|load optimization|vehicle return services|compliance management|accident prevention|delivery scheduling|inventory management|transport infrastructure|cross-border logistics|logistics partnerships|material handling|operational efficiency|fleet optimization|industry partnerships|technical support|continuous improvement|logistics &amp; supply chain|international trade &amp; development</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -37070,6 +38318,11 @@
           <t>http://www.smb.at</t>
         </is>
       </c>
+      <c r="Z413" t="inlineStr">
+        <is>
+          <t>industrial machinery manufacturing|industrial plant construction|engineering services|pipeline construction|steel construction|machine installation|plant relocation|pure systems|energy generation systems|pharmaceutical industry|semiconductor industry|high-purity requirements|gmp compliance|energy infrastructure|cooling systems|heating power plants|alternative energy technologies|modular construction|environmental sustainability|project management|production optimization|quality assurance|maintenance services|process automation|scada systems|prefabrication|client-specific solutions|custom equipment fabrication|safety management|iso certification|risk assessment|technical documentation|environmental management systems|trades services|construction management|automotive industry solutions|production line assembly|supply chain management|modification of production processes|cold storage facilities|industrial automation|high-efficiency energy systems|production facility upgrades|installation of utilities|biotechnology applications|stress analysis|site management|technical consultation|flexible manufacturing systems|contractor partnerships|turnkey projects|information technology &amp; services|productivity|logistics &amp; supply chain|mechanical or industrial engineering</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -37157,6 +38410,11 @@
           <t>http://www.hollu.com</t>
         </is>
       </c>
+      <c r="Z414" t="inlineStr">
+        <is>
+          <t>chemical manufacturing|cleaning solutions|hygiene management|product catalog|service &amp; consulting|facility management|hospital hygiene|food industry cleaning|training programs|digital process management|noa app|sustainability solutions|private label products|disinfection services|environmental management|hygiene consulting|cleaning systems|quality assurance|on-site training|online courses|customized cleaning plans|category-specific solutions|technical service hotline|customer service|chemical safety|maintenance services|waste management|water conservation|energy efficiency|certified quality standards|lauber organic products|emergency response cleaning|quality training|laundry hygiene|facility cleaning|hotel &amp; gastronomy|healthcare sanitation|public sector hygiene|industrial cleaning|eco-friendly cleaning products|recycling initiatives|facility service|home office|flexible working hours|health &amp; wellness programs|employee training|ecological certification|community engagement|local production|innovative cleaning technology|customizable services|chemicals|environmental services|renewables &amp; environment</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -37236,6 +38494,11 @@
           <t>http://www.kwizda-agro.com</t>
         </is>
       </c>
+      <c r="Z415" t="inlineStr">
+        <is>
+          <t>agricultural chemical manufacturing|plant protection|biocides|agriculture solutions|biological products|formulation development|crop nutrition|insecticides|sustainable agriculture|tolling services|research &amp; development|customized services|professional pest control|home &amp; garden products|logistics|quality compliance|fluid bed granulation|microencapsulation|organic solutions|environmental responsibility|crop protection agents|biodiversity conservation|eco-friendly pest control|biostimulants|certifications|market distribution|active ingredients|production facilities|crop health|client partnerships|weather forecasting|digital solutions|safety data sheets|green technology|sustainable products|customer support|distribution network|pesticides|farm hygiene|product registration|active substance innovation|biological control|environmental management|contract production|community involvement|research partnerships|innovation in agriculture|wildlife management|chemicals</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -37323,6 +38586,11 @@
           <t>http://www.emco-world.com</t>
         </is>
       </c>
+      <c r="Z416" t="inlineStr">
+        <is>
+          <t>machinery manufacturing|cnc machining|turning|milling|automation|tooling|machining centers|digital manufacturing|precision engineering|cnc lathes|cnc milling machines|universal milling machines|automation solutions|modular training|cad/cam|siemens controls|heidenhain control|fanuc controls|machine performance|cutting tools|industrial training|process optimization|workpiece handling|high-performance lathes|turn-mill centers|flexible manufacturing|advanced manufacturing technology|high precision|manufacturing efficiency|production costs|stainless steel machining|metalworking machinery|tool magazines|part processing|machine learning|data analysis|industrial iot|lean manufacturing|supply chain integration|workshop management|maintenance solutions|workforce training|virtual programming|collaboration tools|quality assurance|custom machines|component manufacturing|real-time monitoring|modular engineering|production planning|prototype development|machinery|mechanical or industrial engineering|artificial intelligence|information technology &amp; services|data analytics</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -37402,6 +38670,11 @@
           <t>http://www.virtual-vehicle.at</t>
         </is>
       </c>
+      <c r="Z417" t="inlineStr">
+        <is>
+          <t>functional prototype|cae integration|automated driving|adas|vehicle safety|connected vehicle|data security|advanced testing|validation|efficient development|passanger comfort|energy efficiency|digital operation|rail systems|continuos integration|agile engineering|virtual homologation|disruptive digitalization|model based system engineering|digital twin|future railway|digital train twin|research services|virtual development|simulation technologies|automotive industry|rail industry|e-mobility|virtual validation|system simulation|digital twins|vehicle dynamics|vehicle-track-interaction|data-driven approaches|continuous integration|automotive safety|green mobility|battery technology|cooperative mobility|networked systems|homologation processes|monitoring &amp; diagnosis|human-centered design|predictive maintenance|research &amp; development|accelerated innovation|digital infrastructure|automotive research|rail system analysis|energy management|occupant safety|lidar technology|self-driving vehicles|automated systems|vehicle communication|embedded intelligence|safety systems|smart infrastructure|digital transformation|real-time data analysis|academic partnerships|sustainable transportation|industrial collaboration|project funding|research expertise|vehicle performance|digital certification|test benches|system reliability|innovation acceleration|public research projects|automated mobility solutions|computer &amp; network security|information technology &amp; services|environmental services|renewables &amp; environment|oil &amp; energy</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -37477,6 +38750,11 @@
       <c r="W418" t="inlineStr"/>
       <c r="X418" t="inlineStr"/>
       <c r="Y418" t="inlineStr"/>
+      <c r="Z418" t="inlineStr">
+        <is>
+          <t>interessenvertretung fuer die salzburger wirtschaft</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -37556,6 +38834,11 @@
           <t>http://www.joanneum.at</t>
         </is>
       </c>
+      <c r="Z419" t="inlineStr">
+        <is>
+          <t>research services|applied research|innovation|digital technologies|sensors|photonics|flexible production|robotics|medical technology|regenerative medicine|healthcare|biomedical research|environmental sustainability|climate research|automated driving|digital transformation|industry 4.0|smart manufacturing|data analytics|nanotechnology|education|career development|corporate social responsibility|international cooperation|research partnerships|quality assurance|policy analysis|social innovation|space technology|biodiversity|energy systems|3d technology|digital twin|smart hospital|artificial intelligence|machine learning|process optimization|simulation|engineering|material science|advanced materials|sustainable technology|transportation|economic research|social impact|health technology|public policy|r&amp;d infrastructure|community engagement|diversity &amp; inclusion|robotic systems|hardware|mechanical or industrial engineering|information technology &amp; services|health care|health, wellness &amp; fitness|hospital &amp; health care</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -37639,6 +38922,11 @@
           <t>http://www.bundeskanzleramt.gv.at</t>
         </is>
       </c>
+      <c r="Z420" t="inlineStr">
+        <is>
+          <t>service hotline|women's service|consultation|violence protection|anti-discrimination hotline|family &amp; youth counseling|publications|funding|administrative library|mobile apps|online calculators|corporate design|whistleblower office|eu topics|bioethics commission|compliance|cybersecurity|research technology innovation|sustainable development|eu policy|immigration|youth integration|family policy|digital governance|legal information system|gender equality|women's health|violence against women|gender mainstreaming|gender medicine|social services|youth dialogue|community initiatives|youth strategy|digital accessibility|legal assistance|economic empowerment|anti-semitism prevention|child protection|integration funding|open government data|electronic delivery|federal government|familial aid|youth engagement|cultural initiatives|disinformation campaign|human rights|child &amp; youth advocacy|gender pay gap|consulting|management consulting|sustainability|environmental services|renewables &amp; environment</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -37726,6 +39014,11 @@
           <t>http://www.kaessbohrer.at</t>
         </is>
       </c>
+      <c r="Z421" t="inlineStr">
+        <is>
+          <t>fahrzeugindustrie &amp; autotransporter|motor vehicle manufacturing|vehicle transport|car carriers|enclosed car carriers|special vehicles|zero emission|customer service|spare parts|loading examples|repair works|refurbishing|training events|eu regulations|b2b|industrial partnerships|automotive logistics|transport technology|flexibility|efficiency|payload capacity|vehicle loading|innovative designs|transport solutions|service network|workshops|safety features|durability|vehicle restoration|modern manufacturing|high quality standards|iso certification|heavy vehicle transport|luxury vehicle transport|hydraulic lift systems|mobility|manoeuvrability|logistics challenges|automotive oems|partnership development|sustainability initiatives|customer-focused solutions|remote services|product customization|market leadership|transport innovation|vehicle-specific designs|business expansion|automotive</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -37805,6 +39098,11 @@
           <t>http://www.rubig.com</t>
         </is>
       </c>
+      <c r="Z422" t="inlineStr">
+        <is>
+          <t>metal|metal processing|metal finishing|plasma nitriding|gas nitriding|vacuum hardening|case hardening|material analysis|industrial furnaces|die forge|drive &amp; conveyor systems|fastening technology|services|laser machining|seminars &amp; trainings|machinery manufacturing|heat treatment|die forging|annealing|pvd coating|dlc coatings|micropuls technology|failure analysis|material engineering|custom coatings|biocidal coatings|titanium coatings|plasma generators|automotive engineering|aerospace manufacturing|mechanical engineering|recycling technology|sprockets|surface finishing|leisure products|hunting knives|fishing accessories|engine manufacturing|agricultural machinery|conveyor technologies|robust chain systems|multi-functional chains|specialized machining|energy efficiency|sustainability in industrial processes|customer portal|training seminars|apprenticeship programs|dual study programs|innovative manufacturing|steel treatment|lightweight structures|custom engineering solutions|high-strength components|environmental awareness|industrial cleaning systems|customer-specific solutions|mechanical processing|mechanical or industrial engineering|environmental services|renewables &amp; environment</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -37892,6 +39190,11 @@
           <t>http://www.lisec.com</t>
         </is>
       </c>
+      <c r="Z423" t="inlineStr">
+        <is>
+          <t>flat glass processing|insulating glass processing|glass cutting|insulating glass production|sorting|logistics systems|glass processing|washing|quality management|tempering|software on machines|order management|production planning|optimisation|industry 40|machinery manufacturing|flat glass machinery|glass cutting line|insulating glass line|laminated glass line|individual machines|glass production|sorting systems|glass edge processing|manufacturing execution|business solutions|digitalization|software integration|glass transport systems|tempering systems|laser systems|quality assurance|after sales service|customer support|spare parts delivery|training programs|customer portal|production optimization|machine inspection|maintenance solutions|patented technologies|industry 4.0|virtual training|global partnerships|customized solutions|turnkey solutions|emergency support|comprehensive service|holiday support|glass processing innovations|sustainability initiatives|local language support|complaints handling|claim management|express delivery|research &amp; development|preowned machines|component repairs|safety standards|performance efficiency|automation technology|device integration|assembly solutions|glass cutting systems|laminated glass production|software solutions|production management|automation solutions|innovative technology|global presence|customer satisfaction|customized service packages|long service life|industrial machinery|sustainability|corporate responsibility|construction industry|automotive industry|interior design|digital solutions|energy-saving technology|comprehensive support|market leader|competitive analysis|customer-centric approach|partnerships|emerging markets|automation demand|environmental services|renewables &amp; environment</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -37971,6 +39274,11 @@
           <t>http://www.porscheinterauto.at</t>
         </is>
       </c>
+      <c r="Z424" t="inlineStr">
+        <is>
+          <t>service|fahrzeugfinanzierung|fahrzeugverkauf|reparaturen|lackierungen|raederwechsel|mobilitaet|emobilitaet|motor vehicle manufacturing|new cars|used cars|financing advice|test drive|electric mobility|instant available vehicles|online reservation|vehicle accessories|used car quick search|vehicle detail search|service &amp; repair|tire service|vehicle servicing|porsche|volkswagen|audi|seat|skoda|cupra|vehicle maintenance|carlog|warranty|clean &amp; charge services|pia market|pia camper|pia fastlane|porsche inter auto|customer reviews|online car configurator|discount offers|grouped maintenance|appointment booking|job opportunities|newsletter subscription|customer satisfaction|leasing offers|flexible auto subscription|mobile mechanics|vehicle valuation|trade-in|performance packages|special editions|brand workshops|accessory customization|emergency services|roadside assistance|latest models|showroom events|business fleet management|sustainability initiatives|automotive</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -38058,6 +39366,11 @@
           <t>http://www.gabriel-chemie.com</t>
         </is>
       </c>
+      <c r="Z425" t="inlineStr">
+        <is>
+          <t>research &amp; development|colour match|additive masterbatch|colour masterbatch|combination masterbatch|black masterbatch|white masterbatch|ral colours|plastics|laser marking technology|masterbatches|pcr masterbatch|nir masterbatch|customer care|innovation|special effect masterbatches|plastics manufacturing|masterbatch|sustainable solutions|decorative solutions|functional laser marking|flame retardant|medical solutions|agricultural films|nir detectable|co2 reduced masterbatch|compatibilizer|colour vision|ral plastics|black-white masterbatch|special effects pigments|marble impressions|innovative surfaces|light markings|dark markings|colour markings|flame retardant polyamide|flame retardant polypropylene|xps insulation materials|stadium seats|halogen-free electrical conduits|grass fibres|product authentication|tagtec technology|haptic experience|optical control|customer focus|quality assurance|environmental responsibility|recyclable materials|polymer combinations|market adaptation|custom solutions|supplier partnerships|certifications|family business values|long-term sustainability|product customization|plastic innovation|manufacturing excellence|cross-industry applications|global presence|delivery efficiency|quality control systems|market growth strategies|chemicals</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -38137,6 +39450,11 @@
           <t>http://www.villach.at</t>
         </is>
       </c>
+      <c r="Z426" t="inlineStr">
+        <is>
+          <t>villach|municipal services|city development|waste management|water services|environmental protection|technology &amp; innovation|online appointment booking|public transport|local government|community services|education &amp; youth|public safety|cultural events|social services|support for disabled|affordable housing|energy management|urban planning|integration programs|health services|online services|digital government|community initiatives|sports &amp; recreation|city mapping|local businesses|social equality|sustainability|welfare programs|emergency services|heritage sites|historical preservation|environmental sustainability|public works|land use planning|transportation planning|community engagement|local culture|civic participation|renewable energy|outdoor activities|local partnerships|civic events|city promotions|public utilities|community resources|regulatory compliance|resource management|community outreach|hospital &amp; health care|oil &amp; energy|environmental services|renewables &amp; environment|clean energy &amp; technology</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -38224,6 +39542,11 @@
           <t>http://www.kwb.net</t>
         </is>
       </c>
+      <c r="Z427" t="inlineStr">
+        <is>
+          <t>innovative heating system solutions|renewable energy|wood pellet heating systems|wood chip heating systems|log wood heating systems|wood|technology|innovation|research|development|biomass heating system|energiesystem|solar|holzheizung|effizienter energieeinsatz|nachhaltigkeit|energiemanagement|kuenstliche intelligenz|software|clean energy &amp; technology|environmental services|renewables &amp; environment|information technology &amp; services</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -38311,6 +39634,11 @@
           <t>http://www.ccri.at</t>
         </is>
       </c>
+      <c r="Z428" t="inlineStr">
+        <is>
+          <t>research services|pediatric cancer research|translational research|clinical trials|bioinformatics|rare diseases|innovative cancer therapies|liquid biopsy|molecular characterization|precision oncology|epigenetics|interdisciplinary collaboration|childhood cancer treatment|patient-centered research|genetic research|scientific networking|biomedical research|human genome|cancer mechanisms|research funding|state-of-the-art facilities|cancer biomarkers|research training|scientific publications|research management|cancer diagnosis|cancer therapy innovations|multidisciplinary teams|healthcare collaboration|oncology|children's hospital integration|scientific communications|fundraising|healthcare support|patient survival|breakthrough research|stem cell model|childhood disease mechanisms|biomedical innovation|academic partnerships|clinical pharmacogenomics|genetic counseling|research grants|scientific symposiums|healthcare systems|pediatric oncology|research advancements|life sciences|research impact|research excellence|health care|health, wellness &amp; fitness|hospital &amp; health care|information technology &amp; services|biotechnology|fund-raising</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -38390,6 +39718,11 @@
           <t>http://www.versich.at</t>
         </is>
       </c>
+      <c r="Z429" t="inlineStr">
+        <is>
+          <t>persoenliche beratung|immer in ihrer naehe|marktfuehrer schadenunfall|aelteste versicherung osterreichs|massgeschneiderte produkte|onlineproduktportfolio|praesenz auch in deutschland|niederlassungen in oo|stmk und sbg|impulsgeber|experte fuer sicherheit und vorsorge|wir uebernehmen ihr risiko|lebensbegleiter der kundinnen|indivduelle versicherungsloesungen|rasche schadenabwicklung</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -38477,6 +39810,11 @@
           <t>http://www.premiqamed.at</t>
         </is>
       </c>
+      <c r="Z430" t="inlineStr">
+        <is>
+          <t>hospitals &amp; health care|private clinics|ambulatory medicine|rehabilitation|corporate health|mobile health services|facility management|medical services|patient satisfaction|quality management|healthcare facilities|medical excellence|certifications|sustainability|healthcare strategy|project management|employee diversity|career opportunities|health tourism|community health|medical compliance|patient care|health screenings|occupational medicine|medical staffing|human resources|healthcare administration|medical innovations|emergency care|patient-centered approach|wellness programs|rehabilitation services|quality assurance|medical professionals|clinical services|investment management|data protection|risk management|health sector|public-private partnerships|healthcare management|medical technology|patient engagement|cost management|health outcomes|clinical excellence|health infrastructure|healthcare workforce|government health initiatives|healthcare audits|telemedicine services|hospital &amp; health care|environmental services|renewables &amp; environment|productivity|financial services</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -38560,6 +39898,11 @@
       <c r="W431" t="inlineStr"/>
       <c r="X431" t="inlineStr"/>
       <c r="Y431" t="inlineStr"/>
+      <c r="Z431" t="inlineStr">
+        <is>
+          <t>automation machinery manufacturing</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -38639,6 +39982,11 @@
           <t>http://www.starlim-sterner.com</t>
         </is>
       </c>
+      <c r="Z432" t="inlineStr">
+        <is>
+          <t>silikon|werkzeugbau|spritzguss|plastics manufacturing|silicone products|injection molding|technical parts|medical applications|automotive components|multi-component molding|rapid prototyping|material testing|cleanroom production|quality management|zero defect philosophy|certifications|design development|product development|industry solutions|life sciences|mobility sector|micro molding|reinforced silicone|durable elastomers|custom solutions|b2b supplier|global manufacturing|liquid silicone rubber|tool construction|prototype tooling|mass production|sustainable initiatives|flexible manufacturing|expert engineering|customer support|iso certifications|gmp compliance|elastomer processing|advanced technologies|supply chain management|high precision components|consumer goods applications|food grade silicone|uv resistant materials|temperature resistant silicon|self-cleaning materials|dynamic dampers|aerospace components|medical device manufacturing|non-toxic materials|chemicals|logistics &amp; supply chain</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -38726,6 +40074,11 @@
           <t>http://www.silicon-austria-labs.com</t>
         </is>
       </c>
+      <c r="Z433" t="inlineStr">
+        <is>
+          <t>electronics &amp; software based systems|sensor systems|photonics|electronics|printed electronics|intelligent wireless systems|embedded ai|wireless communications|embedded systems|trustworthy adaptive computing|microsystems|cleanroom|microfabrication|thin films|emc|power electronics|power density|system integration|heterogeneous integration|r|d|millimeter wave technologies|research services|computer hardware|hardware|embedded hardware &amp; software</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -38813,6 +40166,11 @@
           <t>http://www.bundeskanzleramt.gv.at</t>
         </is>
       </c>
+      <c r="Z434" t="inlineStr">
+        <is>
+          <t>service hotline|women's service|consultation|violence protection|anti-discrimination hotline|family &amp; youth counseling|publications|funding|administrative library|mobile apps|online calculators|corporate design|whistleblower office|eu topics|bioethics commission|compliance|cybersecurity|research technology innovation|sustainable development|eu policy|immigration|youth integration|family policy|digital governance|legal information system|gender equality|women's health|violence against women|gender mainstreaming|gender medicine|social services|youth dialogue|community initiatives|youth strategy|digital accessibility|legal assistance|economic empowerment|anti-semitism prevention|child protection|integration funding|open government data|electronic delivery|federal government|familial aid|youth engagement|cultural initiatives|disinformation campaign|human rights|child &amp; youth advocacy|gender pay gap|consulting|management consulting|sustainability|environmental services|renewables &amp; environment</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -38892,6 +40250,11 @@
           <t>http://www.enspired-trading.com</t>
         </is>
       </c>
+      <c r="Z435" t="inlineStr">
+        <is>
+          <t>artificial intelligence|trading as a service|power trading|intraday markets|automated trading|renewable energy|market access|flexibility trading|energytech|battery marketing|flexible assets|battery route to market|batterymanagement|vpp|flexible demand|artificialintelligence|services for renewable energy|battery optimization|energy transition|commercial optimization|virtual power plants|renewable generation|battery energy storage systems|real-time market access|data-driven trading|ai trading platform|pumped storage|vpp aggregators|imbalance optimization|electric vehicles|wholesale markets|ancillary services|energy trading|algorithmic trading|grid stabilization|energy management|demand response|future energy markets|trading services|profit maximization|market analytics|cost-effective solutions|energy portfolio|operational flexibility|grid access|asset degradation|battery lifecycle management|market access services|decoupled assets|charging infrastructure|smart charging technologies|dynamic pricing|renewable energy integration|bi-directional charging|transparent trading|portfolio balancing|digital trading services|energy efficiency solutions|asset optimization|financial risk management|unified energy trading|cross-market optimization|ai-powered trading|trading-as-a-service|flexibility monetization|automated energy trading|profitability maximization|real-time dashboard|transparency|decentralized assets|energy funds|utilities|asset developers|virtual power plant operators|energy-intensive industries|clean energy|sustainability|european power markets|global expansion|automated trading solutions|profit increase guarantee|energy trading efficiency|information technology &amp; services|clean energy &amp; technology|environmental services|renewables &amp; environment|oil &amp; energy</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -38977,6 +40340,11 @@
       <c r="Y436" t="inlineStr">
         <is>
           <t>http://www.bml.gv.at</t>
+        </is>
+      </c>
+      <c r="Z436" t="inlineStr">
+        <is>
+          <t>agriculture|forestry|water management|sustainability|climate change|regional development|food security|market regulation|environmental protection|rural areas|research|funding programs|land management|forest management|crop health|eu policies|agricultural marketing|public administration|community engagement|job opportunities|biodiversity|natural resource management|innovation in agriculture|organic farming|water infrastructure|flood protection|education|digital transformation|agricultural politics|public service|community projects|consumer protection|livestock farming|renewable energy|food production|environmentally friendly practices|land ownership|forest ecology|climate resilience|policy advocacy|food safety|agricultural research|natural habitats|ecological standards|energy conservation|regional identity|economic development|wildlife protection|stakeholder collaboration|environmental services|renewables &amp; environment|clean energy &amp; technology</t>
         </is>
       </c>
     </row>
@@ -39062,6 +40430,11 @@
           <t>http://www.federal-chancellery.gv.at</t>
         </is>
       </c>
+      <c r="Z437" t="inlineStr">
+        <is>
+          <t>federal chancellery|citizens service|digital administration|cybersecurity|austrian government|sustainable development goals|women &amp; equality|integration strategies|bioethics commission|youth services|family support|crisis management|legal information system|media law|party funding|national security|discrimination protection|gender equality|cultural affairs|information technology policy|civic participation|educational programs|public libraries initiatives|administrative guidance|cross-border cooperation|social welfare programs|civic education|public health access|child protection services|crisis counseling|youth empowerment|diplomatic relations|international cooperation|research &amp; development|crisis prevention|austrian integration fund|community engagement|civil society support|access to information|legislative frameworks|public records management|statistical reporting|anti-discrimination laws|social integration policies|public awareness campaigns|e-government|administrative transparency|citizenship services|online resource centers|accessibility initiatives</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -39149,6 +40522,11 @@
           <t>http://www.gl-pharma.com</t>
         </is>
       </c>
+      <c r="Z438" t="inlineStr">
+        <is>
+          <t>branded drugs|offpatent drugs|drug registration|research|development|pharmaceutical manufacturing|generic drugs|branded medications|opioid substitution therapy|pain management|neurological treatments|cardiovascular medications|urological health|chronic disease management|drug safety|pharmacovigilance|clinical research|drug development|medication-assisted treatment|innovative therapies|solid dosage forms|oral solutions|injectable solutions|niche generics|pharmaceutical partnerships|licensing opportunities|research &amp; development|healthcare accessibility|healthcare transparency|side effect reporting|active pharmaceutical ingredients|active ingredient information|therapeutic areas|chronic condition treatments|drug distribution|drug formulation|dietary supplements|vitamins &amp; minerals|adverse reactions|comprehensive medication guide|biologics|prescription assistance|health &amp; wellness solutions|patient satisfaction|clinical efficacy|medical professionals|disease management|public health|well-being|healthcare industry|medical regulation|healthcare innovation|pharmaceutical compliance|medication adherence|cross-border healthcare|pharmaceuticals|medical|health, wellness &amp; fitness</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -39236,6 +40614,11 @@
           <t>http://www.kremsmueller.com</t>
         </is>
       </c>
+      <c r="Z439" t="inlineStr">
+        <is>
+          <t>industrial engineering|industrial plant construction|instrumentation &amp; control|pressure vessel &amp; tank construction|pipework construction|industrial services|anlagenbau|industrieanlagenbau|rohrleitungsbau|behaelterbau|apparatebau|emsr|telekommunikationstechnik|montage|industriemontage|klaerschlammverbrennung|instandhaltung|arbeitskraefteueberlassung|schweisser|lagersysteme|industrial machinery manufacturing|pipeline construction|plant engineering|telecommunications|epc services|project management|maintenance services|industrial assembly|pressure vessels|heat accumulators|energy technology|electrical measurement technology|automation technology|supply networks|industrial heat recovery|fiber optic networks|natural gas pipelines|water pipelines|wastewater treatment|industrial boilers|environmental technology|safety engineering|welding services|machinery assembly|renewable energy systems|custom tank construction|valuing expertise|project consulting|fluid transport|construction project management|infrastructure development|heat transfer systems|regulations compliance|pipe insulation|grid expansion|heavy equipment services|industrial equipment installation|engineering calculations|worksite safety|technical documentation|risk assessment|social responsibility initiatives|customer support|operational excellence|engineering procurement conglomerate|highway projects|energy efficiency solutions|hydraulic systems installation|productivity</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -39323,6 +40706,11 @@
           <t>http://www.wkv.at</t>
         </is>
       </c>
+      <c r="Z440" t="inlineStr">
+        <is>
+          <t>gesetzliche interessensvertretung|business portal|entrepreneurship|economic policies|workforce management|legal guidelines|company registration|small business regulations|employee training|kollektivvertrge|business structure|economic support|employment legislation|hr management|import export services|financial support programs|data protection|tax information|welfare benefits|energy efficiency|business transformation|digitalization|company acquisition|market statistics|business networking|employee recruitment|laws &amp; regulations|contract law|wage calculation|employee rights|business closure|international trade|business development|financial management|environmental policies|market analysis|job market insights|labour law|investment opportunities|b2b networking|sustainability initiatives|educational programs|business events|industry associations|foreign business relations|self-employment support|resources for entrepreneurs|policy advocacy|professional training|environmental services|renewables &amp; environment|b2b|civic &amp; social organization</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -39410,6 +40798,11 @@
           <t>http://www.metalldeutsch.com</t>
         </is>
       </c>
+      <c r="Z441" t="inlineStr">
+        <is>
+          <t>metal processing|aluminum casting|steel production|automotive parts|precision machining|cnc programming|mold manufacturing|tool construction|mechanical engineering|ski edge production|die casting|sustainable manufacturing|high-quality components|industrial automation|staff development|qualified workforce|iso certifications|product quality|project management|product lifecycle|manufacturing efficiency|high-volume production|lean manufacturing|technical apprenticeships|innovation|engineering services|customized solutions|systems supplier|r&amp;d in metallurgy|supply chain integration|quality management|testing &amp; inspection|engineering expertise|environmental sustainability|employee training|technical support|metal fabrication|process optimization|factory automation|industry standards compliance|welding technology|production planning|job opportunities|competency management|employee engagement|family-owned business|core competencies|advanced manufacturing|sector leadership|skilled labor workforce|mechanical or industrial engineering|productivity|information technology &amp; services</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -39489,6 +40882,11 @@
           <t>http://www.virtual-vehicle.at</t>
         </is>
       </c>
+      <c r="Z442" t="inlineStr">
+        <is>
+          <t>functional prototype|cae integration|automated driving|adas|vehicle safety|connected vehicle|data security|advanced testing|validation|efficient development|passanger comfort|energy efficiency|digital operation|rail systems|continuos integration|agile engineering|virtual homologation|disruptive digitalization|model based system engineering|digital twin|future railway|digital train twin|research services|virtual development|simulation technologies|automotive industry|rail industry|e-mobility|virtual validation|system simulation|digital twins|vehicle dynamics|vehicle-track-interaction|data-driven approaches|continuous integration|automotive safety|green mobility|battery technology|cooperative mobility|networked systems|homologation processes|monitoring &amp; diagnosis|human-centered design|predictive maintenance|research &amp; development|accelerated innovation|digital infrastructure|automotive research|rail system analysis|energy management|occupant safety|lidar technology|self-driving vehicles|automated systems|vehicle communication|embedded intelligence|safety systems|smart infrastructure|digital transformation|real-time data analysis|academic partnerships|sustainable transportation|industrial collaboration|project funding|research expertise|vehicle performance|digital certification|test benches|system reliability|innovation acceleration|public research projects|automated mobility solutions|computer &amp; network security|information technology &amp; services|environmental services|renewables &amp; environment|oil &amp; energy</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -39568,6 +40966,11 @@
           <t>http://www.mercedes-benz-g.at</t>
         </is>
       </c>
+      <c r="Z443" t="inlineStr">
+        <is>
+          <t>motor vehicle manufacturing|g-class|mercedes-benz|offroad vehicle|electric vehicle|luxury suv|iconic design|4matic all-wheel drive|unique driving experience|eq technology|hybrid technology|offroad capabilities|suspension system|customization options|high-strength steel frame|advanced safety features|recreational off-road|intelligent terrain management|digital infotainment|high-performance electric motors|environmentally friendly|low emissions|g-roar sound technology|torque vectoring|luxury interiors|6x6 drive|manafacuring excellence|technical compliance|rugged design|historic craftsmanship|offroad experience center|dynamic handling|sustainable driving|advanced driving assistance|premium comfort|legendary performance|heritage models|g-class exclusivity|ultimate driving machine|superior traction|adventure-ready|modular platform|high-voltage battery|digital transformation|community spirit|career growth|engineering challenges|steering precision|safety certifications|customer engagement|real-world testing|automotive</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -39655,6 +41058,11 @@
           <t>http://www.energieag.at</t>
         </is>
       </c>
+      <c r="Z444" t="inlineStr">
+        <is>
+          <t>electricity provider|energy supplier|renewable energy|reliable service|high quality electricity|power company|energy solutions|sustainable energy|customer service|affordable energy|energy plans|electric power|green energy|local energy provider|energy management|electricity rates|energy efficiency|smart energy|residential electricity|commercial energy services|energy distribution|electricity supply|clean energy|utility provider|energy contracts|load management|energy analysis|grid stability|distributed energy resources|electricity infrastructure|environmentally friendly|power generation|energy consumption|demand response programs|energy pricing|customer engagement|electricity options|smart grid technology|energy innovation|community energy solutions|energy transition|fossil fuel alternatives|energy monitoring|electricity tariffs|renewable resources|power reliability|service area|clean energy &amp; technology|environmental services|renewables &amp; environment|oil &amp; energy</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -39742,6 +41150,11 @@
           <t>http://www.virtual-vehicle.at</t>
         </is>
       </c>
+      <c r="Z445" t="inlineStr">
+        <is>
+          <t>functional prototype|cae integration|automated driving|adas|vehicle safety|connected vehicle|data security|advanced testing|validation|efficient development|passanger comfort|energy efficiency|digital operation|rail systems|continuos integration|agile engineering|virtual homologation|disruptive digitalization|model based system engineering|digital twin|future railway|digital train twin|research services|virtual development|simulation technologies|automotive industry|rail industry|e-mobility|virtual validation|system simulation|digital twins|vehicle dynamics|vehicle-track-interaction|data-driven approaches|continuous integration|automotive safety|green mobility|battery technology|cooperative mobility|networked systems|homologation processes|monitoring &amp; diagnosis|human-centered design|predictive maintenance|research &amp; development|accelerated innovation|digital infrastructure|automotive research|rail system analysis|energy management|occupant safety|lidar technology|self-driving vehicles|automated systems|vehicle communication|embedded intelligence|safety systems|smart infrastructure|digital transformation|real-time data analysis|academic partnerships|sustainable transportation|industrial collaboration|project funding|research expertise|vehicle performance|digital certification|test benches|system reliability|innovation acceleration|public research projects|automated mobility solutions|computer &amp; network security|information technology &amp; services|environmental services|renewables &amp; environment|oil &amp; energy</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -39829,6 +41242,11 @@
           <t>http://www.taggmbh.at</t>
         </is>
       </c>
+      <c r="Z446" t="inlineStr">
+        <is>
+          <t>we support the flow of energy by connecting markets for a brighter future|natural gas transport|pipeline system|austrian gas supply|gas transmission operator|renewable energy|hydrogen transport|biogas|capacity contracts|energy supply security|gas infrastructure|compressor stations|transmission capacities|entry points|exit points|flow rate|gas quality specifications|emergency gas services|non-discriminatory access|european gas network|interconnector|sustainable energy solutions|energy transition|commercial dispatching|maintenance services|energy management|tariff calculator|capacity allocation|secondary market|gas alarm plan|social responsibility|energy efficiency|environmental protection|technical capacity|long-distance transportation|e-control certification|sustainable energy future|european hydrogen strategy|regional pathways|gas market integration|carbon capture|emission reduction|methane emission control|energy flow management|safety standards|market transparency|renewable gas|capacity trading platform|flow direction flexibility|diplomatic energy relations|energy innovation projects|clean energy &amp; technology|environmental services|renewables &amp; environment|oil &amp; energy</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -39908,6 +41326,11 @@
           <t>http://www.eww.at</t>
         </is>
       </c>
+      <c r="Z447" t="inlineStr">
+        <is>
+          <t>strom|gas|wasser|solar|anlagentechnik|itandtel|waerme|photovoltaik|informationstechnologie|fernwaerme|electricity supply|renewable energy|gas supply|district heating|water supply|wastewater services|power tariffs|smart meters|photovoltaics|energy consulting|energy efficiency|emergency gas service|heating maintenance|electrician services|installation services|customer service|energy communities|home charging stations|e-car sharing|public lighting|facility management|energy savings tips|cloud solutions|data networks|electric vehicle charging|biomass energy|energy cost adjustment|network construction|heat-pump systems|energy concept development|electric utility|energy bill transparency|community energy projects|electricity supply contracts|billing &amp; invoicing|energy market analysis|waste management solutions|power generation|site management services|technical services|automation technology|customer portal|job careers|training opportunities|smart energy solutions|distributed energy resources|event services|power generation plants|energy trading|energy market regulations|clean energy &amp; technology|environmental services|renewables &amp; environment|cloud computing|enterprise software|enterprises|computer software|information technology &amp; services|b2b|events services</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -39995,6 +41418,11 @@
           <t>http://www.energieag.at</t>
         </is>
       </c>
+      <c r="Z448" t="inlineStr">
+        <is>
+          <t>electricity provider|energy supplier|renewable energy|reliable service|high quality electricity|power company|energy solutions|sustainable energy|customer service|affordable energy|energy plans|electric power|green energy|local energy provider|energy management|electricity rates|energy efficiency|smart energy|residential electricity|commercial energy services|energy distribution|electricity supply|clean energy|utility provider|energy contracts|load management|energy analysis|grid stability|distributed energy resources|electricity infrastructure|environmentally friendly|power generation|energy consumption|demand response programs|energy pricing|customer engagement|electricity options|smart grid technology|energy innovation|community energy solutions|energy transition|fossil fuel alternatives|energy monitoring|electricity tariffs|renewable resources|power reliability|service area|clean energy &amp; technology|environmental services|renewables &amp; environment|oil &amp; energy</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -40082,6 +41510,11 @@
           <t>http://www.svs.at</t>
         </is>
       </c>
+      <c r="Z449" t="inlineStr">
+        <is>
+          <t>self-employed insurance|contributions calculation|health insurance|pension insurance|disability insurance|family insurance|accident insurance|medical rehabilitation|child health programs|voluntary insurance|insurance for freelancers|retirement planning|business startup support|health &amp; wellness programs|family support|payment options|insurance contributions|preventive healthcare|childbirth benefits|unemployment insurance|health care services|nutrition &amp; wellness|mental health programs|medical aids &amp; medications|insurance for agricultural workers|medical services|insurance claims management|case management|insurance adjustments|insurance coverage verification|social security services|self-employment benefits|healthcare costs|support for caregivers|digital services portal|online insurance registration|insurance for business owners|insurance policy management|customer support services|financial aid for families|health checks for children|insurance for active seniors|sports health programs|community health initiatives|health education programs|rehabilitation counseling|wellness camps &amp; workshops|mental wellness services</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -40169,6 +41602,11 @@
           <t>http://www.energieag.at</t>
         </is>
       </c>
+      <c r="Z450" t="inlineStr">
+        <is>
+          <t>electricity provider|energy supplier|renewable energy|reliable service|high quality electricity|power company|energy solutions|sustainable energy|customer service|affordable energy|energy plans|electric power|green energy|local energy provider|energy management|electricity rates|energy efficiency|smart energy|residential electricity|commercial energy services|energy distribution|electricity supply|clean energy|utility provider|energy contracts|load management|energy analysis|grid stability|distributed energy resources|electricity infrastructure|environmentally friendly|power generation|energy consumption|demand response programs|energy pricing|customer engagement|electricity options|smart grid technology|energy innovation|community energy solutions|energy transition|fossil fuel alternatives|energy monitoring|electricity tariffs|renewable resources|power reliability|service area|clean energy &amp; technology|environmental services|renewables &amp; environment|oil &amp; energy</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -40256,6 +41694,11 @@
           <t>http://www.linde-gas.at</t>
         </is>
       </c>
+      <c r="Z451" t="inlineStr">
+        <is>
+          <t>chemical manufacturing|chemicals</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -40343,6 +41786,11 @@
           <t>http://www.richter-pharma.com</t>
         </is>
       </c>
+      <c r="Z452" t="inlineStr">
+        <is>
+          <t>veterinaerpharmazeutika|humanpharmazeutika|pharmadistribution|pharma|pharmaceutical manufacturing|pharmaceutical distribution|human health|veterinary pharmaceutical|gmp-compliant production|logistics services|healthcare services|patient care|veterinarian support|pharmacy services|animal health|full-range pharmaceuticals|otc products|veterinary service|supply chain management|healthcare logistics|innovative healthcare solutions|practice support|medical consulting|e-learning seminars|patient-specific blistering|quality assurance|multinational distribution|pharmaceutical expertise|veterinary wholesalers|pharmaceutical manufacturer|tailored healthcare solutions|healthcare outsourcing|logistical operations|digital health services|software development|pharma trade|business consulting|education &amp; training|logistics outsourcing|medicinal product supply|animal medications|pharmacy management software|community health services|healthcare innovation|practice establishment|apothecary services|healthcare partnerships|sustainable healthcare|medical supply chain|patient-oriented services|pharmaceutical safety|custom formulations|pharmacovigilance|clinical pharmacy|telehealth services|pharmaceuticals|medical|health care|health, wellness &amp; fitness|hospital &amp; health care|logistics &amp; supply chain|information technology &amp; services|b2b|management consulting</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -40430,6 +41878,11 @@
           <t>http://www.hoedlmayr.com</t>
         </is>
       </c>
+      <c r="Z453" t="inlineStr">
+        <is>
+          <t>supply chain|automotive logistics|transport|vehicles|cars|trucks|transportation, logistics, supply chain &amp; storage|transport logistics|vehicle logistics|multi-modal solutions|supply chain management|freight transport|vehicle tracking|end-to-end logistics|releasing agent|transport services|logistics services|smart repair|fleet management|vehicle remarketing|sustainable logistics|logistics network|full-service provider|international logistics|quality assurance|customized solutions|warehouse services|vehicle handling|pre-delivery services|last mile delivery|dock services|rail logistics|road transport|logistics innovation|supply chain optimization|transport efficiency|environmental sustainability|business development|employee engagement|transport coordination|service centers|automotiv transport solutions|carrier services|automobile supply chain|logistics technology|compliance management|logistics consulting|value-added services|industrial logistics|vehicle modification|project logistics|contract logistics|customer service excellence|vehicle maintenance|transport collaboration|automotive|logistics &amp; supply chain|b2b</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -40517,6 +41970,11 @@
           <t>http://www.statistik.at</t>
         </is>
       </c>
+      <c r="Z454" t="inlineStr">
+        <is>
+          <t>statistical database|economic monitor|population statistics|labor market analysis|energy statistics|environmental data|research innovation|digitalization statistics|international trade data|agriculture statistics|forestry data|tourism statistics|transportation data|public finance data|consumer health statistics|address register|business register|building register|statistical reports|data visualization|life expectancy calculations|welfare statistics|housing statistics|employment figures|publications|data analysis tools|indicator systems|response burden management|open data|transparency database|economic models|statistical classification|surveys|data transmission|interactive maps|economic indicators|corporate statistics|statistical models|respondent management|data mapping|cpi inflation|gdp statistics|employment trends|household statistics|education statistics|annual reports|information technology &amp; services</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -40604,6 +42062,11 @@
           <t>http://www.henn-group.com</t>
         </is>
       </c>
+      <c r="Z455" t="inlineStr">
+        <is>
+          <t>kupplungen|produktrealisierungen|steckverbindungen|auftragsfertigung|industrialisierungspartner|verbindungstechnologie</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -40683,6 +42146,11 @@
           <t>http://www.allergosan.com</t>
         </is>
       </c>
+      <c r="Z456" t="inlineStr">
+        <is>
+          <t>probiotics|microbiota research|orthomolecular medicine|gut health|stress|burn out|diarrhae|allergy|power|metabolic|hepatology|pharmaceutical manufacturing|probiotic|microbiome research|intestinal health|dietary supplements|liver health|immune system support|chronic bowel disease|irritable bowel syndrome|mental health|female microbiome|oral microbiome|stress management|pregnancy support|diarrhea treatment|gut-brain axis|natural supplements|plant extracts|clinical research|healthcare solutions|allergy prevention|healthy digestion|symbiotic products|research &amp; development|powdered probiotics|high-quality ingredients|natural medicine|pharmaceutical standards|bioavailability|sustainable health|nutraceuticals|nutrition science|care for babies|dietary fibers|preventive healthcare|intestinal flora|online shop|nutritional supplements|family-run business|holistic approach|micronutrients|wellness products|health education|functional foods|clinical studies|preventive medicine|homeostasis|pharmaceuticals|medical|health, wellness &amp; fitness|hospital &amp; health care</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -40772,6 +42240,11 @@
           <t>http://www.kelly.at</t>
         </is>
       </c>
+      <c r="Z457" t="inlineStr">
+        <is>
+          <t>snacks|food|marketing|fmcg|chips|soletti|karriere|jobs|wien|feldbach|produktion|food &amp; beverage manufacturing|snack products|salty snacks|sustainability|environmental protection|food quality|palm oil free|austrian production|local ingredients|supply chain|team spirit|brand partnerships|employee benefits|eco-friendly packaging|corporate social responsibility|product innovation|healthy lifestyle products|snack market leadership|manufacturing processes|food safety|customer satisfaction|multifunctional teamwork|business ethics|training programs|production facilities|marketing strategies|food distribution|supply chain management|quality assurance|sustainable development|employee empowerment|natural ingredients|logistics efficiency|social responsibility|stakeholder engagement|market expansion|customer loyalty|brand diversity|cross-department collaboration|food manufacturing|international operations|business growth|strategic partnerships|product diversity|corporate governance|sustainability reporting|community engagement|environmentally responsible|employee training|fair trade practices|ethical sourcing|consumer goods|consumers|food production|environmental services|renewables &amp; environment|marketing strategy|marketing &amp; advertising|logistics &amp; supply chain</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -40859,6 +42332,11 @@
           <t>http://www.xund.ai</t>
         </is>
       </c>
+      <c r="Z458" t="inlineStr">
+        <is>
+          <t>health care|software development|artificial intelligence|medical device|hospitals &amp; health care|digital health|patient journey|symptom check|illness check|health monitoring|api technology|healthcare integration|medical algorithms|preventive care|remote patient monitoring|medical device guidance|health risk assessment|nlp technology|healthcare automation|telemedicine solutions|patient empowerment|medical knowledge base|healthcare analytics|patient navigation|digital health assistants|self-care resources|e-prescriptions|patient data privacy|clinical decision support|healthcare providers|health information exchange|patient flow optimization|automated follow-ups|healthcare certifications|medical quality standards|medical content library|health literacy|patient engagement|treatment pathways|insurance partnerships|regulatory compliance|e-health solutions|patient support services|data-driven insights|medical content creation|healthcare software|healthcare ecosystems|personalized healthcare|digital therapeutics|healthcare technology|medical information systems|user-friendly healthcare|health, wellness &amp; fitness|information technology &amp; services|hospital &amp; health care</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -40938,6 +42416,11 @@
           <t>http://www.linsinger.com</t>
         </is>
       </c>
+      <c r="Z459" t="inlineStr">
+        <is>
+          <t>milling|sawing|cutting|mobile stationary rail milling|tooling|rail technology|tubes|billets|profiles|made in austria|schienenfraesen|saegetechnik|fraestechnik|werkzeugtechnik|sondermaschinen|industrial machinery manufacturing|milling technology|sawing technology|tool technology|edge milling machine|pipe bevelling machine|special milling equipment|vertical circular saw|carbide circular sawing machine|rail milling train|rail sawing machine|mobility solutions|welding preparation|tube mills|rail processing solutions|machine tooling|high precision milling|automated tool change|surface milling|carbide tool production|single pass processes|high feed rates|low tooling costs|curved plate machining|complex material machining|rail maintenance equipment|shipbuilding technology|wind tower manufacturing|non-ferrous metal processing|heavy machinery|turn-key solutions|rail repair equipment|drilling systems|tube cutting machinery|high efficiency equipment|oem machinery services|custom tooling solutions|rail infrastructure solutions|weld seam preparation|precision cutting|robust machinery|manufacturing automation|advanced milling techniques|mobile rail machinery|stationary milling solutions|high performance cutting|industrial machinery|manufacturing efficiency|process optimization</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -41025,6 +42508,11 @@
           <t>http://www.denzel.at</t>
         </is>
       </c>
+      <c r="Z460" t="inlineStr">
+        <is>
+          <t>autoimport|autohandel|ersatzteile und zubehoer|karosseriereparatur und lackiererei|reifenhandel|versicherung und finanzierung|leasing und kredit|unfallschadenabwicklung|pickerl|leichte nutzfahrzeuge|premiummarken|volumenmarken|denzelcare|gebrauchtwagenan und verkauf|lehrlingsausbildung|digitalisierung und software|motor vehicle manufacturing|vehicle search|new cars|used cars|automobile financing|insurance options|buy online|electric mobility|alternative drives|denzel services|parts &amp; accessories|tire services|bodywork|car maintenance|risk protection|expert tips|consultation services|online configurator|car rental|service packages|repair services|b2b solutions|test drives|sales offers|denzel group|car dealership|automobile trading|vehicle selection|leasing options|hybrid cars|plug-in hybrids|fully electric vehicles|automotive care|customer support|state subsidies|charging solutions|automotive advice|car evaluation|group offers|automotive education|sales events|contact locations|corporate responsibility|customer satisfaction|service agreements|driver assistance features|automotive history|automotive technology|mediathek|driving experience|automotive</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -41104,6 +42592,11 @@
           <t>http://www.ske-solar.com</t>
         </is>
       </c>
+      <c r="Z461" t="inlineStr">
+        <is>
+          <t>huawei inverter|huawei sun2000|solar inverter|huawei fusionsolar|huawei fusionhome|huawei commercial inverters|huawei residential inverters|huawei distributor|technical support|commissioning support|technical training|smart pv solutions|services for renewable energy|photovoltaic solutions|solar energy|residential solar|commercial solar|utility scale|smart energy management|pv inverters|luna2000 storage|smart power sensor|photovoltaic monitoring|smart dongle|solar optimizers|energy cost reduction|green energy|renewable energy|energy independence|grid support|solar power generation|energy storage systems|afci protection|pid recovery|sustainable living|carbon-free energy|photovoltaics|partner program|value-added solutions|installation support|solar applications|energy efficiency|emergency power backup|solar home systems|real-time monitoring|installation services|solar technology|energy transformation|ai integration|cloud technology|installation training|solar rebates|energy savings|solar project management|support &amp; service|low-cost solar power|smart solar solutions|industrial pv solutions|eco-friendly energy|industrial solar|utility-scale projects|energy storage|inverters|training programs|logistics services|sustainability|ai technology|cloud solutions|european solar market|customer support|environmental responsibility|iso certified|solar installers|construction companies|energy consulting|innovative solutions|comprehensive support|market leader|green technology|energy transition|renewables &amp; environment|clean energy &amp; technology|environmental services|oil &amp; energy|cloud computing|enterprise software|enterprises|computer software|information technology &amp; services|b2b</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -41181,6 +42674,11 @@
       <c r="Y462" t="inlineStr">
         <is>
           <t>http://www.versich.at</t>
+        </is>
+      </c>
+      <c r="Z462" t="inlineStr">
+        <is>
+          <t>persoenliche beratung|immer in ihrer naehe|marktfuehrer schadenunfall|aelteste versicherung osterreichs|massgeschneiderte produkte|onlineproduktportfolio|praesenz auch in deutschland|niederlassungen in oo|stmk und sbg|impulsgeber|experte fuer sicherheit und vorsorge|wir uebernehmen ihr risiko|lebensbegleiter der kundinnen|indivduelle versicherungsloesungen|rasche schadenabwicklung</t>
         </is>
       </c>
     </row>
@@ -41258,6 +42756,11 @@
           <t>http://www.premiqamed.at</t>
         </is>
       </c>
+      <c r="Z463" t="inlineStr">
+        <is>
+          <t>hospitals &amp; health care|private clinics|ambulatory medicine|rehabilitation|corporate health|mobile health services|facility management|medical services|patient satisfaction|quality management|healthcare facilities|medical excellence|certifications|sustainability|healthcare strategy|project management|employee diversity|career opportunities|health tourism|community health|medical compliance|patient care|health screenings|occupational medicine|medical staffing|human resources|healthcare administration|medical innovations|emergency care|patient-centered approach|wellness programs|rehabilitation services|quality assurance|medical professionals|clinical services|investment management|data protection|risk management|health sector|public-private partnerships|healthcare management|medical technology|patient engagement|cost management|health outcomes|clinical excellence|health infrastructure|healthcare workforce|government health initiatives|healthcare audits|telemedicine services|hospital &amp; health care|environmental services|renewables &amp; environment|productivity|financial services</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -41345,6 +42848,11 @@
           <t>http://www.federal-chancellery.gv.at</t>
         </is>
       </c>
+      <c r="Z464" t="inlineStr">
+        <is>
+          <t>federal chancellery|citizens service|digital administration|cybersecurity|austrian government|sustainable development goals|women &amp; equality|integration strategies|bioethics commission|youth services|family support|crisis management|legal information system|media law|party funding|national security|discrimination protection|gender equality|cultural affairs|information technology policy|civic participation|educational programs|public libraries initiatives|administrative guidance|cross-border cooperation|social welfare programs|civic education|public health access|child protection services|crisis counseling|youth empowerment|diplomatic relations|international cooperation|research &amp; development|crisis prevention|austrian integration fund|community engagement|civil society support|access to information|legislative frameworks|public records management|statistical reporting|anti-discrimination laws|social integration policies|public awareness campaigns|e-government|administrative transparency|citizenship services|online resource centers|accessibility initiatives</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -41432,6 +42940,11 @@
           <t>http://www.versich.at</t>
         </is>
       </c>
+      <c r="Z465" t="inlineStr">
+        <is>
+          <t>persoenliche beratung|immer in ihrer naehe|marktfuehrer schadenunfall|aelteste versicherung osterreichs|massgeschneiderte produkte|onlineproduktportfolio|praesenz auch in deutschland|niederlassungen in oo|stmk und sbg|impulsgeber|experte fuer sicherheit und vorsorge|wir uebernehmen ihr risiko|lebensbegleiter der kundinnen|indivduelle versicherungsloesungen|rasche schadenabwicklung</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -41511,6 +43024,11 @@
           <t>http://www.oekostrom.at</t>
         </is>
       </c>
+      <c r="Z466" t="inlineStr">
+        <is>
+          <t>renewable energy power generation|renewable energy|100% green energy|smart saving|energy efficiency|electricity tariffs|eco-friendly|customer support|energy management|clean energy provider|solar power|wind energy|biomass|hydropower|energy savings modes|sustainable living|energy contract|power purchase agreement|market information|direct marketing|energy trade|flexibility trading|portfolio management|e-mobility|smart home integration|electric vehicle charging|installation service|subscription discounts|customer loyalty programs|pv systems|renewable installation|community renewable initiatives|carbon reduction|energy transition|electricity bills saving|energy supplier|eco-investments|community engagement|local energy|grid management|smart meters|energy consumption tracking|tariff calculator|unit price|cost-effective energy|free energy months|environmental protection|energy supply chain|grid independence|sustainable resources|renewables &amp; environment|clean energy &amp; technology|environmental services|oil &amp; energy|marketing &amp; advertising</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -41598,6 +43116,11 @@
           <t>http://www.esim-chemicals.com</t>
         </is>
       </c>
+      <c r="Z467" t="inlineStr">
+        <is>
+          <t>production &amp; customized manufacturer of fine chemicals|chemical manufacturing|custom manufacturing|project management|process optimization|fine chemicals|chemical intermediates|active ingredients|large-scale production|multistep synthesis|industrial chemicals|pharmaceutical intermediates|operational excellence|supply chain management|product lifecycle|quality assurance|production facilities|safety compliance|environmental sustainability|ecovadis rating|tailored solutions|technical capabilities|emerging companies|innovation in chemistry|agrochemicals|non-gmp production|chemical product development|efficient synthesis|lean organization|client partnership|risk management|regulatory compliance|pharma supply solutions|chemical engineering|production optimization|biosafety|reach compliance|sustainability practices|chemical processing|production efficiency|integrated management systems|custom synthesis|complex chemistries|strategic partnerships|high-quality services|quality standards|volume production|chemical manufacturing services|bio-based chemicals|market responsiveness|chemicals|productivity|logistics &amp; supply chain</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -41685,6 +43208,11 @@
           <t>http://www.gasconnect.at</t>
         </is>
       </c>
+      <c r="Z468" t="inlineStr">
+        <is>
+          <t>gas transportation|high-pressure pipeline|natural gas infrastructure|hydrogen solutions|capacity utilization|gas dispatching|network access|energy supply security|gas transmission|gas storage management|distributed energy resources|gas market services|compressed natural gas (cng)|liquefied natural gas (lng)|sustainable gas solutions|pipeline construction|maintenance services|capacity products|reshuffling service|customer events|physical dispatcher|market analysis|gas supply chain|gas metering services|compliance &amp; safety|environmental sustainability|gas trading|h2 backbone|capacity bulletin board|gas entry/exit points|austria gas network|innovative energy solutions|gas regulation compliance|natural gas pricing|technical support services|customer information|gas flow management|service contracts|energy market integration|gas connectivity|energiewende solutions|gas hub development|risk management services|industrial gas solutions|gas line inspections|pipeline maintenance|infrastructure development|energy transition initiatives</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -41772,6 +43300,11 @@
           <t>http://www.binder-co.com</t>
         </is>
       </c>
+      <c r="Z469" t="inlineStr">
+        <is>
+          <t>reliable crushing|efficient screening|wet processing|thermal processing|sensor based sorting|packaging palletizing|machinery manufacturing|mineral processing|recycling technology|screening machines|breaking technology|density sorting|material classification|waste management|thermal treatment|packaging technology|after sales service|equipment maintenance|mineral sorting systems|glass recycling|metal separation|industrial minerals|salt processing|biomass treatment|sustainable solutions|sensor-based sorting|heavy-duty machinery|separation techniques|water treatment|air separation|vibrating screens|linear vibrating screens|resonance screens|elliptical screens|drum screens|dewatering systems|filter presses|attrition cells|liquid-solid separation|screw classifiers|shaker tables|inspections services|maintenance services|parts supply|training services|customer support|wastewater treatment|fine particle separation|minerals recovery|solid waste management|tailings management|environmental technology|sieving technology</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -41859,6 +43392,11 @@
           <t>http://www.ltw.at</t>
         </is>
       </c>
+      <c r="Z470" t="inlineStr">
+        <is>
+          <t>as|rs|intralogistics|stacker cranes|software|warehouse management|fullservice provider|conveyor system|retrofit|service|highbay warehouses|automation|machinery manufacturing|material flow|automation technology|high-bay warehouse|regalbediengeräte|custom solutions|transport systems|material handling|cold storage solutions|software integration|order picking|inventory management|supply chain optimization|retail logistics|e-commerce fulfillment|logistics automation|vertical conveyors|tugger trains|modular software|automation systems|customizable systems|real-time data tracking|barcoding solutions|transport vehicle|performance optimization|regulation compliance|training services|service support|after-sales service|manufacturing standards|safety standards|scalable solutions|maintenance solutions|logistics consulting|bespoke engineering|efficient layout design|client-specific requirements|user-friendly interface|route planning|tour management|returns management|operating systems|seamless integration|flexibility in solutions|fast implementation|performance analytics|operational efficiency|sustainability in logistics|energy management|information technology &amp; services|computer software|oil &amp; energy</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -41946,6 +43484,11 @@
           <t>http://www.doppelmayr.com</t>
         </is>
       </c>
+      <c r="Z471" t="inlineStr">
+        <is>
+          <t>seilbahnbau|materialtransport|skilifte|automated people mover|ropeways|cable cars|pendelbahnen|machinery manufacturing|cable car systems|aerial tramways|urban transport solutions|transportation engineering|ski lift technology|people mover systems|industrial lift systems|transportation infrastructure|project planning|ropeway technology|sustainable transport|reliable transport solutions|customized transport systems|transportation innovation|mobility solutions|passenger transport|heavy-duty lifts|scenic lifts|tourism transport solutions|multimodal transport|transport planning|safety standards|automatic control systems|cableway maintenance|transport consulting|modular lift design|high-capacity transport|engineering solutions|system integration|customer satisfaction|global transport projects|enhanced passenger experience|transport technology|asset management|efficiency optimization|environmental impact solutions|vertical transport systems|dynamic transport networks|transport service design|engineering expertise|global presence|industry leadership|broad range support|optimization techniques|transportation systems|regulated transport solutions|ropeway systems|chairlifts|gondolas|funiculars|surface lifts|urban transport|material handling|ski resorts|tourism infrastructure|high-tech intralogistics|innovative solutions|sustainable technology|adventure parks|automated people movers|cable-propelled systems|maintenance services|technical support|training programs|market leadership|winter sports|urban mobility|scenic transport|material transport systems|customer demographics|diverse markets|technological innovation|partnerships|collaborations</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -42033,6 +43576,11 @@
           <t>http://www.sozialversicherung.at</t>
         </is>
       </c>
+      <c r="Z472" t="inlineStr">
+        <is>
+          <t>social insurance|online services|health services|user research|data privacy|customer feedback|surveys|point system|gifts|social security|digital transformation|customer experience|self-management|healthcare providers|claims processing|cost reimbursement|digital community|austrian health system|service development|participants engagement|consumer insights|correspondence services|group discussions|qualitative studies|healthcare access|insurance data exchange|government policy|health promotion|voluntary participation|privacy compliance|electronic health card|cross-border telework|employee health|data management|participation incentives|market research|social benefits|feedback system|user feedback|service quality|safety standards|community involvement|insurer collaboration|research studies|customer satisfaction|well-being initiatives|form submissions|member management|telehealth services|digital services</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -42120,6 +43668,11 @@
           <t>http://www.svs.at</t>
         </is>
       </c>
+      <c r="Z473" t="inlineStr">
+        <is>
+          <t>self-employed insurance|contributions calculation|health insurance|pension insurance|disability insurance|family insurance|accident insurance|medical rehabilitation|child health programs|voluntary insurance|insurance for freelancers|retirement planning|business startup support|health &amp; wellness programs|family support|payment options|insurance contributions|preventive healthcare|childbirth benefits|unemployment insurance|health care services|nutrition &amp; wellness|mental health programs|medical aids &amp; medications|insurance for agricultural workers|medical services|insurance claims management|case management|insurance adjustments|insurance coverage verification|social security services|self-employment benefits|healthcare costs|support for caregivers|digital services portal|online insurance registration|insurance for business owners|insurance policy management|customer support services|financial aid for families|health checks for children|insurance for active seniors|sports health programs|community health initiatives|health education programs|rehabilitation counseling|wellness camps &amp; workshops|mental wellness services</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -42199,6 +43752,11 @@
           <t>http://www.xund.ai</t>
         </is>
       </c>
+      <c r="Z474" t="inlineStr">
+        <is>
+          <t>health care|software development|artificial intelligence|medical device|hospitals &amp; health care|digital health|patient journey|symptom check|illness check|health monitoring|api technology|healthcare integration|medical algorithms|preventive care|remote patient monitoring|medical device guidance|health risk assessment|nlp technology|healthcare automation|telemedicine solutions|patient empowerment|medical knowledge base|healthcare analytics|patient navigation|digital health assistants|self-care resources|e-prescriptions|patient data privacy|clinical decision support|healthcare providers|health information exchange|patient flow optimization|automated follow-ups|healthcare certifications|medical quality standards|medical content library|health literacy|patient engagement|treatment pathways|insurance partnerships|regulatory compliance|e-health solutions|patient support services|data-driven insights|medical content creation|healthcare software|healthcare ecosystems|personalized healthcare|digital therapeutics|healthcare technology|medical information systems|user-friendly healthcare|health, wellness &amp; fitness|information technology &amp; services|hospital &amp; health care</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -42286,6 +43844,11 @@
           <t>http://www.denzel.at</t>
         </is>
       </c>
+      <c r="Z475" t="inlineStr">
+        <is>
+          <t>autoimport|autohandel|ersatzteile und zubehoer|karosseriereparatur und lackiererei|reifenhandel|versicherung und finanzierung|leasing und kredit|unfallschadenabwicklung|pickerl|leichte nutzfahrzeuge|premiummarken|volumenmarken|denzelcare|gebrauchtwagenan und verkauf|lehrlingsausbildung|digitalisierung und software|motor vehicle manufacturing|vehicle search|new cars|used cars|automobile financing|insurance options|buy online|electric mobility|alternative drives|denzel services|parts &amp; accessories|tire services|bodywork|car maintenance|risk protection|expert tips|consultation services|online configurator|car rental|service packages|repair services|b2b solutions|test drives|sales offers|denzel group|car dealership|automobile trading|vehicle selection|leasing options|hybrid cars|plug-in hybrids|fully electric vehicles|automotive care|customer support|state subsidies|charging solutions|automotive advice|car evaluation|group offers|automotive education|sales events|contact locations|corporate responsibility|customer satisfaction|service agreements|driver assistance features|automotive history|automotive technology|mediathek|driving experience|automotive</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -42365,6 +43928,11 @@
           <t>http://www.gl-pharma.com</t>
         </is>
       </c>
+      <c r="Z476" t="inlineStr">
+        <is>
+          <t>branded drugs|offpatent drugs|drug registration|research|development|pharmaceutical manufacturing|generic drugs|branded medications|opioid substitution therapy|pain management|neurological treatments|cardiovascular medications|urological health|chronic disease management|drug safety|pharmacovigilance|clinical research|drug development|medication-assisted treatment|innovative therapies|solid dosage forms|oral solutions|injectable solutions|niche generics|pharmaceutical partnerships|licensing opportunities|research &amp; development|healthcare accessibility|healthcare transparency|side effect reporting|active pharmaceutical ingredients|active ingredient information|therapeutic areas|chronic condition treatments|drug distribution|drug formulation|dietary supplements|vitamins &amp; minerals|adverse reactions|comprehensive medication guide|biologics|prescription assistance|health &amp; wellness solutions|patient satisfaction|clinical efficacy|medical professionals|disease management|public health|well-being|healthcare industry|medical regulation|healthcare innovation|pharmaceutical compliance|medication adherence|cross-border healthcare|pharmaceuticals|medical|health, wellness &amp; fitness</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -42452,6 +44020,11 @@
           <t>http://www.versich.at</t>
         </is>
       </c>
+      <c r="Z477" t="inlineStr">
+        <is>
+          <t>persoenliche beratung|immer in ihrer naehe|marktfuehrer schadenunfall|aelteste versicherung osterreichs|massgeschneiderte produkte|onlineproduktportfolio|praesenz auch in deutschland|niederlassungen in oo|stmk und sbg|impulsgeber|experte fuer sicherheit und vorsorge|wir uebernehmen ihr risiko|lebensbegleiter der kundinnen|indivduelle versicherungsloesungen|rasche schadenabwicklung</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -42539,6 +44112,11 @@
           <t>http://www.bmbwf.gv.at</t>
         </is>
       </c>
+      <c r="Z478" t="inlineStr">
+        <is>
+          <t>bildung|wissenschaft|forschung|education|e-learning|online courses|digital learning|pedagogical training|teacher training|curriculum development|student support|academic research|scholarship programs|higher education|vocational education|lifelong learning|career guidance|learning resources|educational reform|inclusive education|teachers' resources|learning assessment|pedagogical methods|international education|school administration|improving school quality|educational funding|academic advising|digital literacy|social-emotional learning|curriculum standards|scholarship opportunities|higher education institutions|education policy|student engagement|mentorship programs|academic excellence|skill development|professional development|digital transformation in education|student welfare|community engagement in education|early childhood education|language education|civic education|technology in education|research grants|student-centered learning|gender equality in education|academic standards|networking opportunities for educators|educational partnerships|education for sustainable development|internet|information technology &amp; services|computer software|education management</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -42626,6 +44204,11 @@
           <t>http://www.zimmer-austria.com</t>
         </is>
       </c>
+      <c r="Z479" t="inlineStr">
+        <is>
+          <t>machinery manufacturing|screen printing|digital printing|textile finishing|coating systems|drying systems|steaming systems|high-quality prints|mass production|flexibility|customization|application know-how|sample machines|laboratory machines|washing machines|digital functionalization|technical textiles|home textiles|carpet printing|fashion printing|wall covering|nonwoven textiles|glass fiber printing|production efficiency|agent network|global business|textile innovation|industry 4.0|high resolution|process automation|software solutions|control systems|reliable machines|vibrant colors|bold colors|textile industry|printing technology|cost-effectiveness|printing machines|batch processing|durable prints|innovative technology|customer support|service excellence|150 years heritage|revolutionary equipment|environmentally friendly printing|cost-efficient solutions</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -42713,6 +44296,11 @@
           <t>http://www.sonnentor.com</t>
         </is>
       </c>
+      <c r="Z480" t="inlineStr">
+        <is>
+          <t>nachhaltigkeit|umwelt|wertschaetzung|biologisch|kreislauf der natur|tee|kraeuter|gewuerze|klimaschutz|biologische lebensmittel|bio|familienunternehmen|food &amp; beverage manufacturing|organic tea|herbal tea|organic spices|sustainable packaging|fair trade|direct trade|eco-friendly products|co2 neutral|natural ingredients|environmental sustainability|bulk spice tins|cake &amp; sweet spices|gift boxes|incense products|organic farming|aromatic blends|herbal infusions|spiced tea|fruit tea|roasted aroma|flavorful spices|kids teas|snack &amp; treat blends|spice blends|cacao products|coffee beans|honey products|syrups &amp; shots|essential oils|gift vouchers|directly sourced herbs|traditional recipes|natural seasonings|herbal remedies|health &amp; wellness products|community economy|palm oil free|packaging free|biodynamic agriculture|local sourcing|cinnamon|ginger|rosemary|lavender|sustainability initiatives|seasonal gifts|winter teas|summer coolers|food production</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -42792,6 +44380,11 @@
           <t>http://www.virtual-vehicle.at</t>
         </is>
       </c>
+      <c r="Z481" t="inlineStr">
+        <is>
+          <t>functional prototype|cae integration|automated driving|adas|vehicle safety|connected vehicle|data security|advanced testing|validation|efficient development|passanger comfort|energy efficiency|digital operation|rail systems|continuos integration|agile engineering|virtual homologation|disruptive digitalization|model based system engineering|digital twin|future railway|digital train twin|research services|virtual development|simulation technologies|automotive industry|rail industry|e-mobility|virtual validation|system simulation|digital twins|vehicle dynamics|vehicle-track-interaction|data-driven approaches|continuous integration|automotive safety|green mobility|battery technology|cooperative mobility|networked systems|homologation processes|monitoring &amp; diagnosis|human-centered design|predictive maintenance|research &amp; development|accelerated innovation|digital infrastructure|automotive research|rail system analysis|energy management|occupant safety|lidar technology|self-driving vehicles|automated systems|vehicle communication|embedded intelligence|safety systems|smart infrastructure|digital transformation|real-time data analysis|academic partnerships|sustainable transportation|industrial collaboration|project funding|research expertise|vehicle performance|digital certification|test benches|system reliability|innovation acceleration|public research projects|automated mobility solutions|computer &amp; network security|information technology &amp; services|environmental services|renewables &amp; environment|oil &amp; energy</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -42879,6 +44472,11 @@
           <t>http://www.faigle.com</t>
         </is>
       </c>
+      <c r="Z482" t="inlineStr">
+        <is>
+          <t>components for intralogistics systems|rollers &amp; components for escalators &amp; moving walks|hangingstraps for public transport|plastics manufacturing|intralogistics|roller systems|high performance plastics|material flow solutions|automated storage systems|roller bearings|shuttle systems|plastic components|load capacity|durability|wear resistance|energy efficiency|modular design|sustainable solutions|tool-free installation|shuttle flaps|guidance rollers|curved track operation|transportation safety|vibration dampening|noise reduction|custom solutions|manufacturing technology|cost-efficient processes|maintenance-free operation|quality management|thermoplastic elastomers|load carriers|vertical storage systems|reliable operation|heavy-duty applications|ergonomic design|low rolling resistance|static discharge|modular roller assemblies|shuttle mechanisms|durable construction|maintenance-friendly designs|long service life|anti-static properties|rfid integration|real-time monitoring|customized roller solutions|industrial transportation|flexible manufacturing|heat &amp; chemical resistance|supply chain optimization|agile packaging systems|chemicals|environmental services|renewables &amp; environment</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -42958,6 +44556,11 @@
           <t>http://www.boxmark.com</t>
         </is>
       </c>
+      <c r="Z483" t="inlineStr">
+        <is>
+          <t>split|air|rail|sea|living|contract|automotive|byproducts|motor vehicle manufacturing|leather production|automotive leather|aviation interiors|high-quality upholstery|sustainable leather|contract services|railway upholstery|marine leather|interior design|leather processing|custom leather solutions|leather collections|development services|sustainable innovations|eco-friendly leather|leather care|research &amp; development|leather for automotive|chrome-free tanning|exquisite leather craftsmanship|perforated leather|embossed leather|thermocool leather|anti-soiling leather|sewing leather|laminated leather|leather samples|luxury leather interiors|environmental responsibility|transparent supply chain|resource-saving production|leather wrapping|cutting leather|r&amp;d leather technology|split leather|furniture upholstery|commercial leather|aircraft leather|luxury yacht interiors|rail services leather|natural leather qualities|high-durability leather|exclusive leather|premium leather products|custom upholstery|socio-ecological innovation|sustainable product standards|industry certifications</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -43037,6 +44640,11 @@
           <t>http://www.schiebel.net</t>
         </is>
       </c>
+      <c r="Z484" t="inlineStr">
+        <is>
+          <t>unmanned air systems|mine detection products|composite technology|aviation &amp; aerospace component manufacturing|unmanned aerial systems|drone technology|camcopter s-100|mine detection systems|portable mine detectors|mimid technology|atmid system|an-19/2 upgrade|composite technologies|vertical takeoff &amp; landing|vtol drones|military uav|civilian uav|maritime surveillance|search &amp; rescue operations|high-definition imaging|real-time data transmission|gps navigation|fly-by-wire technology|automated flight control|electromagnetic environment resilience|carbon fiber construction|titanium fuselage|payload capacity|endurance &amp; range|multi-mission capability|military applications|humanitarian support|environmental monitoring|logistics support|anti-submarine warfare|surveillance missions|counter-insurgency operations|flight trials|complex environments|redundant systems|compact design|defense sector solutions|advanced technologies|nato compliance|military standards|prototyping services|system integration|training &amp; support|customer services|mine detection|vtol technology|surveillance|reconnaissance|aerospace|aviation standards|innovation|customer satisfaction|global presence|defense sector|humanitarian use|operational flexibility|advanced technology|quality assurance|research &amp; development|international standards|after-sales support|multi-mission capabilities|anti-jamming technology|carbon composites|military forces|security organizations|intelligence|target acquisition|reconnaissance missions|autonomous flight|maritime operations|gps-denied environments|continuous improvement|partnerships|dynamic work environment</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -43116,6 +44724,11 @@
           <t>http://www.henn-group.com</t>
         </is>
       </c>
+      <c r="Z485" t="inlineStr">
+        <is>
+          <t>kupplungen|produktrealisierungen|steckverbindungen|auftragsfertigung|industrialisierungspartner|verbindungstechnologie</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -43203,6 +44816,11 @@
           <t>http://www.ami.at</t>
         </is>
       </c>
+      <c r="Z486" t="inlineStr">
+        <is>
+          <t>coloproctology|urology|urogynaecology|medical equipment manufacturing|male urinary incontinence|atoms system|hemorrhoids treatment|trilogy system|anal fistulas solutions|comfort drain|fixcision|fecal incontinence|soft anal band|urogynecology|laparoscopic gynecology|i-cut|more-cell-safe techniques|stress urinary incontinence|sensitvt|sensitvt-a|a.m.i. tva sling|a.m.i. toa sling|a.m.i. multi purpose sling|pelvic organ prolapse|ingynious|bsc mesh|i-stitch|endogynious|pelvigynious|progynious|surgical workshops|medical innovations|patient safety|minimally invasive surgery|innovative surgical techniques|quality of life improvement|post-operative adjustability|hydraulic sphincter|long-term implant solutions|anal band|hal-rar method|iso-elastic mesh|reconstructive pelvic surgery|foreign body reaction reduction|surgical outcomes|patient satisfaction|continence restoration|health empowerment|medical product development|international collaboration|urological health solutions|gynaecological surgery|medical devices|hospital &amp; health care</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -43282,6 +44900,11 @@
           <t>http://www.macroarraydx.com</t>
         </is>
       </c>
+      <c r="Z487" t="inlineStr">
+        <is>
+          <t>allergy|multiplexing|diagnostics|interpretation|software|ige testing|molecular diagnostics|immunodiagnostics|igg testing|food intolerance|medical equipment manufacturing|allergy testing|food intolerance testing|eudamed|cloud-based analysis|test kits|multiplex testing|alex test|fox test|max 45k|imagexplorer|raptor server|raven software|allergen arrays|customized services|patient care|high-throughput testing|low-volume sampling|iso certification|ivdr compliance|digital cross-linking|non-invasive testing|precision diagnostics|automated systems|laboratory solutions|clinical allergology|data management|scientific research|personalized medicine|molecular specificity|comprehensive allergen panels|test result analysis|real-time data sharing|multidisciplinary team|healthcare partnerships|global distribution network|distributor training|regulatory compliance|testing innovations|specific ige|specific igg|patient support services|diagnostic technology|research collaborations|clinical partnerships|laboratory automation|information technology &amp; services|medical devices|hospital &amp; health care</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -43369,6 +44992,11 @@
           <t>http://www.mavie.care</t>
         </is>
       </c>
+      <c r="Z488" t="inlineStr">
+        <is>
+          <t>healthcare|mentalhealth|innovation|wellbeing|gesundheit|wellness &amp; fitness services|mental health|stress management|health programs|mavieme tests|blood tests|microbiome tests|at-home health tests|resilience guide|corporate health management|telemedicine|employee assistance program|personalized health solutions|self-care|preventive health|physical health support|mental wellness|health coaching|consultation services|nutrition programs|health diagnostics|employee wellness|health assessment|wellbeing programs|mindfulness|virtual consultations|psychosocial counseling|workplace health|health &amp; wellbeing|self-determined health|holistic health|personal health evaluations|wellness education|health workshops|discussion forums|community health initiatives|health resources|wellbeing support|health insights|health monitoring|health literacy|personal development|health blog|innovation in healthcare|preventative care|health awareness|health challenges|stress resistance|wellbeing strategies|health interventions|psychological support|health care|health, wellness &amp; fitness|hospital &amp; health care|health care information technology</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -43446,6 +45074,11 @@
       <c r="Y489" t="inlineStr">
         <is>
           <t>http://www.hawle.com</t>
+        </is>
+      </c>
+      <c r="Z489" t="inlineStr">
+        <is>
+          <t>hydrants|fittings|valves|house connections for water supply|industrial machinery manufacturing|gate valves|combi valves|butterfly valves|service valves|tapping saddles|pipe connections|pipe repair clamps|control valves|accessories|tools|check valves|air valves|water supply|hydrant service|leak detection|digital water management|iso fittings|pressure testing|environmental suitability|customer solutions|industrial valves|wastewater management|sustainable solutions|research &amp; development|quality assurance|safety features|pioneering technology|monitored systems|water management|product benefits|rehabilitation solutions|flexible fittings|corrosion resistance|iso certification|modular solutions|high-performance valves|piping innovations|tailor-made products|water infrastructure|global network|customer focus|public utilities solutions|water extraction|distribution systems|responsible manufacturing|corporate social responsibility|water quality management|training &amp; development</t>
         </is>
       </c>
     </row>
@@ -43531,6 +45164,11 @@
           <t>http://www.framag.com</t>
         </is>
       </c>
+      <c r="Z490" t="inlineStr">
+        <is>
+          <t>vibration technology|steel mill technology|sawing technology|special purpose machines|base frames|simulation|machine foundation|mechatronic|test rigs|maschinenbett|maschinengestelle|saegeanlagen|anlagenbau|brennschneidanlagen|brennschneidtechnik|pruefstandstechnik|aufspannelemente|plattenfelder|billet saw|torch cutting|vibration damping|test rig|test bench|fem simulation|circular saw|billet cutting|machine bed|hydropol|machinery manufacturing|hydropool|ecopol|machine beds|test stands|stamper testing|engineering solutions|customized solutions|electromechanical actuator|automotive industry|industrial equipment|machine construction|high precision|waste reduction|3d design|finite element simulation|modular construction|standard components|turnkey solutions|component testing|customer support|cutting performance|machine components|recyclable materials|energy efficiency|customized engineering|maintenance reduction|validated performance|lifetime extension|service &amp; spare parts|training &amp; education|quality assurance|high-tech solutions|acoustic emission reduction|advanced monitoring|real-time data|custom components|composite materials|cost efficiency|acoustic reduction|component dimensions|delivery speed|standardized products|iso certification|continuous improvement|training workshops|saw equipment|industrial applications|measuring accuracy|environmental services|renewables &amp; environment</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -43618,6 +45256,11 @@
           <t>http://www.ltw.at</t>
         </is>
       </c>
+      <c r="Z491" t="inlineStr">
+        <is>
+          <t>as|rs|intralogistics|stacker cranes|software|warehouse management|fullservice provider|conveyor system|retrofit|service|highbay warehouses|automation|machinery manufacturing|material flow|automation technology|high-bay warehouse|regalbediengeräte|custom solutions|transport systems|material handling|cold storage solutions|software integration|order picking|inventory management|supply chain optimization|retail logistics|e-commerce fulfillment|logistics automation|vertical conveyors|tugger trains|modular software|automation systems|customizable systems|real-time data tracking|barcoding solutions|transport vehicle|performance optimization|regulation compliance|training services|service support|after-sales service|manufacturing standards|safety standards|scalable solutions|maintenance solutions|logistics consulting|bespoke engineering|efficient layout design|client-specific requirements|user-friendly interface|route planning|tour management|returns management|operating systems|seamless integration|flexibility in solutions|fast implementation|performance analytics|operational efficiency|sustainability in logistics|energy management|information technology &amp; services|computer software|oil &amp; energy</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -43697,6 +45340,11 @@
           <t>http://www.drehm.at</t>
         </is>
       </c>
+      <c r="Z492" t="inlineStr">
+        <is>
+          <t>regulatory affairs drugs &amp; food supplements|pharmacovigilance|medical writing|quality management|product development|production batch release|marketing service|training|market access|pharmaceutical manufacturing|pharmaceutical consulting|regulatory affairs|pharma marketing|production services|meeting spaces|tailored solutions|risk management|audit support|gmp compliance|gdp compliance|licensing assistance|drug safety monitoring|clinical trial support|market analysis|stakeholder engagement|documentation services|quality assurance|technical writing|training workshops|project management|market access strategy|pricing strategy|supply chain management|change management|self-inspection|quality system optimization|disaster recovery planning|ehs compliance|good distribution practice|serious adverse event reporting|cmr documentation|safety reporting|clinical evaluation|environmental health|brand strategy|scientific communication|content development|patient safety|regulatory strategy|marketing implementation|individual case safety reports|product lifecycle management|contract management|clinical study reports|investigator brochures|ongoing regulatory compliance|pharmaceuticals|medical|writing &amp; editing|productivity|logistics &amp; supply chain</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -43784,6 +45432,11 @@
           <t>http://www.ske-solar.com</t>
         </is>
       </c>
+      <c r="Z493" t="inlineStr">
+        <is>
+          <t>huawei inverter|huawei sun2000|solar inverter|huawei fusionsolar|huawei fusionhome|huawei commercial inverters|huawei residential inverters|huawei distributor|technical support|commissioning support|technical training|smart pv solutions|services for renewable energy|photovoltaic solutions|solar energy|residential solar|commercial solar|utility scale|smart energy management|pv inverters|luna2000 storage|smart power sensor|photovoltaic monitoring|smart dongle|solar optimizers|energy cost reduction|green energy|renewable energy|energy independence|grid support|solar power generation|energy storage systems|afci protection|pid recovery|sustainable living|carbon-free energy|photovoltaics|partner program|value-added solutions|installation support|solar applications|energy efficiency|emergency power backup|solar home systems|real-time monitoring|installation services|solar technology|energy transformation|ai integration|cloud technology|installation training|solar rebates|energy savings|solar project management|support &amp; service|low-cost solar power|smart solar solutions|industrial pv solutions|eco-friendly energy|industrial solar|utility-scale projects|energy storage|inverters|training programs|logistics services|sustainability|ai technology|cloud solutions|european solar market|customer support|environmental responsibility|iso certified|solar installers|construction companies|energy consulting|innovative solutions|comprehensive support|market leader|green technology|energy transition|renewables &amp; environment|clean energy &amp; technology|environmental services|oil &amp; energy|cloud computing|enterprise software|enterprises|computer software|information technology &amp; services|b2b</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -43863,6 +45516,11 @@
           <t>http://www.sanochemia.com</t>
         </is>
       </c>
+      <c r="Z494" t="inlineStr">
+        <is>
+          <t>pharmaceutical manufacturing|medical imaging|contrast agents|active pharmaceutical ingredients|api synthesis|custom manufacturing|quality assurance|gmp services|radiology|diagnostic imaging|contract development|contract manufacturing|innovative pharmaceuticals|patient safety|sustainable practices|clinical trials|neurology|urology|drug registration|biotechnology partnerships|injectable drugs|non-ionic contrast agents|ionic contrast agents|mri contrast agents|ct contrast agents|regulatory compliance|therapeutic decisions|pharmaceutical partnerships|patient-centered care|efficient production|research &amp; development|global distribution|healthcare solutions|customized services|high-quality pharmaceuticals|safety &amp; efficacy|bioresponsive materials|pharmaceuticals for cancer detection|environmental sustainability|packaging solutions|logistics optimization|supply chain management|patient care technologies|drug formulation|advanced imaging technologies|healthcare innovation|biochemical synthesis|pharmaceutical expertise|pharmaceuticals|medical|mechanical or industrial engineering|health care|health, wellness &amp; fitness|hospital &amp; health care|logistics &amp; supply chain</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -43942,6 +45600,11 @@
           <t>http://www.neveon.com</t>
         </is>
       </c>
+      <c r="Z495" t="inlineStr">
+        <is>
+          <t>chemical manufacturing|flexible foam|composite foams|polyurethane|acoustic insulation|heat insulation|mattress recycling|custom foam solutions|lightweight materials|sustainable products|fire retardant foam|memory foam|high resilience foam|environmental responsibility|breathable foam|dimensional stability|pressure relief|allergy-friendly foams|anti-static foams|recycled materials|mass balance raw materials|certified quality|automotive seating|medical applications|comfort solutions|specialty applications|energy-efficient|packaging solutions|sports flooring|acoustic solutions|upholstered furniture|consumer products|sound absorbers|carrier materials|biological raw materials|humidity regulation|product innovation|iso certifications|high-quality foams|recycling technology|biodegradable materials|design solutions|technical foams|construction materials|filtration solutions|sustainable manufacturing|quality assurance|team collaboration|global presence|chemicals|consumer goods|consumers</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -44021,6 +45684,11 @@
           <t>http://www.bulung.com</t>
         </is>
       </c>
+      <c r="Z496" t="inlineStr">
+        <is>
+          <t>overland transportation|supply chain|train|multi modal|ftl|ltl cis|airfreight|seafreight|45 hc pw container|coil trucks|central asia|transportation, logistics, supply chain &amp; storage|logistics services|intermodal transportation|green transport|supply chain management|overland freight|rail freight|sea freight|air freight|customs compliance|warehousing solutions|project management|multimodal transport|eco-friendly logistics|cost-efficient shipping|freight forwarding|container transport|delivery services|environmental impact|sustainable logistics|transit management|transportation consulting|cargo handling|logistics network|customs clearance|freight tracking|logistics optimization|eco-friendly routes|logistics flexibility|regional expertise|co2 emission reduction|document management|compliance consulting|cargo insurance|shipping solutions|freight brokerage|delivery logistics|transportation fleet|warehouse leasing|road transportation|supply chain efficiency|logistics excellence|sustainable transport practices|air cargo services|carbon footprint reduction|trade regulations compliance|customer support logistics|value-added logistics|transportation infrastructure|logistics &amp; supply chain|productivity|information technology &amp; services</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -44108,6 +45776,11 @@
           <t>http://www.ankerbrot.at</t>
         </is>
       </c>
+      <c r="Z497" t="inlineStr">
+        <is>
+          <t>food &amp; beverage manufacturing|bäckerei|handsemmel|brote|gebäck|mehlspeisen|tiefkühl-backwaren|gastronomie|franchise|österreichische lebensmittel|konditorei|semmel|bio-backwaren|dinkelprodukte|vegan|traditionelle backkunst|straßenverkauf|sauerteig|backwarenlieferung|frühstücksangebote|snack-konzepte|bäckerhandwerk|weckerl|tortensortiment|café-brasserie|regionalität|hochwertige zutaten|online-bestellung|kundenbindung|verpackte produkte|saisonale produkte|kaffeegenuss|nachhaltigkeit|lebensmittelsicherheit|kundensupport|markenpartnerschaften|backstationen|kundenfreundliche preise|erlebnisgastronomie|markenstrategie|verkaufsstellen|kunden aufmerksam machen|qualitätssicherung|wochenaktuelle angebote|soziale verantwortung|lebensmittelverschwendung vorbeugen|gesunde ernährung|produkt-innovation|kundenfeedback|food production</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -44195,6 +45868,11 @@
           <t>http://www.fraunhofer.at</t>
         </is>
       </c>
+      <c r="Z498" t="inlineStr">
+        <is>
+          <t>digitale transformation|produktions und logistikmanagement|visual computing|fabrikplanung|lagerplanung|industrie40|menschroboterkollaboration|produktionsoptimierung|instandhaltung|anlagenmanagement|kuenstliche intelligenz|research services|industry 4.0|digital transformation|smart manufacturing|supply chain management|logistics optimization|data analytics|predictive maintenance|ecosystem integration|sustainable logistics|human-centered production|advanced data analytics|cyber-physical systems|smart maintenance|ai applications in manufacturing|lean manufacturing|flexible production|process automation|digital twins|machine learning|operational efficiency|resource management|data-driven strategies|big data|production management|risk assessment|material flow planning|innovation consulting|collaborative research|teaching &amp; education|knowledge transfer|industrial internet of things (iiot)|ergonomic work systems|virtual reality|simulation technologies|intelligent assistive systems|continuous improvement|production planning|automated manufacturing|sustainable production|integration of ai|material disposition strategies|circular economy|business management solutions|ai-based forecasting|quality control|data-driven decision making|integrated supply chain solutions|workforce development|logistics &amp; supply chain|artificial intelligence|information technology &amp; services|enterprise software|enterprises|computer software|b2b</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -44282,6 +45960,11 @@
           <t>http://www.axis-simulation.com</t>
         </is>
       </c>
+      <c r="Z499" t="inlineStr">
+        <is>
+          <t>full flight simulators level d|flight simulation|full flight simulator|training devices|virtual procedure trainer|webbased avionics trainers|avionics simulation|control loading system|flight training solutions|pilot training|realistic simulation experience|aircraft systems|safety standards|training effectiveness|cost efficiency|system familiarization|ground operations|mixed reality|virtual reality|immersive training|ai instructor|maintenance efficiency|high fidelity|iso 9001 certification|easa compliance|faa requirements|customized training|technical monitoring|rehost platform|flat panel trainer|cabin interiors|instrument replicas|training management|maintenance support|advanced analytics|location-based training|remote support|simulator integration|modular systems|cots parts|simulation technology|flight procedures|emergency scenarios|user-friendly design|real-time support|visual display systems|cockpit environment|ai-powered training|sophisticated training systems|operational flexibility|simulation software management|information technology &amp; services</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -44361,6 +46044,11 @@
           <t>http://www.seibersdorf-laboratories.at</t>
         </is>
       </c>
+      <c r="Z500" t="inlineStr">
+        <is>
+          <t>chemische analytik|dopingkontrolllabor|arzneimittel|radiopharmaka|emv elektromagnetische vertraeglichkeit|hochfrequenztechnik|laser|led|lampensicherheit|seibersdorf academy|strahlenschutzausbildung|ionisierende strahlung|radioaktivitaet|systementwicklung|strahlenschutzgutachten|dosimetrie|dosimeterservice|eichung|kalibrierung|strahlungssicherheit|weltraumstrahlung|emf elektromagnetische felder|cbrn academy|dosimeter|research services|laboratory services|ionizing radiation|dosimetry|calibration services|radiation protection|medical services|radiopharmaceuticals|chemical analytics|environmental analytics|doping analysis|forensic analysis|quality standards|electromagnetic compatibility|emc testing|emf consulting|laser safety|led safety|high frequency technology|measurement equipment|safeview software|training &amp; education|intervention training|risk analysis|radiation hardness assurance|scientific investigations|consulting services|measurement systems|expert advice|iso certifications|gmp contract manufacturing|reporting &amp; documentation|incident reporting|eportal for document management|customized training|in-house training|radiation exposure assessments|client support|safety standards compliance|validation services|quality assurance|expert training courses|environmental assessments|chemical safety|emergency response training|process optimization|biomedical engineering|professional certifications|management consulting</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -44444,6 +46132,11 @@
       <c r="W501" t="inlineStr"/>
       <c r="X501" t="inlineStr"/>
       <c r="Y501" t="inlineStr"/>
+      <c r="Z501" t="inlineStr">
+        <is>
+          <t>food &amp; beverage manufacturing|food production</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -44531,6 +46224,11 @@
           <t>http://www.emco-world.com</t>
         </is>
       </c>
+      <c r="Z502" t="inlineStr">
+        <is>
+          <t>machinery manufacturing|cnc machining|turning|milling|automation|tooling|machining centers|digital manufacturing|precision engineering|cnc lathes|cnc milling machines|universal milling machines|automation solutions|modular training|cad/cam|siemens controls|heidenhain control|fanuc controls|machine performance|cutting tools|industrial training|process optimization|workpiece handling|high-performance lathes|turn-mill centers|flexible manufacturing|advanced manufacturing technology|high precision|manufacturing efficiency|production costs|stainless steel machining|metalworking machinery|tool magazines|part processing|machine learning|data analysis|industrial iot|lean manufacturing|supply chain integration|workshop management|maintenance solutions|workforce training|virtual programming|collaboration tools|quality assurance|custom machines|component manufacturing|real-time monitoring|modular engineering|production planning|prototype development|machinery|mechanical or industrial engineering|artificial intelligence|information technology &amp; services|data analytics</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -44618,6 +46316,11 @@
           <t>http://www.neuroth.com</t>
         </is>
       </c>
+      <c r="Z503" t="inlineStr">
+        <is>
+          <t>medical equipment manufacturing|hearing aids|hearing protection|custom ear molds|bluetooth hearing aids|audiology services|tinnitus therapy|hearing tests|hearing loss solutions|hearing aid accessories|digital hearing aids|in-ear hearing aids|behind-the-ear hearing aids|rechargeable hearing aids|personalized fitting|3d-printed ear molds|audio streaming|smart hearing aids|customer support|hearing aid adjustments|ear health consultation|wearable technology|hearing enhancement|sound amplification|individualized hearing solutions|telephone solutions for hearing aids|noise cancellation|hearing aid maintenance|hearing care professionals|medical hearing services|self-service hearing solutions|hearing aid insurance|affordable hearing aids|krankenkasse reimbursement|hearing aid trials|professional audiologists|community hearing services|hearing aid repairs|specialized auditory support|comprehensive hearing care|sound quality improvement|premium hearing devices|hearing aid financing options|personalized audiology|family-owned hearing business|modern hearing technology|customer education on hearing|hearing health awareness|accessible hearing solutions|quality hearing care|medical devices|hospital &amp; health care|wearable technologies|wearables|consumer goods|consumers|internet of things|consumer electronics|hardware|computer hardware</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -44705,6 +46408,11 @@
           <t>http://www.macroarraydx.com</t>
         </is>
       </c>
+      <c r="Z504" t="inlineStr">
+        <is>
+          <t>allergy|multiplexing|diagnostics|interpretation|software|ige testing|molecular diagnostics|immunodiagnostics|igg testing|food intolerance|medical equipment manufacturing|allergy testing|food intolerance testing|eudamed|cloud-based analysis|test kits|multiplex testing|alex test|fox test|max 45k|imagexplorer|raptor server|raven software|allergen arrays|customized services|patient care|high-throughput testing|low-volume sampling|iso certification|ivdr compliance|digital cross-linking|non-invasive testing|precision diagnostics|automated systems|laboratory solutions|clinical allergology|data management|scientific research|personalized medicine|molecular specificity|comprehensive allergen panels|test result analysis|real-time data sharing|multidisciplinary team|healthcare partnerships|global distribution network|distributor training|regulatory compliance|testing innovations|specific ige|specific igg|patient support services|diagnostic technology|research collaborations|clinical partnerships|laboratory automation|information technology &amp; services|medical devices|hospital &amp; health care</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -44792,6 +46500,11 @@
           <t>http://www.zimm.com</t>
         </is>
       </c>
+      <c r="Z505" t="inlineStr">
+        <is>
+          <t>customised solutions|electromechanical actuators|screw jacks|bevel gearboxes|connection technology|motor technology|accessories|production according to drawing|casting|series production &amp; mechanical processing|machinery manufacturing|industrial gearboxes|actuators|customized production|drive technology|precision machining|energy efficiency|high load capacity|modular system|cad configurator|hydraulic alternatives|flexible solutions|casting production|mechanical processing|lift systems|energy-efficient actuators|automated systems|precision components|production optimization|custom drive elements|precision testing|robust gearboxes|load movements|high-performance gearboxes|machinery solutions|turning &amp; milling|industrial applications|batch production|high quality workmanship|screw drives|spindle drives|research &amp; development|customer support|project collaboration|trimodal solutions|product catalog|tailor-made components|assembly &amp; installation|product specifications|safety standards|technical expertise|market leader|automation technology|energy efficiency upgrades|specialized gear systems|lifting mechanisms|load positioning|turnkey solutions|environmental services|renewables &amp; environment</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -44879,6 +46592,11 @@
           <t>http://www.global-hydro.eu</t>
         </is>
       </c>
+      <c r="Z506" t="inlineStr">
+        <is>
+          <t>hydro power machinery|small hydro|water to wire equipment|kaplan turbine|francis turbine|pelton turbine|turn key|power plant automation|scada system|digital turbine goveneror system|cfd|cfx simulation|machinery manufacturing|hydropower|digital powerplant|management operations|24/7 support|revitalization|sustainability|turn-key solutions|digital support center|energy transition|plant refurbishment|data analytics|automation|heros software|predictive maintenance|risk minimization|energy efficiency|digitalization|monitoring systems|turbine optimization|integration of technology|cost optimization|eco-friendly solutions|performance optimization|plant lifecycle|innovative solutions|operation &amp; control|holistic approach|remote management|plant operators training|state-of-the-art|3d-cad visualization|additive manufacturing|hydro lab|quality management|environmental standards|occupational health &amp; safety|integrated management systems|global partnerships|engineering|project management|customer service|technical support|performance monitoring|sensor control|customized solutions|capacity building|value creation process|plant operation improvement|smart energy solutions|renewable energy|innovation|turbine technology|kaplan turbines|pelton turbines|francis turbines|lifecycle support|hydropower plant design|construction|operation|maintenance|refurbishment|digital power plant management|climate-friendly energy|small hydropower projects|environmental responsibility|digital commissioning|operational efficiency|emerging markets|energy demand|hydroelectric power generation|automated control systems|hydrolab|rural electrification|energy solutions|environmental services|renewables &amp; environment|productivity|clean energy &amp; technology|oil &amp; energy</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -44966,6 +46684,11 @@
           <t>http://www.landeskrankenhaus.at</t>
         </is>
       </c>
+      <c r="Z507" t="inlineStr">
+        <is>
+          <t>hospitals &amp; health care|healthcare services|emergency care|medical facilities|patient support|interdisciplinary teams|nursing care|surgical procedures|rehabilitation services|outpatient services|intensive care|medical training|oncology services|pediatrics|geriatrics|physiotherapy|psychotherapy|drug management|hospital management|medical technology|research &amp; education|clinical trials|health informatics|patient safety|quality management|health policy|carer support|community health programs|health promotion|telemedicine|primary care|patient rights|emergency response|infection control|sustainability in healthcare|accessibility in healthcare|healthcare staffing|medical imaging|pain management|maternity services|outreach services|patient-centered care|disease prevention|corporate healthcare|healthcare cooperation|multidisciplinary care|family-friendly workplace|medical ethics|strategic healthcare planning|clinical guidelines|emotional support services|hospital &amp; health care|health care|health, wellness &amp; fitness|health care information technology</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -45045,6 +46768,11 @@
           <t>http://www.mosdorfer.com</t>
         </is>
       </c>
+      <c r="Z508" t="inlineStr">
+        <is>
+          <t>armaturen fuer hoch|nieder und mittelspannungsleitungen|high voltage fittings|damping systems|overhead line hardware|vibration protection|insulator caps|engineering services|real-time monitoring|line management|temperature measurement|weather conditions|scada integration|cable accessories|protection devices|medium voltage solutions|low voltage hardware|energy distribution|power line construction|custom components|non-insulated overhead lines|electrical accessories|load break switches|high voltage isolators|cable joint boxes|end caps|shrink tubes|monitoring systems|dynamic line ratings|service reliability|energy utilities|railway industry fittings|project management|engineering support|dampers|overhead line systems|international service|long-lasting products|field distance holders|real-time alerts|enterprise solutions|customized service packages|distribution networks|energy transmission|network security|engineering expertise|prevention systems|technical consultancy|global partnerships|quality assurance|training programs|industry solutions|information technology &amp; services|productivity</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -45132,6 +46860,11 @@
           <t>http://www.neveon.com</t>
         </is>
       </c>
+      <c r="Z509" t="inlineStr">
+        <is>
+          <t>chemical manufacturing|flexible foam|composite foams|polyurethane|acoustic insulation|heat insulation|mattress recycling|custom foam solutions|lightweight materials|sustainable products|fire retardant foam|memory foam|high resilience foam|environmental responsibility|breathable foam|dimensional stability|pressure relief|allergy-friendly foams|anti-static foams|recycled materials|mass balance raw materials|certified quality|automotive seating|medical applications|comfort solutions|specialty applications|energy-efficient|packaging solutions|sports flooring|acoustic solutions|upholstered furniture|consumer products|sound absorbers|carrier materials|biological raw materials|humidity regulation|product innovation|iso certifications|high-quality foams|recycling technology|biodegradable materials|design solutions|technical foams|construction materials|filtration solutions|sustainable manufacturing|quality assurance|team collaboration|global presence|chemicals|consumer goods|consumers</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -45219,6 +46952,11 @@
           <t>http://www.energieallianz.com</t>
         </is>
       </c>
+      <c r="Z510" t="inlineStr">
+        <is>
+          <t>energievertrieb|energiehandel|energienahe dienstleistungen|energieeffizienz|renewable energy|electricity distribution|energy supplier|gas trading|energy efficiency|customer service|energy consulting|fixed price models|portfolio management|spot pricing|intraday management|energy audits|market information|sustainable energy|green energy|environmental services|co2-neutral|energy market analysis|business solutions|custom energy plans|electricity supply|tariff models|energy solutions|natural resources|cost-effective solutions|energy procurement|energy transition|energy management|electric power|renewable energy sources|carbon-neutral|energy efficiency consulting|green electricity|supply reliability|renewable certificates|energy optimization|energy consumption|environmentally friendly|sustainable practices|business energy services|energy risk management|competitive pricing|customized solutions|energy transformation|client engagement|market competitiveness|utility services|energy trading|eco-friendly energy|utility management|clean energy &amp; technology|renewables &amp; environment|oil &amp; energy</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -45306,6 +47044,11 @@
           <t>http://www.en-come.com</t>
         </is>
       </c>
+      <c r="Z511" t="inlineStr">
+        <is>
+          <t>services for renewable energy|operations &amp; maintenance|pv power plants|technical asset management|engineering services|consulting services|o&amp;m provider|battery energy storage systems|monitoring system|performance optimization|energy performance|maximizing availability|maximizing production|long-term asset value|health &amp; safety|quality assurance|asset management|monitoring solutions|global engineering services|commercial services|infrastructural services|fault identification|proactive management|investment return|monitoring functions|customizable monitoring|public relations energy|sustainability consulting|energy consulting|project management|integrated solutions|renewable energy management|maintenance strategies|compliance services|technical support|data analysis|energy efficiency|solar energy solutions|market expansion|growth strategy|independent service provider|client partnerships|capacity management|benchmarking services|international operations|power plant management|lifecycle services|spv management|digital services|performance monitoring|renewables &amp; environment|information technology &amp; services|management consulting|productivity|data analytics|environmental services</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -45385,6 +47128,11 @@
           <t>http://www.exelliq.com</t>
         </is>
       </c>
+      <c r="Z512" t="inlineStr">
+        <is>
+          <t>turnkey extrusion plants|extrusion lines|tooling|dies|extruders|mixing|materialhandling|extrusion process consulting|services|digitalization|machinery manufacturing|extrusion|plastic profiles|automation|co-extrusion|performance improvement|energy efficiency|material reduction|in-line quality improvement|production consulting|measurement systems|digi.line|red.line|tec.line|extruder|mixer|turnkey profile service|preventive maintenance|virtual services|replacement parts|service technicians|profile processing|profile measurement|software solutions|process optimization|sustainability|circular economy|energy-saving solutions|material-saving systems|fiber reinforcement|production efficiency|preventive maintenance services|staff training|comprehensive solutions|advanced processes|digitalization in extrusion|industrial automation|customized solutions|extrusion technology|innovation|research &amp; development|opc-ua technology|intelligent construction software|3d simulation|process control|high precision profiles|recycling materials|development center|technical expertise|environmental services|renewables &amp; environment|mechanical or industrial engineering</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -45472,6 +47220,11 @@
           <t>http://www.troteclaser.com</t>
         </is>
       </c>
+      <c r="Z513" t="inlineStr">
+        <is>
+          <t>laserengraving|lasermarking|lasercutting|lasermaterial|co2laser|fiberlaser|largeformatlaser|galvolaser|lasersoftware|ruby|lasercutter|laserengraver|laser|machinery manufacturing|laser cutter|laser engraver|laser marker|ruby laser software|speedy series|r series|q series|speedmarker series|inmarker|vin marker|industrial solutions|laserable materials|data plates|tags|personalization|digital fabrication|automotive marking|medical technology|signage|permanent marking|sustainable marking|educational tools|engraving|acrylic processing|fabric cutting|glass engraving|metal marking|paper processing|plastics cutting|wood laser cutting|stone engraving|mdf cutting|foam cutting|anodized aluminum|stable performance|high precision|fast processing|custom laser solutions|network laser machines|cloud-based solution|laser job preparation|bitmap vectorization|automation in laser|performance tracking|multi-user work|software control|laser training|technical support|remote maintenance|maintenance package|high-speed laser equipment|cutting|industrial marking|laser machines|co2 laser|fiber laser|automation|customization|training &amp; support|technical service|industrial applications|educational institutions|small businesses|global manufacturing|automotive|electronics|medical devices|promotional products|textiles|metalworking|precision|efficiency|versatility|user-friendly|innovation|customer support|sustainability|trocare service package|jobcontrol software|productivity|quality assurance|asset tracking|engraving trophies|plaques|laser technology solutions|computer hardware|hardware|hospital &amp; health care|environmental services|renewables &amp; environment</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -45551,6 +47304,11 @@
           <t>http://www.amex-healthcare.com</t>
         </is>
       </c>
+      <c r="Z514" t="inlineStr">
+        <is>
+          <t>medical equipment|laboratory equipment|consumables|pharmaceuticals|hospitals &amp; health care|healthcare solutions|nonprofit organizations|medical products|laboratory supplies|pharmaceutical products|quality management|iso 9001 certified|gdp compliance|global supply chain|temperature sensitive shipping|hazardous items handling|installation services|training services|maintenance support|humanitarian aid|delivery quality|customer satisfaction|team diversity|experienced workforce|medical logistics|pharmaceutical procurement|supply chain management|after sales support|negotiation with suppliers|multi-stakeholder coordination|field management|quality assurance|end-user focus|project management|healthcare improvement|emergency response|social responsibility|corporate values|ethical management|staff development|multicultural team|digital innovation|remote support|medical equipment supply|tender proposals|global shipping|healthcare projects|educational programs|pharmaceutical regulations|industry standards|medical device industry|public health initiatives|healthcare partnerships|patient care improvement|compliance with laws|medical|hospital &amp; health care|logistics &amp; supply chain|productivity</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
